--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -1088,6 +1088,210 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,  Timothee%Klopfenstein%NULL%1,  Julien%Mercier%NULL%1,  N’dri Juliette%Kadiane-Oussou%NULL%1,  Ludovic%Lan Cheong Wah%NULL%1,  Pierre-Yves%Royer%NULL%1,  Lynda%Toko%NULL%1,  Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+id="Par2"&gt;Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,   Carlos M.%Chiesa-Estomba%NULL%2,   Daniele R.%De Siati%NULL%2,   Mihaela%Horoi%NULL%2,   Serge D.%Le Bon%NULL%2,   Alexandra%Rodriguez%NULL%2,   Didier%Dequanter%NULL%2,   Serge%Blecic%NULL%2,   Fahd%El Afia%NULL%2,   Lea%Distinguin%NULL%2,   Younes%Chekkoury-Idrissi%NULL%2,   Stéphane%Hans%NULL%2,   Irene Lopez%Delgado%NULL%2,   Christian%Calvo-Henriquez%NULL%2,   Philippe%Lavigne%NULL%2,   Chiara%Falanga%NULL%2,   Maria Rosaria%Barillari%NULL%2,   Giovanni%Cammaroto%NULL%2,   Mohamad%Khalife%NULL%2,   Pierre%Leich%NULL%2,   Christel%Souchay%NULL%2,   Camelia%Rossi%NULL%2,   Fabrice%Journe%NULL%2,   Julien%Hsieh%NULL%2,   Myriam%Edjlali%NULL%2,   Robert%Carlier%NULL%2,   Laurence%Ris%NULL%2,   Andrea%Lovato%NULL%2,   Cosimo%De Filippis%NULL%2,   Frederique%Coppee%NULL%2,   Nicolas%Fakhry%NULL%2,   Tareck%Ayad%NULL%2,   Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
+ This topic is currently arousing great interest, and a growing number of papers are being published.
+ Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
+Methods
+id="Par2"&gt;We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
+Results
+id="Par3"&gt;All 100 patients were Caucasian, mean age was 65 years, 60% were males.
+ Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
+ The recovery rate was not significantly different between males and females.
+ The mean duration of OD and GD was 18 and 16 days, respectively.
+ The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
+ Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
+Conclusions
+id="Par4"&gt;Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
+ Chemosensory dysfunctions in women was less frequent, but longer lasting.
+ The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
+</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,   Lorenzo Roberto%Suardi%NULL%2,   Lorenzo Roberto%Suardi%NULL%0,   Michele%Busoni%NULL%1,   Anna Teresa%Roberts%NULL%1,   Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,    Carlos M.%Chiesa-Estomba%NULL%2,    Daniele R.%De Siati%NULL%2,    Mihaela%Horoi%NULL%2,    Serge D.%Le Bon%NULL%2,    Alexandra%Rodriguez%NULL%2,    Didier%Dequanter%NULL%2,    Serge%Blecic%NULL%2,    Fahd%El Afia%NULL%2,    Lea%Distinguin%NULL%2,    Younes%Chekkoury-Idrissi%NULL%2,    Stéphane%Hans%NULL%2,    Irene Lopez%Delgado%NULL%2,    Christian%Calvo-Henriquez%NULL%2,    Philippe%Lavigne%NULL%2,    Chiara%Falanga%NULL%2,    Maria Rosaria%Barillari%NULL%2,    Giovanni%Cammaroto%NULL%2,    Mohamad%Khalife%NULL%2,    Pierre%Leich%NULL%2,    Christel%Souchay%NULL%2,    Camelia%Rossi%NULL%2,    Fabrice%Journe%NULL%2,    Julien%Hsieh%NULL%2,    Myriam%Edjlali%NULL%2,    Robert%Carlier%NULL%2,    Laurence%Ris%NULL%2,    Andrea%Lovato%NULL%2,    Cosimo%De Filippis%NULL%2,    Frederique%Coppee%NULL%2,    Nicolas%Fakhry%NULL%2,    Tareck%Ayad%NULL%2,    Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
+ This topic is currently arousing great interest, and a growing number of papers are being published.
+ Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
+Methods
+We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
+Results
+id="Par3"&gt;All 100 patients were Caucasian, mean age was 65 years, 60% were males.
+ Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
+ The recovery rate was not significantly different between males and females.
+ The mean duration of OD and GD was 18 and 16 days, respectively.
+ The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
+ Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
+Conclusions
+id="Par4"&gt;Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
+ Chemosensory dysfunctions in women was less frequent, but longer lasting.
+ The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
+</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,    Lorenzo Roberto%Suardi%NULL%2,    Lorenzo Roberto%Suardi%NULL%0,    Michele%Busoni%NULL%1,    Anna Teresa%Roberts%NULL%1,    Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,     Carlos M.%Chiesa-Estomba%NULL%2,     Daniele R.%De Siati%NULL%2,     Mihaela%Horoi%NULL%2,     Serge D.%Le Bon%NULL%2,     Alexandra%Rodriguez%NULL%2,     Didier%Dequanter%NULL%2,     Serge%Blecic%NULL%2,     Fahd%El Afia%NULL%2,     Lea%Distinguin%NULL%2,     Younes%Chekkoury-Idrissi%NULL%2,     Stéphane%Hans%NULL%2,     Irene Lopez%Delgado%NULL%2,     Christian%Calvo-Henriquez%NULL%2,     Philippe%Lavigne%NULL%2,     Chiara%Falanga%NULL%2,     Maria Rosaria%Barillari%NULL%2,     Giovanni%Cammaroto%NULL%2,     Mohamad%Khalife%NULL%2,     Pierre%Leich%NULL%2,     Christel%Souchay%NULL%2,     Camelia%Rossi%NULL%2,     Fabrice%Journe%NULL%2,     Julien%Hsieh%NULL%2,     Myriam%Edjlali%NULL%2,     Robert%Carlier%NULL%2,     Laurence%Ris%NULL%2,     Andrea%Lovato%NULL%2,     Cosimo%De Filippis%NULL%2,     Frederique%Coppee%NULL%2,     Nicolas%Fakhry%NULL%2,     Tareck%Ayad%NULL%2,     Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
+ This topic is currently arousing great interest, and a growing number of papers are being published.
+ Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
+Methods
+We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
+Results
+All 100 patients were Caucasian, mean age was 65 years, 60% were males.
+ Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
+ The recovery rate was not significantly different between males and females.
+ The mean duration of OD and GD was 18 and 16 days, respectively.
+ The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
+ Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
+Conclusions
+id="Par4"&gt;Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
+ Chemosensory dysfunctions in women was less frequent, but longer lasting.
+ The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
+</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,     Lorenzo Roberto%Suardi%NULL%2,     Lorenzo Roberto%Suardi%NULL%0,     Michele%Busoni%NULL%1,     Anna Teresa%Roberts%NULL%1,     Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,      Carlos M.%Chiesa-Estomba%NULL%2,      Daniele R.%De Siati%NULL%2,      Mihaela%Horoi%NULL%2,      Serge D.%Le Bon%NULL%2,      Alexandra%Rodriguez%NULL%2,      Didier%Dequanter%NULL%2,      Serge%Blecic%NULL%2,      Fahd%El Afia%NULL%2,      Lea%Distinguin%NULL%2,      Younes%Chekkoury-Idrissi%NULL%2,      Stéphane%Hans%NULL%2,      Irene Lopez%Delgado%NULL%2,      Christian%Calvo-Henriquez%NULL%2,      Philippe%Lavigne%NULL%2,      Chiara%Falanga%NULL%2,      Maria Rosaria%Barillari%NULL%2,      Giovanni%Cammaroto%NULL%2,      Mohamad%Khalife%NULL%2,      Pierre%Leich%NULL%2,      Christel%Souchay%NULL%2,      Camelia%Rossi%NULL%2,      Fabrice%Journe%NULL%2,      Julien%Hsieh%NULL%2,      Myriam%Edjlali%NULL%2,      Robert%Carlier%NULL%2,      Laurence%Ris%NULL%2,      Andrea%Lovato%NULL%2,      Cosimo%De Filippis%NULL%2,      Frederique%Coppee%NULL%2,      Nicolas%Fakhry%NULL%2,      Tareck%Ayad%NULL%2,      Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
+ This topic is currently arousing great interest, and a growing number of papers are being published.
+ Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
+Methods
+We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
+Results
+All 100 patients were Caucasian, mean age was 65 years, 60% were males.
+ Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
+ The recovery rate was not significantly different between males and females.
+ The mean duration of OD and GD was 18 and 16 days, respectively.
+ The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
+ Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
+Conclusions
+Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
+ Chemosensory dysfunctions in women was less frequent, but longer lasting.
+ The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
+</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,      Lorenzo Roberto%Suardi%NULL%2,      Lorenzo Roberto%Suardi%NULL%0,      Michele%Busoni%NULL%1,      Anna Teresa%Roberts%NULL%1,      Alberto%Fortini%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1864,10 +2068,10 @@
         <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2046,10 +2250,10 @@
         <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="245">
   <si>
     <t>Doi</t>
   </si>
@@ -1088,210 +1088,6 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,  Timothee%Klopfenstein%NULL%1,  Julien%Mercier%NULL%1,  N’dri Juliette%Kadiane-Oussou%NULL%1,  Ludovic%Lan Cheong Wah%NULL%1,  Pierre-Yves%Royer%NULL%1,  Lynda%Toko%NULL%1,  Vincent%Gendrin%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-id="Par2"&gt;Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,   Carlos M.%Chiesa-Estomba%NULL%2,   Daniele R.%De Siati%NULL%2,   Mihaela%Horoi%NULL%2,   Serge D.%Le Bon%NULL%2,   Alexandra%Rodriguez%NULL%2,   Didier%Dequanter%NULL%2,   Serge%Blecic%NULL%2,   Fahd%El Afia%NULL%2,   Lea%Distinguin%NULL%2,   Younes%Chekkoury-Idrissi%NULL%2,   Stéphane%Hans%NULL%2,   Irene Lopez%Delgado%NULL%2,   Christian%Calvo-Henriquez%NULL%2,   Philippe%Lavigne%NULL%2,   Chiara%Falanga%NULL%2,   Maria Rosaria%Barillari%NULL%2,   Giovanni%Cammaroto%NULL%2,   Mohamad%Khalife%NULL%2,   Pierre%Leich%NULL%2,   Christel%Souchay%NULL%2,   Camelia%Rossi%NULL%2,   Fabrice%Journe%NULL%2,   Julien%Hsieh%NULL%2,   Myriam%Edjlali%NULL%2,   Robert%Carlier%NULL%2,   Laurence%Ris%NULL%2,   Andrea%Lovato%NULL%2,   Cosimo%De Filippis%NULL%2,   Frederique%Coppee%NULL%2,   Nicolas%Fakhry%NULL%2,   Tareck%Ayad%NULL%2,   Sven%Saussez%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
- This topic is currently arousing great interest, and a growing number of papers are being published.
- Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
-Methods
-id="Par2"&gt;We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
-Results
-id="Par3"&gt;All 100 patients were Caucasian, mean age was 65 years, 60% were males.
- Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
- The recovery rate was not significantly different between males and females.
- The mean duration of OD and GD was 18 and 16 days, respectively.
- The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
- Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
-Conclusions
-id="Par4"&gt;Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
- Chemosensory dysfunctions in women was less frequent, but longer lasting.
- The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
-</t>
-  </si>
-  <si>
-    <t>[Simone%Meini%simonemeini2@gmail.com%1,   Lorenzo Roberto%Suardi%NULL%2,   Lorenzo Roberto%Suardi%NULL%0,   Michele%Busoni%NULL%1,   Anna Teresa%Roberts%NULL%1,   Alberto%Fortini%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,    Carlos M.%Chiesa-Estomba%NULL%2,    Daniele R.%De Siati%NULL%2,    Mihaela%Horoi%NULL%2,    Serge D.%Le Bon%NULL%2,    Alexandra%Rodriguez%NULL%2,    Didier%Dequanter%NULL%2,    Serge%Blecic%NULL%2,    Fahd%El Afia%NULL%2,    Lea%Distinguin%NULL%2,    Younes%Chekkoury-Idrissi%NULL%2,    Stéphane%Hans%NULL%2,    Irene Lopez%Delgado%NULL%2,    Christian%Calvo-Henriquez%NULL%2,    Philippe%Lavigne%NULL%2,    Chiara%Falanga%NULL%2,    Maria Rosaria%Barillari%NULL%2,    Giovanni%Cammaroto%NULL%2,    Mohamad%Khalife%NULL%2,    Pierre%Leich%NULL%2,    Christel%Souchay%NULL%2,    Camelia%Rossi%NULL%2,    Fabrice%Journe%NULL%2,    Julien%Hsieh%NULL%2,    Myriam%Edjlali%NULL%2,    Robert%Carlier%NULL%2,    Laurence%Ris%NULL%2,    Andrea%Lovato%NULL%2,    Cosimo%De Filippis%NULL%2,    Frederique%Coppee%NULL%2,    Nicolas%Fakhry%NULL%2,    Tareck%Ayad%NULL%2,    Sven%Saussez%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
- This topic is currently arousing great interest, and a growing number of papers are being published.
- Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
-Methods
-We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
-Results
-id="Par3"&gt;All 100 patients were Caucasian, mean age was 65 years, 60% were males.
- Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
- The recovery rate was not significantly different between males and females.
- The mean duration of OD and GD was 18 and 16 days, respectively.
- The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
- Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
-Conclusions
-id="Par4"&gt;Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
- Chemosensory dysfunctions in women was less frequent, but longer lasting.
- The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
-</t>
-  </si>
-  <si>
-    <t>[Simone%Meini%simonemeini2@gmail.com%1,    Lorenzo Roberto%Suardi%NULL%2,    Lorenzo Roberto%Suardi%NULL%0,    Michele%Busoni%NULL%1,    Anna Teresa%Roberts%NULL%1,    Alberto%Fortini%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,     Carlos M.%Chiesa-Estomba%NULL%2,     Daniele R.%De Siati%NULL%2,     Mihaela%Horoi%NULL%2,     Serge D.%Le Bon%NULL%2,     Alexandra%Rodriguez%NULL%2,     Didier%Dequanter%NULL%2,     Serge%Blecic%NULL%2,     Fahd%El Afia%NULL%2,     Lea%Distinguin%NULL%2,     Younes%Chekkoury-Idrissi%NULL%2,     Stéphane%Hans%NULL%2,     Irene Lopez%Delgado%NULL%2,     Christian%Calvo-Henriquez%NULL%2,     Philippe%Lavigne%NULL%2,     Chiara%Falanga%NULL%2,     Maria Rosaria%Barillari%NULL%2,     Giovanni%Cammaroto%NULL%2,     Mohamad%Khalife%NULL%2,     Pierre%Leich%NULL%2,     Christel%Souchay%NULL%2,     Camelia%Rossi%NULL%2,     Fabrice%Journe%NULL%2,     Julien%Hsieh%NULL%2,     Myriam%Edjlali%NULL%2,     Robert%Carlier%NULL%2,     Laurence%Ris%NULL%2,     Andrea%Lovato%NULL%2,     Cosimo%De Filippis%NULL%2,     Frederique%Coppee%NULL%2,     Nicolas%Fakhry%NULL%2,     Tareck%Ayad%NULL%2,     Sven%Saussez%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
- This topic is currently arousing great interest, and a growing number of papers are being published.
- Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
-Methods
-We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
-Results
-All 100 patients were Caucasian, mean age was 65 years, 60% were males.
- Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
- The recovery rate was not significantly different between males and females.
- The mean duration of OD and GD was 18 and 16 days, respectively.
- The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
- Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
-Conclusions
-id="Par4"&gt;Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
- Chemosensory dysfunctions in women was less frequent, but longer lasting.
- The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
-</t>
-  </si>
-  <si>
-    <t>[Simone%Meini%simonemeini2@gmail.com%1,     Lorenzo Roberto%Suardi%NULL%2,     Lorenzo Roberto%Suardi%NULL%0,     Michele%Busoni%NULL%1,     Anna Teresa%Roberts%NULL%1,     Alberto%Fortini%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,      Carlos M.%Chiesa-Estomba%NULL%2,      Daniele R.%De Siati%NULL%2,      Mihaela%Horoi%NULL%2,      Serge D.%Le Bon%NULL%2,      Alexandra%Rodriguez%NULL%2,      Didier%Dequanter%NULL%2,      Serge%Blecic%NULL%2,      Fahd%El Afia%NULL%2,      Lea%Distinguin%NULL%2,      Younes%Chekkoury-Idrissi%NULL%2,      Stéphane%Hans%NULL%2,      Irene Lopez%Delgado%NULL%2,      Christian%Calvo-Henriquez%NULL%2,      Philippe%Lavigne%NULL%2,      Chiara%Falanga%NULL%2,      Maria Rosaria%Barillari%NULL%2,      Giovanni%Cammaroto%NULL%2,      Mohamad%Khalife%NULL%2,      Pierre%Leich%NULL%2,      Christel%Souchay%NULL%2,      Camelia%Rossi%NULL%2,      Fabrice%Journe%NULL%2,      Julien%Hsieh%NULL%2,      Myriam%Edjlali%NULL%2,      Robert%Carlier%NULL%2,      Laurence%Ris%NULL%2,      Andrea%Lovato%NULL%2,      Cosimo%De Filippis%NULL%2,      Frederique%Coppee%NULL%2,      Nicolas%Fakhry%NULL%2,      Tareck%Ayad%NULL%2,      Sven%Saussez%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
- This topic is currently arousing great interest, and a growing number of papers are being published.
- Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
-Methods
-We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
-Results
-All 100 patients were Caucasian, mean age was 65 years, 60% were males.
- Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
- The recovery rate was not significantly different between males and females.
- The mean duration of OD and GD was 18 and 16 days, respectively.
- The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
- Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
-Conclusions
-Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
- Chemosensory dysfunctions in women was less frequent, but longer lasting.
- The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
-</t>
-  </si>
-  <si>
-    <t>[Simone%Meini%simonemeini2@gmail.com%1,      Lorenzo Roberto%Suardi%NULL%2,      Lorenzo Roberto%Suardi%NULL%0,      Michele%Busoni%NULL%1,      Anna Teresa%Roberts%NULL%1,      Alberto%Fortini%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2068,10 +1864,10 @@
         <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2250,10 +2046,10 @@
         <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="283">
   <si>
     <t>Doi</t>
   </si>
@@ -1088,6 +1088,120 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,  Timothee%Klopfenstein%NULL%1,  Julien%Mercier%NULL%1,  N’dri Juliette%Kadiane-Oussou%NULL%1,  Ludovic%Lan Cheong Wah%NULL%1,  Pierre-Yves%Royer%NULL%1,  Lynda%Toko%NULL%1,  Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,  Aggarwal%Saurabh%coreGivesNoEmail%1,  Garcia-Telles%Nelson%coreGivesNoEmail%1,  Henry%Brandon Michael%coreGivesNoEmail%1,  Lavie%Carl%coreGivesNoEmail%1,  Lippi%Giuseppe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,   Ana Gabriela Costa%Normando%NULL%1,   Rainier Luiz%Carvalho da Silva%NULL%1,   Renata Monteiro%De Paula%NULL%1,   Allan Christian%Cembranel%NULL%1,   Alan Roger%Santos-Silva%NULL%1,   Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,   J. L.%Chico‐García%NULL%4,   J. L.%Chico‐García%NULL%0,   J.%Martínez‐Poles%NULL%2,   F.%Rodríguez‐Jorge%NULL%2,   E.%Natera‐Villalba%NULL%2,   J.%Gómez‐Corral%NULL%4,   J.%Gómez‐Corral%NULL%0,   A.%Gómez‐López%NULL%2,   E.%Monreal%NULL%2,   P.%Parra‐Díaz%NULL%2,   J. L.%Cortés‐Cuevas%NULL%4,   J. L.%Cortés‐Cuevas%NULL%0,   J. C.%Galán%NULL%2,   C.%Fragola‐Arnau%NULL%2,   J.%Porta‐Etessam%NULL%2,   J.%Masjuan%NULL%2,   A.%Alonso‐Cánovas%NULL%4,   A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,   Paul%Le Turnier%NULL%2,   Charles%Declerck%NULL%2,   Cécile%Paillé%NULL%2,   Matthieu%Revest%NULL%2,   Vincent%Dubée%NULL%2,   Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,   Cédric%Arvieux%NULL%2,   Marion%Baldeyrou%NULL%2,   Jean-Marc%Chapplain%NULL%2,   Pauline%Comacle%NULL%2,   Solène%Patrat-Delon%NULL%2,   Anne%Maillard%NULL%2,   Mélanie%Poinot%NULL%2,   Charlotte%Pronier%NULL%2,   Faouzi%Souala%NULL%2,   Vincent%Thibault%NULL%2,   Pierre%Abgueguen%NULL%2,   Hélène%Cormier%NULL%2,   Valérie%Delbos%NULL%2,   Marine%de la Chapelle%NULL%2,   Alexandra%Ducancelle%NULL%2,   Rafael%Mahieu%NULL%2,   Valérie%Rabier%NULL%2,   Sami%Rehaiem%NULL%2,   Yves%Vandamme%NULL%2,   Charlotte%Biron%NULL%2,   Jeanne%Brochon%NULL%2,   David%Boutoille%NULL%2,   Marie%Chauveau%NULL%2,   Colin%Deschanvres%NULL%2,   Benjamin J%Gaborit%NULL%2,   Joël%Jenvrin%NULL%2,   Raphaël%Lecomte%NULL%0,   Maeva%Lefebvre%NULL%2,   François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%2,    Louis%Valiquette%null%1,    Cynthia%Grenier%null%1,    Jean Berchmans%Musonera%null%1,    Delphin%Nkengurutse%null%1,    Anaïs%Marcil-Héguy%null%1,    Kim%Vettese%null%1,    Dominique%Marcoux%null%1,    Corinne%Valiquette%null%1,    Wei Ting%Xiong%null%1,    Pierre-Hughes%Fortier%null%1,    Mélissa%Généreux%null%1,    Jacques%Pépin%null%1,  Alex%Carignan%null%0,  Louis%Valiquette%null%1,  Cynthia%Grenier%null%1,  Jean Berchmans%Musonera%null%1,  Delphin%Nkengurutse%null%1,  Anaïs%Marcil-Héguy%null%1,  Kim%Vettese%null%1,  Dominique%Marcoux%null%1,  Corinne%Valiquette%null%1,  Wei Ting%Xiong%null%1,  Pierre-Hughes%Fortier%null%1,  Mélissa%Généreux%null%1,  Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,   Hülya%Çaşkurlu%NULL%2,   Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,   Florent%Carsuzaa%NULL%1,   Jean-Paul%Trijolet%NULL%2,   Jean-Paul%Trijolet%NULL%0,   Anne-Laure%Capitaine%NULL%1,   Mariam%Roncato-Saberan%NULL%1,   Kevin%Fouet%NULL%1,   France%Cazenave-Roblot%NULL%1,   Mélanie%Catroux%NULL%1,   Caroline%Allix-Beguec%NULL%1,   Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,  Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,  Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,   Paola%Varese%NULL%2,   Paola%Varese%NULL%0,   Chiara%Dentone%NULL%0,   Emanuela%Barisione%NULL%0,   Matteo%Bassetti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,   Filippo%Farri%NULL%2,   Filippo%Farri%NULL%0,   Giacomo%Garzaro%NULL%1,   Miriam%Gatto%NULL%1,   Paolo%Aluffi Valletti%NULL%1,   Massimiliano%Garzaro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,   Eleonora%Trecca%NULL%1,   Michele%Cassano%NULL%1,   Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,   Laura%Pezzati%NULL%4,   Laura%Pezzati%NULL%0,   Federico%Conti%NULL%2,   Dario%Bernacchia%NULL%3,   Matteo%Siano%NULL%3,   Letizia%Oreni%NULL%3,   Stefano%Rusconi%NULL%3,   Cristina%Gervasoni%NULL%2,   Anna Lisa%Ridolfo%NULL%3,   Giuliano%Rizzardini%NULL%3,   Spinello%Antinori%NULL%3,   Massimo%Galli%NULL%5,   Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,   M.-J.%Kim%NULL%1,   S.H.%Ra%NULL%1,   J.%Lee%NULL%1,   S.%Bae%NULL%1,   J.%Jung%NULL%1,   S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,   N.J.%Kadiane-Oussou%NULL%2,   L.%Toko%NULL%2,   P.-Y.%Royer%NULL%2,   Q.%Lepiller%NULL%2,   V.%Gendrin%NULL%2,   S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,   Anton G. M.%Buiting%NULL%1,   Suzan D.%Pas%NULL%1,   Robbert G.%Bentvelsen%NULL%1,   Wouter%van den Bijllaardt%NULL%1,   Anne J. G.%van Oudheusden%NULL%1,   Miranda M. L.%van Rijen%NULL%1,   Jaco J.%Verweij%NULL%1,   Marion P. G.%Koopmans%NULL%0,   Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,   Elodie%Schneider%NULL%1,   Isabelle%Vianu%NULL%1,   Guillaume%Dollet%NULL%1,   Bastien%Roche%NULL%1,   Julia%Berdah%NULL%1,   Julie%Michel%NULL%1,   Laurent%Goix%NULL%1,   Erick%Chanzy%NULL%1,   Tomislav%Petrovic%NULL%1,   Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,   Carlos M.%Chiesa-Estomba%NULL%2,   Daniele R.%De Siati%NULL%2,   Mihaela%Horoi%NULL%2,   Serge D.%Le Bon%NULL%2,   Alexandra%Rodriguez%NULL%2,   Didier%Dequanter%NULL%2,   Serge%Blecic%NULL%2,   Fahd%El Afia%NULL%2,   Lea%Distinguin%NULL%2,   Younes%Chekkoury-Idrissi%NULL%2,   Stéphane%Hans%NULL%2,   Irene Lopez%Delgado%NULL%2,   Christian%Calvo-Henriquez%NULL%2,   Philippe%Lavigne%NULL%2,   Chiara%Falanga%NULL%2,   Maria Rosaria%Barillari%NULL%2,   Giovanni%Cammaroto%NULL%2,   Mohamad%Khalife%NULL%2,   Pierre%Leich%NULL%2,   Christel%Souchay%NULL%2,   Camelia%Rossi%NULL%2,   Fabrice%Journe%NULL%2,   Julien%Hsieh%NULL%2,   Myriam%Edjlali%NULL%2,   Robert%Carlier%NULL%2,   Laurence%Ris%NULL%2,   Andrea%Lovato%NULL%2,   Cosimo%De Filippis%NULL%2,   Frederique%Coppee%NULL%2,   Nicolas%Fakhry%NULL%2,   Tareck%Ayad%NULL%2,   Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,   Joel%Lockwood%NULL%2,   Joel%Lockwood%NULL%0,   Paul%Das%NULL%1,   Ri%Wang%NULL%1,   Eitan%Grinspun%NULL%1,   John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,   Pokkee%Min%NULL%2,   Pokkee%Min%NULL%0,   Seonggu%Lee%NULL%2,   Seonggu%Lee%NULL%0,   Shin-Woo%Kim%NULL%2,   Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,   Mariangela%Pierantozzi%NULL%1,   Matteo%Spanetta%NULL%1,   Loredana%Sarmati%NULL%1,   Novella%Cesta%NULL%1,   Marco%Iannetta%NULL%1,   Josuel%Ora%NULL%1,   Grazia Genga%Mina%NULL%1,   Ermanno%Puxeddu%NULL%1,   Ottavia%Balbi%NULL%1,   Gabriella%Pezzuto%NULL%1,   Andrea%Magrini%NULL%1,   Paola%Rogliani%NULL%1,   Massimo%Andreoni%NULL%1,   Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,   Juan%Amaro Sánchez%NULL%2,   Juan%Amaro Sánchez%NULL%0,   Antonio Francisco%López‐Sánchez%NULL%1,   Enric%Jané‐Salas%NULL%1,   Maria Luisa%Somacarrera Pérez%NULL%2,   Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,   Lorenzo Roberto%Suardi%NULL%2,   Lorenzo Roberto%Suardi%NULL%0,   Michele%Busoni%NULL%1,   Anna Teresa%Roberts%NULL%1,   Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,   Azad A.%Haleem Al Mezori%NULL%1,   Hakar Mustafa%Mohammed%NULL%1,   Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,   Jin Gu%Yoon%NULL%1,   Hye%Seong%NULL%1,   Won Suk%Choi%NULL%1,   Jang Wook%Sohn%NULL%1,   Hee Jin%Cheong%NULL%1,   Woo Joo%Kim%NULL%1,   Joon Young%Song%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,   Alberto%Schreiber%NULL%1,   Alberto%Grammatica%albertogrammatica@libero.it%1,   Elena%Raffetti%NULL%2,   Elena%Raffetti%NULL%0,   Michele%Tomasoni%NULL%1,   Tommaso%Gualtieri%NULL%1,   Stefano%Taboni%NULL%1,   Silvia%Zorzi%NULL%1,   Davide%Lombardi%NULL%1,   Alberto%Deganello%NULL%1,   Luca Oscar%Redaelli De Zinis%NULL%1,   Roberto%Maroldi%NULL%1,   Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,   E.%Charani%NULL%1,   D.%Ariyanayagam%NULL%1,   A.%Abdulaal%NULL%1,   S.J.%Denny%NULL%1,   N.%Mughal%NULL%1,   L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,   Suko%Adiarto%NULL%1,   Santi Rahayu%Dewayanti%NULL%1,   Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,   Kadriye Kart%Yaşar%NULL%1,   Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,   Rejane Andrade%de Carvalho%NULL%1,   Kalline Andrade%de Carvalho%NULL%1,   Maria Goretti Freire%de Carvalho%NULL%1,   Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,   Thirza%Singer-Cornelius%NULL%1,   Michael%Oberle%NULL%1,   Isabelle%Gengler%NULL%1,   Steffi J.%Brockmeier%NULL%1,   Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,   Andreas%Habertheuer%NULL%2,   Andreas%Habertheuer%NULL%0,   Asad A.%Usman%NULL%2,   Asad A.%Usman%NULL%0,   Arman%Kilic%NULL%1,   Eric%Gnall%NULL%2,   Eric%Gnall%NULL%0,   Michael E.%Friscia%NULL%1,   Dmitriy%Zubkus%NULL%1,   Hitoshi%Hirose%NULL%1,   Pablo%Sanchez%NULL%1,   Olugbenga%Okusanya%NULL%1,   Wilson Y.%Szeto%NULL%1,   Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,   Claire%Hopkins%NULL%2,   Claire%Hopkins%NULL%0,   Giovanni%Salzano%NULL%2,   Marzia%Petrocelli%NULL%2,   Andrea%Melis%NULL%1,   Marco%Cucurullo%NULL%1,   Mario%Ferrari%NULL%1,   Laura%Gagliardini%NULL%1,   Carlotta%Pipolo%NULL%1,   Giovanna%Deiana%NULL%3,   Vito%Fiore%NULL%1,   Andrea%De Vito%NULL%2,   Nicola%Turra%NULL%1,   Sara%Canu%NULL%1,   Angelantonio%Maglio%NULL%1,   Antonello%Serra%NULL%3,   Antonello%Serra%NULL%0,   Francesco%Bussu%NULL%2,   Giordano%Madeddu%NULL%0,   Sergio%Babudieri%NULL%2,   Alessandro%Giuseppe Fois%NULL%1,   Pietro%Pirina%NULL%2,   Francesco A.%Salzano%NULL%1,   Pierluigi%De Riu%NULL%1,   Federico%Biglioli%NULL%1,   Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,   Farhoud%Faraji%NULL%6,   Farhoud%Faraji%NULL%0,   Divya P.%Prajapati%NULL%4,   Benjamin T.%Ostrander%NULL%2,   Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,   Timothee%Klopfenstein%NULL%1,   Julien%Mercier%NULL%1,   N’dri Juliette%Kadiane-Oussou%NULL%1,   Ludovic%Lan Cheong Wah%NULL%1,   Pierre-Yves%Royer%NULL%1,   Lynda%Toko%NULL%1,   Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1410,6 +1524,9 @@
       <c r="H1" t="s">
         <v>56</v>
       </c>
+      <c r="I1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1425,16 +1542,19 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -1451,7 +1571,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -1461,6 +1581,9 @@
       </c>
       <c r="H3" t="s">
         <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4">
@@ -1488,6 +1611,9 @@
       <c r="H4" t="s">
         <v>57</v>
       </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1503,7 +1629,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -1513,6 +1639,9 @@
       </c>
       <c r="H5" t="s">
         <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1529,7 +1658,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -1539,6 +1668,9 @@
       </c>
       <c r="H6" t="s">
         <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7">
@@ -1555,7 +1687,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1565,6 +1697,9 @@
       </c>
       <c r="H7" t="s">
         <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1581,7 +1716,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -1591,6 +1726,9 @@
       </c>
       <c r="H8" t="s">
         <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -1607,7 +1745,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -1617,6 +1755,9 @@
       </c>
       <c r="H9" t="s">
         <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -1633,16 +1774,19 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1659,7 +1803,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -1669,6 +1813,9 @@
       </c>
       <c r="H11" t="s">
         <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="12">
@@ -1685,7 +1832,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -1695,6 +1842,9 @@
       </c>
       <c r="H12" t="s">
         <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13">
@@ -1711,7 +1861,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -1721,6 +1871,9 @@
       </c>
       <c r="H13" t="s">
         <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="14">
@@ -1737,7 +1890,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -1747,6 +1900,9 @@
       </c>
       <c r="H14" t="s">
         <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -1763,7 +1919,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -1773,6 +1929,9 @@
       </c>
       <c r="H15" t="s">
         <v>108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1948,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -1799,6 +1958,9 @@
       </c>
       <c r="H16" t="s">
         <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17">
@@ -1815,7 +1977,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -1825,6 +1987,9 @@
       </c>
       <c r="H17" t="s">
         <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -1841,7 +2006,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -1851,6 +2016,9 @@
       </c>
       <c r="H18" t="s">
         <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="19">
@@ -1867,7 +2035,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -1877,6 +2045,9 @@
       </c>
       <c r="H19" t="s">
         <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="20">
@@ -1893,7 +2064,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -1903,6 +2074,9 @@
       </c>
       <c r="H20" t="s">
         <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="21">
@@ -1919,7 +2093,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -1929,6 +2103,9 @@
       </c>
       <c r="H21" t="s">
         <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="22">
@@ -1956,6 +2133,9 @@
       <c r="H22" t="s">
         <v>57</v>
       </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1971,7 +2151,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -1981,6 +2161,9 @@
       </c>
       <c r="H23" t="s">
         <v>95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="24">
@@ -2008,6 +2191,9 @@
       <c r="H24" t="s">
         <v>57</v>
       </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -2023,7 +2209,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -2033,6 +2219,9 @@
       </c>
       <c r="H25" t="s">
         <v>145</v>
+      </c>
+      <c r="I25" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -2049,7 +2238,7 @@
         <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -2059,6 +2248,9 @@
       </c>
       <c r="H26" t="s">
         <v>150</v>
+      </c>
+      <c r="I26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="27">
@@ -2078,13 +2270,16 @@
         <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -2101,7 +2296,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -2111,6 +2306,9 @@
       </c>
       <c r="H28" t="s">
         <v>155</v>
+      </c>
+      <c r="I28" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -2127,7 +2325,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -2137,6 +2335,9 @@
       </c>
       <c r="H29" t="s">
         <v>160</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30">
@@ -2153,7 +2354,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -2163,6 +2364,9 @@
       </c>
       <c r="H30" t="s">
         <v>165</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -2179,7 +2383,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -2189,6 +2393,9 @@
       </c>
       <c r="H31" t="s">
         <v>170</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="32">
@@ -2205,7 +2412,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -2215,6 +2422,9 @@
       </c>
       <c r="H32" t="s">
         <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="33">
@@ -2242,6 +2452,9 @@
       <c r="H33" t="s">
         <v>57</v>
       </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -2257,7 +2470,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -2267,6 +2480,9 @@
       </c>
       <c r="H34" t="s">
         <v>179</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="35">
@@ -2294,6 +2510,9 @@
       <c r="H35" t="s">
         <v>57</v>
       </c>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2309,7 +2528,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -2319,6 +2538,9 @@
       </c>
       <c r="H36" t="s">
         <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -2335,7 +2557,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -2345,6 +2567,9 @@
       </c>
       <c r="H37" t="s">
         <v>137</v>
+      </c>
+      <c r="I37" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -2361,7 +2586,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -2371,6 +2596,9 @@
       </c>
       <c r="H38" t="s">
         <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="39">
@@ -2387,7 +2615,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -2397,6 +2625,9 @@
       </c>
       <c r="H39" t="s">
         <v>195</v>
+      </c>
+      <c r="I39" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -2413,7 +2644,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -2423,6 +2654,9 @@
       </c>
       <c r="H40" t="s">
         <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="41">
@@ -2439,7 +2673,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>
@@ -2449,6 +2683,9 @@
       </c>
       <c r="H41" t="s">
         <v>204</v>
+      </c>
+      <c r="I41" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="419">
   <si>
     <t>Doi</t>
   </si>
@@ -1202,6 +1202,414 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,   Timothee%Klopfenstein%NULL%1,   Julien%Mercier%NULL%1,   N’dri Juliette%Kadiane-Oussou%NULL%1,   Ludovic%Lan Cheong Wah%NULL%1,   Pierre-Yves%Royer%NULL%1,   Lynda%Toko%NULL%1,   Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,   Aggarwal%Saurabh%coreGivesNoEmail%1,   Garcia-Telles%Nelson%coreGivesNoEmail%1,   Henry%Brandon Michael%coreGivesNoEmail%1,   Lavie%Carl%coreGivesNoEmail%1,   Lippi%Giuseppe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,    Ana Gabriela Costa%Normando%NULL%1,    Rainier Luiz%Carvalho da Silva%NULL%1,    Renata Monteiro%De Paula%NULL%1,    Allan Christian%Cembranel%NULL%1,    Alan Roger%Santos-Silva%NULL%1,    Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,    J. L.%Chico‐García%NULL%4,    J. L.%Chico‐García%NULL%0,    J.%Martínez‐Poles%NULL%2,    F.%Rodríguez‐Jorge%NULL%2,    E.%Natera‐Villalba%NULL%2,    J.%Gómez‐Corral%NULL%4,    J.%Gómez‐Corral%NULL%0,    A.%Gómez‐López%NULL%2,    E.%Monreal%NULL%2,    P.%Parra‐Díaz%NULL%2,    J. L.%Cortés‐Cuevas%NULL%4,    J. L.%Cortés‐Cuevas%NULL%0,    J. C.%Galán%NULL%2,    C.%Fragola‐Arnau%NULL%2,    J.%Porta‐Etessam%NULL%2,    J.%Masjuan%NULL%2,    A.%Alonso‐Cánovas%NULL%4,    A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,    Paul%Le Turnier%NULL%2,    Charles%Declerck%NULL%2,    Cécile%Paillé%NULL%2,    Matthieu%Revest%NULL%2,    Vincent%Dubée%NULL%2,    Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,    Cédric%Arvieux%NULL%2,    Marion%Baldeyrou%NULL%2,    Jean-Marc%Chapplain%NULL%2,    Pauline%Comacle%NULL%2,    Solène%Patrat-Delon%NULL%2,    Anne%Maillard%NULL%2,    Mélanie%Poinot%NULL%2,    Charlotte%Pronier%NULL%2,    Faouzi%Souala%NULL%2,    Vincent%Thibault%NULL%2,    Pierre%Abgueguen%NULL%2,    Hélène%Cormier%NULL%2,    Valérie%Delbos%NULL%2,    Marine%de la Chapelle%NULL%2,    Alexandra%Ducancelle%NULL%2,    Rafael%Mahieu%NULL%2,    Valérie%Rabier%NULL%2,    Sami%Rehaiem%NULL%2,    Yves%Vandamme%NULL%2,    Charlotte%Biron%NULL%2,    Jeanne%Brochon%NULL%2,    David%Boutoille%NULL%2,    Marie%Chauveau%NULL%2,    Colin%Deschanvres%NULL%2,    Benjamin J%Gaborit%NULL%2,    Joël%Jenvrin%NULL%2,    Raphaël%Lecomte%NULL%0,    Maeva%Lefebvre%NULL%2,    François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,     Louis%Valiquette%null%1,     Cynthia%Grenier%null%1,     Jean Berchmans%Musonera%null%1,     Delphin%Nkengurutse%null%1,     Anaïs%Marcil-Héguy%null%1,     Kim%Vettese%null%1,     Dominique%Marcoux%null%1,     Corinne%Valiquette%null%1,     Wei Ting%Xiong%null%1,     Pierre-Hughes%Fortier%null%1,     Mélissa%Généreux%null%1,     Jacques%Pépin%null%1,   Alex%Carignan%null%1,   Louis%Valiquette%null%1,   Cynthia%Grenier%null%1,   Jean Berchmans%Musonera%null%1,   Delphin%Nkengurutse%null%1,   Anaïs%Marcil-Héguy%null%1,   Kim%Vettese%null%1,   Dominique%Marcoux%null%1,   Corinne%Valiquette%null%1,   Wei Ting%Xiong%null%1,   Pierre-Hughes%Fortier%null%1,   Mélissa%Généreux%null%1,   Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,    Hülya%Çaşkurlu%NULL%2,    Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,    Florent%Carsuzaa%NULL%1,    Jean-Paul%Trijolet%NULL%2,    Jean-Paul%Trijolet%NULL%0,    Anne-Laure%Capitaine%NULL%1,    Mariam%Roncato-Saberan%NULL%1,    Kevin%Fouet%NULL%1,    France%Cazenave-Roblot%NULL%1,    Mélanie%Catroux%NULL%1,    Caroline%Allix-Beguec%NULL%1,    Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,   Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,   Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,    Paola%Varese%NULL%2,    Paola%Varese%NULL%0,    Chiara%Dentone%NULL%0,    Emanuela%Barisione%NULL%0,    Matteo%Bassetti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,    Filippo%Farri%NULL%2,    Filippo%Farri%NULL%0,    Giacomo%Garzaro%NULL%1,    Miriam%Gatto%NULL%1,    Paolo%Aluffi Valletti%NULL%1,    Massimiliano%Garzaro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,    Eleonora%Trecca%NULL%1,    Michele%Cassano%NULL%1,    Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,    Laura%Pezzati%NULL%4,    Laura%Pezzati%NULL%0,    Federico%Conti%NULL%2,    Dario%Bernacchia%NULL%3,    Matteo%Siano%NULL%3,    Letizia%Oreni%NULL%3,    Stefano%Rusconi%NULL%3,    Cristina%Gervasoni%NULL%2,    Anna Lisa%Ridolfo%NULL%3,    Giuliano%Rizzardini%NULL%3,    Spinello%Antinori%NULL%3,    Massimo%Galli%NULL%5,    Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,    M.-J.%Kim%NULL%1,    S.H.%Ra%NULL%1,    J.%Lee%NULL%1,    S.%Bae%NULL%1,    J.%Jung%NULL%1,    S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,    N.J.%Kadiane-Oussou%NULL%2,    L.%Toko%NULL%2,    P.-Y.%Royer%NULL%2,    Q.%Lepiller%NULL%2,    V.%Gendrin%NULL%2,    S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,    Anton G. M.%Buiting%NULL%1,    Suzan D.%Pas%NULL%1,    Robbert G.%Bentvelsen%NULL%1,    Wouter%van den Bijllaardt%NULL%1,    Anne J. G.%van Oudheusden%NULL%1,    Miranda M. L.%van Rijen%NULL%1,    Jaco J.%Verweij%NULL%1,    Marion P. G.%Koopmans%NULL%0,    Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,    Elodie%Schneider%NULL%1,    Isabelle%Vianu%NULL%1,    Guillaume%Dollet%NULL%1,    Bastien%Roche%NULL%1,    Julia%Berdah%NULL%1,    Julie%Michel%NULL%1,    Laurent%Goix%NULL%1,    Erick%Chanzy%NULL%1,    Tomislav%Petrovic%NULL%1,    Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,    Carlos M.%Chiesa-Estomba%NULL%2,    Daniele R.%De Siati%NULL%2,    Mihaela%Horoi%NULL%2,    Serge D.%Le Bon%NULL%2,    Alexandra%Rodriguez%NULL%2,    Didier%Dequanter%NULL%2,    Serge%Blecic%NULL%2,    Fahd%El Afia%NULL%2,    Lea%Distinguin%NULL%2,    Younes%Chekkoury-Idrissi%NULL%2,    Stéphane%Hans%NULL%2,    Irene Lopez%Delgado%NULL%2,    Christian%Calvo-Henriquez%NULL%2,    Philippe%Lavigne%NULL%2,    Chiara%Falanga%NULL%2,    Maria Rosaria%Barillari%NULL%2,    Giovanni%Cammaroto%NULL%2,    Mohamad%Khalife%NULL%2,    Pierre%Leich%NULL%2,    Christel%Souchay%NULL%2,    Camelia%Rossi%NULL%2,    Fabrice%Journe%NULL%2,    Julien%Hsieh%NULL%2,    Myriam%Edjlali%NULL%2,    Robert%Carlier%NULL%2,    Laurence%Ris%NULL%2,    Andrea%Lovato%NULL%2,    Cosimo%De Filippis%NULL%2,    Frederique%Coppee%NULL%2,    Nicolas%Fakhry%NULL%2,    Tareck%Ayad%NULL%2,    Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,    Joel%Lockwood%NULL%2,    Joel%Lockwood%NULL%0,    Paul%Das%NULL%1,    Ri%Wang%NULL%1,    Eitan%Grinspun%NULL%1,    John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,    Pokkee%Min%NULL%2,    Pokkee%Min%NULL%0,    Seonggu%Lee%NULL%2,    Seonggu%Lee%NULL%0,    Shin-Woo%Kim%NULL%2,    Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,    Mariangela%Pierantozzi%NULL%1,    Matteo%Spanetta%NULL%1,    Loredana%Sarmati%NULL%1,    Novella%Cesta%NULL%1,    Marco%Iannetta%NULL%1,    Josuel%Ora%NULL%1,    Grazia Genga%Mina%NULL%1,    Ermanno%Puxeddu%NULL%1,    Ottavia%Balbi%NULL%1,    Gabriella%Pezzuto%NULL%1,    Andrea%Magrini%NULL%1,    Paola%Rogliani%NULL%1,    Massimo%Andreoni%NULL%1,    Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,    Juan%Amaro Sánchez%NULL%2,    Juan%Amaro Sánchez%NULL%0,    Antonio Francisco%López‐Sánchez%NULL%1,    Enric%Jané‐Salas%NULL%1,    Maria Luisa%Somacarrera Pérez%NULL%2,    Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,    Lorenzo Roberto%Suardi%NULL%2,    Lorenzo Roberto%Suardi%NULL%0,    Michele%Busoni%NULL%1,    Anna Teresa%Roberts%NULL%1,    Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,    Azad A.%Haleem Al Mezori%NULL%1,    Hakar Mustafa%Mohammed%NULL%1,    Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,    Jin Gu%Yoon%NULL%1,    Hye%Seong%NULL%1,    Won Suk%Choi%NULL%1,    Jang Wook%Sohn%NULL%1,    Hee Jin%Cheong%NULL%1,    Woo Joo%Kim%NULL%1,    Joon Young%Song%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,    Alberto%Schreiber%NULL%1,    Alberto%Grammatica%albertogrammatica@libero.it%1,    Elena%Raffetti%NULL%2,    Elena%Raffetti%NULL%0,    Michele%Tomasoni%NULL%1,    Tommaso%Gualtieri%NULL%1,    Stefano%Taboni%NULL%1,    Silvia%Zorzi%NULL%1,    Davide%Lombardi%NULL%1,    Alberto%Deganello%NULL%1,    Luca Oscar%Redaelli De Zinis%NULL%1,    Roberto%Maroldi%NULL%1,    Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,    E.%Charani%NULL%1,    D.%Ariyanayagam%NULL%1,    A.%Abdulaal%NULL%1,    S.J.%Denny%NULL%1,    N.%Mughal%NULL%1,    L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,    Suko%Adiarto%NULL%1,    Santi Rahayu%Dewayanti%NULL%1,    Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,    Kadriye Kart%Yaşar%NULL%1,    Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,    Rejane Andrade%de Carvalho%NULL%1,    Kalline Andrade%de Carvalho%NULL%1,    Maria Goretti Freire%de Carvalho%NULL%1,    Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,    Thirza%Singer-Cornelius%NULL%1,    Michael%Oberle%NULL%1,    Isabelle%Gengler%NULL%1,    Steffi J.%Brockmeier%NULL%1,    Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,    Andreas%Habertheuer%NULL%2,    Andreas%Habertheuer%NULL%0,    Asad A.%Usman%NULL%2,    Asad A.%Usman%NULL%0,    Arman%Kilic%NULL%1,    Eric%Gnall%NULL%2,    Eric%Gnall%NULL%0,    Michael E.%Friscia%NULL%1,    Dmitriy%Zubkus%NULL%1,    Hitoshi%Hirose%NULL%1,    Pablo%Sanchez%NULL%1,    Olugbenga%Okusanya%NULL%1,    Wilson Y.%Szeto%NULL%1,    Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,    Claire%Hopkins%NULL%2,    Claire%Hopkins%NULL%0,    Giovanni%Salzano%NULL%2,    Marzia%Petrocelli%NULL%2,    Andrea%Melis%NULL%1,    Marco%Cucurullo%NULL%1,    Mario%Ferrari%NULL%1,    Laura%Gagliardini%NULL%1,    Carlotta%Pipolo%NULL%1,    Giovanna%Deiana%NULL%3,    Vito%Fiore%NULL%1,    Andrea%De Vito%NULL%2,    Nicola%Turra%NULL%1,    Sara%Canu%NULL%1,    Angelantonio%Maglio%NULL%1,    Antonello%Serra%NULL%3,    Antonello%Serra%NULL%0,    Francesco%Bussu%NULL%2,    Giordano%Madeddu%NULL%0,    Sergio%Babudieri%NULL%2,    Alessandro%Giuseppe Fois%NULL%1,    Pietro%Pirina%NULL%2,    Francesco A.%Salzano%NULL%1,    Pierluigi%De Riu%NULL%1,    Federico%Biglioli%NULL%1,    Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,    Farhoud%Faraji%NULL%6,    Farhoud%Faraji%NULL%0,    Divya P.%Prajapati%NULL%4,    Benjamin T.%Ostrander%NULL%2,    Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,    Timothee%Klopfenstein%NULL%1,    Julien%Mercier%NULL%1,    N’dri Juliette%Kadiane-Oussou%NULL%1,    Ludovic%Lan Cheong Wah%NULL%1,    Pierre-Yves%Royer%NULL%1,    Lynda%Toko%NULL%1,    Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,    Aggarwal%Saurabh%coreGivesNoEmail%0,    Garcia-Telles%Nelson%coreGivesNoEmail%0,    Henry%Brandon Michael%coreGivesNoEmail%0,    Lavie%Carl%coreGivesNoEmail%0,    Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,     Ana Gabriela Costa%Normando%NULL%1,     Rainier Luiz%Carvalho da Silva%NULL%1,     Renata Monteiro%De Paula%NULL%1,     Allan Christian%Cembranel%NULL%1,     Alan Roger%Santos-Silva%NULL%1,     Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,     J. L.%Chico‐García%NULL%4,     J. L.%Chico‐García%NULL%0,     J.%Martínez‐Poles%NULL%2,     F.%Rodríguez‐Jorge%NULL%2,     E.%Natera‐Villalba%NULL%2,     J.%Gómez‐Corral%NULL%4,     J.%Gómez‐Corral%NULL%0,     A.%Gómez‐López%NULL%2,     E.%Monreal%NULL%2,     P.%Parra‐Díaz%NULL%2,     J. L.%Cortés‐Cuevas%NULL%4,     J. L.%Cortés‐Cuevas%NULL%0,     J. C.%Galán%NULL%2,     C.%Fragola‐Arnau%NULL%2,     J.%Porta‐Etessam%NULL%2,     J.%Masjuan%NULL%2,     A.%Alonso‐Cánovas%NULL%4,     A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,     Paul%Le Turnier%NULL%2,     Charles%Declerck%NULL%2,     Cécile%Paillé%NULL%2,     Matthieu%Revest%NULL%2,     Vincent%Dubée%NULL%2,     Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,     Cédric%Arvieux%NULL%2,     Marion%Baldeyrou%NULL%2,     Jean-Marc%Chapplain%NULL%2,     Pauline%Comacle%NULL%2,     Solène%Patrat-Delon%NULL%2,     Anne%Maillard%NULL%2,     Mélanie%Poinot%NULL%2,     Charlotte%Pronier%NULL%2,     Faouzi%Souala%NULL%2,     Vincent%Thibault%NULL%2,     Pierre%Abgueguen%NULL%2,     Hélène%Cormier%NULL%2,     Valérie%Delbos%NULL%2,     Marine%de la Chapelle%NULL%2,     Alexandra%Ducancelle%NULL%2,     Rafael%Mahieu%NULL%2,     Valérie%Rabier%NULL%2,     Sami%Rehaiem%NULL%2,     Yves%Vandamme%NULL%2,     Charlotte%Biron%NULL%2,     Jeanne%Brochon%NULL%2,     David%Boutoille%NULL%2,     Marie%Chauveau%NULL%2,     Colin%Deschanvres%NULL%2,     Benjamin J%Gaborit%NULL%2,     Joël%Jenvrin%NULL%2,     Raphaël%Lecomte%NULL%0,     Maeva%Lefebvre%NULL%2,     François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,      Louis%Valiquette%null%1,      Cynthia%Grenier%null%1,      Jean Berchmans%Musonera%null%1,      Delphin%Nkengurutse%null%1,      Anaïs%Marcil-Héguy%null%1,      Kim%Vettese%null%1,      Dominique%Marcoux%null%1,      Corinne%Valiquette%null%1,      Wei Ting%Xiong%null%1,      Pierre-Hughes%Fortier%null%1,      Mélissa%Généreux%null%1,      Jacques%Pépin%null%1,    Alex%Carignan%null%1,    Louis%Valiquette%null%1,    Cynthia%Grenier%null%1,    Jean Berchmans%Musonera%null%1,    Delphin%Nkengurutse%null%1,    Anaïs%Marcil-Héguy%null%1,    Kim%Vettese%null%1,    Dominique%Marcoux%null%1,    Corinne%Valiquette%null%1,    Wei Ting%Xiong%null%1,    Pierre-Hughes%Fortier%null%1,    Mélissa%Généreux%null%1,    Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,     Hülya%Çaşkurlu%NULL%2,     Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,     Florent%Carsuzaa%NULL%1,     Jean-Paul%Trijolet%NULL%2,     Jean-Paul%Trijolet%NULL%0,     Anne-Laure%Capitaine%NULL%1,     Mariam%Roncato-Saberan%NULL%1,     Kevin%Fouet%NULL%1,     France%Cazenave-Roblot%NULL%1,     Mélanie%Catroux%NULL%1,     Caroline%Allix-Beguec%NULL%1,     Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,    Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,    Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,     Paola%Varese%NULL%2,     Paola%Varese%NULL%0,     Chiara%Dentone%NULL%1,     Emanuela%Barisione%NULL%1,     Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,     Filippo%Farri%NULL%2,     Filippo%Farri%NULL%0,     Giacomo%Garzaro%NULL%1,     Miriam%Gatto%NULL%1,     Paolo%Aluffi Valletti%NULL%1,     Massimiliano%Garzaro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,     Eleonora%Trecca%NULL%1,     Michele%Cassano%NULL%1,     Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,     Laura%Pezzati%NULL%4,     Laura%Pezzati%NULL%0,     Federico%Conti%NULL%2,     Dario%Bernacchia%NULL%0,     Matteo%Siano%NULL%0,     Letizia%Oreni%NULL%0,     Stefano%Rusconi%NULL%0,     Cristina%Gervasoni%NULL%2,     Anna Lisa%Ridolfo%NULL%0,     Giuliano%Rizzardini%NULL%0,     Spinello%Antinori%NULL%0,     Massimo%Galli%NULL%0,     Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,     M.-J.%Kim%NULL%1,     S.H.%Ra%NULL%1,     J.%Lee%NULL%1,     S.%Bae%NULL%1,     J.%Jung%NULL%1,     S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,     N.J.%Kadiane-Oussou%NULL%2,     L.%Toko%NULL%2,     P.-Y.%Royer%NULL%2,     Q.%Lepiller%NULL%2,     V.%Gendrin%NULL%2,     S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,     Anton G. M.%Buiting%NULL%1,     Suzan D.%Pas%NULL%1,     Robbert G.%Bentvelsen%NULL%1,     Wouter%van den Bijllaardt%NULL%1,     Anne J. G.%van Oudheusden%NULL%1,     Miranda M. L.%van Rijen%NULL%1,     Jaco J.%Verweij%NULL%1,     Marion P. G.%Koopmans%NULL%0,     Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,     Elodie%Schneider%NULL%1,     Isabelle%Vianu%NULL%1,     Guillaume%Dollet%NULL%1,     Bastien%Roche%NULL%1,     Julia%Berdah%NULL%1,     Julie%Michel%NULL%1,     Laurent%Goix%NULL%1,     Erick%Chanzy%NULL%1,     Tomislav%Petrovic%NULL%1,     Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,     Carlos M.%Chiesa-Estomba%NULL%2,     Daniele R.%De Siati%NULL%2,     Mihaela%Horoi%NULL%2,     Serge D.%Le Bon%NULL%2,     Alexandra%Rodriguez%NULL%2,     Didier%Dequanter%NULL%2,     Serge%Blecic%NULL%2,     Fahd%El Afia%NULL%2,     Lea%Distinguin%NULL%2,     Younes%Chekkoury-Idrissi%NULL%2,     Stéphane%Hans%NULL%2,     Irene Lopez%Delgado%NULL%2,     Christian%Calvo-Henriquez%NULL%2,     Philippe%Lavigne%NULL%2,     Chiara%Falanga%NULL%2,     Maria Rosaria%Barillari%NULL%2,     Giovanni%Cammaroto%NULL%2,     Mohamad%Khalife%NULL%2,     Pierre%Leich%NULL%2,     Christel%Souchay%NULL%2,     Camelia%Rossi%NULL%2,     Fabrice%Journe%NULL%2,     Julien%Hsieh%NULL%2,     Myriam%Edjlali%NULL%2,     Robert%Carlier%NULL%2,     Laurence%Ris%NULL%2,     Andrea%Lovato%NULL%2,     Cosimo%De Filippis%NULL%2,     Frederique%Coppee%NULL%2,     Nicolas%Fakhry%NULL%2,     Tareck%Ayad%NULL%2,     Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,     Joel%Lockwood%NULL%2,     Joel%Lockwood%NULL%0,     Paul%Das%NULL%1,     Ri%Wang%NULL%1,     Eitan%Grinspun%NULL%1,     John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,     Pokkee%Min%NULL%2,     Pokkee%Min%NULL%0,     Seonggu%Lee%NULL%2,     Seonggu%Lee%NULL%0,     Shin-Woo%Kim%NULL%2,     Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,     Mariangela%Pierantozzi%NULL%1,     Matteo%Spanetta%NULL%1,     Loredana%Sarmati%NULL%1,     Novella%Cesta%NULL%1,     Marco%Iannetta%NULL%1,     Josuel%Ora%NULL%1,     Grazia Genga%Mina%NULL%1,     Ermanno%Puxeddu%NULL%1,     Ottavia%Balbi%NULL%1,     Gabriella%Pezzuto%NULL%1,     Andrea%Magrini%NULL%1,     Paola%Rogliani%NULL%1,     Massimo%Andreoni%NULL%1,     Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,     Juan%Amaro Sánchez%NULL%2,     Juan%Amaro Sánchez%NULL%0,     Antonio Francisco%López‐Sánchez%NULL%1,     Enric%Jané‐Salas%NULL%1,     Maria Luisa%Somacarrera Pérez%NULL%2,     Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,     Lorenzo Roberto%Suardi%NULL%2,     Lorenzo Roberto%Suardi%NULL%0,     Michele%Busoni%NULL%1,     Anna Teresa%Roberts%NULL%1,     Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,     Azad A.%Haleem Al Mezori%NULL%1,     Hakar Mustafa%Mohammed%NULL%1,     Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,     Jin Gu%Yoon%NULL%1,     Hye%Seong%NULL%1,     Won Suk%Choi%NULL%1,     Jang Wook%Sohn%NULL%1,     Hee Jin%Cheong%NULL%1,     Woo Joo%Kim%NULL%1,     Joon Young%Song%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,     Alberto%Schreiber%NULL%1,     Alberto%Grammatica%albertogrammatica@libero.it%1,     Elena%Raffetti%NULL%2,     Elena%Raffetti%NULL%0,     Michele%Tomasoni%NULL%1,     Tommaso%Gualtieri%NULL%1,     Stefano%Taboni%NULL%1,     Silvia%Zorzi%NULL%1,     Davide%Lombardi%NULL%1,     Alberto%Deganello%NULL%1,     Luca Oscar%Redaelli De Zinis%NULL%1,     Roberto%Maroldi%NULL%1,     Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,     E.%Charani%NULL%1,     D.%Ariyanayagam%NULL%1,     A.%Abdulaal%NULL%1,     S.J.%Denny%NULL%1,     N.%Mughal%NULL%1,     L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,     Suko%Adiarto%NULL%1,     Santi Rahayu%Dewayanti%NULL%1,     Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,     Kadriye Kart%Yaşar%NULL%1,     Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,     Rejane Andrade%de Carvalho%NULL%1,     Kalline Andrade%de Carvalho%NULL%1,     Maria Goretti Freire%de Carvalho%NULL%1,     Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,     Thirza%Singer-Cornelius%NULL%1,     Michael%Oberle%NULL%1,     Isabelle%Gengler%NULL%1,     Steffi J.%Brockmeier%NULL%1,     Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,     Andreas%Habertheuer%NULL%2,     Andreas%Habertheuer%NULL%0,     Asad A.%Usman%NULL%2,     Asad A.%Usman%NULL%0,     Arman%Kilic%NULL%1,     Eric%Gnall%NULL%2,     Eric%Gnall%NULL%0,     Michael E.%Friscia%NULL%1,     Dmitriy%Zubkus%NULL%1,     Hitoshi%Hirose%NULL%1,     Pablo%Sanchez%NULL%1,     Olugbenga%Okusanya%NULL%1,     Wilson Y.%Szeto%NULL%1,     Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,     Claire%Hopkins%NULL%2,     Claire%Hopkins%NULL%0,     Giovanni%Salzano%NULL%2,     Marzia%Petrocelli%NULL%2,     Andrea%Melis%NULL%1,     Marco%Cucurullo%NULL%1,     Mario%Ferrari%NULL%1,     Laura%Gagliardini%NULL%1,     Carlotta%Pipolo%NULL%1,     Giovanna%Deiana%NULL%3,     Vito%Fiore%NULL%1,     Andrea%De Vito%NULL%2,     Nicola%Turra%NULL%1,     Sara%Canu%NULL%1,     Angelantonio%Maglio%NULL%1,     Antonello%Serra%NULL%3,     Antonello%Serra%NULL%0,     Francesco%Bussu%NULL%2,     Giordano%Madeddu%NULL%0,     Sergio%Babudieri%NULL%2,     Alessandro%Giuseppe Fois%NULL%1,     Pietro%Pirina%NULL%2,     Francesco A.%Salzano%NULL%1,     Pierluigi%De Riu%NULL%1,     Federico%Biglioli%NULL%1,     Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,     Farhoud%Faraji%NULL%6,     Farhoud%Faraji%NULL%0,     Divya P.%Prajapati%NULL%4,     Benjamin T.%Ostrander%NULL%2,     Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,     Timothee%Klopfenstein%NULL%1,     Julien%Mercier%NULL%1,     N’dri Juliette%Kadiane-Oussou%NULL%1,     Ludovic%Lan Cheong Wah%NULL%1,     Pierre-Yves%Royer%NULL%1,     Lynda%Toko%NULL%1,     Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,     Aggarwal%Saurabh%coreGivesNoEmail%0,     Garcia-Telles%Nelson%coreGivesNoEmail%0,     Henry%Brandon Michael%coreGivesNoEmail%0,     Lavie%Carl%coreGivesNoEmail%0,     Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,      Ana Gabriela Costa%Normando%NULL%1,      Rainier Luiz%Carvalho da Silva%NULL%1,      Renata Monteiro%De Paula%NULL%1,      Allan Christian%Cembranel%NULL%1,      Alan Roger%Santos-Silva%NULL%1,      Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,      J. L.%Chico‐García%NULL%4,      J. L.%Chico‐García%NULL%0,      J.%Martínez‐Poles%NULL%2,      F.%Rodríguez‐Jorge%NULL%2,      E.%Natera‐Villalba%NULL%2,      J.%Gómez‐Corral%NULL%4,      J.%Gómez‐Corral%NULL%0,      A.%Gómez‐López%NULL%2,      E.%Monreal%NULL%2,      P.%Parra‐Díaz%NULL%2,      J. L.%Cortés‐Cuevas%NULL%4,      J. L.%Cortés‐Cuevas%NULL%0,      J. C.%Galán%NULL%2,      C.%Fragola‐Arnau%NULL%2,      J.%Porta‐Etessam%NULL%2,      J.%Masjuan%NULL%2,      A.%Alonso‐Cánovas%NULL%4,      A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,      Paul%Le Turnier%NULL%2,      Charles%Declerck%NULL%2,      Cécile%Paillé%NULL%2,      Matthieu%Revest%NULL%2,      Vincent%Dubée%NULL%2,      Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,      Cédric%Arvieux%NULL%2,      Marion%Baldeyrou%NULL%2,      Jean-Marc%Chapplain%NULL%2,      Pauline%Comacle%NULL%2,      Solène%Patrat-Delon%NULL%2,      Anne%Maillard%NULL%2,      Mélanie%Poinot%NULL%2,      Charlotte%Pronier%NULL%2,      Faouzi%Souala%NULL%2,      Vincent%Thibault%NULL%2,      Pierre%Abgueguen%NULL%2,      Hélène%Cormier%NULL%2,      Valérie%Delbos%NULL%2,      Marine%de la Chapelle%NULL%2,      Alexandra%Ducancelle%NULL%2,      Rafael%Mahieu%NULL%2,      Valérie%Rabier%NULL%2,      Sami%Rehaiem%NULL%2,      Yves%Vandamme%NULL%2,      Charlotte%Biron%NULL%2,      Jeanne%Brochon%NULL%2,      David%Boutoille%NULL%2,      Marie%Chauveau%NULL%2,      Colin%Deschanvres%NULL%2,      Benjamin J%Gaborit%NULL%2,      Joël%Jenvrin%NULL%2,      Raphaël%Lecomte%NULL%0,      Maeva%Lefebvre%NULL%2,      François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,       Louis%Valiquette%null%1,       Cynthia%Grenier%null%1,       Jean Berchmans%Musonera%null%1,       Delphin%Nkengurutse%null%1,       Anaïs%Marcil-Héguy%null%1,       Kim%Vettese%null%1,       Dominique%Marcoux%null%1,       Corinne%Valiquette%null%1,       Wei Ting%Xiong%null%1,       Pierre-Hughes%Fortier%null%1,       Mélissa%Généreux%null%1,       Jacques%Pépin%null%1,     Alex%Carignan%null%1,     Louis%Valiquette%null%1,     Cynthia%Grenier%null%1,     Jean Berchmans%Musonera%null%1,     Delphin%Nkengurutse%null%1,     Anaïs%Marcil-Héguy%null%1,     Kim%Vettese%null%1,     Dominique%Marcoux%null%1,     Corinne%Valiquette%null%1,     Wei Ting%Xiong%null%1,     Pierre-Hughes%Fortier%null%1,     Mélissa%Généreux%null%1,     Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,      Hülya%Çaşkurlu%NULL%2,      Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,      Florent%Carsuzaa%NULL%1,      Jean-Paul%Trijolet%NULL%2,      Jean-Paul%Trijolet%NULL%0,      Anne-Laure%Capitaine%NULL%1,      Mariam%Roncato-Saberan%NULL%1,      Kevin%Fouet%NULL%1,      France%Cazenave-Roblot%NULL%1,      Mélanie%Catroux%NULL%1,      Caroline%Allix-Beguec%NULL%1,      Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,     Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,     Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,      Paola%Varese%NULL%2,      Paola%Varese%NULL%0,      Chiara%Dentone%NULL%1,      Emanuela%Barisione%NULL%1,      Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,      Filippo%Farri%NULL%2,      Filippo%Farri%NULL%0,      Giacomo%Garzaro%NULL%1,      Miriam%Gatto%NULL%1,      Paolo%Aluffi Valletti%NULL%1,      Massimiliano%Garzaro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,      Eleonora%Trecca%NULL%1,      Michele%Cassano%NULL%1,      Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,      Laura%Pezzati%NULL%4,      Laura%Pezzati%NULL%0,      Federico%Conti%NULL%2,      Dario%Bernacchia%NULL%0,      Matteo%Siano%NULL%0,      Letizia%Oreni%NULL%0,      Stefano%Rusconi%NULL%0,      Cristina%Gervasoni%NULL%2,      Anna Lisa%Ridolfo%NULL%0,      Giuliano%Rizzardini%NULL%0,      Spinello%Antinori%NULL%0,      Massimo%Galli%NULL%0,      Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,      M.-J.%Kim%NULL%1,      S.H.%Ra%NULL%1,      J.%Lee%NULL%1,      S.%Bae%NULL%1,      J.%Jung%NULL%1,      S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,      N.J.%Kadiane-Oussou%NULL%2,      L.%Toko%NULL%2,      P.-Y.%Royer%NULL%2,      Q.%Lepiller%NULL%2,      V.%Gendrin%NULL%2,      S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,      Anton G. M.%Buiting%NULL%1,      Suzan D.%Pas%NULL%1,      Robbert G.%Bentvelsen%NULL%1,      Wouter%van den Bijllaardt%NULL%1,      Anne J. G.%van Oudheusden%NULL%1,      Miranda M. L.%van Rijen%NULL%1,      Jaco J.%Verweij%NULL%1,      Marion P. G.%Koopmans%NULL%0,      Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,      Elodie%Schneider%NULL%1,      Isabelle%Vianu%NULL%1,      Guillaume%Dollet%NULL%1,      Bastien%Roche%NULL%1,      Julia%Berdah%NULL%1,      Julie%Michel%NULL%1,      Laurent%Goix%NULL%1,      Erick%Chanzy%NULL%1,      Tomislav%Petrovic%NULL%1,      Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,      Carlos M.%Chiesa-Estomba%NULL%2,      Daniele R.%De Siati%NULL%2,      Mihaela%Horoi%NULL%2,      Serge D.%Le Bon%NULL%2,      Alexandra%Rodriguez%NULL%2,      Didier%Dequanter%NULL%2,      Serge%Blecic%NULL%2,      Fahd%El Afia%NULL%2,      Lea%Distinguin%NULL%2,      Younes%Chekkoury-Idrissi%NULL%2,      Stéphane%Hans%NULL%2,      Irene Lopez%Delgado%NULL%2,      Christian%Calvo-Henriquez%NULL%2,      Philippe%Lavigne%NULL%2,      Chiara%Falanga%NULL%2,      Maria Rosaria%Barillari%NULL%2,      Giovanni%Cammaroto%NULL%2,      Mohamad%Khalife%NULL%2,      Pierre%Leich%NULL%2,      Christel%Souchay%NULL%2,      Camelia%Rossi%NULL%2,      Fabrice%Journe%NULL%2,      Julien%Hsieh%NULL%2,      Myriam%Edjlali%NULL%2,      Robert%Carlier%NULL%2,      Laurence%Ris%NULL%2,      Andrea%Lovato%NULL%2,      Cosimo%De Filippis%NULL%2,      Frederique%Coppee%NULL%2,      Nicolas%Fakhry%NULL%2,      Tareck%Ayad%NULL%2,      Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,      Joel%Lockwood%NULL%2,      Joel%Lockwood%NULL%0,      Paul%Das%NULL%1,      Ri%Wang%NULL%1,      Eitan%Grinspun%NULL%1,      John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,      Pokkee%Min%NULL%2,      Pokkee%Min%NULL%0,      Seonggu%Lee%NULL%2,      Seonggu%Lee%NULL%0,      Shin-Woo%Kim%NULL%2,      Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,      Mariangela%Pierantozzi%NULL%1,      Matteo%Spanetta%NULL%1,      Loredana%Sarmati%NULL%1,      Novella%Cesta%NULL%1,      Marco%Iannetta%NULL%1,      Josuel%Ora%NULL%1,      Grazia Genga%Mina%NULL%1,      Ermanno%Puxeddu%NULL%1,      Ottavia%Balbi%NULL%1,      Gabriella%Pezzuto%NULL%1,      Andrea%Magrini%NULL%1,      Paola%Rogliani%NULL%1,      Massimo%Andreoni%NULL%1,      Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,      Juan%Amaro Sánchez%NULL%2,      Juan%Amaro Sánchez%NULL%0,      Antonio Francisco%López‐Sánchez%NULL%1,      Enric%Jané‐Salas%NULL%1,      Maria Luisa%Somacarrera Pérez%NULL%2,      Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,      Lorenzo Roberto%Suardi%NULL%2,      Lorenzo Roberto%Suardi%NULL%0,      Michele%Busoni%NULL%1,      Anna Teresa%Roberts%NULL%1,      Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,      Azad A.%Haleem Al Mezori%NULL%1,      Hakar Mustafa%Mohammed%NULL%1,      Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,      Jin Gu%Yoon%NULL%1,      Hye%Seong%NULL%1,      Won Suk%Choi%NULL%1,      Jang Wook%Sohn%NULL%1,      Hee Jin%Cheong%NULL%1,      Woo Joo%Kim%NULL%1,      Joon Young%Song%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,      Alberto%Schreiber%NULL%1,      Alberto%Grammatica%albertogrammatica@libero.it%1,      Elena%Raffetti%NULL%2,      Elena%Raffetti%NULL%0,      Michele%Tomasoni%NULL%1,      Tommaso%Gualtieri%NULL%1,      Stefano%Taboni%NULL%1,      Silvia%Zorzi%NULL%1,      Davide%Lombardi%NULL%1,      Alberto%Deganello%NULL%1,      Luca Oscar%Redaelli De Zinis%NULL%1,      Roberto%Maroldi%NULL%1,      Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,      E.%Charani%NULL%1,      D.%Ariyanayagam%NULL%1,      A.%Abdulaal%NULL%1,      S.J.%Denny%NULL%1,      N.%Mughal%NULL%1,      L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,      Suko%Adiarto%NULL%1,      Santi Rahayu%Dewayanti%NULL%1,      Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,      Kadriye Kart%Yaşar%NULL%1,      Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,      Rejane Andrade%de Carvalho%NULL%1,      Kalline Andrade%de Carvalho%NULL%1,      Maria Goretti Freire%de Carvalho%NULL%1,      Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,      Thirza%Singer-Cornelius%NULL%1,      Michael%Oberle%NULL%1,      Isabelle%Gengler%NULL%1,      Steffi J.%Brockmeier%NULL%1,      Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,      Andreas%Habertheuer%NULL%2,      Andreas%Habertheuer%NULL%0,      Asad A.%Usman%NULL%2,      Asad A.%Usman%NULL%0,      Arman%Kilic%NULL%1,      Eric%Gnall%NULL%2,      Eric%Gnall%NULL%0,      Michael E.%Friscia%NULL%1,      Dmitriy%Zubkus%NULL%1,      Hitoshi%Hirose%NULL%1,      Pablo%Sanchez%NULL%1,      Olugbenga%Okusanya%NULL%1,      Wilson Y.%Szeto%NULL%1,      Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,      Claire%Hopkins%NULL%2,      Claire%Hopkins%NULL%0,      Giovanni%Salzano%NULL%2,      Marzia%Petrocelli%NULL%2,      Andrea%Melis%NULL%1,      Marco%Cucurullo%NULL%1,      Mario%Ferrari%NULL%1,      Laura%Gagliardini%NULL%1,      Carlotta%Pipolo%NULL%1,      Giovanna%Deiana%NULL%3,      Vito%Fiore%NULL%1,      Andrea%De Vito%NULL%2,      Nicola%Turra%NULL%1,      Sara%Canu%NULL%1,      Angelantonio%Maglio%NULL%1,      Antonello%Serra%NULL%3,      Antonello%Serra%NULL%0,      Francesco%Bussu%NULL%2,      Giordano%Madeddu%NULL%0,      Sergio%Babudieri%NULL%2,      Alessandro%Giuseppe Fois%NULL%1,      Pietro%Pirina%NULL%2,      Francesco A.%Salzano%NULL%1,      Pierluigi%De Riu%NULL%1,      Federico%Biglioli%NULL%1,      Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,      Farhoud%Faraji%NULL%6,      Farhoud%Faraji%NULL%0,      Divya P.%Prajapati%NULL%4,      Benjamin T.%Ostrander%NULL%2,      Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,      Timothee%Klopfenstein%NULL%1,      Julien%Mercier%NULL%1,      N’dri Juliette%Kadiane-Oussou%NULL%1,      Ludovic%Lan Cheong Wah%NULL%1,      Pierre-Yves%Royer%NULL%1,      Lynda%Toko%NULL%1,      Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,      Aggarwal%Saurabh%coreGivesNoEmail%0,      Garcia-Telles%Nelson%coreGivesNoEmail%0,      Henry%Brandon Michael%coreGivesNoEmail%0,      Lavie%Carl%coreGivesNoEmail%0,      Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,       Ana Gabriela Costa%Normando%NULL%1,       Rainier Luiz%Carvalho da Silva%NULL%1,       Renata Monteiro%De Paula%NULL%1,       Allan Christian%Cembranel%NULL%1,       Alan Roger%Santos-Silva%NULL%1,       Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,       J. L.%Chico‐García%NULL%4,       J. L.%Chico‐García%NULL%0,       J.%Martínez‐Poles%NULL%2,       F.%Rodríguez‐Jorge%NULL%2,       E.%Natera‐Villalba%NULL%2,       J.%Gómez‐Corral%NULL%4,       J.%Gómez‐Corral%NULL%0,       A.%Gómez‐López%NULL%2,       E.%Monreal%NULL%2,       P.%Parra‐Díaz%NULL%2,       J. L.%Cortés‐Cuevas%NULL%4,       J. L.%Cortés‐Cuevas%NULL%0,       J. C.%Galán%NULL%2,       C.%Fragola‐Arnau%NULL%2,       J.%Porta‐Etessam%NULL%2,       J.%Masjuan%NULL%2,       A.%Alonso‐Cánovas%NULL%4,       A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,       Paul%Le Turnier%NULL%2,       Charles%Declerck%NULL%2,       Cécile%Paillé%NULL%2,       Matthieu%Revest%NULL%2,       Vincent%Dubée%NULL%2,       Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,       Cédric%Arvieux%NULL%2,       Marion%Baldeyrou%NULL%2,       Jean-Marc%Chapplain%NULL%2,       Pauline%Comacle%NULL%2,       Solène%Patrat-Delon%NULL%2,       Anne%Maillard%NULL%2,       Mélanie%Poinot%NULL%2,       Charlotte%Pronier%NULL%2,       Faouzi%Souala%NULL%2,       Vincent%Thibault%NULL%2,       Pierre%Abgueguen%NULL%2,       Hélène%Cormier%NULL%2,       Valérie%Delbos%NULL%2,       Marine%de la Chapelle%NULL%2,       Alexandra%Ducancelle%NULL%2,       Rafael%Mahieu%NULL%2,       Valérie%Rabier%NULL%2,       Sami%Rehaiem%NULL%2,       Yves%Vandamme%NULL%2,       Charlotte%Biron%NULL%2,       Jeanne%Brochon%NULL%2,       David%Boutoille%NULL%2,       Marie%Chauveau%NULL%2,       Colin%Deschanvres%NULL%2,       Benjamin J%Gaborit%NULL%2,       Joël%Jenvrin%NULL%2,       Raphaël%Lecomte%NULL%0,       Maeva%Lefebvre%NULL%2,       François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,        Louis%Valiquette%null%1,        Cynthia%Grenier%null%1,        Jean Berchmans%Musonera%null%1,        Delphin%Nkengurutse%null%1,        Anaïs%Marcil-Héguy%null%1,        Kim%Vettese%null%1,        Dominique%Marcoux%null%1,        Corinne%Valiquette%null%1,        Wei Ting%Xiong%null%1,        Pierre-Hughes%Fortier%null%1,        Mélissa%Généreux%null%1,        Jacques%Pépin%null%1,      Alex%Carignan%null%1,      Louis%Valiquette%null%1,      Cynthia%Grenier%null%1,      Jean Berchmans%Musonera%null%1,      Delphin%Nkengurutse%null%1,      Anaïs%Marcil-Héguy%null%1,      Kim%Vettese%null%1,      Dominique%Marcoux%null%1,      Corinne%Valiquette%null%1,      Wei Ting%Xiong%null%1,      Pierre-Hughes%Fortier%null%1,      Mélissa%Généreux%null%1,      Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,       Hülya%Çaşkurlu%NULL%2,       Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,       Florent%Carsuzaa%NULL%1,       Jean-Paul%Trijolet%NULL%2,       Jean-Paul%Trijolet%NULL%0,       Anne-Laure%Capitaine%NULL%1,       Mariam%Roncato-Saberan%NULL%1,       Kevin%Fouet%NULL%1,       France%Cazenave-Roblot%NULL%1,       Mélanie%Catroux%NULL%1,       Caroline%Allix-Beguec%NULL%1,       Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,      Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,      Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,       Paola%Varese%NULL%2,       Paola%Varese%NULL%0,       Chiara%Dentone%NULL%1,       Emanuela%Barisione%NULL%1,       Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,       Filippo%Farri%NULL%2,       Filippo%Farri%NULL%0,       Giacomo%Garzaro%NULL%1,       Miriam%Gatto%NULL%1,       Paolo%Aluffi Valletti%NULL%1,       Massimiliano%Garzaro%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,       Eleonora%Trecca%NULL%1,       Michele%Cassano%NULL%1,       Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,       Laura%Pezzati%NULL%4,       Laura%Pezzati%NULL%0,       Federico%Conti%NULL%2,       Dario%Bernacchia%NULL%0,       Matteo%Siano%NULL%0,       Letizia%Oreni%NULL%0,       Stefano%Rusconi%NULL%0,       Cristina%Gervasoni%NULL%2,       Anna Lisa%Ridolfo%NULL%0,       Giuliano%Rizzardini%NULL%0,       Spinello%Antinori%NULL%0,       Massimo%Galli%NULL%0,       Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,       M.-J.%Kim%NULL%1,       S.H.%Ra%NULL%1,       J.%Lee%NULL%1,       S.%Bae%NULL%1,       J.%Jung%NULL%1,       S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,       N.J.%Kadiane-Oussou%NULL%2,       L.%Toko%NULL%2,       P.-Y.%Royer%NULL%2,       Q.%Lepiller%NULL%2,       V.%Gendrin%NULL%2,       S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,       Anton G. M.%Buiting%NULL%1,       Suzan D.%Pas%NULL%1,       Robbert G.%Bentvelsen%NULL%1,       Wouter%van den Bijllaardt%NULL%1,       Anne J. G.%van Oudheusden%NULL%1,       Miranda M. L.%van Rijen%NULL%1,       Jaco J.%Verweij%NULL%1,       Marion P. G.%Koopmans%NULL%0,       Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,       Elodie%Schneider%NULL%1,       Isabelle%Vianu%NULL%1,       Guillaume%Dollet%NULL%1,       Bastien%Roche%NULL%1,       Julia%Berdah%NULL%1,       Julie%Michel%NULL%1,       Laurent%Goix%NULL%1,       Erick%Chanzy%NULL%1,       Tomislav%Petrovic%NULL%1,       Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,       Carlos M.%Chiesa-Estomba%NULL%2,       Daniele R.%De Siati%NULL%2,       Mihaela%Horoi%NULL%2,       Serge D.%Le Bon%NULL%2,       Alexandra%Rodriguez%NULL%2,       Didier%Dequanter%NULL%2,       Serge%Blecic%NULL%2,       Fahd%El Afia%NULL%2,       Lea%Distinguin%NULL%2,       Younes%Chekkoury-Idrissi%NULL%2,       Stéphane%Hans%NULL%2,       Irene Lopez%Delgado%NULL%2,       Christian%Calvo-Henriquez%NULL%2,       Philippe%Lavigne%NULL%2,       Chiara%Falanga%NULL%2,       Maria Rosaria%Barillari%NULL%2,       Giovanni%Cammaroto%NULL%2,       Mohamad%Khalife%NULL%2,       Pierre%Leich%NULL%2,       Christel%Souchay%NULL%2,       Camelia%Rossi%NULL%2,       Fabrice%Journe%NULL%2,       Julien%Hsieh%NULL%2,       Myriam%Edjlali%NULL%2,       Robert%Carlier%NULL%2,       Laurence%Ris%NULL%2,       Andrea%Lovato%NULL%2,       Cosimo%De Filippis%NULL%2,       Frederique%Coppee%NULL%2,       Nicolas%Fakhry%NULL%2,       Tareck%Ayad%NULL%2,       Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,       Joel%Lockwood%NULL%2,       Joel%Lockwood%NULL%0,       Paul%Das%NULL%1,       Ri%Wang%NULL%1,       Eitan%Grinspun%NULL%1,       John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,       Pokkee%Min%NULL%2,       Pokkee%Min%NULL%0,       Seonggu%Lee%NULL%2,       Seonggu%Lee%NULL%0,       Shin-Woo%Kim%NULL%2,       Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,       Mariangela%Pierantozzi%NULL%1,       Matteo%Spanetta%NULL%1,       Loredana%Sarmati%NULL%1,       Novella%Cesta%NULL%1,       Marco%Iannetta%NULL%1,       Josuel%Ora%NULL%1,       Grazia Genga%Mina%NULL%1,       Ermanno%Puxeddu%NULL%1,       Ottavia%Balbi%NULL%1,       Gabriella%Pezzuto%NULL%1,       Andrea%Magrini%NULL%1,       Paola%Rogliani%NULL%1,       Massimo%Andreoni%NULL%1,       Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,       Juan%Amaro Sánchez%NULL%2,       Juan%Amaro Sánchez%NULL%0,       Antonio Francisco%López‐Sánchez%NULL%1,       Enric%Jané‐Salas%NULL%1,       Maria Luisa%Somacarrera Pérez%NULL%2,       Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,       Lorenzo Roberto%Suardi%NULL%2,       Lorenzo Roberto%Suardi%NULL%0,       Michele%Busoni%NULL%1,       Anna Teresa%Roberts%NULL%1,       Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,       Azad A.%Haleem Al Mezori%NULL%1,       Hakar Mustafa%Mohammed%NULL%1,       Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,       Jin Gu%Yoon%NULL%1,       Hye%Seong%NULL%1,       Won Suk%Choi%NULL%1,       Jang Wook%Sohn%NULL%1,       Hee Jin%Cheong%NULL%1,       Woo Joo%Kim%NULL%1,       Joon Young%Song%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,       Alberto%Schreiber%NULL%1,       Alberto%Grammatica%albertogrammatica@libero.it%1,       Elena%Raffetti%NULL%2,       Elena%Raffetti%NULL%0,       Michele%Tomasoni%NULL%1,       Tommaso%Gualtieri%NULL%1,       Stefano%Taboni%NULL%1,       Silvia%Zorzi%NULL%1,       Davide%Lombardi%NULL%1,       Alberto%Deganello%NULL%1,       Luca Oscar%Redaelli De Zinis%NULL%1,       Roberto%Maroldi%NULL%1,       Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,       E.%Charani%NULL%1,       D.%Ariyanayagam%NULL%1,       A.%Abdulaal%NULL%1,       S.J.%Denny%NULL%1,       N.%Mughal%NULL%1,       L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,       Suko%Adiarto%NULL%1,       Santi Rahayu%Dewayanti%NULL%1,       Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,       Kadriye Kart%Yaşar%NULL%1,       Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,       Rejane Andrade%de Carvalho%NULL%1,       Kalline Andrade%de Carvalho%NULL%1,       Maria Goretti Freire%de Carvalho%NULL%1,       Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,       Thirza%Singer-Cornelius%NULL%1,       Michael%Oberle%NULL%1,       Isabelle%Gengler%NULL%1,       Steffi J.%Brockmeier%NULL%1,       Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,       Andreas%Habertheuer%NULL%2,       Andreas%Habertheuer%NULL%0,       Asad A.%Usman%NULL%2,       Asad A.%Usman%NULL%0,       Arman%Kilic%NULL%1,       Eric%Gnall%NULL%2,       Eric%Gnall%NULL%0,       Michael E.%Friscia%NULL%1,       Dmitriy%Zubkus%NULL%1,       Hitoshi%Hirose%NULL%1,       Pablo%Sanchez%NULL%1,       Olugbenga%Okusanya%NULL%1,       Wilson Y.%Szeto%NULL%1,       Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,       Claire%Hopkins%NULL%2,       Claire%Hopkins%NULL%0,       Giovanni%Salzano%NULL%2,       Marzia%Petrocelli%NULL%2,       Andrea%Melis%NULL%1,       Marco%Cucurullo%NULL%1,       Mario%Ferrari%NULL%1,       Laura%Gagliardini%NULL%1,       Carlotta%Pipolo%NULL%1,       Giovanna%Deiana%NULL%3,       Vito%Fiore%NULL%1,       Andrea%De Vito%NULL%2,       Nicola%Turra%NULL%1,       Sara%Canu%NULL%1,       Angelantonio%Maglio%NULL%1,       Antonello%Serra%NULL%3,       Antonello%Serra%NULL%0,       Francesco%Bussu%NULL%2,       Giordano%Madeddu%NULL%0,       Sergio%Babudieri%NULL%2,       Alessandro%Giuseppe Fois%NULL%1,       Pietro%Pirina%NULL%2,       Francesco A.%Salzano%NULL%1,       Pierluigi%De Riu%NULL%1,       Federico%Biglioli%NULL%1,       Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,       Farhoud%Faraji%NULL%6,       Farhoud%Faraji%NULL%0,       Divya P.%Prajapati%NULL%4,       Benjamin T.%Ostrander%NULL%2,       Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,       Timothee%Klopfenstein%NULL%1,       Julien%Mercier%NULL%1,       N’dri Juliette%Kadiane-Oussou%NULL%1,       Ludovic%Lan Cheong Wah%NULL%1,       Pierre-Yves%Royer%NULL%1,       Lynda%Toko%NULL%1,       Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1542,13 +1950,13 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
@@ -1571,7 +1979,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -1629,7 +2037,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -1658,7 +2066,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -1687,7 +2095,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1716,7 +2124,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>390</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -1745,7 +2153,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -1774,13 +2182,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
@@ -1803,7 +2211,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -1832,7 +2240,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -1861,7 +2269,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>395</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -1890,7 +2298,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -1919,7 +2327,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>397</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -1948,7 +2356,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -1977,7 +2385,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -2006,7 +2414,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -2035,7 +2443,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>401</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2064,7 +2472,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>266</v>
+        <v>402</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -2093,7 +2501,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -2151,7 +2559,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -2209,7 +2617,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>405</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -2238,7 +2646,7 @@
         <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>406</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -2270,10 +2678,10 @@
         <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -2296,7 +2704,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>407</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -2325,7 +2733,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>408</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -2354,7 +2762,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -2383,7 +2791,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -2412,7 +2820,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -2470,7 +2878,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -2528,7 +2936,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -2557,7 +2965,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>414</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -2586,7 +2994,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>279</v>
+        <v>415</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -2615,7 +3023,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>280</v>
+        <v>416</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -2644,7 +3052,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>417</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -2673,7 +3081,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>282</v>
+        <v>418</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="508">
   <si>
     <t>Doi</t>
   </si>
@@ -1610,6 +1610,285 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,       Timothee%Klopfenstein%NULL%1,       Julien%Mercier%NULL%1,       N’dri Juliette%Kadiane-Oussou%NULL%1,       Ludovic%Lan Cheong Wah%NULL%1,       Pierre-Yves%Royer%NULL%1,       Lynda%Toko%NULL%1,       Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,       Aggarwal%Saurabh%coreGivesNoEmail%0,       Garcia-Telles%Nelson%coreGivesNoEmail%0,       Henry%Brandon Michael%coreGivesNoEmail%0,       Lavie%Carl%coreGivesNoEmail%0,       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,        Ana Gabriela Costa%Normando%NULL%1,        Rainier Luiz%Carvalho da Silva%NULL%1,        Renata Monteiro%De Paula%NULL%1,        Allan Christian%Cembranel%NULL%1,        Alan Roger%Santos-Silva%NULL%1,        Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Oral cavity lesions as a manifestation of the novel virus (COVID\u201019)"</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1, Mina%Gheitani%xref no email%1, Farrokh%Heidari%xref no email%1, Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,        J. L.%Chico‐García%NULL%4,        J. L.%Chico‐García%NULL%0,        J.%Martínez‐Poles%NULL%2,        F.%Rodríguez‐Jorge%NULL%2,        E.%Natera‐Villalba%NULL%2,        J.%Gómez‐Corral%NULL%4,        J.%Gómez‐Corral%NULL%0,        A.%Gómez‐López%NULL%2,        E.%Monreal%NULL%2,        P.%Parra‐Díaz%NULL%2,        J. L.%Cortés‐Cuevas%NULL%4,        J. L.%Cortés‐Cuevas%NULL%0,        J. C.%Galán%NULL%2,        C.%Fragola‐Arnau%NULL%2,        J.%Porta‐Etessam%NULL%2,        J.%Masjuan%NULL%2,        A.%Alonso‐Cánovas%NULL%4,        A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,        Paul%Le Turnier%NULL%2,        Charles%Declerck%NULL%2,        Cécile%Paillé%NULL%2,        Matthieu%Revest%NULL%2,        Vincent%Dubée%NULL%2,        Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,        Cédric%Arvieux%NULL%2,        Marion%Baldeyrou%NULL%2,        Jean-Marc%Chapplain%NULL%2,        Pauline%Comacle%NULL%2,        Solène%Patrat-Delon%NULL%2,        Anne%Maillard%NULL%2,        Mélanie%Poinot%NULL%2,        Charlotte%Pronier%NULL%2,        Faouzi%Souala%NULL%2,        Vincent%Thibault%NULL%2,        Pierre%Abgueguen%NULL%2,        Hélène%Cormier%NULL%2,        Valérie%Delbos%NULL%2,        Marine%de la Chapelle%NULL%2,        Alexandra%Ducancelle%NULL%2,        Rafael%Mahieu%NULL%2,        Valérie%Rabier%NULL%2,        Sami%Rehaiem%NULL%2,        Yves%Vandamme%NULL%2,        Charlotte%Biron%NULL%2,        Jeanne%Brochon%NULL%2,        David%Boutoille%NULL%0,        Marie%Chauveau%NULL%2,        Colin%Deschanvres%NULL%2,        Benjamin J%Gaborit%NULL%2,        Joël%Jenvrin%NULL%2,        Raphaël%Lecomte%NULL%2,        Maeva%Lefebvre%NULL%2,        François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,         Louis%Valiquette%null%1,         Cynthia%Grenier%null%1,         Jean Berchmans%Musonera%null%1,         Delphin%Nkengurutse%null%1,         Anaïs%Marcil-Héguy%null%1,         Kim%Vettese%null%1,         Dominique%Marcoux%null%1,         Corinne%Valiquette%null%1,         Wei Ting%Xiong%null%1,         Pierre-Hughes%Fortier%null%1,         Mélissa%Généreux%null%1,         Jacques%Pépin%null%1,       Alex%Carignan%null%1,       Louis%Valiquette%null%1,       Cynthia%Grenier%null%1,       Jean Berchmans%Musonera%null%1,       Delphin%Nkengurutse%null%1,       Anaïs%Marcil-Héguy%null%1,       Kim%Vettese%null%1,       Dominique%Marcoux%null%1,       Corinne%Valiquette%null%1,       Wei Ting%Xiong%null%1,       Pierre-Hughes%Fortier%null%1,       Mélissa%Généreux%null%1,       Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,        Hülya%Çaşkurlu%NULL%2,        Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,        Florent%Carsuzaa%NULL%1,        Jean-Paul%Trijolet%NULL%2,        Jean-Paul%Trijolet%NULL%0,        Anne-Laure%Capitaine%NULL%1,        Mariam%Roncato-Saberan%NULL%1,        Kevin%Fouet%NULL%1,        France%Cazenave-Roblot%NULL%0,        Mélanie%Catroux%NULL%1,        Caroline%Allix-Beguec%NULL%1,        Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,       Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,       Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,        Paola%Varese%NULL%2,        Paola%Varese%NULL%0,        Chiara%Dentone%NULL%1,        Emanuela%Barisione%NULL%1,        Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,        Filippo%Farri%NULL%2,        Filippo%Farri%NULL%0,        Giacomo%Garzaro%NULL%1,        Miriam%Gatto%NULL%1,        Paolo%Aluffi Valletti%NULL%0,        Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,        Eleonora%Trecca%NULL%1,        Michele%Cassano%NULL%1,        Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,        Laura%Pezzati%NULL%4,        Laura%Pezzati%NULL%0,        Federico%Conti%NULL%2,        Dario%Bernacchia%NULL%0,        Matteo%Siano%NULL%0,        Letizia%Oreni%NULL%0,        Stefano%Rusconi%NULL%0,        Cristina%Gervasoni%NULL%2,        Anna Lisa%Ridolfo%NULL%0,        Giuliano%Rizzardini%NULL%0,        Spinello%Antinori%NULL%0,        Massimo%Galli%NULL%0,        Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,        M.-J.%Kim%NULL%1,        S.H.%Ra%NULL%1,        J.%Lee%NULL%1,        S.%Bae%NULL%1,        J.%Jung%NULL%1,        S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,        N.J.%Kadiane-Oussou%NULL%2,        L.%Toko%NULL%2,        P.-Y.%Royer%NULL%2,        Q.%Lepiller%NULL%2,        V.%Gendrin%NULL%2,        S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,        Anton G. M.%Buiting%NULL%1,        Suzan D.%Pas%NULL%1,        Robbert G.%Bentvelsen%NULL%1,        Wouter%van den Bijllaardt%NULL%1,        Anne J. G.%van Oudheusden%NULL%1,        Miranda M. L.%van Rijen%NULL%1,        Jaco J.%Verweij%NULL%1,        Marion P. G.%Koopmans%NULL%1,        Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,        Elodie%Schneider%NULL%1,        Isabelle%Vianu%NULL%1,        Guillaume%Dollet%NULL%1,        Bastien%Roche%NULL%1,        Julia%Berdah%NULL%1,        Julie%Michel%NULL%1,        Laurent%Goix%NULL%1,        Erick%Chanzy%NULL%1,        Tomislav%Petrovic%NULL%1,        Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,        Carlos M.%Chiesa-Estomba%NULL%2,        Daniele R.%De Siati%NULL%2,        Mihaela%Horoi%NULL%2,        Serge D.%Le Bon%NULL%2,        Alexandra%Rodriguez%NULL%2,        Didier%Dequanter%NULL%2,        Serge%Blecic%NULL%2,        Fahd%El Afia%NULL%2,        Lea%Distinguin%NULL%2,        Younes%Chekkoury-Idrissi%NULL%2,        Stéphane%Hans%NULL%2,        Irene Lopez%Delgado%NULL%2,        Christian%Calvo-Henriquez%NULL%2,        Philippe%Lavigne%NULL%2,        Chiara%Falanga%NULL%2,        Maria Rosaria%Barillari%NULL%2,        Giovanni%Cammaroto%NULL%2,        Mohamad%Khalife%NULL%2,        Pierre%Leich%NULL%2,        Christel%Souchay%NULL%2,        Camelia%Rossi%NULL%2,        Fabrice%Journe%NULL%2,        Julien%Hsieh%NULL%2,        Myriam%Edjlali%NULL%2,        Robert%Carlier%NULL%2,        Laurence%Ris%NULL%2,        Andrea%Lovato%NULL%2,        Cosimo%De Filippis%NULL%2,        Frederique%Coppee%NULL%2,        Nicolas%Fakhry%NULL%2,        Tareck%Ayad%NULL%2,        Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,        Joel%Lockwood%NULL%2,        Joel%Lockwood%NULL%0,        Paul%Das%NULL%1,        Ri%Wang%NULL%1,        Eitan%Grinspun%NULL%1,        John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,        Pokkee%Min%NULL%2,        Pokkee%Min%NULL%0,        Seonggu%Lee%NULL%2,        Seonggu%Lee%NULL%0,        Shin-Woo%Kim%NULL%0,        Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Time course of anosmia and dysgeusia in patients with mild SARS-CoV-2 infection"</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1, Meital%Elbaz%xref no email%1, Ronen%Ben-Ami%xref no email%1, David%Shasha%xref no email%1, Tal%Levinson%xref no email%1, Guy%Choshen%xref no email%1, Ksenia%Petrov%xref no email%1, Avi%Gadoth%xref no email%1, Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,        Mariangela%Pierantozzi%NULL%1,        Matteo%Spanetta%NULL%1,        Loredana%Sarmati%NULL%1,        Novella%Cesta%NULL%1,        Marco%Iannetta%NULL%1,        Josuel%Ora%NULL%1,        Grazia Genga%Mina%NULL%1,        Ermanno%Puxeddu%NULL%1,        Ottavia%Balbi%NULL%1,        Gabriella%Pezzuto%NULL%1,        Andrea%Magrini%NULL%1,        Paola%Rogliani%NULL%1,        Massimo%Andreoni%NULL%1,        Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Neurologic Manifestations of Hospitalized Patients With Coronavirus Disease 2019 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0, Huijuan%Jin%xref no email%0, Mengdie%Wang%xref no email%0, Yu%Hu%xref no email%0, Shengcai%Chen%xref no email%0, Quanwei%He%xref no email%0, Jiang%Chang%xref no email%0, Candong%Hong%xref no email%0, Yifan%Zhou%xref no email%0, David%Wang%xref no email%0, Xiaoping%Miao%xref no email%0, Yanan%Li%xref no email%0, Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,        Juan%Amaro Sánchez%NULL%2,        Juan%Amaro Sánchez%NULL%0,        Antonio Francisco%López‐Sánchez%NULL%1,        Enric%Jané‐Salas%NULL%1,        Maria Luisa%Somacarrera Pérez%NULL%2,        Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,        Lorenzo Roberto%Suardi%NULL%2,        Lorenzo Roberto%Suardi%NULL%0,        Michele%Busoni%NULL%1,        Anna Teresa%Roberts%NULL%1,        Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,        Azad A.%Haleem Al Mezori%NULL%1,        Hakar Mustafa%Mohammed%NULL%1,        Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,        Jin Gu%Yoon%NULL%3,        Hye%Seong%NULL%3,        Won Suk%Choi%NULL%1,        Jang Wook%Sohn%NULL%1,        Hee Jin%Cheong%NULL%4,        Woo Joo%Kim%NULL%4,        Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,        Alberto%Schreiber%NULL%1,        Alberto%Grammatica%albertogrammatica@libero.it%1,        Elena%Raffetti%NULL%2,        Elena%Raffetti%NULL%0,        Michele%Tomasoni%NULL%1,        Tommaso%Gualtieri%NULL%1,        Stefano%Taboni%NULL%1,        Silvia%Zorzi%NULL%1,        Davide%Lombardi%NULL%1,        Alberto%Deganello%NULL%1,        Luca Oscar%Redaelli De Zinis%NULL%1,        Roberto%Maroldi%NULL%1,        Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,        E.%Charani%NULL%1,        D.%Ariyanayagam%NULL%1,        A.%Abdulaal%NULL%1,        S.J.%Denny%NULL%1,        N.%Mughal%NULL%1,        L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,        Suko%Adiarto%NULL%1,        Santi Rahayu%Dewayanti%NULL%1,        Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Neurologic manifestations in hospitalized patients with COVID-19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ObjectiveThe coronavirus disease 2019 (COVID-19) has spread worldwide since December 2019. Neurologic symptoms have been reported as part of the clinical spectrum of the disease.
+ We aimed to determine whether neurologic manifestations are common in hospitalized patients with COVID-19 and to describe their main characteristics.
+MethodsWe systematically reviewed all patients diagnosed with COVID-19 admitted to the hospital in a Spanish population during March 2020. Demographic characteristics, systemic and neurologic clinical manifestations, and complementary tests were analyzed.
+ResultsOf 841 patients hospitalized with COVID-19 (mean age 66.4 years, 56.2% men), 57.4% developed some form of neurologic symptom.
+ Nonspecific symptoms such as myalgias (17.2%), headache (14.1%), and dizziness (6.1%) were present mostly in the early stages of infection.
+ Anosmia (4.9%) and dysgeusia (6.2%) tended to occur early (60% as the first clinical manifestation) and were more frequent in less severe cases.
+ Disorders of consciousness occurred commonly (19.6%), mostly in older patients and in severe and advanced COVID-19 stages.
+ Myopathy (3.1%), dysautonomia (2.5%), cerebrovascular diseases (1.7%), seizures (0.7%), movement disorders (0.7%), encephalitis (n = 1), Guillain-Barr\u00e9 syndrome (n = 1), and optic neuritis (n = 1) were also reported, but less frequent.
+ Neurologic complications were the main cause of death in 4.1% of all deceased study participants.
+ConclusionsNeurologic manifestations are common in hospitalized patients with COVID-19. In our series, more than half of patients presented some form of neurologic symptom.
+ Clinicians need to maintain close neurologic surveillance for prompt recognition of these complications.
+ The mechanisms and consequences of severe acute respiratory syndrome coronavirus type 2\u00a0neurologic involvement require further studies.
+</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1, Inmaculada%D\u00edaz-Maroto%xref no email%1, Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1, \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1, Almudena%Layos-Romero%xref no email%1, Jorge%Garc\u00eda-Garc\u00eda%xref no email%1, Esther%Gonz\u00e1lez%xref no email%1, Inmaculada%Redondo-Pe\u00f1as%xref no email%1, Ana Bel\u00e9n%Perona-Moratalla%xref no email%1, Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1, Julia%Gracia-Gil%xref no email%1, Laura%Rojas-Bartolom\u00e9%xref no email%1, Inmaculada%Feria-Vilar%xref no email%1, Mar\u00eda%Monteagudo%xref no email%1, Mar\u00eda%Palao%xref no email%1, Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1, Cristian%Alcahut-Rodr\u00edguez%xref no email%1, David%Sopelana-Garay%xref no email%1, Y\u00f3scar%Moreno%xref no email%1, Javaad%Ahmad%xref no email%1, Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,        Kadriye Kart%Yaşar%NULL%1,        Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Gender differences in the frequency of gastrointestinal symptoms and olfactory or taste disorders among 1,942 non-hospitalized patients with COVID-19"</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1, Jaros\u0142aw%Pinkas%xref no email%1, Mateusz%Jankowski%xref no email%1, Wojciech S.%Zgliczy\u0144ski%xref no email%1, Waldemar%Wierzba%xref no email%1, Mariusz%Gujski%xref no email%1, \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-22</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,        Rejane Andrade%de Carvalho%NULL%1,        Kalline Andrade%de Carvalho%NULL%1,        Maria Goretti Freire%de Carvalho%NULL%1,        Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,        Thirza%Singer-Cornelius%NULL%1,        Michael%Oberle%NULL%1,        Isabelle%Gengler%NULL%1,        Steffi J.%Brockmeier%NULL%1,        Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,        Andreas%Habertheuer%NULL%2,        Andreas%Habertheuer%NULL%0,        Asad A.%Usman%NULL%2,        Asad A.%Usman%NULL%0,        Arman%Kilic%NULL%1,        Eric%Gnall%NULL%2,        Eric%Gnall%NULL%0,        Michael E.%Friscia%NULL%1,        Dmitriy%Zubkus%NULL%1,        Hitoshi%Hirose%NULL%2,        Pablo%Sanchez%NULL%1,        Olugbenga%Okusanya%NULL%1,        Wilson Y.%Szeto%NULL%1,        Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,        Claire%Hopkins%NULL%2,        Claire%Hopkins%NULL%0,        Giovanni%Salzano%NULL%2,        Marzia%Petrocelli%NULL%2,        Andrea%Melis%NULL%1,        Marco%Cucurullo%NULL%1,        Mario%Ferrari%NULL%1,        Laura%Gagliardini%NULL%1,        Carlotta%Pipolo%NULL%1,        Giovanna%Deiana%NULL%3,        Vito%Fiore%NULL%1,        Andrea%De Vito%NULL%0,        Nicola%Turra%NULL%1,        Sara%Canu%NULL%1,        Angelantonio%Maglio%NULL%1,        Antonello%Serra%NULL%3,        Antonello%Serra%NULL%0,        Francesco%Bussu%NULL%2,        Giordano%Madeddu%NULL%0,        Sergio%Babudieri%NULL%0,        Alessandro%Giuseppe Fois%NULL%1,        Pietro%Pirina%NULL%0,        Francesco A.%Salzano%NULL%1,        Pierluigi%De Riu%NULL%1,        Federico%Biglioli%NULL%1,        Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,        Farhoud%Faraji%NULL%6,        Farhoud%Faraji%NULL%0,        Divya P.%Prajapati%NULL%4,        Benjamin T.%Ostrander%NULL%2,        Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,        Timothee%Klopfenstein%NULL%1,        Julien%Mercier%NULL%1,        N’dri Juliette%Kadiane-Oussou%NULL%1,        Ludovic%Lan Cheong Wah%NULL%1,        Pierre-Yves%Royer%NULL%1,        Lynda%Toko%NULL%1,        Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,        Aggarwal%Saurabh%coreGivesNoEmail%0,        Garcia-Telles%Nelson%coreGivesNoEmail%0,        Henry%Brandon Michael%coreGivesNoEmail%0,        Lavie%Carl%coreGivesNoEmail%0,        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,         Ana Gabriela Costa%Normando%NULL%1,         Rainier Luiz%Carvalho da Silva%NULL%1,         Renata Monteiro%De Paula%NULL%1,         Allan Christian%Cembranel%NULL%1,         Alan Roger%Santos-Silva%NULL%1,         Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,  Mina%Gheitani%xref no email%1,  Farrokh%Heidari%xref no email%1,  Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,         J. L.%Chico‐García%NULL%4,         J. L.%Chico‐García%NULL%0,         J.%Martínez‐Poles%NULL%2,         F.%Rodríguez‐Jorge%NULL%2,         E.%Natera‐Villalba%NULL%2,         J.%Gómez‐Corral%NULL%4,         J.%Gómez‐Corral%NULL%0,         A.%Gómez‐López%NULL%2,         E.%Monreal%NULL%2,         P.%Parra‐Díaz%NULL%2,         J. L.%Cortés‐Cuevas%NULL%4,         J. L.%Cortés‐Cuevas%NULL%0,         J. C.%Galán%NULL%2,         C.%Fragola‐Arnau%NULL%2,         J.%Porta‐Etessam%NULL%2,         J.%Masjuan%NULL%2,         A.%Alonso‐Cánovas%NULL%4,         A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,         Paul%Le Turnier%NULL%2,         Charles%Declerck%NULL%2,         Cécile%Paillé%NULL%2,         Matthieu%Revest%NULL%2,         Vincent%Dubée%NULL%2,         Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,         Cédric%Arvieux%NULL%2,         Marion%Baldeyrou%NULL%2,         Jean-Marc%Chapplain%NULL%2,         Pauline%Comacle%NULL%2,         Solène%Patrat-Delon%NULL%2,         Anne%Maillard%NULL%2,         Mélanie%Poinot%NULL%2,         Charlotte%Pronier%NULL%2,         Faouzi%Souala%NULL%2,         Vincent%Thibault%NULL%2,         Pierre%Abgueguen%NULL%2,         Hélène%Cormier%NULL%2,         Valérie%Delbos%NULL%2,         Marine%de la Chapelle%NULL%2,         Alexandra%Ducancelle%NULL%2,         Rafael%Mahieu%NULL%2,         Valérie%Rabier%NULL%2,         Sami%Rehaiem%NULL%2,         Yves%Vandamme%NULL%2,         Charlotte%Biron%NULL%2,         Jeanne%Brochon%NULL%2,         David%Boutoille%NULL%0,         Marie%Chauveau%NULL%2,         Colin%Deschanvres%NULL%2,         Benjamin J%Gaborit%NULL%2,         Joël%Jenvrin%NULL%2,         Raphaël%Lecomte%NULL%2,         Maeva%Lefebvre%NULL%2,         François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,          Louis%Valiquette%null%1,          Cynthia%Grenier%null%1,          Jean Berchmans%Musonera%null%1,          Delphin%Nkengurutse%null%1,          Anaïs%Marcil-Héguy%null%1,          Kim%Vettese%null%1,          Dominique%Marcoux%null%1,          Corinne%Valiquette%null%1,          Wei Ting%Xiong%null%1,          Pierre-Hughes%Fortier%null%1,          Mélissa%Généreux%null%1,          Jacques%Pépin%null%1,        Alex%Carignan%null%1,        Louis%Valiquette%null%1,        Cynthia%Grenier%null%1,        Jean Berchmans%Musonera%null%1,        Delphin%Nkengurutse%null%1,        Anaïs%Marcil-Héguy%null%1,        Kim%Vettese%null%1,        Dominique%Marcoux%null%1,        Corinne%Valiquette%null%1,        Wei Ting%Xiong%null%1,        Pierre-Hughes%Fortier%null%1,        Mélissa%Généreux%null%1,        Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,         Hülya%Çaşkurlu%NULL%2,         Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,         Florent%Carsuzaa%NULL%1,         Jean-Paul%Trijolet%NULL%2,         Jean-Paul%Trijolet%NULL%0,         Anne-Laure%Capitaine%NULL%1,         Mariam%Roncato-Saberan%NULL%1,         Kevin%Fouet%NULL%1,         France%Cazenave-Roblot%NULL%0,         Mélanie%Catroux%NULL%1,         Caroline%Allix-Beguec%NULL%1,         Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,        Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,        Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,         Paola%Varese%NULL%2,         Paola%Varese%NULL%0,         Chiara%Dentone%NULL%1,         Emanuela%Barisione%NULL%1,         Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,         Filippo%Farri%NULL%2,         Filippo%Farri%NULL%0,         Giacomo%Garzaro%NULL%1,         Miriam%Gatto%NULL%1,         Paolo%Aluffi Valletti%NULL%0,         Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,         Eleonora%Trecca%NULL%1,         Michele%Cassano%NULL%1,         Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,         Laura%Pezzati%NULL%4,         Laura%Pezzati%NULL%0,         Federico%Conti%NULL%2,         Dario%Bernacchia%NULL%0,         Matteo%Siano%NULL%0,         Letizia%Oreni%NULL%0,         Stefano%Rusconi%NULL%0,         Cristina%Gervasoni%NULL%2,         Anna Lisa%Ridolfo%NULL%0,         Giuliano%Rizzardini%NULL%0,         Spinello%Antinori%NULL%0,         Massimo%Galli%NULL%0,         Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,         M.-J.%Kim%NULL%1,         S.H.%Ra%NULL%1,         J.%Lee%NULL%1,         S.%Bae%NULL%1,         J.%Jung%NULL%1,         S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,         N.J.%Kadiane-Oussou%NULL%2,         L.%Toko%NULL%2,         P.-Y.%Royer%NULL%2,         Q.%Lepiller%NULL%2,         V.%Gendrin%NULL%2,         S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,         Anton G. M.%Buiting%NULL%1,         Suzan D.%Pas%NULL%1,         Robbert G.%Bentvelsen%NULL%1,         Wouter%van den Bijllaardt%NULL%1,         Anne J. G.%van Oudheusden%NULL%1,         Miranda M. L.%van Rijen%NULL%1,         Jaco J.%Verweij%NULL%1,         Marion P. G.%Koopmans%NULL%1,         Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,         Elodie%Schneider%NULL%1,         Isabelle%Vianu%NULL%1,         Guillaume%Dollet%NULL%1,         Bastien%Roche%NULL%1,         Julia%Berdah%NULL%1,         Julie%Michel%NULL%1,         Laurent%Goix%NULL%1,         Erick%Chanzy%NULL%1,         Tomislav%Petrovic%NULL%1,         Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,         Carlos M.%Chiesa-Estomba%NULL%2,         Daniele R.%De Siati%NULL%2,         Mihaela%Horoi%NULL%2,         Serge D.%Le Bon%NULL%2,         Alexandra%Rodriguez%NULL%2,         Didier%Dequanter%NULL%2,         Serge%Blecic%NULL%2,         Fahd%El Afia%NULL%2,         Lea%Distinguin%NULL%2,         Younes%Chekkoury-Idrissi%NULL%2,         Stéphane%Hans%NULL%2,         Irene Lopez%Delgado%NULL%2,         Christian%Calvo-Henriquez%NULL%2,         Philippe%Lavigne%NULL%2,         Chiara%Falanga%NULL%2,         Maria Rosaria%Barillari%NULL%2,         Giovanni%Cammaroto%NULL%2,         Mohamad%Khalife%NULL%2,         Pierre%Leich%NULL%2,         Christel%Souchay%NULL%2,         Camelia%Rossi%NULL%2,         Fabrice%Journe%NULL%2,         Julien%Hsieh%NULL%2,         Myriam%Edjlali%NULL%2,         Robert%Carlier%NULL%2,         Laurence%Ris%NULL%2,         Andrea%Lovato%NULL%2,         Cosimo%De Filippis%NULL%2,         Frederique%Coppee%NULL%2,         Nicolas%Fakhry%NULL%2,         Tareck%Ayad%NULL%2,         Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,         Joel%Lockwood%NULL%2,         Joel%Lockwood%NULL%0,         Paul%Das%NULL%1,         Ri%Wang%NULL%1,         Eitan%Grinspun%NULL%1,         John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,         Pokkee%Min%NULL%2,         Pokkee%Min%NULL%0,         Seonggu%Lee%NULL%2,         Seonggu%Lee%NULL%0,         Shin-Woo%Kim%NULL%0,         Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,  Meital%Elbaz%xref no email%1,  Ronen%Ben-Ami%xref no email%1,  David%Shasha%xref no email%1,  Tal%Levinson%xref no email%1,  Guy%Choshen%xref no email%1,  Ksenia%Petrov%xref no email%1,  Avi%Gadoth%xref no email%1,  Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,         Mariangela%Pierantozzi%NULL%1,         Matteo%Spanetta%NULL%1,         Loredana%Sarmati%NULL%1,         Novella%Cesta%NULL%1,         Marco%Iannetta%NULL%1,         Josuel%Ora%NULL%1,         Grazia Genga%Mina%NULL%1,         Ermanno%Puxeddu%NULL%1,         Ottavia%Balbi%NULL%1,         Gabriella%Pezzuto%NULL%1,         Andrea%Magrini%NULL%1,         Paola%Rogliani%NULL%1,         Massimo%Andreoni%NULL%1,         Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,  Huijuan%Jin%xref no email%0,  Mengdie%Wang%xref no email%0,  Yu%Hu%xref no email%0,  Shengcai%Chen%xref no email%0,  Quanwei%He%xref no email%0,  Jiang%Chang%xref no email%0,  Candong%Hong%xref no email%0,  Yifan%Zhou%xref no email%0,  David%Wang%xref no email%0,  Xiaoping%Miao%xref no email%0,  Yanan%Li%xref no email%0,  Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,         Juan%Amaro Sánchez%NULL%2,         Juan%Amaro Sánchez%NULL%0,         Antonio Francisco%López‐Sánchez%NULL%1,         Enric%Jané‐Salas%NULL%1,         Maria Luisa%Somacarrera Pérez%NULL%2,         Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,         Lorenzo Roberto%Suardi%NULL%2,         Lorenzo Roberto%Suardi%NULL%0,         Michele%Busoni%NULL%1,         Anna Teresa%Roberts%NULL%1,         Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,         Azad A.%Haleem Al Mezori%NULL%1,         Hakar Mustafa%Mohammed%NULL%1,         Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,         Jin Gu%Yoon%NULL%3,         Hye%Seong%NULL%3,         Won Suk%Choi%NULL%1,         Jang Wook%Sohn%NULL%1,         Hee Jin%Cheong%NULL%4,         Woo Joo%Kim%NULL%4,         Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,         Alberto%Schreiber%NULL%1,         Alberto%Grammatica%albertogrammatica@libero.it%1,         Elena%Raffetti%NULL%2,         Elena%Raffetti%NULL%0,         Michele%Tomasoni%NULL%1,         Tommaso%Gualtieri%NULL%1,         Stefano%Taboni%NULL%1,         Silvia%Zorzi%NULL%1,         Davide%Lombardi%NULL%1,         Alberto%Deganello%NULL%1,         Luca Oscar%Redaelli De Zinis%NULL%1,         Roberto%Maroldi%NULL%1,         Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,         E.%Charani%NULL%1,         D.%Ariyanayagam%NULL%1,         A.%Abdulaal%NULL%1,         S.J.%Denny%NULL%1,         N.%Mughal%NULL%1,         L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,         Suko%Adiarto%NULL%1,         Santi Rahayu%Dewayanti%NULL%1,         Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,  Inmaculada%D\u00edaz-Maroto%xref no email%1,  Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,  \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,  Almudena%Layos-Romero%xref no email%1,  Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,  Esther%Gonz\u00e1lez%xref no email%1,  Inmaculada%Redondo-Pe\u00f1as%xref no email%1,  Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,  Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,  Julia%Gracia-Gil%xref no email%1,  Laura%Rojas-Bartolom\u00e9%xref no email%1,  Inmaculada%Feria-Vilar%xref no email%1,  Mar\u00eda%Monteagudo%xref no email%1,  Mar\u00eda%Palao%xref no email%1,  Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,  Cristian%Alcahut-Rodr\u00edguez%xref no email%1,  David%Sopelana-Garay%xref no email%1,  Y\u00f3scar%Moreno%xref no email%1,  Javaad%Ahmad%xref no email%1,  Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,         Kadriye Kart%Yaşar%NULL%1,         Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,  Jaros\u0142aw%Pinkas%xref no email%1,  Mateusz%Jankowski%xref no email%1,  Wojciech S.%Zgliczy\u0144ski%xref no email%1,  Waldemar%Wierzba%xref no email%1,  Mariusz%Gujski%xref no email%1,  \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,         Rejane Andrade%de Carvalho%NULL%1,         Kalline Andrade%de Carvalho%NULL%1,         Maria Goretti Freire%de Carvalho%NULL%1,         Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,         Thirza%Singer-Cornelius%NULL%1,         Michael%Oberle%NULL%1,         Isabelle%Gengler%NULL%1,         Steffi J.%Brockmeier%NULL%1,         Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,         Andreas%Habertheuer%NULL%2,         Andreas%Habertheuer%NULL%0,         Asad A.%Usman%NULL%2,         Asad A.%Usman%NULL%0,         Arman%Kilic%NULL%1,         Eric%Gnall%NULL%2,         Eric%Gnall%NULL%0,         Michael E.%Friscia%NULL%1,         Dmitriy%Zubkus%NULL%1,         Hitoshi%Hirose%NULL%2,         Pablo%Sanchez%NULL%1,         Olugbenga%Okusanya%NULL%1,         Wilson Y.%Szeto%NULL%1,         Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,         Claire%Hopkins%NULL%2,         Claire%Hopkins%NULL%0,         Giovanni%Salzano%NULL%2,         Marzia%Petrocelli%NULL%2,         Andrea%Melis%NULL%1,         Marco%Cucurullo%NULL%1,         Mario%Ferrari%NULL%1,         Laura%Gagliardini%NULL%1,         Carlotta%Pipolo%NULL%1,         Giovanna%Deiana%NULL%3,         Vito%Fiore%NULL%1,         Andrea%De Vito%NULL%0,         Nicola%Turra%NULL%1,         Sara%Canu%NULL%1,         Angelantonio%Maglio%NULL%1,         Antonello%Serra%NULL%3,         Antonello%Serra%NULL%0,         Francesco%Bussu%NULL%2,         Giordano%Madeddu%NULL%0,         Sergio%Babudieri%NULL%0,         Alessandro%Giuseppe Fois%NULL%1,         Pietro%Pirina%NULL%0,         Francesco A.%Salzano%NULL%1,         Pierluigi%De Riu%NULL%1,         Federico%Biglioli%NULL%1,         Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,         Farhoud%Faraji%NULL%6,         Farhoud%Faraji%NULL%0,         Divya P.%Prajapati%NULL%4,         Benjamin T.%Ostrander%NULL%2,         Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,         Timothee%Klopfenstein%NULL%1,         Julien%Mercier%NULL%1,         N’dri Juliette%Kadiane-Oussou%NULL%1,         Ludovic%Lan Cheong Wah%NULL%1,         Pierre-Yves%Royer%NULL%1,         Lynda%Toko%NULL%1,         Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +2229,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1979,7 +2258,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -2002,22 +2281,22 @@
         <v>44287.0</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>424</v>
       </c>
       <c r="I4" t="s">
         <v>70</v>
@@ -2037,7 +2316,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>472</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -2066,7 +2345,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2095,7 +2374,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>474</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2124,7 +2403,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2153,7 +2432,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2182,7 +2461,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2211,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -2240,7 +2519,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -2269,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>480</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2298,7 +2577,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2327,7 +2606,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -2356,7 +2635,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -2385,7 +2664,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>484</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -2414,7 +2693,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -2443,7 +2722,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>486</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2472,7 +2751,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -2501,7 +2780,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -2524,22 +2803,22 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>489</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
       <c r="I22" t="s">
         <v>70</v>
@@ -2559,7 +2838,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -2582,22 +2861,22 @@
         <v>43983.0</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>491</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>448</v>
       </c>
       <c r="I24" t="s">
         <v>70</v>
@@ -2617,7 +2896,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -2646,7 +2925,7 @@
         <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -2704,7 +2983,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -2733,7 +3012,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>408</v>
+        <v>495</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -2762,7 +3041,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>496</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -2791,7 +3070,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>410</v>
+        <v>497</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -2820,7 +3099,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>411</v>
+        <v>498</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -2843,22 +3122,22 @@
         <v>44068.0</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>456</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>499</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
@@ -2878,7 +3157,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -2901,22 +3180,22 @@
         <v>43985.0</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>460</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>501</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>423</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>462</v>
       </c>
       <c r="I35" t="s">
         <v>70</v>
@@ -2936,7 +3215,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -2965,7 +3244,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -2994,7 +3273,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>415</v>
+        <v>504</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -3023,7 +3302,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -3052,7 +3331,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>417</v>
+        <v>506</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3081,7 +3360,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>418</v>
+        <v>507</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="586">
   <si>
     <t>Doi</t>
   </si>
@@ -1889,6 +1889,240 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,         Timothee%Klopfenstein%NULL%1,         Julien%Mercier%NULL%1,         N’dri Juliette%Kadiane-Oussou%NULL%1,         Ludovic%Lan Cheong Wah%NULL%1,         Pierre-Yves%Royer%NULL%1,         Lynda%Toko%NULL%1,         Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,         Aggarwal%Saurabh%coreGivesNoEmail%0,         Garcia-Telles%Nelson%coreGivesNoEmail%0,         Henry%Brandon Michael%coreGivesNoEmail%0,         Lavie%Carl%coreGivesNoEmail%0,         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,          Ana Gabriela Costa%Normando%NULL%1,          Rainier Luiz%Carvalho da Silva%NULL%1,          Renata Monteiro%De Paula%NULL%1,          Allan Christian%Cembranel%NULL%1,          Alan Roger%Santos-Silva%NULL%1,          Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,   Mina%Gheitani%xref no email%1,   Farrokh%Heidari%xref no email%1,   Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,          J. L.%Chico‐García%NULL%4,          J. L.%Chico‐García%NULL%0,          J.%Martínez‐Poles%NULL%2,          F.%Rodríguez‐Jorge%NULL%2,          E.%Natera‐Villalba%NULL%2,          J.%Gómez‐Corral%NULL%4,          J.%Gómez‐Corral%NULL%0,          A.%Gómez‐López%NULL%2,          E.%Monreal%NULL%2,          P.%Parra‐Díaz%NULL%2,          J. L.%Cortés‐Cuevas%NULL%4,          J. L.%Cortés‐Cuevas%NULL%0,          J. C.%Galán%NULL%2,          C.%Fragola‐Arnau%NULL%2,          J.%Porta‐Etessam%NULL%2,          J.%Masjuan%NULL%2,          A.%Alonso‐Cánovas%NULL%4,          A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,          Paul%Le Turnier%NULL%2,          Charles%Declerck%NULL%2,          Cécile%Paillé%NULL%2,          Matthieu%Revest%NULL%2,          Vincent%Dubée%NULL%2,          Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,          Cédric%Arvieux%NULL%2,          Marion%Baldeyrou%NULL%2,          Jean-Marc%Chapplain%NULL%2,          Pauline%Comacle%NULL%2,          Solène%Patrat-Delon%NULL%2,          Anne%Maillard%NULL%2,          Mélanie%Poinot%NULL%2,          Charlotte%Pronier%NULL%2,          Faouzi%Souala%NULL%2,          Vincent%Thibault%NULL%2,          Pierre%Abgueguen%NULL%2,          Hélène%Cormier%NULL%2,          Valérie%Delbos%NULL%2,          Marine%de la Chapelle%NULL%2,          Alexandra%Ducancelle%NULL%2,          Rafael%Mahieu%NULL%2,          Valérie%Rabier%NULL%2,          Sami%Rehaiem%NULL%2,          Yves%Vandamme%NULL%2,          Charlotte%Biron%NULL%2,          Jeanne%Brochon%NULL%2,          David%Boutoille%NULL%0,          Marie%Chauveau%NULL%2,          Colin%Deschanvres%NULL%2,          Benjamin J%Gaborit%NULL%2,          Joël%Jenvrin%NULL%2,          Raphaël%Lecomte%NULL%2,          Maeva%Lefebvre%NULL%2,          François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,           Louis%Valiquette%null%1,           Cynthia%Grenier%null%1,           Jean Berchmans%Musonera%null%1,           Delphin%Nkengurutse%null%1,           Anaïs%Marcil-Héguy%null%1,           Kim%Vettese%null%1,           Dominique%Marcoux%null%1,           Corinne%Valiquette%null%1,           Wei Ting%Xiong%null%1,           Pierre-Hughes%Fortier%null%1,           Mélissa%Généreux%null%1,           Jacques%Pépin%null%1,         Alex%Carignan%null%1,         Louis%Valiquette%null%1,         Cynthia%Grenier%null%1,         Jean Berchmans%Musonera%null%1,         Delphin%Nkengurutse%null%1,         Anaïs%Marcil-Héguy%null%1,         Kim%Vettese%null%1,         Dominique%Marcoux%null%1,         Corinne%Valiquette%null%1,         Wei Ting%Xiong%null%1,         Pierre-Hughes%Fortier%null%1,         Mélissa%Généreux%null%1,         Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,          Hülya%Çaşkurlu%NULL%2,          Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,          Florent%Carsuzaa%NULL%1,          Jean-Paul%Trijolet%NULL%2,          Jean-Paul%Trijolet%NULL%0,          Anne-Laure%Capitaine%NULL%1,          Mariam%Roncato-Saberan%NULL%1,          Kevin%Fouet%NULL%1,          France%Cazenave-Roblot%NULL%0,          Mélanie%Catroux%NULL%1,          Caroline%Allix-Beguec%NULL%1,          Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,         Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,         Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,          Paola%Varese%NULL%2,          Paola%Varese%NULL%0,          Chiara%Dentone%NULL%1,          Emanuela%Barisione%NULL%1,          Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,          Filippo%Farri%NULL%2,          Filippo%Farri%NULL%0,          Giacomo%Garzaro%NULL%1,          Miriam%Gatto%NULL%1,          Paolo%Aluffi Valletti%NULL%0,          Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,          Eleonora%Trecca%NULL%1,          Michele%Cassano%NULL%1,          Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,          Laura%Pezzati%NULL%4,          Laura%Pezzati%NULL%0,          Federico%Conti%NULL%2,          Dario%Bernacchia%NULL%0,          Matteo%Siano%NULL%0,          Letizia%Oreni%NULL%0,          Stefano%Rusconi%NULL%0,          Cristina%Gervasoni%NULL%2,          Anna Lisa%Ridolfo%NULL%0,          Giuliano%Rizzardini%NULL%0,          Spinello%Antinori%NULL%0,          Massimo%Galli%NULL%0,          Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,          M.-J.%Kim%NULL%1,          S.H.%Ra%NULL%1,          J.%Lee%NULL%1,          S.%Bae%NULL%1,          J.%Jung%NULL%1,          S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,          N.J.%Kadiane-Oussou%NULL%2,          L.%Toko%NULL%2,          P.-Y.%Royer%NULL%2,          Q.%Lepiller%NULL%2,          V.%Gendrin%NULL%2,          S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,          Anton G. M.%Buiting%NULL%1,          Suzan D.%Pas%NULL%1,          Robbert G.%Bentvelsen%NULL%1,          Wouter%van den Bijllaardt%NULL%1,          Anne J. G.%van Oudheusden%NULL%1,          Miranda M. L.%van Rijen%NULL%1,          Jaco J.%Verweij%NULL%1,          Marion P. G.%Koopmans%NULL%1,          Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,          Elodie%Schneider%NULL%1,          Isabelle%Vianu%NULL%1,          Guillaume%Dollet%NULL%1,          Bastien%Roche%NULL%1,          Julia%Berdah%NULL%1,          Julie%Michel%NULL%1,          Laurent%Goix%NULL%1,          Erick%Chanzy%NULL%1,          Tomislav%Petrovic%NULL%1,          Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,          Carlos M.%Chiesa-Estomba%NULL%2,          Daniele R.%De Siati%NULL%2,          Mihaela%Horoi%NULL%2,          Serge D.%Le Bon%NULL%2,          Alexandra%Rodriguez%NULL%2,          Didier%Dequanter%NULL%2,          Serge%Blecic%NULL%2,          Fahd%El Afia%NULL%2,          Lea%Distinguin%NULL%2,          Younes%Chekkoury-Idrissi%NULL%2,          Stéphane%Hans%NULL%2,          Irene Lopez%Delgado%NULL%2,          Christian%Calvo-Henriquez%NULL%2,          Philippe%Lavigne%NULL%2,          Chiara%Falanga%NULL%2,          Maria Rosaria%Barillari%NULL%2,          Giovanni%Cammaroto%NULL%2,          Mohamad%Khalife%NULL%2,          Pierre%Leich%NULL%2,          Christel%Souchay%NULL%2,          Camelia%Rossi%NULL%2,          Fabrice%Journe%NULL%2,          Julien%Hsieh%NULL%2,          Myriam%Edjlali%NULL%2,          Robert%Carlier%NULL%2,          Laurence%Ris%NULL%2,          Andrea%Lovato%NULL%2,          Cosimo%De Filippis%NULL%2,          Frederique%Coppee%NULL%2,          Nicolas%Fakhry%NULL%2,          Tareck%Ayad%NULL%2,          Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,          Joel%Lockwood%NULL%2,          Joel%Lockwood%NULL%0,          Paul%Das%NULL%1,          Ri%Wang%NULL%1,          Eitan%Grinspun%NULL%1,          John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,          Pokkee%Min%NULL%2,          Pokkee%Min%NULL%0,          Seonggu%Lee%NULL%2,          Seonggu%Lee%NULL%0,          Shin-Woo%Kim%NULL%0,          Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,   Meital%Elbaz%xref no email%1,   Ronen%Ben-Ami%xref no email%1,   David%Shasha%xref no email%1,   Tal%Levinson%xref no email%1,   Guy%Choshen%xref no email%1,   Ksenia%Petrov%xref no email%1,   Avi%Gadoth%xref no email%1,   Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,          Mariangela%Pierantozzi%NULL%1,          Matteo%Spanetta%NULL%1,          Loredana%Sarmati%NULL%1,          Novella%Cesta%NULL%1,          Marco%Iannetta%NULL%1,          Josuel%Ora%NULL%1,          Grazia Genga%Mina%NULL%1,          Ermanno%Puxeddu%NULL%1,          Ottavia%Balbi%NULL%1,          Gabriella%Pezzuto%NULL%1,          Andrea%Magrini%NULL%1,          Paola%Rogliani%NULL%1,          Massimo%Andreoni%NULL%1,          Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,   Huijuan%Jin%xref no email%0,   Mengdie%Wang%xref no email%0,   Yu%Hu%xref no email%0,   Shengcai%Chen%xref no email%0,   Quanwei%He%xref no email%0,   Jiang%Chang%xref no email%0,   Candong%Hong%xref no email%0,   Yifan%Zhou%xref no email%0,   David%Wang%xref no email%0,   Xiaoping%Miao%xref no email%0,   Yanan%Li%xref no email%0,   Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,          Juan%Amaro Sánchez%NULL%2,          Juan%Amaro Sánchez%NULL%0,          Antonio Francisco%López‐Sánchez%NULL%1,          Enric%Jané‐Salas%NULL%1,          Maria Luisa%Somacarrera Pérez%NULL%2,          Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,          Lorenzo Roberto%Suardi%NULL%2,          Lorenzo Roberto%Suardi%NULL%0,          Michele%Busoni%NULL%1,          Anna Teresa%Roberts%NULL%1,          Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,          Azad A.%Haleem Al Mezori%NULL%1,          Hakar Mustafa%Mohammed%NULL%1,          Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,          Jin Gu%Yoon%NULL%3,          Hye%Seong%NULL%3,          Won Suk%Choi%NULL%1,          Jang Wook%Sohn%NULL%1,          Hee Jin%Cheong%NULL%4,          Woo Joo%Kim%NULL%4,          Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,          Alberto%Schreiber%NULL%1,          Alberto%Grammatica%albertogrammatica@libero.it%1,          Elena%Raffetti%NULL%2,          Elena%Raffetti%NULL%0,          Michele%Tomasoni%NULL%1,          Tommaso%Gualtieri%NULL%1,          Stefano%Taboni%NULL%1,          Silvia%Zorzi%NULL%1,          Davide%Lombardi%NULL%1,          Alberto%Deganello%NULL%1,          Luca Oscar%Redaelli De Zinis%NULL%1,          Roberto%Maroldi%NULL%1,          Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,          E.%Charani%NULL%1,          D.%Ariyanayagam%NULL%1,          A.%Abdulaal%NULL%1,          S.J.%Denny%NULL%1,          N.%Mughal%NULL%1,          L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,          Suko%Adiarto%NULL%1,          Santi Rahayu%Dewayanti%NULL%1,          Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,   Inmaculada%D\u00edaz-Maroto%xref no email%1,   Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,   \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,   Almudena%Layos-Romero%xref no email%1,   Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,   Esther%Gonz\u00e1lez%xref no email%1,   Inmaculada%Redondo-Pe\u00f1as%xref no email%1,   Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,   Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,   Julia%Gracia-Gil%xref no email%1,   Laura%Rojas-Bartolom\u00e9%xref no email%1,   Inmaculada%Feria-Vilar%xref no email%1,   Mar\u00eda%Monteagudo%xref no email%1,   Mar\u00eda%Palao%xref no email%1,   Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,   Cristian%Alcahut-Rodr\u00edguez%xref no email%1,   David%Sopelana-Garay%xref no email%1,   Y\u00f3scar%Moreno%xref no email%1,   Javaad%Ahmad%xref no email%1,   Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,          Kadriye Kart%Yaşar%NULL%1,          Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,   Jaros\u0142aw%Pinkas%xref no email%1,   Mateusz%Jankowski%xref no email%1,   Wojciech S.%Zgliczy\u0144ski%xref no email%1,   Waldemar%Wierzba%xref no email%1,   Mariusz%Gujski%xref no email%1,   \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,          Rejane Andrade%de Carvalho%NULL%1,          Kalline Andrade%de Carvalho%NULL%1,          Maria Goretti Freire%de Carvalho%NULL%1,          Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,          Thirza%Singer-Cornelius%NULL%1,          Michael%Oberle%NULL%1,          Isabelle%Gengler%NULL%1,          Steffi J.%Brockmeier%NULL%1,          Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,          Andreas%Habertheuer%NULL%2,          Andreas%Habertheuer%NULL%0,          Asad A.%Usman%NULL%2,          Asad A.%Usman%NULL%0,          Arman%Kilic%NULL%1,          Eric%Gnall%NULL%2,          Eric%Gnall%NULL%0,          Michael E.%Friscia%NULL%1,          Dmitriy%Zubkus%NULL%1,          Hitoshi%Hirose%NULL%2,          Pablo%Sanchez%NULL%1,          Olugbenga%Okusanya%NULL%1,          Wilson Y.%Szeto%NULL%1,          Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,          Claire%Hopkins%NULL%2,          Claire%Hopkins%NULL%0,          Giovanni%Salzano%NULL%2,          Marzia%Petrocelli%NULL%2,          Andrea%Melis%NULL%1,          Marco%Cucurullo%NULL%1,          Mario%Ferrari%NULL%1,          Laura%Gagliardini%NULL%1,          Carlotta%Pipolo%NULL%1,          Giovanna%Deiana%NULL%3,          Vito%Fiore%NULL%1,          Andrea%De Vito%NULL%0,          Nicola%Turra%NULL%1,          Sara%Canu%NULL%1,          Angelantonio%Maglio%NULL%1,          Antonello%Serra%NULL%3,          Antonello%Serra%NULL%0,          Francesco%Bussu%NULL%2,          Giordano%Madeddu%NULL%0,          Sergio%Babudieri%NULL%0,          Alessandro%Giuseppe Fois%NULL%1,          Pietro%Pirina%NULL%0,          Francesco A.%Salzano%NULL%1,          Pierluigi%De Riu%NULL%1,          Federico%Biglioli%NULL%1,          Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,          Farhoud%Faraji%NULL%6,          Farhoud%Faraji%NULL%0,          Divya P.%Prajapati%NULL%4,          Benjamin T.%Ostrander%NULL%2,          Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,          Timothee%Klopfenstein%NULL%1,          Julien%Mercier%NULL%1,          N’dri Juliette%Kadiane-Oussou%NULL%1,          Ludovic%Lan Cheong Wah%NULL%1,          Pierre-Yves%Royer%NULL%1,          Lynda%Toko%NULL%1,          Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,          Aggarwal%Saurabh%coreGivesNoEmail%0,          Garcia-Telles%Nelson%coreGivesNoEmail%0,          Henry%Brandon Michael%coreGivesNoEmail%0,          Lavie%Carl%coreGivesNoEmail%0,          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,           Ana Gabriela Costa%Normando%NULL%1,           Rainier Luiz%Carvalho da Silva%NULL%1,           Renata Monteiro%De Paula%NULL%1,           Allan Christian%Cembranel%NULL%1,           Alan Roger%Santos-Silva%NULL%1,           Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,    Mina%Gheitani%xref no email%1,    Farrokh%Heidari%xref no email%1,    Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,           J. L.%Chico‐García%NULL%4,           J. L.%Chico‐García%NULL%0,           J.%Martínez‐Poles%NULL%2,           F.%Rodríguez‐Jorge%NULL%2,           E.%Natera‐Villalba%NULL%2,           J.%Gómez‐Corral%NULL%4,           J.%Gómez‐Corral%NULL%0,           A.%Gómez‐López%NULL%2,           E.%Monreal%NULL%2,           P.%Parra‐Díaz%NULL%2,           J. L.%Cortés‐Cuevas%NULL%4,           J. L.%Cortés‐Cuevas%NULL%0,           J. C.%Galán%NULL%2,           C.%Fragola‐Arnau%NULL%2,           J.%Porta‐Etessam%NULL%2,           J.%Masjuan%NULL%2,           A.%Alonso‐Cánovas%NULL%4,           A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,           Paul%Le Turnier%NULL%2,           Charles%Declerck%NULL%2,           Cécile%Paillé%NULL%2,           Matthieu%Revest%NULL%2,           Vincent%Dubée%NULL%2,           Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,           Cédric%Arvieux%NULL%2,           Marion%Baldeyrou%NULL%2,           Jean-Marc%Chapplain%NULL%2,           Pauline%Comacle%NULL%2,           Solène%Patrat-Delon%NULL%2,           Anne%Maillard%NULL%2,           Mélanie%Poinot%NULL%2,           Charlotte%Pronier%NULL%2,           Faouzi%Souala%NULL%2,           Vincent%Thibault%NULL%2,           Pierre%Abgueguen%NULL%2,           Hélène%Cormier%NULL%2,           Valérie%Delbos%NULL%2,           Marine%de la Chapelle%NULL%2,           Alexandra%Ducancelle%NULL%2,           Rafael%Mahieu%NULL%2,           Valérie%Rabier%NULL%2,           Sami%Rehaiem%NULL%2,           Yves%Vandamme%NULL%2,           Charlotte%Biron%NULL%2,           Jeanne%Brochon%NULL%2,           David%Boutoille%NULL%0,           Marie%Chauveau%NULL%2,           Colin%Deschanvres%NULL%2,           Benjamin J%Gaborit%NULL%2,           Joël%Jenvrin%NULL%2,           Raphaël%Lecomte%NULL%2,           Maeva%Lefebvre%NULL%2,           François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,            Louis%Valiquette%null%1,            Cynthia%Grenier%null%1,            Jean Berchmans%Musonera%null%1,            Delphin%Nkengurutse%null%1,            Anaïs%Marcil-Héguy%null%1,            Kim%Vettese%null%1,            Dominique%Marcoux%null%1,            Corinne%Valiquette%null%1,            Wei Ting%Xiong%null%1,            Pierre-Hughes%Fortier%null%1,            Mélissa%Généreux%null%1,            Jacques%Pépin%null%1,          Alex%Carignan%null%1,          Louis%Valiquette%null%1,          Cynthia%Grenier%null%1,          Jean Berchmans%Musonera%null%1,          Delphin%Nkengurutse%null%1,          Anaïs%Marcil-Héguy%null%1,          Kim%Vettese%null%1,          Dominique%Marcoux%null%1,          Corinne%Valiquette%null%1,          Wei Ting%Xiong%null%1,          Pierre-Hughes%Fortier%null%1,          Mélissa%Généreux%null%1,          Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,           Hülya%Çaşkurlu%NULL%2,           Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,           Florent%Carsuzaa%NULL%1,           Jean-Paul%Trijolet%NULL%2,           Jean-Paul%Trijolet%NULL%0,           Anne-Laure%Capitaine%NULL%1,           Mariam%Roncato-Saberan%NULL%1,           Kevin%Fouet%NULL%1,           France%Cazenave-Roblot%NULL%0,           Mélanie%Catroux%NULL%1,           Caroline%Allix-Beguec%NULL%1,           Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,          Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,          Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,           Paola%Varese%NULL%2,           Paola%Varese%NULL%0,           Chiara%Dentone%NULL%1,           Emanuela%Barisione%NULL%1,           Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,           Filippo%Farri%NULL%2,           Filippo%Farri%NULL%0,           Giacomo%Garzaro%NULL%1,           Miriam%Gatto%NULL%1,           Paolo%Aluffi Valletti%NULL%0,           Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,           Eleonora%Trecca%NULL%1,           Michele%Cassano%NULL%1,           Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,           Laura%Pezzati%NULL%4,           Laura%Pezzati%NULL%0,           Federico%Conti%NULL%2,           Dario%Bernacchia%NULL%0,           Matteo%Siano%NULL%0,           Letizia%Oreni%NULL%0,           Stefano%Rusconi%NULL%0,           Cristina%Gervasoni%NULL%2,           Anna Lisa%Ridolfo%NULL%0,           Giuliano%Rizzardini%NULL%0,           Spinello%Antinori%NULL%0,           Massimo%Galli%NULL%0,           Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,           M.-J.%Kim%NULL%1,           S.H.%Ra%NULL%1,           J.%Lee%NULL%1,           S.%Bae%NULL%1,           J.%Jung%NULL%1,           S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,           N.J.%Kadiane-Oussou%NULL%2,           L.%Toko%NULL%2,           P.-Y.%Royer%NULL%2,           Q.%Lepiller%NULL%2,           V.%Gendrin%NULL%2,           S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,           Anton G. M.%Buiting%NULL%1,           Suzan D.%Pas%NULL%1,           Robbert G.%Bentvelsen%NULL%1,           Wouter%van den Bijllaardt%NULL%1,           Anne J. G.%van Oudheusden%NULL%1,           Miranda M. L.%van Rijen%NULL%1,           Jaco J.%Verweij%NULL%1,           Marion P. G.%Koopmans%NULL%1,           Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,           Elodie%Schneider%NULL%1,           Isabelle%Vianu%NULL%1,           Guillaume%Dollet%NULL%1,           Bastien%Roche%NULL%1,           Julia%Berdah%NULL%1,           Julie%Michel%NULL%1,           Laurent%Goix%NULL%1,           Erick%Chanzy%NULL%1,           Tomislav%Petrovic%NULL%1,           Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,           Carlos M.%Chiesa-Estomba%NULL%2,           Daniele R.%De Siati%NULL%2,           Mihaela%Horoi%NULL%2,           Serge D.%Le Bon%NULL%2,           Alexandra%Rodriguez%NULL%2,           Didier%Dequanter%NULL%2,           Serge%Blecic%NULL%2,           Fahd%El Afia%NULL%2,           Lea%Distinguin%NULL%2,           Younes%Chekkoury-Idrissi%NULL%2,           Stéphane%Hans%NULL%2,           Irene Lopez%Delgado%NULL%2,           Christian%Calvo-Henriquez%NULL%2,           Philippe%Lavigne%NULL%2,           Chiara%Falanga%NULL%2,           Maria Rosaria%Barillari%NULL%2,           Giovanni%Cammaroto%NULL%2,           Mohamad%Khalife%NULL%2,           Pierre%Leich%NULL%2,           Christel%Souchay%NULL%2,           Camelia%Rossi%NULL%2,           Fabrice%Journe%NULL%2,           Julien%Hsieh%NULL%2,           Myriam%Edjlali%NULL%2,           Robert%Carlier%NULL%2,           Laurence%Ris%NULL%2,           Andrea%Lovato%NULL%2,           Cosimo%De Filippis%NULL%2,           Frederique%Coppee%NULL%2,           Nicolas%Fakhry%NULL%2,           Tareck%Ayad%NULL%2,           Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,           Joel%Lockwood%NULL%2,           Joel%Lockwood%NULL%0,           Paul%Das%NULL%1,           Ri%Wang%NULL%1,           Eitan%Grinspun%NULL%1,           John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,           Pokkee%Min%NULL%2,           Pokkee%Min%NULL%0,           Seonggu%Lee%NULL%2,           Seonggu%Lee%NULL%0,           Shin-Woo%Kim%NULL%0,           Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,    Meital%Elbaz%xref no email%1,    Ronen%Ben-Ami%xref no email%1,    David%Shasha%xref no email%1,    Tal%Levinson%xref no email%1,    Guy%Choshen%xref no email%1,    Ksenia%Petrov%xref no email%1,    Avi%Gadoth%xref no email%1,    Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,           Mariangela%Pierantozzi%NULL%1,           Matteo%Spanetta%NULL%1,           Loredana%Sarmati%NULL%1,           Novella%Cesta%NULL%1,           Marco%Iannetta%NULL%1,           Josuel%Ora%NULL%1,           Grazia Genga%Mina%NULL%1,           Ermanno%Puxeddu%NULL%1,           Ottavia%Balbi%NULL%1,           Gabriella%Pezzuto%NULL%1,           Andrea%Magrini%NULL%1,           Paola%Rogliani%NULL%1,           Massimo%Andreoni%NULL%1,           Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,    Huijuan%Jin%xref no email%0,    Mengdie%Wang%xref no email%0,    Yu%Hu%xref no email%0,    Shengcai%Chen%xref no email%0,    Quanwei%He%xref no email%0,    Jiang%Chang%xref no email%0,    Candong%Hong%xref no email%0,    Yifan%Zhou%xref no email%0,    David%Wang%xref no email%0,    Xiaoping%Miao%xref no email%0,    Yanan%Li%xref no email%0,    Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,           Juan%Amaro Sánchez%NULL%2,           Juan%Amaro Sánchez%NULL%0,           Antonio Francisco%López‐Sánchez%NULL%1,           Enric%Jané‐Salas%NULL%1,           Maria Luisa%Somacarrera Pérez%NULL%2,           Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,           Lorenzo Roberto%Suardi%NULL%2,           Lorenzo Roberto%Suardi%NULL%0,           Michele%Busoni%NULL%1,           Anna Teresa%Roberts%NULL%1,           Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,           Azad A.%Haleem Al Mezori%NULL%1,           Hakar Mustafa%Mohammed%NULL%1,           Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,           Jin Gu%Yoon%NULL%3,           Hye%Seong%NULL%3,           Won Suk%Choi%NULL%1,           Jang Wook%Sohn%NULL%1,           Hee Jin%Cheong%NULL%4,           Woo Joo%Kim%NULL%4,           Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,           Alberto%Schreiber%NULL%1,           Alberto%Grammatica%albertogrammatica@libero.it%1,           Elena%Raffetti%NULL%2,           Elena%Raffetti%NULL%0,           Michele%Tomasoni%NULL%1,           Tommaso%Gualtieri%NULL%1,           Stefano%Taboni%NULL%1,           Silvia%Zorzi%NULL%1,           Davide%Lombardi%NULL%1,           Alberto%Deganello%NULL%1,           Luca Oscar%Redaelli De Zinis%NULL%1,           Roberto%Maroldi%NULL%1,           Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,           E.%Charani%NULL%1,           D.%Ariyanayagam%NULL%1,           A.%Abdulaal%NULL%1,           S.J.%Denny%NULL%1,           N.%Mughal%NULL%1,           L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,           Suko%Adiarto%NULL%1,           Santi Rahayu%Dewayanti%NULL%1,           Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,    Inmaculada%D\u00edaz-Maroto%xref no email%1,    Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,    \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,    Almudena%Layos-Romero%xref no email%1,    Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,    Esther%Gonz\u00e1lez%xref no email%1,    Inmaculada%Redondo-Pe\u00f1as%xref no email%1,    Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,    Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,    Julia%Gracia-Gil%xref no email%1,    Laura%Rojas-Bartolom\u00e9%xref no email%1,    Inmaculada%Feria-Vilar%xref no email%1,    Mar\u00eda%Monteagudo%xref no email%1,    Mar\u00eda%Palao%xref no email%1,    Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,    Cristian%Alcahut-Rodr\u00edguez%xref no email%1,    David%Sopelana-Garay%xref no email%1,    Y\u00f3scar%Moreno%xref no email%1,    Javaad%Ahmad%xref no email%1,    Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,           Kadriye Kart%Yaşar%NULL%1,           Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,    Jaros\u0142aw%Pinkas%xref no email%1,    Mateusz%Jankowski%xref no email%1,    Wojciech S.%Zgliczy\u0144ski%xref no email%1,    Waldemar%Wierzba%xref no email%1,    Mariusz%Gujski%xref no email%1,    \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,           Rejane Andrade%de Carvalho%NULL%1,           Kalline Andrade%de Carvalho%NULL%1,           Maria Goretti Freire%de Carvalho%NULL%1,           Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,           Thirza%Singer-Cornelius%NULL%1,           Michael%Oberle%NULL%1,           Isabelle%Gengler%NULL%1,           Steffi J.%Brockmeier%NULL%1,           Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,           Andreas%Habertheuer%NULL%2,           Andreas%Habertheuer%NULL%0,           Asad A.%Usman%NULL%2,           Asad A.%Usman%NULL%0,           Arman%Kilic%NULL%1,           Eric%Gnall%NULL%2,           Eric%Gnall%NULL%0,           Michael E.%Friscia%NULL%1,           Dmitriy%Zubkus%NULL%1,           Hitoshi%Hirose%NULL%2,           Pablo%Sanchez%NULL%1,           Olugbenga%Okusanya%NULL%1,           Wilson Y.%Szeto%NULL%1,           Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,           Claire%Hopkins%NULL%2,           Claire%Hopkins%NULL%0,           Giovanni%Salzano%NULL%2,           Marzia%Petrocelli%NULL%2,           Andrea%Melis%NULL%1,           Marco%Cucurullo%NULL%1,           Mario%Ferrari%NULL%1,           Laura%Gagliardini%NULL%1,           Carlotta%Pipolo%NULL%1,           Giovanna%Deiana%NULL%3,           Vito%Fiore%NULL%1,           Andrea%De Vito%NULL%0,           Nicola%Turra%NULL%1,           Sara%Canu%NULL%1,           Angelantonio%Maglio%NULL%1,           Antonello%Serra%NULL%3,           Antonello%Serra%NULL%0,           Francesco%Bussu%NULL%2,           Giordano%Madeddu%NULL%0,           Sergio%Babudieri%NULL%0,           Alessandro%Giuseppe Fois%NULL%1,           Pietro%Pirina%NULL%0,           Francesco A.%Salzano%NULL%1,           Pierluigi%De Riu%NULL%1,           Federico%Biglioli%NULL%1,           Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,           Farhoud%Faraji%NULL%6,           Farhoud%Faraji%NULL%0,           Divya P.%Prajapati%NULL%4,           Benjamin T.%Ostrander%NULL%2,           Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,           Timothee%Klopfenstein%NULL%1,           Julien%Mercier%NULL%1,           N’dri Juliette%Kadiane-Oussou%NULL%1,           Ludovic%Lan Cheong Wah%NULL%1,           Pierre-Yves%Royer%NULL%1,           Lynda%Toko%NULL%1,           Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2463,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2258,7 +2492,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -2287,7 +2521,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2316,7 +2550,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -2345,7 +2579,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2374,7 +2608,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2403,7 +2637,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2432,7 +2666,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2461,7 +2695,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2490,7 +2724,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -2519,7 +2753,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -2548,7 +2782,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2577,7 +2811,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2606,7 +2840,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -2635,7 +2869,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -2664,7 +2898,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -2693,7 +2927,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -2722,7 +2956,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2751,7 +2985,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -2780,7 +3014,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -2809,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2838,7 +3072,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -2867,7 +3101,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -2896,7 +3130,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -2925,7 +3159,7 @@
         <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -2983,7 +3217,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -3012,7 +3246,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -3041,7 +3275,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3070,7 +3304,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3099,7 +3333,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3128,7 +3362,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -3157,7 +3391,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3186,7 +3420,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3215,7 +3449,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -3244,7 +3478,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3273,7 +3507,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -3302,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -3331,7 +3565,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3360,7 +3594,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="666">
   <si>
     <t>Doi</t>
   </si>
@@ -2123,6 +2123,285 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,           Timothee%Klopfenstein%NULL%1,           Julien%Mercier%NULL%1,           N’dri Juliette%Kadiane-Oussou%NULL%1,           Ludovic%Lan Cheong Wah%NULL%1,           Pierre-Yves%Royer%NULL%1,           Lynda%Toko%NULL%1,           Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,           Aggarwal%Saurabh%coreGivesNoEmail%0,           Garcia-Telles%Nelson%coreGivesNoEmail%0,           Henry%Brandon Michael%coreGivesNoEmail%0,           Lavie%Carl%coreGivesNoEmail%0,           Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,            Ana Gabriela Costa%Normando%NULL%1,            Rainier Luiz%Carvalho da Silva%NULL%1,            Renata Monteiro%De Paula%NULL%1,            Allan Christian%Cembranel%NULL%1,            Alan Roger%Santos-Silva%NULL%1,            Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,     Mina%Gheitani%xref no email%1,     Farrokh%Heidari%xref no email%1,     Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,            J. L.%Chico‐García%NULL%4,            J. L.%Chico‐García%NULL%0,            J.%Martínez‐Poles%NULL%2,            F.%Rodríguez‐Jorge%NULL%2,            E.%Natera‐Villalba%NULL%2,            J.%Gómez‐Corral%NULL%4,            J.%Gómez‐Corral%NULL%0,            A.%Gómez‐López%NULL%2,            E.%Monreal%NULL%2,            P.%Parra‐Díaz%NULL%2,            J. L.%Cortés‐Cuevas%NULL%4,            J. L.%Cortés‐Cuevas%NULL%0,            J. C.%Galán%NULL%2,            C.%Fragola‐Arnau%NULL%2,            J.%Porta‐Etessam%NULL%2,            J.%Masjuan%NULL%2,            A.%Alonso‐Cánovas%NULL%4,            A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,            Paul%Le Turnier%NULL%2,            Charles%Declerck%NULL%2,            Cécile%Paillé%NULL%2,            Matthieu%Revest%NULL%2,            Vincent%Dubée%NULL%2,            Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,            Cédric%Arvieux%NULL%2,            Marion%Baldeyrou%NULL%2,            Jean-Marc%Chapplain%NULL%2,            Pauline%Comacle%NULL%2,            Solène%Patrat-Delon%NULL%2,            Anne%Maillard%NULL%2,            Mélanie%Poinot%NULL%2,            Charlotte%Pronier%NULL%2,            Faouzi%Souala%NULL%2,            Vincent%Thibault%NULL%2,            Pierre%Abgueguen%NULL%2,            Hélène%Cormier%NULL%2,            Valérie%Delbos%NULL%2,            Marine%de la Chapelle%NULL%2,            Alexandra%Ducancelle%NULL%2,            Rafael%Mahieu%NULL%2,            Valérie%Rabier%NULL%2,            Sami%Rehaiem%NULL%2,            Yves%Vandamme%NULL%2,            Charlotte%Biron%NULL%2,            Jeanne%Brochon%NULL%2,            David%Boutoille%NULL%0,            Marie%Chauveau%NULL%2,            Colin%Deschanvres%NULL%2,            Benjamin J%Gaborit%NULL%2,            Joël%Jenvrin%NULL%2,            Raphaël%Lecomte%NULL%2,            Maeva%Lefebvre%NULL%2,            François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,             Louis%Valiquette%null%1,             Cynthia%Grenier%null%1,             Jean Berchmans%Musonera%null%1,             Delphin%Nkengurutse%null%1,             Anaïs%Marcil-Héguy%null%1,             Kim%Vettese%null%1,             Dominique%Marcoux%null%1,             Corinne%Valiquette%null%1,             Wei Ting%Xiong%null%1,             Pierre-Hughes%Fortier%null%1,             Mélissa%Généreux%null%1,             Jacques%Pépin%null%1,           Alex%Carignan%null%1,           Louis%Valiquette%null%1,           Cynthia%Grenier%null%1,           Jean Berchmans%Musonera%null%1,           Delphin%Nkengurutse%null%1,           Anaïs%Marcil-Héguy%null%1,           Kim%Vettese%null%1,           Dominique%Marcoux%null%1,           Corinne%Valiquette%null%1,           Wei Ting%Xiong%null%1,           Pierre-Hughes%Fortier%null%1,           Mélissa%Généreux%null%1,           Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,            Hülya%Çaşkurlu%NULL%2,            Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,            Florent%Carsuzaa%NULL%1,            Jean-Paul%Trijolet%NULL%2,            Jean-Paul%Trijolet%NULL%0,            Anne-Laure%Capitaine%NULL%1,            Mariam%Roncato-Saberan%NULL%1,            Kevin%Fouet%NULL%1,            France%Cazenave-Roblot%NULL%0,            Mélanie%Catroux%NULL%1,            Caroline%Allix-Beguec%NULL%1,            Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,           Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,           Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,            Paola%Varese%NULL%2,            Paola%Varese%NULL%0,            Chiara%Dentone%NULL%1,            Emanuela%Barisione%NULL%1,            Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,            Filippo%Farri%NULL%2,            Filippo%Farri%NULL%0,            Giacomo%Garzaro%NULL%1,            Miriam%Gatto%NULL%1,            Paolo%Aluffi Valletti%NULL%0,            Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,            Eleonora%Trecca%NULL%1,            Michele%Cassano%NULL%1,            Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,            Laura%Pezzati%NULL%4,            Laura%Pezzati%NULL%0,            Federico%Conti%NULL%2,            Dario%Bernacchia%NULL%0,            Matteo%Siano%NULL%0,            Letizia%Oreni%NULL%0,            Stefano%Rusconi%NULL%0,            Cristina%Gervasoni%NULL%2,            Anna Lisa%Ridolfo%NULL%0,            Giuliano%Rizzardini%NULL%0,            Spinello%Antinori%NULL%0,            Massimo%Galli%NULL%0,            Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,            M.-J.%Kim%NULL%1,            S.H.%Ra%NULL%1,            J.%Lee%NULL%1,            S.%Bae%NULL%1,            J.%Jung%NULL%1,            S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,            N.J.%Kadiane-Oussou%NULL%2,            L.%Toko%NULL%2,            P.-Y.%Royer%NULL%2,            Q.%Lepiller%NULL%2,            V.%Gendrin%NULL%2,            S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,            Anton G. M.%Buiting%NULL%1,            Suzan D.%Pas%NULL%1,            Robbert G.%Bentvelsen%NULL%1,            Wouter%van den Bijllaardt%NULL%1,            Anne J. G.%van Oudheusden%NULL%1,            Miranda M. L.%van Rijen%NULL%1,            Jaco J.%Verweij%NULL%1,            Marion P. G.%Koopmans%NULL%1,            Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,            Elodie%Schneider%NULL%1,            Isabelle%Vianu%NULL%1,            Guillaume%Dollet%NULL%1,            Bastien%Roche%NULL%1,            Julia%Berdah%NULL%1,            Julie%Michel%NULL%1,            Laurent%Goix%NULL%1,            Erick%Chanzy%NULL%1,            Tomislav%Petrovic%NULL%1,            Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,            Carlos M.%Chiesa-Estomba%NULL%2,            Daniele R.%De Siati%NULL%2,            Mihaela%Horoi%NULL%2,            Serge D.%Le Bon%NULL%2,            Alexandra%Rodriguez%NULL%2,            Didier%Dequanter%NULL%2,            Serge%Blecic%NULL%2,            Fahd%El Afia%NULL%2,            Lea%Distinguin%NULL%2,            Younes%Chekkoury-Idrissi%NULL%2,            Stéphane%Hans%NULL%2,            Irene Lopez%Delgado%NULL%2,            Christian%Calvo-Henriquez%NULL%2,            Philippe%Lavigne%NULL%2,            Chiara%Falanga%NULL%2,            Maria Rosaria%Barillari%NULL%2,            Giovanni%Cammaroto%NULL%2,            Mohamad%Khalife%NULL%2,            Pierre%Leich%NULL%2,            Christel%Souchay%NULL%2,            Camelia%Rossi%NULL%2,            Fabrice%Journe%NULL%2,            Julien%Hsieh%NULL%2,            Myriam%Edjlali%NULL%2,            Robert%Carlier%NULL%2,            Laurence%Ris%NULL%2,            Andrea%Lovato%NULL%2,            Cosimo%De Filippis%NULL%2,            Frederique%Coppee%NULL%2,            Nicolas%Fakhry%NULL%2,            Tareck%Ayad%NULL%2,            Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,            Joel%Lockwood%NULL%2,            Joel%Lockwood%NULL%0,            Paul%Das%NULL%1,            Ri%Wang%NULL%1,            Eitan%Grinspun%NULL%1,            John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,            Pokkee%Min%NULL%2,            Pokkee%Min%NULL%0,            Seonggu%Lee%NULL%2,            Seonggu%Lee%NULL%0,            Shin-Woo%Kim%NULL%0,            Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,     Meital%Elbaz%xref no email%1,     Ronen%Ben-Ami%xref no email%1,     David%Shasha%xref no email%1,     Tal%Levinson%xref no email%1,     Guy%Choshen%xref no email%1,     Ksenia%Petrov%xref no email%1,     Avi%Gadoth%xref no email%1,     Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,            Mariangela%Pierantozzi%NULL%1,            Matteo%Spanetta%NULL%1,            Loredana%Sarmati%NULL%1,            Novella%Cesta%NULL%1,            Marco%Iannetta%NULL%1,            Josuel%Ora%NULL%1,            Grazia Genga%Mina%NULL%1,            Ermanno%Puxeddu%NULL%1,            Ottavia%Balbi%NULL%1,            Gabriella%Pezzuto%NULL%1,            Andrea%Magrini%NULL%1,            Paola%Rogliani%NULL%1,            Massimo%Andreoni%NULL%1,            Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,     Huijuan%Jin%xref no email%0,     Mengdie%Wang%xref no email%0,     Yu%Hu%xref no email%0,     Shengcai%Chen%xref no email%0,     Quanwei%He%xref no email%0,     Jiang%Chang%xref no email%0,     Candong%Hong%xref no email%0,     Yifan%Zhou%xref no email%0,     David%Wang%xref no email%0,     Xiaoping%Miao%xref no email%0,     Yanan%Li%xref no email%0,     Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,            Juan%Amaro Sánchez%NULL%2,            Juan%Amaro Sánchez%NULL%0,            Antonio Francisco%López‐Sánchez%NULL%1,            Enric%Jané‐Salas%NULL%1,            Maria Luisa%Somacarrera Pérez%NULL%2,            Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+COVID-19 displays a variety of clinical manifestations; in pauci-symptomatic patients olfactory (OD) and gustatory dysfunctions (GD) may represent the first or only symptom.
+ This topic is currently arousing great interest, and a growing number of papers are being published.
+ Aim of this study is to investigate the timing of recovery from OD and GD in a real-life population hospitalized for COVID-19.
+Methods
+We followed up by a phone interview the first 100 patients discharged a month earlier from three Italian non-intensive care wards.
+Results
+All 100 patients were Caucasian, mean age was 65 years, 60% were males.
+ Forty-two patients (mean age 63 years) experienced subjective chemosensory dysfunctions (29 OD and 41 GD): the male/female ratio was 2:1; 83% reported a complete or near complete recovery at follow-up.
+ The recovery rate was not significantly different between males and females.
+ The mean duration of OD and GD was 18 and 16 days, respectively.
+ The mean recovery time from OD or GD resulted significantly longer for females than for males (26 vs 14 days, P = 0.009).
+ Among the 42 symptomatic, the mean age of males was significantly higher than that of females (66 vs 57 years, P = 0.04), while the opposite was observed in the 58 asymptomatic patients (60 vs 73 years, P = 0.0018).
+Conclusions
+Recovery from OD or GD was rapid, occurring within 4 weeks in most patients.
+ Chemosensory dysfunctions in women was less frequent, but longer lasting.
+ The value of our study is its focus on a population of hospitalized patients significantly older than those previously described, and the additional data on gender differences.
+</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,            Lorenzo Roberto%Suardi%NULL%2,            Lorenzo Roberto%Suardi%NULL%0,            Michele%Busoni%NULL%1,            Anna Teresa%Roberts%NULL%1,            Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,            Azad A.%Haleem Al Mezori%NULL%1,            Hakar Mustafa%Mohammed%NULL%1,            Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,            Jin Gu%Yoon%NULL%3,            Hye%Seong%NULL%3,            Won Suk%Choi%NULL%1,            Jang Wook%Sohn%NULL%1,            Hee Jin%Cheong%NULL%4,            Woo Joo%Kim%NULL%4,            Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,            Alberto%Schreiber%NULL%1,            Alberto%Grammatica%albertogrammatica@libero.it%1,            Elena%Raffetti%NULL%2,            Elena%Raffetti%NULL%0,            Michele%Tomasoni%NULL%1,            Tommaso%Gualtieri%NULL%1,            Stefano%Taboni%NULL%1,            Silvia%Zorzi%NULL%1,            Davide%Lombardi%NULL%1,            Alberto%Deganello%NULL%1,            Luca Oscar%Redaelli De Zinis%NULL%1,            Roberto%Maroldi%NULL%1,            Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,            E.%Charani%NULL%1,            D.%Ariyanayagam%NULL%1,            A.%Abdulaal%NULL%1,            S.J.%Denny%NULL%1,            N.%Mughal%NULL%1,            L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,            Suko%Adiarto%NULL%1,            Santi Rahayu%Dewayanti%NULL%1,            Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,     Inmaculada%D\u00edaz-Maroto%xref no email%1,     Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,     \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,     Almudena%Layos-Romero%xref no email%1,     Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,     Esther%Gonz\u00e1lez%xref no email%1,     Inmaculada%Redondo-Pe\u00f1as%xref no email%1,     Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,     Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,     Julia%Gracia-Gil%xref no email%1,     Laura%Rojas-Bartolom\u00e9%xref no email%1,     Inmaculada%Feria-Vilar%xref no email%1,     Mar\u00eda%Monteagudo%xref no email%1,     Mar\u00eda%Palao%xref no email%1,     Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,     Cristian%Alcahut-Rodr\u00edguez%xref no email%1,     David%Sopelana-Garay%xref no email%1,     Y\u00f3scar%Moreno%xref no email%1,     Javaad%Ahmad%xref no email%1,     Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,            Kadriye Kart%Yaşar%NULL%1,            Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,     Jaros\u0142aw%Pinkas%xref no email%1,     Mateusz%Jankowski%xref no email%1,     Wojciech S.%Zgliczy\u0144ski%xref no email%1,     Waldemar%Wierzba%xref no email%1,     Mariusz%Gujski%xref no email%1,     \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,            Rejane Andrade%de Carvalho%NULL%1,            Kalline Andrade%de Carvalho%NULL%1,            Maria Goretti Freire%de Carvalho%NULL%1,            Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,            Thirza%Singer-Cornelius%NULL%1,            Michael%Oberle%NULL%1,            Isabelle%Gengler%NULL%1,            Steffi J.%Brockmeier%NULL%1,            Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,            Andreas%Habertheuer%NULL%2,            Andreas%Habertheuer%NULL%0,            Asad A.%Usman%NULL%2,            Asad A.%Usman%NULL%0,            Arman%Kilic%NULL%1,            Eric%Gnall%NULL%2,            Eric%Gnall%NULL%0,            Michael E.%Friscia%NULL%1,            Dmitriy%Zubkus%NULL%1,            Hitoshi%Hirose%NULL%2,            Pablo%Sanchez%NULL%1,            Olugbenga%Okusanya%NULL%1,            Wilson Y.%Szeto%NULL%1,            Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,            Claire%Hopkins%NULL%2,            Claire%Hopkins%NULL%0,            Giovanni%Salzano%NULL%2,            Marzia%Petrocelli%NULL%2,            Andrea%Melis%NULL%1,            Marco%Cucurullo%NULL%1,            Mario%Ferrari%NULL%1,            Laura%Gagliardini%NULL%1,            Carlotta%Pipolo%NULL%1,            Giovanna%Deiana%NULL%3,            Vito%Fiore%NULL%1,            Andrea%De Vito%NULL%0,            Nicola%Turra%NULL%1,            Sara%Canu%NULL%1,            Angelantonio%Maglio%NULL%1,            Antonello%Serra%NULL%3,            Antonello%Serra%NULL%0,            Francesco%Bussu%NULL%2,            Giordano%Madeddu%NULL%0,            Sergio%Babudieri%NULL%0,            Alessandro%Giuseppe Fois%NULL%1,            Pietro%Pirina%NULL%0,            Francesco A.%Salzano%NULL%1,            Pierluigi%De Riu%NULL%1,            Federico%Biglioli%NULL%1,            Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,            Farhoud%Faraji%NULL%6,            Farhoud%Faraji%NULL%0,            Divya P.%Prajapati%NULL%4,            Benjamin T.%Ostrander%NULL%2,            Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,            Timothee%Klopfenstein%NULL%1,            Julien%Mercier%NULL%1,            N’dri Juliette%Kadiane-Oussou%NULL%1,            Ludovic%Lan Cheong Wah%NULL%1,            Pierre-Yves%Royer%NULL%1,            Lynda%Toko%NULL%1,            Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,            Aggarwal%Saurabh%coreGivesNoEmail%0,            Garcia-Telles%Nelson%coreGivesNoEmail%0,            Henry%Brandon Michael%coreGivesNoEmail%0,            Lavie%Carl%coreGivesNoEmail%0,            Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,             Ana Gabriela Costa%Normando%NULL%1,             Rainier Luiz%Carvalho da Silva%NULL%1,             Renata Monteiro%De Paula%NULL%1,             Allan Christian%Cembranel%NULL%1,             Alan Roger%Santos-Silva%NULL%1,             Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,      Mina%Gheitani%xref no email%1,      Farrokh%Heidari%xref no email%1,      Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,             J. L.%Chico‐García%NULL%4,             J. L.%Chico‐García%NULL%0,             J.%Martínez‐Poles%NULL%2,             F.%Rodríguez‐Jorge%NULL%2,             E.%Natera‐Villalba%NULL%2,             J.%Gómez‐Corral%NULL%4,             J.%Gómez‐Corral%NULL%0,             A.%Gómez‐López%NULL%2,             E.%Monreal%NULL%2,             P.%Parra‐Díaz%NULL%2,             J. L.%Cortés‐Cuevas%NULL%4,             J. L.%Cortés‐Cuevas%NULL%0,             J. C.%Galán%NULL%2,             C.%Fragola‐Arnau%NULL%2,             J.%Porta‐Etessam%NULL%2,             J.%Masjuan%NULL%2,             A.%Alonso‐Cánovas%NULL%4,             A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,             Paul%Le Turnier%NULL%2,             Charles%Declerck%NULL%2,             Cécile%Paillé%NULL%2,             Matthieu%Revest%NULL%2,             Vincent%Dubée%NULL%2,             Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,             Cédric%Arvieux%NULL%2,             Marion%Baldeyrou%NULL%2,             Jean-Marc%Chapplain%NULL%2,             Pauline%Comacle%NULL%2,             Solène%Patrat-Delon%NULL%2,             Anne%Maillard%NULL%2,             Mélanie%Poinot%NULL%2,             Charlotte%Pronier%NULL%2,             Faouzi%Souala%NULL%2,             Vincent%Thibault%NULL%2,             Pierre%Abgueguen%NULL%2,             Hélène%Cormier%NULL%2,             Valérie%Delbos%NULL%2,             Marine%de la Chapelle%NULL%2,             Alexandra%Ducancelle%NULL%2,             Rafael%Mahieu%NULL%2,             Valérie%Rabier%NULL%2,             Sami%Rehaiem%NULL%2,             Yves%Vandamme%NULL%2,             Charlotte%Biron%NULL%2,             Jeanne%Brochon%NULL%2,             David%Boutoille%NULL%0,             Marie%Chauveau%NULL%2,             Colin%Deschanvres%NULL%2,             Benjamin J%Gaborit%NULL%2,             Joël%Jenvrin%NULL%2,             Raphaël%Lecomte%NULL%2,             Maeva%Lefebvre%NULL%2,             François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,              Louis%Valiquette%null%1,              Cynthia%Grenier%null%1,              Jean Berchmans%Musonera%null%1,              Delphin%Nkengurutse%null%1,              Anaïs%Marcil-Héguy%null%1,              Kim%Vettese%null%1,              Dominique%Marcoux%null%1,              Corinne%Valiquette%null%1,              Wei Ting%Xiong%null%1,              Pierre-Hughes%Fortier%null%1,              Mélissa%Généreux%null%1,              Jacques%Pépin%null%1,            Alex%Carignan%null%1,            Louis%Valiquette%null%1,            Cynthia%Grenier%null%1,            Jean Berchmans%Musonera%null%1,            Delphin%Nkengurutse%null%1,            Anaïs%Marcil-Héguy%null%1,            Kim%Vettese%null%1,            Dominique%Marcoux%null%1,            Corinne%Valiquette%null%1,            Wei Ting%Xiong%null%1,            Pierre-Hughes%Fortier%null%1,            Mélissa%Généreux%null%1,            Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,             Hülya%Çaşkurlu%NULL%2,             Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,             Florent%Carsuzaa%NULL%1,             Jean-Paul%Trijolet%NULL%2,             Jean-Paul%Trijolet%NULL%0,             Anne-Laure%Capitaine%NULL%1,             Mariam%Roncato-Saberan%NULL%1,             Kevin%Fouet%NULL%1,             France%Cazenave-Roblot%NULL%0,             Mélanie%Catroux%NULL%1,             Caroline%Allix-Beguec%NULL%1,             Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,            Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,            Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,             Paola%Varese%NULL%2,             Paola%Varese%NULL%0,             Chiara%Dentone%NULL%1,             Emanuela%Barisione%NULL%1,             Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,             Filippo%Farri%NULL%2,             Filippo%Farri%NULL%0,             Giacomo%Garzaro%NULL%1,             Miriam%Gatto%NULL%1,             Paolo%Aluffi Valletti%NULL%0,             Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,             Eleonora%Trecca%NULL%1,             Michele%Cassano%NULL%1,             Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,             Laura%Pezzati%NULL%4,             Laura%Pezzati%NULL%0,             Federico%Conti%NULL%2,             Dario%Bernacchia%NULL%0,             Matteo%Siano%NULL%0,             Letizia%Oreni%NULL%0,             Stefano%Rusconi%NULL%0,             Cristina%Gervasoni%NULL%2,             Anna Lisa%Ridolfo%NULL%0,             Giuliano%Rizzardini%NULL%0,             Spinello%Antinori%NULL%0,             Massimo%Galli%NULL%0,             Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,             M.-J.%Kim%NULL%1,             S.H.%Ra%NULL%1,             J.%Lee%NULL%1,             S.%Bae%NULL%1,             J.%Jung%NULL%1,             S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,             N.J.%Kadiane-Oussou%NULL%2,             L.%Toko%NULL%2,             P.-Y.%Royer%NULL%2,             Q.%Lepiller%NULL%2,             V.%Gendrin%NULL%2,             S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,             Anton G. M.%Buiting%NULL%1,             Suzan D.%Pas%NULL%1,             Robbert G.%Bentvelsen%NULL%1,             Wouter%van den Bijllaardt%NULL%1,             Anne J. G.%van Oudheusden%NULL%1,             Miranda M. L.%van Rijen%NULL%1,             Jaco J.%Verweij%NULL%1,             Marion P. G.%Koopmans%NULL%1,             Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,             Elodie%Schneider%NULL%1,             Isabelle%Vianu%NULL%1,             Guillaume%Dollet%NULL%1,             Bastien%Roche%NULL%1,             Julia%Berdah%NULL%1,             Julie%Michel%NULL%1,             Laurent%Goix%NULL%1,             Erick%Chanzy%NULL%1,             Tomislav%Petrovic%NULL%1,             Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,             Carlos M.%Chiesa-Estomba%NULL%2,             Daniele R.%De Siati%NULL%2,             Mihaela%Horoi%NULL%2,             Serge D.%Le Bon%NULL%2,             Alexandra%Rodriguez%NULL%2,             Didier%Dequanter%NULL%2,             Serge%Blecic%NULL%2,             Fahd%El Afia%NULL%2,             Lea%Distinguin%NULL%2,             Younes%Chekkoury-Idrissi%NULL%2,             Stéphane%Hans%NULL%2,             Irene Lopez%Delgado%NULL%2,             Christian%Calvo-Henriquez%NULL%2,             Philippe%Lavigne%NULL%2,             Chiara%Falanga%NULL%2,             Maria Rosaria%Barillari%NULL%2,             Giovanni%Cammaroto%NULL%2,             Mohamad%Khalife%NULL%2,             Pierre%Leich%NULL%2,             Christel%Souchay%NULL%2,             Camelia%Rossi%NULL%2,             Fabrice%Journe%NULL%2,             Julien%Hsieh%NULL%2,             Myriam%Edjlali%NULL%2,             Robert%Carlier%NULL%2,             Laurence%Ris%NULL%2,             Andrea%Lovato%NULL%2,             Cosimo%De Filippis%NULL%2,             Frederique%Coppee%NULL%2,             Nicolas%Fakhry%NULL%2,             Tareck%Ayad%NULL%2,             Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,             Joel%Lockwood%NULL%2,             Joel%Lockwood%NULL%0,             Paul%Das%NULL%1,             Ri%Wang%NULL%1,             Eitan%Grinspun%NULL%1,             John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,             Pokkee%Min%NULL%2,             Pokkee%Min%NULL%0,             Seonggu%Lee%NULL%2,             Seonggu%Lee%NULL%0,             Shin-Woo%Kim%NULL%0,             Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,      Meital%Elbaz%xref no email%1,      Ronen%Ben-Ami%xref no email%1,      David%Shasha%xref no email%1,      Tal%Levinson%xref no email%1,      Guy%Choshen%xref no email%1,      Ksenia%Petrov%xref no email%1,      Avi%Gadoth%xref no email%1,      Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,             Mariangela%Pierantozzi%NULL%1,             Matteo%Spanetta%NULL%1,             Loredana%Sarmati%NULL%1,             Novella%Cesta%NULL%1,             Marco%Iannetta%NULL%1,             Josuel%Ora%NULL%1,             Grazia Genga%Mina%NULL%1,             Ermanno%Puxeddu%NULL%1,             Ottavia%Balbi%NULL%1,             Gabriella%Pezzuto%NULL%1,             Andrea%Magrini%NULL%1,             Paola%Rogliani%NULL%1,             Massimo%Andreoni%NULL%1,             Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,      Huijuan%Jin%xref no email%0,      Mengdie%Wang%xref no email%0,      Yu%Hu%xref no email%0,      Shengcai%Chen%xref no email%0,      Quanwei%He%xref no email%0,      Jiang%Chang%xref no email%0,      Candong%Hong%xref no email%0,      Yifan%Zhou%xref no email%0,      David%Wang%xref no email%0,      Xiaoping%Miao%xref no email%0,      Yanan%Li%xref no email%0,      Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,             Juan%Amaro Sánchez%NULL%2,             Juan%Amaro Sánchez%NULL%0,             Antonio Francisco%López‐Sánchez%NULL%1,             Enric%Jané‐Salas%NULL%1,             Maria Luisa%Somacarrera Pérez%NULL%2,             Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,             Lorenzo Roberto%Suardi%NULL%2,             Lorenzo Roberto%Suardi%NULL%0,             Michele%Busoni%NULL%1,             Anna Teresa%Roberts%NULL%1,             Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,             Azad A.%Haleem Al Mezori%NULL%1,             Hakar Mustafa%Mohammed%NULL%1,             Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,             Jin Gu%Yoon%NULL%3,             Hye%Seong%NULL%3,             Won Suk%Choi%NULL%1,             Jang Wook%Sohn%NULL%1,             Hee Jin%Cheong%NULL%4,             Woo Joo%Kim%NULL%4,             Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,             Alberto%Schreiber%NULL%1,             Alberto%Grammatica%albertogrammatica@libero.it%1,             Elena%Raffetti%NULL%2,             Elena%Raffetti%NULL%0,             Michele%Tomasoni%NULL%1,             Tommaso%Gualtieri%NULL%1,             Stefano%Taboni%NULL%1,             Silvia%Zorzi%NULL%1,             Davide%Lombardi%NULL%1,             Alberto%Deganello%NULL%1,             Luca Oscar%Redaelli De Zinis%NULL%1,             Roberto%Maroldi%NULL%1,             Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,             E.%Charani%NULL%1,             D.%Ariyanayagam%NULL%1,             A.%Abdulaal%NULL%1,             S.J.%Denny%NULL%1,             N.%Mughal%NULL%1,             L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,             Suko%Adiarto%NULL%1,             Santi Rahayu%Dewayanti%NULL%1,             Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,      Inmaculada%D\u00edaz-Maroto%xref no email%1,      Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,      \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,      Almudena%Layos-Romero%xref no email%1,      Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,      Esther%Gonz\u00e1lez%xref no email%1,      Inmaculada%Redondo-Pe\u00f1as%xref no email%1,      Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,      Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,      Julia%Gracia-Gil%xref no email%1,      Laura%Rojas-Bartolom\u00e9%xref no email%1,      Inmaculada%Feria-Vilar%xref no email%1,      Mar\u00eda%Monteagudo%xref no email%1,      Mar\u00eda%Palao%xref no email%1,      Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,      Cristian%Alcahut-Rodr\u00edguez%xref no email%1,      David%Sopelana-Garay%xref no email%1,      Y\u00f3scar%Moreno%xref no email%1,      Javaad%Ahmad%xref no email%1,      Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,             Kadriye Kart%Yaşar%NULL%1,             Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,      Jaros\u0142aw%Pinkas%xref no email%1,      Mateusz%Jankowski%xref no email%1,      Wojciech S.%Zgliczy\u0144ski%xref no email%1,      Waldemar%Wierzba%xref no email%1,      Mariusz%Gujski%xref no email%1,      \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,             Rejane Andrade%de Carvalho%NULL%1,             Kalline Andrade%de Carvalho%NULL%1,             Maria Goretti Freire%de Carvalho%NULL%1,             Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,             Thirza%Singer-Cornelius%NULL%1,             Michael%Oberle%NULL%1,             Isabelle%Gengler%NULL%1,             Steffi J.%Brockmeier%NULL%1,             Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,             Andreas%Habertheuer%NULL%2,             Andreas%Habertheuer%NULL%0,             Asad A.%Usman%NULL%2,             Asad A.%Usman%NULL%0,             Arman%Kilic%NULL%1,             Eric%Gnall%NULL%2,             Eric%Gnall%NULL%0,             Michael E.%Friscia%NULL%1,             Dmitriy%Zubkus%NULL%1,             Hitoshi%Hirose%NULL%2,             Pablo%Sanchez%NULL%1,             Olugbenga%Okusanya%NULL%1,             Wilson Y.%Szeto%NULL%1,             Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,             Claire%Hopkins%NULL%2,             Claire%Hopkins%NULL%0,             Giovanni%Salzano%NULL%2,             Marzia%Petrocelli%NULL%2,             Andrea%Melis%NULL%1,             Marco%Cucurullo%NULL%1,             Mario%Ferrari%NULL%1,             Laura%Gagliardini%NULL%1,             Carlotta%Pipolo%NULL%1,             Giovanna%Deiana%NULL%3,             Vito%Fiore%NULL%1,             Andrea%De Vito%NULL%0,             Nicola%Turra%NULL%1,             Sara%Canu%NULL%1,             Angelantonio%Maglio%NULL%1,             Antonello%Serra%NULL%3,             Antonello%Serra%NULL%0,             Francesco%Bussu%NULL%2,             Giordano%Madeddu%NULL%0,             Sergio%Babudieri%NULL%0,             Alessandro%Giuseppe Fois%NULL%1,             Pietro%Pirina%NULL%0,             Francesco A.%Salzano%NULL%1,             Pierluigi%De Riu%NULL%1,             Federico%Biglioli%NULL%1,             Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,             Farhoud%Faraji%NULL%6,             Farhoud%Faraji%NULL%0,             Divya P.%Prajapati%NULL%4,             Benjamin T.%Ostrander%NULL%2,             Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,             Timothee%Klopfenstein%NULL%1,             Julien%Mercier%NULL%1,             N’dri Juliette%Kadiane-Oussou%NULL%1,             Ludovic%Lan Cheong Wah%NULL%1,             Pierre-Yves%Royer%NULL%1,             Lynda%Toko%NULL%1,             Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2742,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2492,7 +2771,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -2521,7 +2800,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2550,7 +2829,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -2579,7 +2858,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2608,7 +2887,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2637,7 +2916,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2666,7 +2945,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2695,7 +2974,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2724,7 +3003,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>556</v>
+        <v>636</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -2753,7 +3032,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -2782,7 +3061,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2811,7 +3090,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2840,7 +3119,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -2869,7 +3148,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -2898,7 +3177,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -2927,7 +3206,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -2953,10 +3232,10 @@
         <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2985,7 +3264,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3014,7 +3293,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3043,7 +3322,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3072,7 +3351,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3101,7 +3380,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3130,7 +3409,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3156,10 +3435,10 @@
         <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>571</v>
+        <v>651</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -3217,7 +3496,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -3246,7 +3525,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -3275,7 +3554,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3304,7 +3583,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3333,7 +3612,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3362,7 +3641,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -3391,7 +3670,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>578</v>
+        <v>658</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3420,7 +3699,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>579</v>
+        <v>659</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3449,7 +3728,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -3478,7 +3757,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>581</v>
+        <v>661</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3507,7 +3786,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -3536,7 +3815,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>583</v>
+        <v>663</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -3565,7 +3844,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>584</v>
+        <v>664</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3594,7 +3873,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="705">
   <si>
     <t>Doi</t>
   </si>
@@ -2402,6 +2402,123 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,             Timothee%Klopfenstein%NULL%1,             Julien%Mercier%NULL%1,             N’dri Juliette%Kadiane-Oussou%NULL%1,             Ludovic%Lan Cheong Wah%NULL%1,             Pierre-Yves%Royer%NULL%1,             Lynda%Toko%NULL%1,             Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,             Aggarwal%Saurabh%coreGivesNoEmail%0,             Garcia-Telles%Nelson%coreGivesNoEmail%0,             Henry%Brandon Michael%coreGivesNoEmail%0,             Lavie%Carl%coreGivesNoEmail%0,             Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,              Ana Gabriela Costa%Normando%NULL%1,              Rainier Luiz%Carvalho da Silva%NULL%1,              Renata Monteiro%De Paula%NULL%1,              Allan Christian%Cembranel%NULL%1,              Alan Roger%Santos-Silva%NULL%1,              Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,       Mina%Gheitani%xref no email%1,       Farrokh%Heidari%xref no email%1,       Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,              J. L.%Chico‐García%NULL%4,              J. L.%Chico‐García%NULL%0,              J.%Martínez‐Poles%NULL%2,              F.%Rodríguez‐Jorge%NULL%2,              E.%Natera‐Villalba%NULL%2,              J.%Gómez‐Corral%NULL%4,              J.%Gómez‐Corral%NULL%0,              A.%Gómez‐López%NULL%2,              E.%Monreal%NULL%2,              P.%Parra‐Díaz%NULL%2,              J. L.%Cortés‐Cuevas%NULL%4,              J. L.%Cortés‐Cuevas%NULL%0,              J. C.%Galán%NULL%2,              C.%Fragola‐Arnau%NULL%2,              J.%Porta‐Etessam%NULL%2,              J.%Masjuan%NULL%2,              A.%Alonso‐Cánovas%NULL%4,              A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,              Paul%Le Turnier%NULL%2,              Charles%Declerck%NULL%2,              Cécile%Paillé%NULL%2,              Matthieu%Revest%NULL%2,              Vincent%Dubée%NULL%2,              Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,              Cédric%Arvieux%NULL%2,              Marion%Baldeyrou%NULL%2,              Jean-Marc%Chapplain%NULL%2,              Pauline%Comacle%NULL%2,              Solène%Patrat-Delon%NULL%2,              Anne%Maillard%NULL%2,              Mélanie%Poinot%NULL%2,              Charlotte%Pronier%NULL%2,              Faouzi%Souala%NULL%2,              Vincent%Thibault%NULL%2,              Pierre%Abgueguen%NULL%2,              Hélène%Cormier%NULL%2,              Valérie%Delbos%NULL%2,              Marine%de la Chapelle%NULL%2,              Alexandra%Ducancelle%NULL%2,              Rafael%Mahieu%NULL%2,              Valérie%Rabier%NULL%2,              Sami%Rehaiem%NULL%2,              Yves%Vandamme%NULL%2,              Charlotte%Biron%NULL%2,              Jeanne%Brochon%NULL%2,              David%Boutoille%NULL%0,              Marie%Chauveau%NULL%2,              Colin%Deschanvres%NULL%2,              Benjamin J%Gaborit%NULL%2,              Joël%Jenvrin%NULL%2,              Raphaël%Lecomte%NULL%2,              Maeva%Lefebvre%NULL%2,              François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,               Louis%Valiquette%null%1,               Cynthia%Grenier%null%1,               Jean Berchmans%Musonera%null%1,               Delphin%Nkengurutse%null%1,               Anaïs%Marcil-Héguy%null%1,               Kim%Vettese%null%1,               Dominique%Marcoux%null%1,               Corinne%Valiquette%null%1,               Wei Ting%Xiong%null%1,               Pierre-Hughes%Fortier%null%1,               Mélissa%Généreux%null%1,               Jacques%Pépin%null%1,             Alex%Carignan%null%1,             Louis%Valiquette%null%1,             Cynthia%Grenier%null%1,             Jean Berchmans%Musonera%null%1,             Delphin%Nkengurutse%null%1,             Anaïs%Marcil-Héguy%null%1,             Kim%Vettese%null%1,             Dominique%Marcoux%null%1,             Corinne%Valiquette%null%1,             Wei Ting%Xiong%null%1,             Pierre-Hughes%Fortier%null%1,             Mélissa%Généreux%null%1,             Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,              Hülya%Çaşkurlu%NULL%2,              Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,              Florent%Carsuzaa%NULL%1,              Jean-Paul%Trijolet%NULL%2,              Jean-Paul%Trijolet%NULL%0,              Anne-Laure%Capitaine%NULL%1,              Mariam%Roncato-Saberan%NULL%1,              Kevin%Fouet%NULL%1,              France%Cazenave-Roblot%NULL%0,              Mélanie%Catroux%NULL%1,              Caroline%Allix-Beguec%NULL%1,              Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,             Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,             Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,              Paola%Varese%NULL%2,              Paola%Varese%NULL%0,              Chiara%Dentone%NULL%1,              Emanuela%Barisione%NULL%1,              Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,              Filippo%Farri%NULL%2,              Filippo%Farri%NULL%0,              Giacomo%Garzaro%NULL%1,              Miriam%Gatto%NULL%1,              Paolo%Aluffi Valletti%NULL%0,              Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,              Eleonora%Trecca%NULL%1,              Michele%Cassano%NULL%1,              Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,              Laura%Pezzati%NULL%4,              Laura%Pezzati%NULL%0,              Federico%Conti%NULL%2,              Dario%Bernacchia%NULL%0,              Matteo%Siano%NULL%0,              Letizia%Oreni%NULL%0,              Stefano%Rusconi%NULL%0,              Cristina%Gervasoni%NULL%2,              Anna Lisa%Ridolfo%NULL%0,              Giuliano%Rizzardini%NULL%0,              Spinello%Antinori%NULL%0,              Massimo%Galli%NULL%0,              Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,              M.-J.%Kim%NULL%1,              S.H.%Ra%NULL%1,              J.%Lee%NULL%1,              S.%Bae%NULL%1,              J.%Jung%NULL%1,              S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,              N.J.%Kadiane-Oussou%NULL%2,              L.%Toko%NULL%2,              P.-Y.%Royer%NULL%2,              Q.%Lepiller%NULL%2,              V.%Gendrin%NULL%2,              S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,              Anton G. M.%Buiting%NULL%1,              Suzan D.%Pas%NULL%1,              Robbert G.%Bentvelsen%NULL%1,              Wouter%van den Bijllaardt%NULL%1,              Anne J. G.%van Oudheusden%NULL%1,              Miranda M. L.%van Rijen%NULL%1,              Jaco J.%Verweij%NULL%1,              Marion P. G.%Koopmans%NULL%1,              Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,              Elodie%Schneider%NULL%1,              Isabelle%Vianu%NULL%1,              Guillaume%Dollet%NULL%1,              Bastien%Roche%NULL%1,              Julia%Berdah%NULL%1,              Julie%Michel%NULL%1,              Laurent%Goix%NULL%1,              Erick%Chanzy%NULL%1,              Tomislav%Petrovic%NULL%1,              Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,              Carlos M.%Chiesa-Estomba%NULL%2,              Daniele R.%De Siati%NULL%2,              Mihaela%Horoi%NULL%2,              Serge D.%Le Bon%NULL%2,              Alexandra%Rodriguez%NULL%2,              Didier%Dequanter%NULL%2,              Serge%Blecic%NULL%2,              Fahd%El Afia%NULL%2,              Lea%Distinguin%NULL%2,              Younes%Chekkoury-Idrissi%NULL%2,              Stéphane%Hans%NULL%2,              Irene Lopez%Delgado%NULL%2,              Christian%Calvo-Henriquez%NULL%2,              Philippe%Lavigne%NULL%2,              Chiara%Falanga%NULL%2,              Maria Rosaria%Barillari%NULL%2,              Giovanni%Cammaroto%NULL%2,              Mohamad%Khalife%NULL%2,              Pierre%Leich%NULL%2,              Christel%Souchay%NULL%2,              Camelia%Rossi%NULL%2,              Fabrice%Journe%NULL%2,              Julien%Hsieh%NULL%2,              Myriam%Edjlali%NULL%2,              Robert%Carlier%NULL%2,              Laurence%Ris%NULL%2,              Andrea%Lovato%NULL%2,              Cosimo%De Filippis%NULL%2,              Frederique%Coppee%NULL%2,              Nicolas%Fakhry%NULL%2,              Tareck%Ayad%NULL%2,              Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,              Joel%Lockwood%NULL%2,              Joel%Lockwood%NULL%0,              Paul%Das%NULL%1,              Ri%Wang%NULL%1,              Eitan%Grinspun%NULL%1,              John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,              Pokkee%Min%NULL%2,              Pokkee%Min%NULL%0,              Seonggu%Lee%NULL%2,              Seonggu%Lee%NULL%0,              Shin-Woo%Kim%NULL%0,              Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,       Meital%Elbaz%xref no email%1,       Ronen%Ben-Ami%xref no email%1,       David%Shasha%xref no email%1,       Tal%Levinson%xref no email%1,       Guy%Choshen%xref no email%1,       Ksenia%Petrov%xref no email%1,       Avi%Gadoth%xref no email%1,       Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,              Mariangela%Pierantozzi%NULL%1,              Matteo%Spanetta%NULL%1,              Loredana%Sarmati%NULL%1,              Novella%Cesta%NULL%1,              Marco%Iannetta%NULL%1,              Josuel%Ora%NULL%1,              Grazia Genga%Mina%NULL%1,              Ermanno%Puxeddu%NULL%1,              Ottavia%Balbi%NULL%1,              Gabriella%Pezzuto%NULL%1,              Andrea%Magrini%NULL%1,              Paola%Rogliani%NULL%1,              Massimo%Andreoni%NULL%1,              Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,       Huijuan%Jin%xref no email%0,       Mengdie%Wang%xref no email%0,       Yu%Hu%xref no email%0,       Shengcai%Chen%xref no email%0,       Quanwei%He%xref no email%0,       Jiang%Chang%xref no email%0,       Candong%Hong%xref no email%0,       Yifan%Zhou%xref no email%0,       David%Wang%xref no email%0,       Xiaoping%Miao%xref no email%0,       Yanan%Li%xref no email%0,       Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,              Juan%Amaro Sánchez%NULL%2,              Juan%Amaro Sánchez%NULL%0,              Antonio Francisco%López‐Sánchez%NULL%1,              Enric%Jané‐Salas%NULL%1,              Maria Luisa%Somacarrera Pérez%NULL%2,              Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,              Lorenzo Roberto%Suardi%NULL%2,              Lorenzo Roberto%Suardi%NULL%0,              Michele%Busoni%NULL%1,              Anna Teresa%Roberts%NULL%1,              Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,              Azad A.%Haleem Al Mezori%NULL%1,              Hakar Mustafa%Mohammed%NULL%1,              Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,              Jin Gu%Yoon%NULL%3,              Hye%Seong%NULL%3,              Won Suk%Choi%NULL%1,              Jang Wook%Sohn%NULL%1,              Hee Jin%Cheong%NULL%4,              Woo Joo%Kim%NULL%4,              Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,              Alberto%Schreiber%NULL%1,              Alberto%Grammatica%albertogrammatica@libero.it%1,              Elena%Raffetti%NULL%2,              Elena%Raffetti%NULL%0,              Michele%Tomasoni%NULL%1,              Tommaso%Gualtieri%NULL%1,              Stefano%Taboni%NULL%1,              Silvia%Zorzi%NULL%1,              Davide%Lombardi%NULL%1,              Alberto%Deganello%NULL%1,              Luca Oscar%Redaelli De Zinis%NULL%1,              Roberto%Maroldi%NULL%1,              Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,              E.%Charani%NULL%1,              D.%Ariyanayagam%NULL%1,              A.%Abdulaal%NULL%1,              S.J.%Denny%NULL%1,              N.%Mughal%NULL%1,              L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,              Suko%Adiarto%NULL%1,              Santi Rahayu%Dewayanti%NULL%1,              Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,       Inmaculada%D\u00edaz-Maroto%xref no email%1,       Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,       \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,       Almudena%Layos-Romero%xref no email%1,       Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,       Esther%Gonz\u00e1lez%xref no email%1,       Inmaculada%Redondo-Pe\u00f1as%xref no email%1,       Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,       Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,       Julia%Gracia-Gil%xref no email%1,       Laura%Rojas-Bartolom\u00e9%xref no email%1,       Inmaculada%Feria-Vilar%xref no email%1,       Mar\u00eda%Monteagudo%xref no email%1,       Mar\u00eda%Palao%xref no email%1,       Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,       Cristian%Alcahut-Rodr\u00edguez%xref no email%1,       David%Sopelana-Garay%xref no email%1,       Y\u00f3scar%Moreno%xref no email%1,       Javaad%Ahmad%xref no email%1,       Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,              Kadriye Kart%Yaşar%NULL%1,              Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,       Jaros\u0142aw%Pinkas%xref no email%1,       Mateusz%Jankowski%xref no email%1,       Wojciech S.%Zgliczy\u0144ski%xref no email%1,       Waldemar%Wierzba%xref no email%1,       Mariusz%Gujski%xref no email%1,       \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,              Rejane Andrade%de Carvalho%NULL%1,              Kalline Andrade%de Carvalho%NULL%1,              Maria Goretti Freire%de Carvalho%NULL%1,              Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,              Thirza%Singer-Cornelius%NULL%1,              Michael%Oberle%NULL%1,              Isabelle%Gengler%NULL%1,              Steffi J.%Brockmeier%NULL%1,              Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,              Andreas%Habertheuer%NULL%2,              Andreas%Habertheuer%NULL%0,              Asad A.%Usman%NULL%2,              Asad A.%Usman%NULL%0,              Arman%Kilic%NULL%1,              Eric%Gnall%NULL%2,              Eric%Gnall%NULL%0,              Michael E.%Friscia%NULL%1,              Dmitriy%Zubkus%NULL%1,              Hitoshi%Hirose%NULL%2,              Pablo%Sanchez%NULL%1,              Olugbenga%Okusanya%NULL%1,              Wilson Y.%Szeto%NULL%1,              Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,              Claire%Hopkins%NULL%2,              Claire%Hopkins%NULL%0,              Giovanni%Salzano%NULL%2,              Marzia%Petrocelli%NULL%2,              Andrea%Melis%NULL%1,              Marco%Cucurullo%NULL%1,              Mario%Ferrari%NULL%1,              Laura%Gagliardini%NULL%1,              Carlotta%Pipolo%NULL%1,              Giovanna%Deiana%NULL%3,              Vito%Fiore%NULL%1,              Andrea%De Vito%NULL%0,              Nicola%Turra%NULL%1,              Sara%Canu%NULL%1,              Angelantonio%Maglio%NULL%1,              Antonello%Serra%NULL%3,              Antonello%Serra%NULL%0,              Francesco%Bussu%NULL%2,              Giordano%Madeddu%NULL%0,              Sergio%Babudieri%NULL%0,              Alessandro%Giuseppe Fois%NULL%1,              Pietro%Pirina%NULL%0,              Francesco A.%Salzano%NULL%1,              Pierluigi%De Riu%NULL%1,              Federico%Biglioli%NULL%1,              Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,              Farhoud%Faraji%NULL%6,              Farhoud%Faraji%NULL%0,              Divya P.%Prajapati%NULL%4,              Benjamin T.%Ostrander%NULL%2,              Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,              Timothee%Klopfenstein%NULL%1,              Julien%Mercier%NULL%1,              N’dri Juliette%Kadiane-Oussou%NULL%1,              Ludovic%Lan Cheong Wah%NULL%1,              Pierre-Yves%Royer%NULL%1,              Lynda%Toko%NULL%1,              Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2859,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2771,7 +2888,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -2800,7 +2917,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2829,7 +2946,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -2858,7 +2975,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2887,7 +3004,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2916,7 +3033,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2945,7 +3062,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2974,7 +3091,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3003,7 +3120,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3032,7 +3149,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3061,7 +3178,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3090,7 +3207,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3119,7 +3236,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3148,7 +3265,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3177,7 +3294,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -3206,7 +3323,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -3235,7 +3352,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3264,7 +3381,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3293,7 +3410,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3322,7 +3439,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3351,7 +3468,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3380,7 +3497,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3409,7 +3526,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3438,7 +3555,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -3496,7 +3613,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -3525,7 +3642,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -3554,7 +3671,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3583,7 +3700,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3612,7 +3729,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3641,7 +3758,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -3670,7 +3787,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3699,7 +3816,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3728,7 +3845,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -3757,7 +3874,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3786,7 +3903,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -3815,7 +3932,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -3844,7 +3961,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3873,7 +3990,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="744">
   <si>
     <t>Doi</t>
   </si>
@@ -2519,6 +2519,123 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,              Timothee%Klopfenstein%NULL%1,              Julien%Mercier%NULL%1,              N’dri Juliette%Kadiane-Oussou%NULL%1,              Ludovic%Lan Cheong Wah%NULL%1,              Pierre-Yves%Royer%NULL%1,              Lynda%Toko%NULL%1,              Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,              Aggarwal%Saurabh%coreGivesNoEmail%0,              Garcia-Telles%Nelson%coreGivesNoEmail%0,              Henry%Brandon Michael%coreGivesNoEmail%0,              Lavie%Carl%coreGivesNoEmail%0,              Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,               Ana Gabriela Costa%Normando%NULL%1,               Rainier Luiz%Carvalho da Silva%NULL%1,               Renata Monteiro%De Paula%NULL%1,               Allan Christian%Cembranel%NULL%1,               Alan Roger%Santos-Silva%NULL%1,               Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,        Mina%Gheitani%xref no email%1,        Farrokh%Heidari%xref no email%1,        Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,               J. L.%Chico‐García%NULL%4,               J. L.%Chico‐García%NULL%0,               J.%Martínez‐Poles%NULL%2,               F.%Rodríguez‐Jorge%NULL%2,               E.%Natera‐Villalba%NULL%2,               J.%Gómez‐Corral%NULL%4,               J.%Gómez‐Corral%NULL%0,               A.%Gómez‐López%NULL%2,               E.%Monreal%NULL%2,               P.%Parra‐Díaz%NULL%2,               J. L.%Cortés‐Cuevas%NULL%4,               J. L.%Cortés‐Cuevas%NULL%0,               J. C.%Galán%NULL%2,               C.%Fragola‐Arnau%NULL%2,               J.%Porta‐Etessam%NULL%2,               J.%Masjuan%NULL%2,               A.%Alonso‐Cánovas%NULL%4,               A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,               Paul%Le Turnier%NULL%2,               Charles%Declerck%NULL%2,               Cécile%Paillé%NULL%2,               Matthieu%Revest%NULL%2,               Vincent%Dubée%NULL%2,               Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,               Cédric%Arvieux%NULL%2,               Marion%Baldeyrou%NULL%2,               Jean-Marc%Chapplain%NULL%2,               Pauline%Comacle%NULL%2,               Solène%Patrat-Delon%NULL%2,               Anne%Maillard%NULL%2,               Mélanie%Poinot%NULL%2,               Charlotte%Pronier%NULL%2,               Faouzi%Souala%NULL%2,               Vincent%Thibault%NULL%2,               Pierre%Abgueguen%NULL%2,               Hélène%Cormier%NULL%2,               Valérie%Delbos%NULL%2,               Marine%de la Chapelle%NULL%2,               Alexandra%Ducancelle%NULL%2,               Rafael%Mahieu%NULL%2,               Valérie%Rabier%NULL%2,               Sami%Rehaiem%NULL%2,               Yves%Vandamme%NULL%2,               Charlotte%Biron%NULL%2,               Jeanne%Brochon%NULL%2,               David%Boutoille%NULL%0,               Marie%Chauveau%NULL%2,               Colin%Deschanvres%NULL%2,               Benjamin J%Gaborit%NULL%2,               Joël%Jenvrin%NULL%2,               Raphaël%Lecomte%NULL%2,               Maeva%Lefebvre%NULL%2,               François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                Louis%Valiquette%null%1,                Cynthia%Grenier%null%1,                Jean Berchmans%Musonera%null%1,                Delphin%Nkengurutse%null%1,                Anaïs%Marcil-Héguy%null%1,                Kim%Vettese%null%1,                Dominique%Marcoux%null%1,                Corinne%Valiquette%null%1,                Wei Ting%Xiong%null%1,                Pierre-Hughes%Fortier%null%1,                Mélissa%Généreux%null%1,                Jacques%Pépin%null%1,              Alex%Carignan%null%1,              Louis%Valiquette%null%1,              Cynthia%Grenier%null%1,              Jean Berchmans%Musonera%null%1,              Delphin%Nkengurutse%null%1,              Anaïs%Marcil-Héguy%null%1,              Kim%Vettese%null%1,              Dominique%Marcoux%null%1,              Corinne%Valiquette%null%1,              Wei Ting%Xiong%null%1,              Pierre-Hughes%Fortier%null%1,              Mélissa%Généreux%null%1,              Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,               Hülya%Çaşkurlu%NULL%2,               Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,               Florent%Carsuzaa%NULL%1,               Jean-Paul%Trijolet%NULL%2,               Jean-Paul%Trijolet%NULL%0,               Anne-Laure%Capitaine%NULL%1,               Mariam%Roncato-Saberan%NULL%1,               Kevin%Fouet%NULL%1,               France%Cazenave-Roblot%NULL%0,               Mélanie%Catroux%NULL%1,               Caroline%Allix-Beguec%NULL%1,               Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,              Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,              Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,               Paola%Varese%NULL%2,               Paola%Varese%NULL%0,               Chiara%Dentone%NULL%1,               Emanuela%Barisione%NULL%1,               Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,               Filippo%Farri%NULL%2,               Filippo%Farri%NULL%0,               Giacomo%Garzaro%NULL%1,               Miriam%Gatto%NULL%1,               Paolo%Aluffi Valletti%NULL%0,               Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,               Eleonora%Trecca%NULL%1,               Michele%Cassano%NULL%1,               Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,               Laura%Pezzati%NULL%4,               Laura%Pezzati%NULL%0,               Federico%Conti%NULL%2,               Dario%Bernacchia%NULL%0,               Matteo%Siano%NULL%0,               Letizia%Oreni%NULL%0,               Stefano%Rusconi%NULL%0,               Cristina%Gervasoni%NULL%2,               Anna Lisa%Ridolfo%NULL%0,               Giuliano%Rizzardini%NULL%0,               Spinello%Antinori%NULL%0,               Massimo%Galli%NULL%0,               Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,               M.-J.%Kim%NULL%1,               S.H.%Ra%NULL%1,               J.%Lee%NULL%1,               S.%Bae%NULL%1,               J.%Jung%NULL%1,               S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,               N.J.%Kadiane-Oussou%NULL%2,               L.%Toko%NULL%2,               P.-Y.%Royer%NULL%2,               Q.%Lepiller%NULL%2,               V.%Gendrin%NULL%2,               S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,               Anton G. M.%Buiting%NULL%1,               Suzan D.%Pas%NULL%1,               Robbert G.%Bentvelsen%NULL%1,               Wouter%van den Bijllaardt%NULL%1,               Anne J. G.%van Oudheusden%NULL%1,               Miranda M. L.%van Rijen%NULL%1,               Jaco J.%Verweij%NULL%1,               Marion P. G.%Koopmans%NULL%1,               Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,               Elodie%Schneider%NULL%1,               Isabelle%Vianu%NULL%1,               Guillaume%Dollet%NULL%1,               Bastien%Roche%NULL%1,               Julia%Berdah%NULL%1,               Julie%Michel%NULL%1,               Laurent%Goix%NULL%1,               Erick%Chanzy%NULL%1,               Tomislav%Petrovic%NULL%1,               Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,               Carlos M.%Chiesa-Estomba%NULL%2,               Daniele R.%De Siati%NULL%2,               Mihaela%Horoi%NULL%2,               Serge D.%Le Bon%NULL%2,               Alexandra%Rodriguez%NULL%2,               Didier%Dequanter%NULL%2,               Serge%Blecic%NULL%2,               Fahd%El Afia%NULL%2,               Lea%Distinguin%NULL%2,               Younes%Chekkoury-Idrissi%NULL%2,               Stéphane%Hans%NULL%2,               Irene Lopez%Delgado%NULL%2,               Christian%Calvo-Henriquez%NULL%2,               Philippe%Lavigne%NULL%2,               Chiara%Falanga%NULL%2,               Maria Rosaria%Barillari%NULL%2,               Giovanni%Cammaroto%NULL%2,               Mohamad%Khalife%NULL%2,               Pierre%Leich%NULL%2,               Christel%Souchay%NULL%2,               Camelia%Rossi%NULL%2,               Fabrice%Journe%NULL%2,               Julien%Hsieh%NULL%2,               Myriam%Edjlali%NULL%2,               Robert%Carlier%NULL%2,               Laurence%Ris%NULL%2,               Andrea%Lovato%NULL%2,               Cosimo%De Filippis%NULL%2,               Frederique%Coppee%NULL%2,               Nicolas%Fakhry%NULL%2,               Tareck%Ayad%NULL%2,               Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,               Joel%Lockwood%NULL%2,               Joel%Lockwood%NULL%0,               Paul%Das%NULL%1,               Ri%Wang%NULL%1,               Eitan%Grinspun%NULL%1,               John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,               Pokkee%Min%NULL%2,               Pokkee%Min%NULL%0,               Seonggu%Lee%NULL%2,               Seonggu%Lee%NULL%0,               Shin-Woo%Kim%NULL%0,               Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,        Meital%Elbaz%xref no email%1,        Ronen%Ben-Ami%xref no email%1,        David%Shasha%xref no email%1,        Tal%Levinson%xref no email%1,        Guy%Choshen%xref no email%1,        Ksenia%Petrov%xref no email%1,        Avi%Gadoth%xref no email%1,        Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,               Mariangela%Pierantozzi%NULL%1,               Matteo%Spanetta%NULL%1,               Loredana%Sarmati%NULL%1,               Novella%Cesta%NULL%1,               Marco%Iannetta%NULL%1,               Josuel%Ora%NULL%1,               Grazia Genga%Mina%NULL%1,               Ermanno%Puxeddu%NULL%1,               Ottavia%Balbi%NULL%1,               Gabriella%Pezzuto%NULL%1,               Andrea%Magrini%NULL%1,               Paola%Rogliani%NULL%1,               Massimo%Andreoni%NULL%1,               Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,        Huijuan%Jin%xref no email%0,        Mengdie%Wang%xref no email%0,        Yu%Hu%xref no email%0,        Shengcai%Chen%xref no email%0,        Quanwei%He%xref no email%0,        Jiang%Chang%xref no email%0,        Candong%Hong%xref no email%0,        Yifan%Zhou%xref no email%0,        David%Wang%xref no email%0,        Xiaoping%Miao%xref no email%0,        Yanan%Li%xref no email%0,        Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,               Juan%Amaro Sánchez%NULL%2,               Juan%Amaro Sánchez%NULL%0,               Antonio Francisco%López‐Sánchez%NULL%1,               Enric%Jané‐Salas%NULL%1,               Maria Luisa%Somacarrera Pérez%NULL%2,               Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,               Lorenzo Roberto%Suardi%NULL%2,               Lorenzo Roberto%Suardi%NULL%0,               Michele%Busoni%NULL%1,               Anna Teresa%Roberts%NULL%1,               Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,               Azad A.%Haleem Al Mezori%NULL%1,               Hakar Mustafa%Mohammed%NULL%1,               Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,               Jin Gu%Yoon%NULL%3,               Hye%Seong%NULL%3,               Won Suk%Choi%NULL%1,               Jang Wook%Sohn%NULL%1,               Hee Jin%Cheong%NULL%4,               Woo Joo%Kim%NULL%4,               Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,               Alberto%Schreiber%NULL%1,               Alberto%Grammatica%albertogrammatica@libero.it%1,               Elena%Raffetti%NULL%2,               Elena%Raffetti%NULL%0,               Michele%Tomasoni%NULL%1,               Tommaso%Gualtieri%NULL%1,               Stefano%Taboni%NULL%1,               Silvia%Zorzi%NULL%1,               Davide%Lombardi%NULL%1,               Alberto%Deganello%NULL%1,               Luca Oscar%Redaelli De Zinis%NULL%1,               Roberto%Maroldi%NULL%1,               Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,               E.%Charani%NULL%1,               D.%Ariyanayagam%NULL%1,               A.%Abdulaal%NULL%1,               S.J.%Denny%NULL%1,               N.%Mughal%NULL%1,               L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,               Suko%Adiarto%NULL%1,               Santi Rahayu%Dewayanti%NULL%1,               Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,        Inmaculada%D\u00edaz-Maroto%xref no email%1,        Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,        \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,        Almudena%Layos-Romero%xref no email%1,        Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,        Esther%Gonz\u00e1lez%xref no email%1,        Inmaculada%Redondo-Pe\u00f1as%xref no email%1,        Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,        Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,        Julia%Gracia-Gil%xref no email%1,        Laura%Rojas-Bartolom\u00e9%xref no email%1,        Inmaculada%Feria-Vilar%xref no email%1,        Mar\u00eda%Monteagudo%xref no email%1,        Mar\u00eda%Palao%xref no email%1,        Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,        Cristian%Alcahut-Rodr\u00edguez%xref no email%1,        David%Sopelana-Garay%xref no email%1,        Y\u00f3scar%Moreno%xref no email%1,        Javaad%Ahmad%xref no email%1,        Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,               Kadriye Kart%Yaşar%NULL%1,               Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,        Jaros\u0142aw%Pinkas%xref no email%1,        Mateusz%Jankowski%xref no email%1,        Wojciech S.%Zgliczy\u0144ski%xref no email%1,        Waldemar%Wierzba%xref no email%1,        Mariusz%Gujski%xref no email%1,        \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,               Rejane Andrade%de Carvalho%NULL%1,               Kalline Andrade%de Carvalho%NULL%1,               Maria Goretti Freire%de Carvalho%NULL%1,               Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,               Thirza%Singer-Cornelius%NULL%1,               Michael%Oberle%NULL%1,               Isabelle%Gengler%NULL%1,               Steffi J.%Brockmeier%NULL%1,               Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,               Andreas%Habertheuer%NULL%2,               Andreas%Habertheuer%NULL%0,               Asad A.%Usman%NULL%2,               Asad A.%Usman%NULL%0,               Arman%Kilic%NULL%1,               Eric%Gnall%NULL%2,               Eric%Gnall%NULL%0,               Michael E.%Friscia%NULL%1,               Dmitriy%Zubkus%NULL%1,               Hitoshi%Hirose%NULL%2,               Pablo%Sanchez%NULL%1,               Olugbenga%Okusanya%NULL%1,               Wilson Y.%Szeto%NULL%1,               Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,               Claire%Hopkins%NULL%2,               Claire%Hopkins%NULL%0,               Giovanni%Salzano%NULL%2,               Marzia%Petrocelli%NULL%2,               Andrea%Melis%NULL%1,               Marco%Cucurullo%NULL%1,               Mario%Ferrari%NULL%1,               Laura%Gagliardini%NULL%1,               Carlotta%Pipolo%NULL%1,               Giovanna%Deiana%NULL%3,               Vito%Fiore%NULL%1,               Andrea%De Vito%NULL%0,               Nicola%Turra%NULL%1,               Sara%Canu%NULL%1,               Angelantonio%Maglio%NULL%1,               Antonello%Serra%NULL%3,               Antonello%Serra%NULL%0,               Francesco%Bussu%NULL%2,               Giordano%Madeddu%NULL%0,               Sergio%Babudieri%NULL%0,               Alessandro%Giuseppe Fois%NULL%1,               Pietro%Pirina%NULL%0,               Francesco A.%Salzano%NULL%1,               Pierluigi%De Riu%NULL%1,               Federico%Biglioli%NULL%1,               Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,               Farhoud%Faraji%NULL%6,               Farhoud%Faraji%NULL%0,               Divya P.%Prajapati%NULL%4,               Benjamin T.%Ostrander%NULL%2,               Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,               Timothee%Klopfenstein%NULL%1,               Julien%Mercier%NULL%1,               N’dri Juliette%Kadiane-Oussou%NULL%1,               Ludovic%Lan Cheong Wah%NULL%1,               Pierre-Yves%Royer%NULL%1,               Lynda%Toko%NULL%1,               Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2859,7 +2976,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2888,7 +3005,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -2917,7 +3034,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2946,7 +3063,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -2975,7 +3092,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3004,7 +3121,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3033,7 +3150,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3062,7 +3179,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3091,7 +3208,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3120,7 +3237,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3149,7 +3266,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3178,7 +3295,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3207,7 +3324,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3236,7 +3353,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3265,7 +3382,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3294,7 +3411,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -3323,7 +3440,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -3352,7 +3469,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3381,7 +3498,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3410,7 +3527,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3439,7 +3556,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3468,7 +3585,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3497,7 +3614,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3526,7 +3643,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3555,7 +3672,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -3613,7 +3730,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -3642,7 +3759,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -3671,7 +3788,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3700,7 +3817,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3729,7 +3846,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3758,7 +3875,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -3787,7 +3904,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3816,7 +3933,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3845,7 +3962,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -3874,7 +3991,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3903,7 +4020,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -3932,7 +4049,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -3961,7 +4078,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3990,7 +4107,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5173" uniqueCount="822">
   <si>
     <t>Doi</t>
   </si>
@@ -2636,6 +2636,240 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,               Timothee%Klopfenstein%NULL%1,               Julien%Mercier%NULL%1,               N’dri Juliette%Kadiane-Oussou%NULL%1,               Ludovic%Lan Cheong Wah%NULL%1,               Pierre-Yves%Royer%NULL%1,               Lynda%Toko%NULL%1,               Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,               Aggarwal%Saurabh%coreGivesNoEmail%0,               Garcia-Telles%Nelson%coreGivesNoEmail%0,               Henry%Brandon Michael%coreGivesNoEmail%0,               Lavie%Carl%coreGivesNoEmail%0,               Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                Ana Gabriela Costa%Normando%NULL%1,                Rainier Luiz%Carvalho da Silva%NULL%1,                Renata Monteiro%De Paula%NULL%1,                Allan Christian%Cembranel%NULL%1,                Alan Roger%Santos-Silva%NULL%1,                Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,         Mina%Gheitani%xref no email%1,         Farrokh%Heidari%xref no email%1,         Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                J. L.%Chico‐García%NULL%4,                J. L.%Chico‐García%NULL%0,                J.%Martínez‐Poles%NULL%2,                F.%Rodríguez‐Jorge%NULL%2,                E.%Natera‐Villalba%NULL%2,                J.%Gómez‐Corral%NULL%4,                J.%Gómez‐Corral%NULL%0,                A.%Gómez‐López%NULL%2,                E.%Monreal%NULL%2,                P.%Parra‐Díaz%NULL%2,                J. L.%Cortés‐Cuevas%NULL%4,                J. L.%Cortés‐Cuevas%NULL%0,                J. C.%Galán%NULL%2,                C.%Fragola‐Arnau%NULL%2,                J.%Porta‐Etessam%NULL%2,                J.%Masjuan%NULL%2,                A.%Alonso‐Cánovas%NULL%4,                A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                Paul%Le Turnier%NULL%2,                Charles%Declerck%NULL%2,                Cécile%Paillé%NULL%2,                Matthieu%Revest%NULL%2,                Vincent%Dubée%NULL%2,                Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                Cédric%Arvieux%NULL%2,                Marion%Baldeyrou%NULL%2,                Jean-Marc%Chapplain%NULL%2,                Pauline%Comacle%NULL%2,                Solène%Patrat-Delon%NULL%2,                Anne%Maillard%NULL%2,                Mélanie%Poinot%NULL%2,                Charlotte%Pronier%NULL%2,                Faouzi%Souala%NULL%2,                Vincent%Thibault%NULL%2,                Pierre%Abgueguen%NULL%2,                Hélène%Cormier%NULL%2,                Valérie%Delbos%NULL%2,                Marine%de la Chapelle%NULL%2,                Alexandra%Ducancelle%NULL%2,                Rafael%Mahieu%NULL%2,                Valérie%Rabier%NULL%2,                Sami%Rehaiem%NULL%2,                Yves%Vandamme%NULL%2,                Charlotte%Biron%NULL%2,                Jeanne%Brochon%NULL%2,                David%Boutoille%NULL%0,                Marie%Chauveau%NULL%2,                Colin%Deschanvres%NULL%2,                Benjamin J%Gaborit%NULL%2,                Joël%Jenvrin%NULL%2,                Raphaël%Lecomte%NULL%2,                Maeva%Lefebvre%NULL%2,                François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                 Louis%Valiquette%null%1,                 Cynthia%Grenier%null%1,                 Jean Berchmans%Musonera%null%1,                 Delphin%Nkengurutse%null%1,                 Anaïs%Marcil-Héguy%null%1,                 Kim%Vettese%null%1,                 Dominique%Marcoux%null%1,                 Corinne%Valiquette%null%1,                 Wei Ting%Xiong%null%1,                 Pierre-Hughes%Fortier%null%1,                 Mélissa%Généreux%null%1,                 Jacques%Pépin%null%1,               Alex%Carignan%null%1,               Louis%Valiquette%null%1,               Cynthia%Grenier%null%1,               Jean Berchmans%Musonera%null%1,               Delphin%Nkengurutse%null%1,               Anaïs%Marcil-Héguy%null%1,               Kim%Vettese%null%1,               Dominique%Marcoux%null%1,               Corinne%Valiquette%null%1,               Wei Ting%Xiong%null%1,               Pierre-Hughes%Fortier%null%1,               Mélissa%Généreux%null%1,               Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                Hülya%Çaşkurlu%NULL%2,                Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                Florent%Carsuzaa%NULL%1,                Jean-Paul%Trijolet%NULL%2,                Jean-Paul%Trijolet%NULL%0,                Anne-Laure%Capitaine%NULL%1,                Mariam%Roncato-Saberan%NULL%1,                Kevin%Fouet%NULL%1,                France%Cazenave-Roblot%NULL%0,                Mélanie%Catroux%NULL%1,                Caroline%Allix-Beguec%NULL%1,                Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,               Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,               Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                Paola%Varese%NULL%2,                Paola%Varese%NULL%0,                Chiara%Dentone%NULL%1,                Emanuela%Barisione%NULL%1,                Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                Filippo%Farri%NULL%2,                Filippo%Farri%NULL%0,                Giacomo%Garzaro%NULL%1,                Miriam%Gatto%NULL%1,                Paolo%Aluffi Valletti%NULL%0,                Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                Eleonora%Trecca%NULL%1,                Michele%Cassano%NULL%1,                Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                Laura%Pezzati%NULL%4,                Laura%Pezzati%NULL%0,                Federico%Conti%NULL%2,                Dario%Bernacchia%NULL%0,                Matteo%Siano%NULL%0,                Letizia%Oreni%NULL%0,                Stefano%Rusconi%NULL%0,                Cristina%Gervasoni%NULL%2,                Anna Lisa%Ridolfo%NULL%0,                Giuliano%Rizzardini%NULL%0,                Spinello%Antinori%NULL%0,                Massimo%Galli%NULL%0,                Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                M.-J.%Kim%NULL%1,                S.H.%Ra%NULL%1,                J.%Lee%NULL%1,                S.%Bae%NULL%1,                J.%Jung%NULL%1,                S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                N.J.%Kadiane-Oussou%NULL%2,                L.%Toko%NULL%2,                P.-Y.%Royer%NULL%2,                Q.%Lepiller%NULL%2,                V.%Gendrin%NULL%2,                S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                Anton G. M.%Buiting%NULL%1,                Suzan D.%Pas%NULL%1,                Robbert G.%Bentvelsen%NULL%1,                Wouter%van den Bijllaardt%NULL%1,                Anne J. G.%van Oudheusden%NULL%1,                Miranda M. L.%van Rijen%NULL%1,                Jaco J.%Verweij%NULL%1,                Marion P. G.%Koopmans%NULL%1,                Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                Elodie%Schneider%NULL%1,                Isabelle%Vianu%NULL%1,                Guillaume%Dollet%NULL%1,                Bastien%Roche%NULL%1,                Julia%Berdah%NULL%1,                Julie%Michel%NULL%1,                Laurent%Goix%NULL%1,                Erick%Chanzy%NULL%1,                Tomislav%Petrovic%NULL%1,                Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                Carlos M.%Chiesa-Estomba%NULL%2,                Daniele R.%De Siati%NULL%2,                Mihaela%Horoi%NULL%2,                Serge D.%Le Bon%NULL%2,                Alexandra%Rodriguez%NULL%2,                Didier%Dequanter%NULL%2,                Serge%Blecic%NULL%2,                Fahd%El Afia%NULL%2,                Lea%Distinguin%NULL%2,                Younes%Chekkoury-Idrissi%NULL%2,                Stéphane%Hans%NULL%2,                Irene Lopez%Delgado%NULL%2,                Christian%Calvo-Henriquez%NULL%2,                Philippe%Lavigne%NULL%2,                Chiara%Falanga%NULL%2,                Maria Rosaria%Barillari%NULL%2,                Giovanni%Cammaroto%NULL%2,                Mohamad%Khalife%NULL%2,                Pierre%Leich%NULL%2,                Christel%Souchay%NULL%2,                Camelia%Rossi%NULL%2,                Fabrice%Journe%NULL%2,                Julien%Hsieh%NULL%2,                Myriam%Edjlali%NULL%2,                Robert%Carlier%NULL%2,                Laurence%Ris%NULL%2,                Andrea%Lovato%NULL%2,                Cosimo%De Filippis%NULL%2,                Frederique%Coppee%NULL%2,                Nicolas%Fakhry%NULL%2,                Tareck%Ayad%NULL%2,                Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                Joel%Lockwood%NULL%2,                Joel%Lockwood%NULL%0,                Paul%Das%NULL%1,                Ri%Wang%NULL%1,                Eitan%Grinspun%NULL%1,                John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                Pokkee%Min%NULL%2,                Pokkee%Min%NULL%0,                Seonggu%Lee%NULL%2,                Seonggu%Lee%NULL%0,                Shin-Woo%Kim%NULL%0,                Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,         Meital%Elbaz%xref no email%1,         Ronen%Ben-Ami%xref no email%1,         David%Shasha%xref no email%1,         Tal%Levinson%xref no email%1,         Guy%Choshen%xref no email%1,         Ksenia%Petrov%xref no email%1,         Avi%Gadoth%xref no email%1,         Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                Mariangela%Pierantozzi%NULL%1,                Matteo%Spanetta%NULL%1,                Loredana%Sarmati%NULL%1,                Novella%Cesta%NULL%1,                Marco%Iannetta%NULL%1,                Josuel%Ora%NULL%1,                Grazia Genga%Mina%NULL%1,                Ermanno%Puxeddu%NULL%1,                Ottavia%Balbi%NULL%1,                Gabriella%Pezzuto%NULL%1,                Andrea%Magrini%NULL%1,                Paola%Rogliani%NULL%1,                Massimo%Andreoni%NULL%1,                Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,         Huijuan%Jin%xref no email%0,         Mengdie%Wang%xref no email%0,         Yu%Hu%xref no email%0,         Shengcai%Chen%xref no email%0,         Quanwei%He%xref no email%0,         Jiang%Chang%xref no email%0,         Candong%Hong%xref no email%0,         Yifan%Zhou%xref no email%0,         David%Wang%xref no email%0,         Xiaoping%Miao%xref no email%0,         Yanan%Li%xref no email%0,         Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                Juan%Amaro Sánchez%NULL%2,                Juan%Amaro Sánchez%NULL%0,                Antonio Francisco%López‐Sánchez%NULL%1,                Enric%Jané‐Salas%NULL%1,                Maria Luisa%Somacarrera Pérez%NULL%2,                Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                Lorenzo Roberto%Suardi%NULL%2,                Lorenzo Roberto%Suardi%NULL%0,                Michele%Busoni%NULL%1,                Anna Teresa%Roberts%NULL%1,                Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                Azad A.%Haleem Al Mezori%NULL%1,                Hakar Mustafa%Mohammed%NULL%1,                Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                Jin Gu%Yoon%NULL%3,                Hye%Seong%NULL%3,                Won Suk%Choi%NULL%1,                Jang Wook%Sohn%NULL%1,                Hee Jin%Cheong%NULL%4,                Woo Joo%Kim%NULL%4,                Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                Alberto%Schreiber%NULL%1,                Alberto%Grammatica%albertogrammatica@libero.it%1,                Elena%Raffetti%NULL%2,                Elena%Raffetti%NULL%0,                Michele%Tomasoni%NULL%1,                Tommaso%Gualtieri%NULL%1,                Stefano%Taboni%NULL%1,                Silvia%Zorzi%NULL%1,                Davide%Lombardi%NULL%1,                Alberto%Deganello%NULL%1,                Luca Oscar%Redaelli De Zinis%NULL%1,                Roberto%Maroldi%NULL%1,                Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                E.%Charani%NULL%1,                D.%Ariyanayagam%NULL%1,                A.%Abdulaal%NULL%1,                S.J.%Denny%NULL%1,                N.%Mughal%NULL%1,                L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                Suko%Adiarto%NULL%1,                Santi Rahayu%Dewayanti%NULL%1,                Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,         Inmaculada%D\u00edaz-Maroto%xref no email%1,         Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,         \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,         Almudena%Layos-Romero%xref no email%1,         Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,         Esther%Gonz\u00e1lez%xref no email%1,         Inmaculada%Redondo-Pe\u00f1as%xref no email%1,         Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,         Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,         Julia%Gracia-Gil%xref no email%1,         Laura%Rojas-Bartolom\u00e9%xref no email%1,         Inmaculada%Feria-Vilar%xref no email%1,         Mar\u00eda%Monteagudo%xref no email%1,         Mar\u00eda%Palao%xref no email%1,         Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,         Cristian%Alcahut-Rodr\u00edguez%xref no email%1,         David%Sopelana-Garay%xref no email%1,         Y\u00f3scar%Moreno%xref no email%1,         Javaad%Ahmad%xref no email%1,         Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                Kadriye Kart%Yaşar%NULL%1,                Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,         Jaros\u0142aw%Pinkas%xref no email%1,         Mateusz%Jankowski%xref no email%1,         Wojciech S.%Zgliczy\u0144ski%xref no email%1,         Waldemar%Wierzba%xref no email%1,         Mariusz%Gujski%xref no email%1,         \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                Rejane Andrade%de Carvalho%NULL%1,                Kalline Andrade%de Carvalho%NULL%1,                Maria Goretti Freire%de Carvalho%NULL%1,                Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                Thirza%Singer-Cornelius%NULL%1,                Michael%Oberle%NULL%1,                Isabelle%Gengler%NULL%1,                Steffi J.%Brockmeier%NULL%1,                Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                Andreas%Habertheuer%NULL%2,                Andreas%Habertheuer%NULL%0,                Asad A.%Usman%NULL%2,                Asad A.%Usman%NULL%0,                Arman%Kilic%NULL%1,                Eric%Gnall%NULL%2,                Eric%Gnall%NULL%0,                Michael E.%Friscia%NULL%1,                Dmitriy%Zubkus%NULL%1,                Hitoshi%Hirose%NULL%2,                Pablo%Sanchez%NULL%1,                Olugbenga%Okusanya%NULL%1,                Wilson Y.%Szeto%NULL%1,                Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                Claire%Hopkins%NULL%2,                Claire%Hopkins%NULL%0,                Giovanni%Salzano%NULL%2,                Marzia%Petrocelli%NULL%2,                Andrea%Melis%NULL%1,                Marco%Cucurullo%NULL%1,                Mario%Ferrari%NULL%1,                Laura%Gagliardini%NULL%1,                Carlotta%Pipolo%NULL%1,                Giovanna%Deiana%NULL%3,                Vito%Fiore%NULL%1,                Andrea%De Vito%NULL%0,                Nicola%Turra%NULL%1,                Sara%Canu%NULL%1,                Angelantonio%Maglio%NULL%1,                Antonello%Serra%NULL%3,                Antonello%Serra%NULL%0,                Francesco%Bussu%NULL%2,                Giordano%Madeddu%NULL%0,                Sergio%Babudieri%NULL%0,                Alessandro%Giuseppe Fois%NULL%1,                Pietro%Pirina%NULL%0,                Francesco A.%Salzano%NULL%1,                Pierluigi%De Riu%NULL%1,                Federico%Biglioli%NULL%1,                Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                Farhoud%Faraji%NULL%6,                Farhoud%Faraji%NULL%0,                Divya P.%Prajapati%NULL%4,                Benjamin T.%Ostrander%NULL%2,                Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                Timothee%Klopfenstein%NULL%1,                Julien%Mercier%NULL%1,                N’dri Juliette%Kadiane-Oussou%NULL%1,                Ludovic%Lan Cheong Wah%NULL%1,                Pierre-Yves%Royer%NULL%1,                Lynda%Toko%NULL%1,                Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                Aggarwal%Saurabh%coreGivesNoEmail%0,                Garcia-Telles%Nelson%coreGivesNoEmail%0,                Henry%Brandon Michael%coreGivesNoEmail%0,                Lavie%Carl%coreGivesNoEmail%0,                Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                 Ana Gabriela Costa%Normando%NULL%1,                 Rainier Luiz%Carvalho da Silva%NULL%1,                 Renata Monteiro%De Paula%NULL%1,                 Allan Christian%Cembranel%NULL%1,                 Alan Roger%Santos-Silva%NULL%1,                 Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,          Mina%Gheitani%xref no email%1,          Farrokh%Heidari%xref no email%1,          Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                 J. L.%Chico‐García%NULL%4,                 J. L.%Chico‐García%NULL%0,                 J.%Martínez‐Poles%NULL%2,                 F.%Rodríguez‐Jorge%NULL%2,                 E.%Natera‐Villalba%NULL%2,                 J.%Gómez‐Corral%NULL%4,                 J.%Gómez‐Corral%NULL%0,                 A.%Gómez‐López%NULL%2,                 E.%Monreal%NULL%2,                 P.%Parra‐Díaz%NULL%2,                 J. L.%Cortés‐Cuevas%NULL%4,                 J. L.%Cortés‐Cuevas%NULL%0,                 J. C.%Galán%NULL%2,                 C.%Fragola‐Arnau%NULL%2,                 J.%Porta‐Etessam%NULL%2,                 J.%Masjuan%NULL%2,                 A.%Alonso‐Cánovas%NULL%4,                 A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                 Paul%Le Turnier%NULL%2,                 Charles%Declerck%NULL%2,                 Cécile%Paillé%NULL%2,                 Matthieu%Revest%NULL%2,                 Vincent%Dubée%NULL%2,                 Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                 Cédric%Arvieux%NULL%2,                 Marion%Baldeyrou%NULL%2,                 Jean-Marc%Chapplain%NULL%2,                 Pauline%Comacle%NULL%2,                 Solène%Patrat-Delon%NULL%2,                 Anne%Maillard%NULL%2,                 Mélanie%Poinot%NULL%2,                 Charlotte%Pronier%NULL%2,                 Faouzi%Souala%NULL%2,                 Vincent%Thibault%NULL%2,                 Pierre%Abgueguen%NULL%2,                 Hélène%Cormier%NULL%2,                 Valérie%Delbos%NULL%2,                 Marine%de la Chapelle%NULL%2,                 Alexandra%Ducancelle%NULL%2,                 Rafael%Mahieu%NULL%2,                 Valérie%Rabier%NULL%2,                 Sami%Rehaiem%NULL%2,                 Yves%Vandamme%NULL%2,                 Charlotte%Biron%NULL%2,                 Jeanne%Brochon%NULL%2,                 David%Boutoille%NULL%0,                 Marie%Chauveau%NULL%2,                 Colin%Deschanvres%NULL%2,                 Benjamin J%Gaborit%NULL%2,                 Joël%Jenvrin%NULL%2,                 Raphaël%Lecomte%NULL%2,                 Maeva%Lefebvre%NULL%2,                 François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                  Louis%Valiquette%null%1,                  Cynthia%Grenier%null%1,                  Jean Berchmans%Musonera%null%1,                  Delphin%Nkengurutse%null%1,                  Anaïs%Marcil-Héguy%null%1,                  Kim%Vettese%null%1,                  Dominique%Marcoux%null%1,                  Corinne%Valiquette%null%1,                  Wei Ting%Xiong%null%1,                  Pierre-Hughes%Fortier%null%1,                  Mélissa%Généreux%null%1,                  Jacques%Pépin%null%1,                Alex%Carignan%null%1,                Louis%Valiquette%null%1,                Cynthia%Grenier%null%1,                Jean Berchmans%Musonera%null%1,                Delphin%Nkengurutse%null%1,                Anaïs%Marcil-Héguy%null%1,                Kim%Vettese%null%1,                Dominique%Marcoux%null%1,                Corinne%Valiquette%null%1,                Wei Ting%Xiong%null%1,                Pierre-Hughes%Fortier%null%1,                Mélissa%Généreux%null%1,                Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                 Hülya%Çaşkurlu%NULL%2,                 Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                 Florent%Carsuzaa%NULL%1,                 Jean-Paul%Trijolet%NULL%2,                 Jean-Paul%Trijolet%NULL%0,                 Anne-Laure%Capitaine%NULL%1,                 Mariam%Roncato-Saberan%NULL%1,                 Kevin%Fouet%NULL%1,                 France%Cazenave-Roblot%NULL%0,                 Mélanie%Catroux%NULL%1,                 Caroline%Allix-Beguec%NULL%1,                 Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                 Paola%Varese%NULL%2,                 Paola%Varese%NULL%0,                 Chiara%Dentone%NULL%1,                 Emanuela%Barisione%NULL%1,                 Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                 Filippo%Farri%NULL%2,                 Filippo%Farri%NULL%0,                 Giacomo%Garzaro%NULL%1,                 Miriam%Gatto%NULL%1,                 Paolo%Aluffi Valletti%NULL%0,                 Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                 Eleonora%Trecca%NULL%1,                 Michele%Cassano%NULL%1,                 Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                 Laura%Pezzati%NULL%4,                 Laura%Pezzati%NULL%0,                 Federico%Conti%NULL%2,                 Dario%Bernacchia%NULL%0,                 Matteo%Siano%NULL%0,                 Letizia%Oreni%NULL%0,                 Stefano%Rusconi%NULL%0,                 Cristina%Gervasoni%NULL%2,                 Anna Lisa%Ridolfo%NULL%0,                 Giuliano%Rizzardini%NULL%0,                 Spinello%Antinori%NULL%0,                 Massimo%Galli%NULL%0,                 Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                 M.-J.%Kim%NULL%1,                 S.H.%Ra%NULL%1,                 J.%Lee%NULL%1,                 S.%Bae%NULL%1,                 J.%Jung%NULL%1,                 S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                 N.J.%Kadiane-Oussou%NULL%2,                 L.%Toko%NULL%2,                 P.-Y.%Royer%NULL%2,                 Q.%Lepiller%NULL%2,                 V.%Gendrin%NULL%2,                 S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                 Anton G. M.%Buiting%NULL%1,                 Suzan D.%Pas%NULL%1,                 Robbert G.%Bentvelsen%NULL%1,                 Wouter%van den Bijllaardt%NULL%1,                 Anne J. G.%van Oudheusden%NULL%1,                 Miranda M. L.%van Rijen%NULL%1,                 Jaco J.%Verweij%NULL%1,                 Marion P. G.%Koopmans%NULL%1,                 Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                 Elodie%Schneider%NULL%1,                 Isabelle%Vianu%NULL%1,                 Guillaume%Dollet%NULL%1,                 Bastien%Roche%NULL%1,                 Julia%Berdah%NULL%1,                 Julie%Michel%NULL%1,                 Laurent%Goix%NULL%1,                 Erick%Chanzy%NULL%1,                 Tomislav%Petrovic%NULL%1,                 Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                 Carlos M.%Chiesa-Estomba%NULL%2,                 Daniele R.%De Siati%NULL%2,                 Mihaela%Horoi%NULL%2,                 Serge D.%Le Bon%NULL%2,                 Alexandra%Rodriguez%NULL%2,                 Didier%Dequanter%NULL%2,                 Serge%Blecic%NULL%2,                 Fahd%El Afia%NULL%2,                 Lea%Distinguin%NULL%2,                 Younes%Chekkoury-Idrissi%NULL%2,                 Stéphane%Hans%NULL%2,                 Irene Lopez%Delgado%NULL%2,                 Christian%Calvo-Henriquez%NULL%2,                 Philippe%Lavigne%NULL%2,                 Chiara%Falanga%NULL%2,                 Maria Rosaria%Barillari%NULL%2,                 Giovanni%Cammaroto%NULL%2,                 Mohamad%Khalife%NULL%2,                 Pierre%Leich%NULL%2,                 Christel%Souchay%NULL%2,                 Camelia%Rossi%NULL%2,                 Fabrice%Journe%NULL%2,                 Julien%Hsieh%NULL%2,                 Myriam%Edjlali%NULL%2,                 Robert%Carlier%NULL%2,                 Laurence%Ris%NULL%2,                 Andrea%Lovato%NULL%2,                 Cosimo%De Filippis%NULL%2,                 Frederique%Coppee%NULL%2,                 Nicolas%Fakhry%NULL%2,                 Tareck%Ayad%NULL%2,                 Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                 Joel%Lockwood%NULL%2,                 Joel%Lockwood%NULL%0,                 Paul%Das%NULL%1,                 Ri%Wang%NULL%1,                 Eitan%Grinspun%NULL%1,                 John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                 Pokkee%Min%NULL%2,                 Pokkee%Min%NULL%0,                 Seonggu%Lee%NULL%2,                 Seonggu%Lee%NULL%0,                 Shin-Woo%Kim%NULL%0,                 Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,          Meital%Elbaz%xref no email%1,          Ronen%Ben-Ami%xref no email%1,          David%Shasha%xref no email%1,          Tal%Levinson%xref no email%1,          Guy%Choshen%xref no email%1,          Ksenia%Petrov%xref no email%1,          Avi%Gadoth%xref no email%1,          Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                 Mariangela%Pierantozzi%NULL%1,                 Matteo%Spanetta%NULL%1,                 Loredana%Sarmati%NULL%1,                 Novella%Cesta%NULL%1,                 Marco%Iannetta%NULL%1,                 Josuel%Ora%NULL%1,                 Grazia Genga%Mina%NULL%1,                 Ermanno%Puxeddu%NULL%1,                 Ottavia%Balbi%NULL%1,                 Gabriella%Pezzuto%NULL%1,                 Andrea%Magrini%NULL%1,                 Paola%Rogliani%NULL%1,                 Massimo%Andreoni%NULL%1,                 Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,          Huijuan%Jin%xref no email%0,          Mengdie%Wang%xref no email%0,          Yu%Hu%xref no email%0,          Shengcai%Chen%xref no email%0,          Quanwei%He%xref no email%0,          Jiang%Chang%xref no email%0,          Candong%Hong%xref no email%0,          Yifan%Zhou%xref no email%0,          David%Wang%xref no email%0,          Xiaoping%Miao%xref no email%0,          Yanan%Li%xref no email%0,          Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                 Juan%Amaro Sánchez%NULL%2,                 Juan%Amaro Sánchez%NULL%0,                 Antonio Francisco%López‐Sánchez%NULL%1,                 Enric%Jané‐Salas%NULL%1,                 Maria Luisa%Somacarrera Pérez%NULL%2,                 Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                 Lorenzo Roberto%Suardi%NULL%2,                 Lorenzo Roberto%Suardi%NULL%0,                 Michele%Busoni%NULL%1,                 Anna Teresa%Roberts%NULL%1,                 Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                 Azad A.%Haleem Al Mezori%NULL%1,                 Hakar Mustafa%Mohammed%NULL%1,                 Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                 Jin Gu%Yoon%NULL%3,                 Hye%Seong%NULL%3,                 Won Suk%Choi%NULL%1,                 Jang Wook%Sohn%NULL%1,                 Hee Jin%Cheong%NULL%4,                 Woo Joo%Kim%NULL%4,                 Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                 Alberto%Schreiber%NULL%1,                 Alberto%Grammatica%albertogrammatica@libero.it%1,                 Elena%Raffetti%NULL%2,                 Elena%Raffetti%NULL%0,                 Michele%Tomasoni%NULL%1,                 Tommaso%Gualtieri%NULL%1,                 Stefano%Taboni%NULL%1,                 Silvia%Zorzi%NULL%1,                 Davide%Lombardi%NULL%1,                 Alberto%Deganello%NULL%1,                 Luca Oscar%Redaelli De Zinis%NULL%1,                 Roberto%Maroldi%NULL%1,                 Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                 E.%Charani%NULL%1,                 D.%Ariyanayagam%NULL%1,                 A.%Abdulaal%NULL%1,                 S.J.%Denny%NULL%1,                 N.%Mughal%NULL%1,                 L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                 Suko%Adiarto%NULL%1,                 Santi Rahayu%Dewayanti%NULL%1,                 Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,          Inmaculada%D\u00edaz-Maroto%xref no email%1,          Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,          \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,          Almudena%Layos-Romero%xref no email%1,          Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,          Esther%Gonz\u00e1lez%xref no email%1,          Inmaculada%Redondo-Pe\u00f1as%xref no email%1,          Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,          Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,          Julia%Gracia-Gil%xref no email%1,          Laura%Rojas-Bartolom\u00e9%xref no email%1,          Inmaculada%Feria-Vilar%xref no email%1,          Mar\u00eda%Monteagudo%xref no email%1,          Mar\u00eda%Palao%xref no email%1,          Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,          Cristian%Alcahut-Rodr\u00edguez%xref no email%1,          David%Sopelana-Garay%xref no email%1,          Y\u00f3scar%Moreno%xref no email%1,          Javaad%Ahmad%xref no email%1,          Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                 Kadriye Kart%Yaşar%NULL%1,                 Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,          Jaros\u0142aw%Pinkas%xref no email%1,          Mateusz%Jankowski%xref no email%1,          Wojciech S.%Zgliczy\u0144ski%xref no email%1,          Waldemar%Wierzba%xref no email%1,          Mariusz%Gujski%xref no email%1,          \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                 Rejane Andrade%de Carvalho%NULL%1,                 Kalline Andrade%de Carvalho%NULL%1,                 Maria Goretti Freire%de Carvalho%NULL%1,                 Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                 Thirza%Singer-Cornelius%NULL%1,                 Michael%Oberle%NULL%1,                 Isabelle%Gengler%NULL%1,                 Steffi J.%Brockmeier%NULL%1,                 Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                 Andreas%Habertheuer%NULL%2,                 Andreas%Habertheuer%NULL%0,                 Asad A.%Usman%NULL%2,                 Asad A.%Usman%NULL%0,                 Arman%Kilic%NULL%1,                 Eric%Gnall%NULL%2,                 Eric%Gnall%NULL%0,                 Michael E.%Friscia%NULL%1,                 Dmitriy%Zubkus%NULL%1,                 Hitoshi%Hirose%NULL%2,                 Pablo%Sanchez%NULL%1,                 Olugbenga%Okusanya%NULL%1,                 Wilson Y.%Szeto%NULL%1,                 Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                 Claire%Hopkins%NULL%2,                 Claire%Hopkins%NULL%0,                 Giovanni%Salzano%NULL%2,                 Marzia%Petrocelli%NULL%2,                 Andrea%Melis%NULL%1,                 Marco%Cucurullo%NULL%1,                 Mario%Ferrari%NULL%1,                 Laura%Gagliardini%NULL%1,                 Carlotta%Pipolo%NULL%1,                 Giovanna%Deiana%NULL%3,                 Vito%Fiore%NULL%1,                 Andrea%De Vito%NULL%0,                 Nicola%Turra%NULL%1,                 Sara%Canu%NULL%1,                 Angelantonio%Maglio%NULL%1,                 Antonello%Serra%NULL%3,                 Antonello%Serra%NULL%0,                 Francesco%Bussu%NULL%2,                 Giordano%Madeddu%NULL%0,                 Sergio%Babudieri%NULL%0,                 Alessandro%Giuseppe Fois%NULL%1,                 Pietro%Pirina%NULL%0,                 Francesco A.%Salzano%NULL%1,                 Pierluigi%De Riu%NULL%1,                 Federico%Biglioli%NULL%1,                 Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                 Farhoud%Faraji%NULL%6,                 Farhoud%Faraji%NULL%0,                 Divya P.%Prajapati%NULL%4,                 Benjamin T.%Ostrander%NULL%2,                 Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                 Timothee%Klopfenstein%NULL%1,                 Julien%Mercier%NULL%1,                 N’dri Juliette%Kadiane-Oussou%NULL%1,                 Ludovic%Lan Cheong Wah%NULL%1,                 Pierre-Yves%Royer%NULL%1,                 Lynda%Toko%NULL%1,                 Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +3210,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>783</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3005,7 +3239,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -3034,7 +3268,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3063,7 +3297,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -3092,7 +3326,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>709</v>
+        <v>787</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3121,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3150,7 +3384,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3179,7 +3413,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3208,7 +3442,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>791</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3237,7 +3471,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3266,7 +3500,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3295,7 +3529,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3324,7 +3558,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3353,7 +3587,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>718</v>
+        <v>796</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3382,7 +3616,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>719</v>
+        <v>797</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3411,7 +3645,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>720</v>
+        <v>798</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -3440,7 +3674,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>721</v>
+        <v>799</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -3469,7 +3703,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3498,7 +3732,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>723</v>
+        <v>801</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3527,7 +3761,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>724</v>
+        <v>802</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3556,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3585,7 +3819,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>726</v>
+        <v>804</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3614,7 +3848,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>727</v>
+        <v>805</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3643,7 +3877,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>728</v>
+        <v>806</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3672,7 +3906,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -3730,7 +3964,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>730</v>
+        <v>808</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -3759,7 +3993,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>731</v>
+        <v>809</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -3788,7 +4022,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3817,7 +4051,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>733</v>
+        <v>811</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3846,7 +4080,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>734</v>
+        <v>812</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3875,7 +4109,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>735</v>
+        <v>813</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -3904,7 +4138,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>736</v>
+        <v>814</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3933,7 +4167,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>737</v>
+        <v>815</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3962,7 +4196,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>738</v>
+        <v>816</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -3991,7 +4225,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>739</v>
+        <v>817</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4020,7 +4254,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>740</v>
+        <v>818</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -4049,7 +4283,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>741</v>
+        <v>819</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -4078,7 +4312,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>742</v>
+        <v>820</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4107,7 +4341,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>743</v>
+        <v>821</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5173" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="861">
   <si>
     <t>Doi</t>
   </si>
@@ -2870,6 +2870,123 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                 Timothee%Klopfenstein%NULL%1,                 Julien%Mercier%NULL%1,                 N’dri Juliette%Kadiane-Oussou%NULL%1,                 Ludovic%Lan Cheong Wah%NULL%1,                 Pierre-Yves%Royer%NULL%1,                 Lynda%Toko%NULL%1,                 Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                 Aggarwal%Saurabh%coreGivesNoEmail%0,                 Garcia-Telles%Nelson%coreGivesNoEmail%0,                 Henry%Brandon Michael%coreGivesNoEmail%0,                 Lavie%Carl%coreGivesNoEmail%0,                 Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                  Ana Gabriela Costa%Normando%NULL%1,                  Rainier Luiz%Carvalho da Silva%NULL%1,                  Renata Monteiro%De Paula%NULL%1,                  Allan Christian%Cembranel%NULL%1,                  Alan Roger%Santos-Silva%NULL%1,                  Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,           Mina%Gheitani%xref no email%1,           Farrokh%Heidari%xref no email%1,           Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                  J. L.%Chico‐García%NULL%4,                  J. L.%Chico‐García%NULL%0,                  J.%Martínez‐Poles%NULL%2,                  F.%Rodríguez‐Jorge%NULL%2,                  E.%Natera‐Villalba%NULL%2,                  J.%Gómez‐Corral%NULL%4,                  J.%Gómez‐Corral%NULL%0,                  A.%Gómez‐López%NULL%2,                  E.%Monreal%NULL%2,                  P.%Parra‐Díaz%NULL%2,                  J. L.%Cortés‐Cuevas%NULL%4,                  J. L.%Cortés‐Cuevas%NULL%0,                  J. C.%Galán%NULL%2,                  C.%Fragola‐Arnau%NULL%2,                  J.%Porta‐Etessam%NULL%2,                  J.%Masjuan%NULL%2,                  A.%Alonso‐Cánovas%NULL%4,                  A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                  Paul%Le Turnier%NULL%2,                  Charles%Declerck%NULL%2,                  Cécile%Paillé%NULL%2,                  Matthieu%Revest%NULL%2,                  Vincent%Dubée%NULL%2,                  Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                  Cédric%Arvieux%NULL%2,                  Marion%Baldeyrou%NULL%2,                  Jean-Marc%Chapplain%NULL%2,                  Pauline%Comacle%NULL%2,                  Solène%Patrat-Delon%NULL%2,                  Anne%Maillard%NULL%2,                  Mélanie%Poinot%NULL%2,                  Charlotte%Pronier%NULL%2,                  Faouzi%Souala%NULL%2,                  Vincent%Thibault%NULL%2,                  Pierre%Abgueguen%NULL%2,                  Hélène%Cormier%NULL%2,                  Valérie%Delbos%NULL%2,                  Marine%de la Chapelle%NULL%2,                  Alexandra%Ducancelle%NULL%2,                  Rafael%Mahieu%NULL%2,                  Valérie%Rabier%NULL%2,                  Sami%Rehaiem%NULL%2,                  Yves%Vandamme%NULL%2,                  Charlotte%Biron%NULL%2,                  Jeanne%Brochon%NULL%2,                  David%Boutoille%NULL%0,                  Marie%Chauveau%NULL%2,                  Colin%Deschanvres%NULL%2,                  Benjamin J%Gaborit%NULL%2,                  Joël%Jenvrin%NULL%2,                  Raphaël%Lecomte%NULL%2,                  Maeva%Lefebvre%NULL%2,                  François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                   Louis%Valiquette%null%1,                   Cynthia%Grenier%null%1,                   Jean Berchmans%Musonera%null%1,                   Delphin%Nkengurutse%null%1,                   Anaïs%Marcil-Héguy%null%1,                   Kim%Vettese%null%1,                   Dominique%Marcoux%null%1,                   Corinne%Valiquette%null%1,                   Wei Ting%Xiong%null%1,                   Pierre-Hughes%Fortier%null%1,                   Mélissa%Généreux%null%1,                   Jacques%Pépin%null%1,                 Alex%Carignan%null%1,                 Louis%Valiquette%null%1,                 Cynthia%Grenier%null%1,                 Jean Berchmans%Musonera%null%1,                 Delphin%Nkengurutse%null%1,                 Anaïs%Marcil-Héguy%null%1,                 Kim%Vettese%null%1,                 Dominique%Marcoux%null%1,                 Corinne%Valiquette%null%1,                 Wei Ting%Xiong%null%1,                 Pierre-Hughes%Fortier%null%1,                 Mélissa%Généreux%null%1,                 Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                  Hülya%Çaşkurlu%NULL%2,                  Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                  Florent%Carsuzaa%NULL%1,                  Jean-Paul%Trijolet%NULL%2,                  Jean-Paul%Trijolet%NULL%0,                  Anne-Laure%Capitaine%NULL%1,                  Mariam%Roncato-Saberan%NULL%1,                  Kevin%Fouet%NULL%1,                  France%Cazenave-Roblot%NULL%0,                  Mélanie%Catroux%NULL%1,                  Caroline%Allix-Beguec%NULL%1,                  Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                 Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                 Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                  Paola%Varese%NULL%2,                  Paola%Varese%NULL%0,                  Chiara%Dentone%NULL%1,                  Emanuela%Barisione%NULL%1,                  Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                  Filippo%Farri%NULL%2,                  Filippo%Farri%NULL%0,                  Giacomo%Garzaro%NULL%1,                  Miriam%Gatto%NULL%1,                  Paolo%Aluffi Valletti%NULL%0,                  Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                  Eleonora%Trecca%NULL%1,                  Michele%Cassano%NULL%1,                  Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                  Laura%Pezzati%NULL%4,                  Laura%Pezzati%NULL%0,                  Federico%Conti%NULL%2,                  Dario%Bernacchia%NULL%0,                  Matteo%Siano%NULL%0,                  Letizia%Oreni%NULL%0,                  Stefano%Rusconi%NULL%0,                  Cristina%Gervasoni%NULL%2,                  Anna Lisa%Ridolfo%NULL%0,                  Giuliano%Rizzardini%NULL%0,                  Spinello%Antinori%NULL%0,                  Massimo%Galli%NULL%0,                  Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                  M.-J.%Kim%NULL%1,                  S.H.%Ra%NULL%1,                  J.%Lee%NULL%1,                  S.%Bae%NULL%1,                  J.%Jung%NULL%1,                  S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                  N.J.%Kadiane-Oussou%NULL%2,                  L.%Toko%NULL%2,                  P.-Y.%Royer%NULL%2,                  Q.%Lepiller%NULL%2,                  V.%Gendrin%NULL%2,                  S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                  Anton G. M.%Buiting%NULL%1,                  Suzan D.%Pas%NULL%1,                  Robbert G.%Bentvelsen%NULL%1,                  Wouter%van den Bijllaardt%NULL%1,                  Anne J. G.%van Oudheusden%NULL%1,                  Miranda M. L.%van Rijen%NULL%1,                  Jaco J.%Verweij%NULL%1,                  Marion P. G.%Koopmans%NULL%1,                  Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                  Elodie%Schneider%NULL%1,                  Isabelle%Vianu%NULL%1,                  Guillaume%Dollet%NULL%1,                  Bastien%Roche%NULL%1,                  Julia%Berdah%NULL%1,                  Julie%Michel%NULL%1,                  Laurent%Goix%NULL%1,                  Erick%Chanzy%NULL%1,                  Tomislav%Petrovic%NULL%1,                  Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                  Carlos M.%Chiesa-Estomba%NULL%2,                  Daniele R.%De Siati%NULL%2,                  Mihaela%Horoi%NULL%2,                  Serge D.%Le Bon%NULL%2,                  Alexandra%Rodriguez%NULL%2,                  Didier%Dequanter%NULL%2,                  Serge%Blecic%NULL%2,                  Fahd%El Afia%NULL%2,                  Lea%Distinguin%NULL%2,                  Younes%Chekkoury-Idrissi%NULL%2,                  Stéphane%Hans%NULL%2,                  Irene Lopez%Delgado%NULL%2,                  Christian%Calvo-Henriquez%NULL%2,                  Philippe%Lavigne%NULL%2,                  Chiara%Falanga%NULL%2,                  Maria Rosaria%Barillari%NULL%2,                  Giovanni%Cammaroto%NULL%2,                  Mohamad%Khalife%NULL%2,                  Pierre%Leich%NULL%2,                  Christel%Souchay%NULL%2,                  Camelia%Rossi%NULL%2,                  Fabrice%Journe%NULL%2,                  Julien%Hsieh%NULL%2,                  Myriam%Edjlali%NULL%2,                  Robert%Carlier%NULL%2,                  Laurence%Ris%NULL%2,                  Andrea%Lovato%NULL%2,                  Cosimo%De Filippis%NULL%2,                  Frederique%Coppee%NULL%2,                  Nicolas%Fakhry%NULL%2,                  Tareck%Ayad%NULL%2,                  Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                  Joel%Lockwood%NULL%2,                  Joel%Lockwood%NULL%0,                  Paul%Das%NULL%1,                  Ri%Wang%NULL%1,                  Eitan%Grinspun%NULL%1,                  John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                  Pokkee%Min%NULL%2,                  Pokkee%Min%NULL%0,                  Seonggu%Lee%NULL%2,                  Seonggu%Lee%NULL%0,                  Shin-Woo%Kim%NULL%0,                  Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,           Meital%Elbaz%xref no email%1,           Ronen%Ben-Ami%xref no email%1,           David%Shasha%xref no email%1,           Tal%Levinson%xref no email%1,           Guy%Choshen%xref no email%1,           Ksenia%Petrov%xref no email%1,           Avi%Gadoth%xref no email%1,           Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                  Mariangela%Pierantozzi%NULL%1,                  Matteo%Spanetta%NULL%1,                  Loredana%Sarmati%NULL%1,                  Novella%Cesta%NULL%1,                  Marco%Iannetta%NULL%1,                  Josuel%Ora%NULL%1,                  Grazia Genga%Mina%NULL%1,                  Ermanno%Puxeddu%NULL%1,                  Ottavia%Balbi%NULL%1,                  Gabriella%Pezzuto%NULL%1,                  Andrea%Magrini%NULL%1,                  Paola%Rogliani%NULL%1,                  Massimo%Andreoni%NULL%1,                  Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,           Huijuan%Jin%xref no email%0,           Mengdie%Wang%xref no email%0,           Yu%Hu%xref no email%0,           Shengcai%Chen%xref no email%0,           Quanwei%He%xref no email%0,           Jiang%Chang%xref no email%0,           Candong%Hong%xref no email%0,           Yifan%Zhou%xref no email%0,           David%Wang%xref no email%0,           Xiaoping%Miao%xref no email%0,           Yanan%Li%xref no email%0,           Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                  Juan%Amaro Sánchez%NULL%2,                  Juan%Amaro Sánchez%NULL%0,                  Antonio Francisco%López‐Sánchez%NULL%1,                  Enric%Jané‐Salas%NULL%1,                  Maria Luisa%Somacarrera Pérez%NULL%2,                  Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                  Lorenzo Roberto%Suardi%NULL%2,                  Lorenzo Roberto%Suardi%NULL%0,                  Michele%Busoni%NULL%1,                  Anna Teresa%Roberts%NULL%1,                  Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                  Azad A.%Haleem Al Mezori%NULL%1,                  Hakar Mustafa%Mohammed%NULL%1,                  Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                  Jin Gu%Yoon%NULL%3,                  Hye%Seong%NULL%3,                  Won Suk%Choi%NULL%1,                  Jang Wook%Sohn%NULL%1,                  Hee Jin%Cheong%NULL%4,                  Woo Joo%Kim%NULL%4,                  Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                  Alberto%Schreiber%NULL%1,                  Alberto%Grammatica%albertogrammatica@libero.it%1,                  Elena%Raffetti%NULL%2,                  Elena%Raffetti%NULL%0,                  Michele%Tomasoni%NULL%1,                  Tommaso%Gualtieri%NULL%1,                  Stefano%Taboni%NULL%1,                  Silvia%Zorzi%NULL%1,                  Davide%Lombardi%NULL%1,                  Alberto%Deganello%NULL%1,                  Luca Oscar%Redaelli De Zinis%NULL%1,                  Roberto%Maroldi%NULL%1,                  Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                  E.%Charani%NULL%1,                  D.%Ariyanayagam%NULL%1,                  A.%Abdulaal%NULL%1,                  S.J.%Denny%NULL%1,                  N.%Mughal%NULL%1,                  L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                  Suko%Adiarto%NULL%1,                  Santi Rahayu%Dewayanti%NULL%1,                  Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,           Inmaculada%D\u00edaz-Maroto%xref no email%1,           Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,           \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,           Almudena%Layos-Romero%xref no email%1,           Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,           Esther%Gonz\u00e1lez%xref no email%1,           Inmaculada%Redondo-Pe\u00f1as%xref no email%1,           Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,           Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,           Julia%Gracia-Gil%xref no email%1,           Laura%Rojas-Bartolom\u00e9%xref no email%1,           Inmaculada%Feria-Vilar%xref no email%1,           Mar\u00eda%Monteagudo%xref no email%1,           Mar\u00eda%Palao%xref no email%1,           Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,           Cristian%Alcahut-Rodr\u00edguez%xref no email%1,           David%Sopelana-Garay%xref no email%1,           Y\u00f3scar%Moreno%xref no email%1,           Javaad%Ahmad%xref no email%1,           Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                  Kadriye Kart%Yaşar%NULL%1,                  Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,           Jaros\u0142aw%Pinkas%xref no email%1,           Mateusz%Jankowski%xref no email%1,           Wojciech S.%Zgliczy\u0144ski%xref no email%1,           Waldemar%Wierzba%xref no email%1,           Mariusz%Gujski%xref no email%1,           \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                  Rejane Andrade%de Carvalho%NULL%1,                  Kalline Andrade%de Carvalho%NULL%1,                  Maria Goretti Freire%de Carvalho%NULL%1,                  Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                  Thirza%Singer-Cornelius%NULL%1,                  Michael%Oberle%NULL%1,                  Isabelle%Gengler%NULL%1,                  Steffi J.%Brockmeier%NULL%1,                  Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                  Andreas%Habertheuer%NULL%2,                  Andreas%Habertheuer%NULL%0,                  Asad A.%Usman%NULL%2,                  Asad A.%Usman%NULL%0,                  Arman%Kilic%NULL%1,                  Eric%Gnall%NULL%2,                  Eric%Gnall%NULL%0,                  Michael E.%Friscia%NULL%1,                  Dmitriy%Zubkus%NULL%1,                  Hitoshi%Hirose%NULL%2,                  Pablo%Sanchez%NULL%1,                  Olugbenga%Okusanya%NULL%1,                  Wilson Y.%Szeto%NULL%1,                  Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                  Claire%Hopkins%NULL%2,                  Claire%Hopkins%NULL%0,                  Giovanni%Salzano%NULL%2,                  Marzia%Petrocelli%NULL%2,                  Andrea%Melis%NULL%1,                  Marco%Cucurullo%NULL%1,                  Mario%Ferrari%NULL%1,                  Laura%Gagliardini%NULL%1,                  Carlotta%Pipolo%NULL%1,                  Giovanna%Deiana%NULL%3,                  Vito%Fiore%NULL%1,                  Andrea%De Vito%NULL%0,                  Nicola%Turra%NULL%1,                  Sara%Canu%NULL%1,                  Angelantonio%Maglio%NULL%1,                  Antonello%Serra%NULL%3,                  Antonello%Serra%NULL%0,                  Francesco%Bussu%NULL%2,                  Giordano%Madeddu%NULL%0,                  Sergio%Babudieri%NULL%0,                  Alessandro%Giuseppe Fois%NULL%1,                  Pietro%Pirina%NULL%0,                  Francesco A.%Salzano%NULL%1,                  Pierluigi%De Riu%NULL%1,                  Federico%Biglioli%NULL%1,                  Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                  Farhoud%Faraji%NULL%6,                  Farhoud%Faraji%NULL%0,                  Divya P.%Prajapati%NULL%4,                  Benjamin T.%Ostrander%NULL%2,                  Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                  Timothee%Klopfenstein%NULL%1,                  Julien%Mercier%NULL%1,                  N’dri Juliette%Kadiane-Oussou%NULL%1,                  Ludovic%Lan Cheong Wah%NULL%1,                  Pierre-Yves%Royer%NULL%1,                  Lynda%Toko%NULL%1,                  Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3327,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3239,7 +3356,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -3268,7 +3385,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3297,7 +3414,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -3326,7 +3443,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3355,7 +3472,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3384,7 +3501,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3413,7 +3530,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3442,7 +3559,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3471,7 +3588,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3500,7 +3617,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3529,7 +3646,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3558,7 +3675,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3587,7 +3704,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3616,7 +3733,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3645,7 +3762,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -3674,7 +3791,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -3703,7 +3820,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3732,7 +3849,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3761,7 +3878,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3790,7 +3907,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>803</v>
+        <v>842</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3819,7 +3936,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3848,7 +3965,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3877,7 +3994,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>806</v>
+        <v>845</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3906,7 +4023,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -3964,7 +4081,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>847</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -3993,7 +4110,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>809</v>
+        <v>848</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -4022,7 +4139,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4051,7 +4168,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4080,7 +4197,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4109,7 +4226,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>813</v>
+        <v>852</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -4138,7 +4255,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>814</v>
+        <v>853</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4167,7 +4284,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -4196,7 +4313,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>816</v>
+        <v>855</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -4225,7 +4342,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>817</v>
+        <v>856</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4254,7 +4371,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>818</v>
+        <v>857</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -4283,7 +4400,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>819</v>
+        <v>858</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -4312,7 +4429,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>820</v>
+        <v>859</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4341,7 +4458,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>821</v>
+        <v>860</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="904">
   <si>
     <t>Doi</t>
   </si>
@@ -2987,6 +2987,135 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                  Timothee%Klopfenstein%NULL%1,                  Julien%Mercier%NULL%1,                  N’dri Juliette%Kadiane-Oussou%NULL%1,                  Ludovic%Lan Cheong Wah%NULL%1,                  Pierre-Yves%Royer%NULL%1,                  Lynda%Toko%NULL%1,                  Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                  Aggarwal%Saurabh%coreGivesNoEmail%0,                  Garcia-Telles%Nelson%coreGivesNoEmail%0,                  Henry%Brandon Michael%coreGivesNoEmail%0,                  Lavie%Carl%coreGivesNoEmail%0,                  Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                   Ana Gabriela Costa%Normando%NULL%1,                   Rainier Luiz%Carvalho da Silva%NULL%1,                   Renata Monteiro%De Paula%NULL%1,                   Allan Christian%Cembranel%NULL%1,                   Alan Roger%Santos-Silva%NULL%1,                   Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,            Mina%Gheitani%xref no email%1,            Farrokh%Heidari%xref no email%1,            Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                   J. L.%Chico‐García%NULL%4,                   J. L.%Chico‐García%NULL%0,                   J.%Martínez‐Poles%NULL%2,                   F.%Rodríguez‐Jorge%NULL%2,                   E.%Natera‐Villalba%NULL%2,                   J.%Gómez‐Corral%NULL%4,                   J.%Gómez‐Corral%NULL%0,                   A.%Gómez‐López%NULL%2,                   E.%Monreal%NULL%2,                   P.%Parra‐Díaz%NULL%2,                   J. L.%Cortés‐Cuevas%NULL%4,                   J. L.%Cortés‐Cuevas%NULL%0,                   J. C.%Galán%NULL%2,                   C.%Fragola‐Arnau%NULL%2,                   J.%Porta‐Etessam%NULL%2,                   J.%Masjuan%NULL%2,                   A.%Alonso‐Cánovas%NULL%4,                   A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                   Paul%Le Turnier%NULL%2,                   Charles%Declerck%NULL%2,                   Cécile%Paillé%NULL%2,                   Matthieu%Revest%NULL%2,                   Vincent%Dubée%NULL%2,                   Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                   Cédric%Arvieux%NULL%2,                   Marion%Baldeyrou%NULL%2,                   Jean-Marc%Chapplain%NULL%2,                   Pauline%Comacle%NULL%2,                   Solène%Patrat-Delon%NULL%2,                   Anne%Maillard%NULL%2,                   Mélanie%Poinot%NULL%2,                   Charlotte%Pronier%NULL%2,                   Faouzi%Souala%NULL%2,                   Vincent%Thibault%NULL%2,                   Pierre%Abgueguen%NULL%2,                   Hélène%Cormier%NULL%2,                   Valérie%Delbos%NULL%2,                   Marine%de la Chapelle%NULL%2,                   Alexandra%Ducancelle%NULL%2,                   Rafael%Mahieu%NULL%2,                   Valérie%Rabier%NULL%2,                   Sami%Rehaiem%NULL%2,                   Yves%Vandamme%NULL%2,                   Charlotte%Biron%NULL%2,                   Jeanne%Brochon%NULL%2,                   David%Boutoille%NULL%0,                   Marie%Chauveau%NULL%2,                   Colin%Deschanvres%NULL%2,                   Benjamin J%Gaborit%NULL%2,                   Joël%Jenvrin%NULL%2,                   Raphaël%Lecomte%NULL%2,                   Maeva%Lefebvre%NULL%2,                   François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                    Louis%Valiquette%null%1,                    Cynthia%Grenier%null%1,                    Jean Berchmans%Musonera%null%1,                    Delphin%Nkengurutse%null%1,                    Anaïs%Marcil-Héguy%null%1,                    Kim%Vettese%null%1,                    Dominique%Marcoux%null%1,                    Corinne%Valiquette%null%1,                    Wei Ting%Xiong%null%1,                    Pierre-Hughes%Fortier%null%1,                    Mélissa%Généreux%null%1,                    Jacques%Pépin%null%1,                  Alex%Carignan%null%1,                  Louis%Valiquette%null%1,                  Cynthia%Grenier%null%1,                  Jean Berchmans%Musonera%null%1,                  Delphin%Nkengurutse%null%1,                  Anaïs%Marcil-Héguy%null%1,                  Kim%Vettese%null%1,                  Dominique%Marcoux%null%1,                  Corinne%Valiquette%null%1,                  Wei Ting%Xiong%null%1,                  Pierre-Hughes%Fortier%null%1,                  Mélissa%Généreux%null%1,                  Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                   Hülya%Çaşkurlu%NULL%2,                   Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                   Florent%Carsuzaa%NULL%1,                   Jean-Paul%Trijolet%NULL%2,                   Jean-Paul%Trijolet%NULL%0,                   Anne-Laure%Capitaine%NULL%1,                   Mariam%Roncato-Saberan%NULL%1,                   Kevin%Fouet%NULL%1,                   France%Cazenave-Roblot%NULL%0,                   Mélanie%Catroux%NULL%1,                   Caroline%Allix-Beguec%NULL%1,                   Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                  Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                  Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                   Paola%Varese%NULL%2,                   Paola%Varese%NULL%0,                   Chiara%Dentone%NULL%1,                   Emanuela%Barisione%NULL%1,                   Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                   Filippo%Farri%NULL%2,                   Filippo%Farri%NULL%0,                   Giacomo%Garzaro%NULL%1,                   Miriam%Gatto%NULL%1,                   Paolo%Aluffi Valletti%NULL%0,                   Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                   Eleonora%Trecca%NULL%1,                   Michele%Cassano%NULL%1,                   Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                   Laura%Pezzati%NULL%4,                   Laura%Pezzati%NULL%0,                   Federico%Conti%NULL%2,                   Dario%Bernacchia%NULL%0,                   Matteo%Siano%NULL%0,                   Letizia%Oreni%NULL%0,                   Stefano%Rusconi%NULL%0,                   Cristina%Gervasoni%NULL%2,                   Anna Lisa%Ridolfo%NULL%0,                   Giuliano%Rizzardini%NULL%0,                   Spinello%Antinori%NULL%0,                   Massimo%Galli%NULL%0,                   Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                   M.-J.%Kim%NULL%1,                   S.H.%Ra%NULL%1,                   J.%Lee%NULL%1,                   S.%Bae%NULL%1,                   J.%Jung%NULL%1,                   S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                   N.J.%Kadiane-Oussou%NULL%2,                   L.%Toko%NULL%2,                   P.-Y.%Royer%NULL%2,                   Q.%Lepiller%NULL%2,                   V.%Gendrin%NULL%2,                   S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                   Anton G. M.%Buiting%NULL%1,                   Suzan D.%Pas%NULL%1,                   Robbert G.%Bentvelsen%NULL%1,                   Wouter%van den Bijllaardt%NULL%1,                   Anne J. G.%van Oudheusden%NULL%1,                   Miranda M. L.%van Rijen%NULL%1,                   Jaco J.%Verweij%NULL%1,                   Marion P. G.%Koopmans%NULL%1,                   Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                   Elodie%Schneider%NULL%1,                   Isabelle%Vianu%NULL%1,                   Guillaume%Dollet%NULL%1,                   Bastien%Roche%NULL%1,                   Julia%Berdah%NULL%1,                   Julie%Michel%NULL%1,                   Laurent%Goix%NULL%1,                   Erick%Chanzy%NULL%1,                   Tomislav%Petrovic%NULL%1,                   Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                   Carlos M.%Chiesa-Estomba%NULL%2,                   Daniele R.%De Siati%NULL%2,                   Mihaela%Horoi%NULL%2,                   Serge D.%Le Bon%NULL%2,                   Alexandra%Rodriguez%NULL%2,                   Didier%Dequanter%NULL%2,                   Serge%Blecic%NULL%2,                   Fahd%El Afia%NULL%2,                   Lea%Distinguin%NULL%2,                   Younes%Chekkoury-Idrissi%NULL%2,                   Stéphane%Hans%NULL%2,                   Irene Lopez%Delgado%NULL%2,                   Christian%Calvo-Henriquez%NULL%2,                   Philippe%Lavigne%NULL%2,                   Chiara%Falanga%NULL%2,                   Maria Rosaria%Barillari%NULL%2,                   Giovanni%Cammaroto%NULL%2,                   Mohamad%Khalife%NULL%2,                   Pierre%Leich%NULL%2,                   Christel%Souchay%NULL%2,                   Camelia%Rossi%NULL%2,                   Fabrice%Journe%NULL%2,                   Julien%Hsieh%NULL%2,                   Myriam%Edjlali%NULL%2,                   Robert%Carlier%NULL%2,                   Laurence%Ris%NULL%2,                   Andrea%Lovato%NULL%2,                   Cosimo%De Filippis%NULL%2,                   Frederique%Coppee%NULL%2,                   Nicolas%Fakhry%NULL%2,                   Tareck%Ayad%NULL%2,                   Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                   Joel%Lockwood%NULL%2,                   Joel%Lockwood%NULL%0,                   Paul%Das%NULL%1,                   Ri%Wang%NULL%1,                   Eitan%Grinspun%NULL%1,                   John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                   Pokkee%Min%NULL%2,                   Pokkee%Min%NULL%0,                   Seonggu%Lee%NULL%2,                   Seonggu%Lee%NULL%0,                   Shin-Woo%Kim%NULL%0,                   Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,            Meital%Elbaz%xref no email%1,            Ronen%Ben-Ami%xref no email%1,            David%Shasha%xref no email%1,            Tal%Levinson%xref no email%1,            Guy%Choshen%xref no email%1,            Ksenia%Petrov%xref no email%1,            Avi%Gadoth%xref no email%1,            Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                   Mariangela%Pierantozzi%NULL%1,                   Matteo%Spanetta%NULL%1,                   Loredana%Sarmati%NULL%1,                   Novella%Cesta%NULL%1,                   Marco%Iannetta%NULL%1,                   Josuel%Ora%NULL%1,                   Grazia Genga%Mina%NULL%1,                   Ermanno%Puxeddu%NULL%1,                   Ottavia%Balbi%NULL%1,                   Gabriella%Pezzuto%NULL%1,                   Andrea%Magrini%NULL%1,                   Paola%Rogliani%NULL%1,                   Massimo%Andreoni%NULL%1,                   Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,            Huijuan%Jin%xref no email%0,            Mengdie%Wang%xref no email%0,            Yu%Hu%xref no email%0,            Shengcai%Chen%xref no email%0,            Quanwei%He%xref no email%0,            Jiang%Chang%xref no email%0,            Candong%Hong%xref no email%0,            Yifan%Zhou%xref no email%0,            David%Wang%xref no email%0,            Xiaoping%Miao%xref no email%0,            Yanan%Li%xref no email%0,            Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                   Juan%Amaro Sánchez%NULL%2,                   Juan%Amaro Sánchez%NULL%0,                   Antonio Francisco%López‐Sánchez%NULL%1,                   Enric%Jané‐Salas%NULL%1,                   Maria Luisa%Somacarrera Pérez%NULL%2,                   Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                   Lorenzo Roberto%Suardi%NULL%2,                   Lorenzo Roberto%Suardi%NULL%0,                   Michele%Busoni%NULL%1,                   Anna Teresa%Roberts%NULL%1,                   Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                   Azad A.%Haleem Al Mezori%NULL%1,                   Hakar Mustafa%Mohammed%NULL%1,                   Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                   Jin Gu%Yoon%NULL%3,                   Hye%Seong%NULL%3,                   Won Suk%Choi%NULL%1,                   Jang Wook%Sohn%NULL%1,                   Hee Jin%Cheong%NULL%4,                   Woo Joo%Kim%NULL%4,                   Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                   Alberto%Schreiber%NULL%1,                   Alberto%Grammatica%albertogrammatica@libero.it%1,                   Elena%Raffetti%NULL%2,                   Elena%Raffetti%NULL%0,                   Michele%Tomasoni%NULL%1,                   Tommaso%Gualtieri%NULL%1,                   Stefano%Taboni%NULL%1,                   Silvia%Zorzi%NULL%1,                   Davide%Lombardi%NULL%1,                   Alberto%Deganello%NULL%1,                   Luca Oscar%Redaelli De Zinis%NULL%1,                   Roberto%Maroldi%NULL%1,                   Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                   E.%Charani%NULL%1,                   D.%Ariyanayagam%NULL%1,                   A.%Abdulaal%NULL%1,                   S.J.%Denny%NULL%1,                   N.%Mughal%NULL%1,                   L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                   Suko%Adiarto%NULL%1,                   Santi Rahayu%Dewayanti%NULL%1,                   Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,            Inmaculada%D\u00edaz-Maroto%xref no email%1,            Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,            \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,            Almudena%Layos-Romero%xref no email%1,            Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,            Esther%Gonz\u00e1lez%xref no email%1,            Inmaculada%Redondo-Pe\u00f1as%xref no email%1,            Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,            Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,            Julia%Gracia-Gil%xref no email%1,            Laura%Rojas-Bartolom\u00e9%xref no email%1,            Inmaculada%Feria-Vilar%xref no email%1,            Mar\u00eda%Monteagudo%xref no email%1,            Mar\u00eda%Palao%xref no email%1,            Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,            Cristian%Alcahut-Rodr\u00edguez%xref no email%1,            David%Sopelana-Garay%xref no email%1,            Y\u00f3scar%Moreno%xref no email%1,            Javaad%Ahmad%xref no email%1,            Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                   Kadriye Kart%Yaşar%NULL%1,                   Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,            Jaros\u0142aw%Pinkas%xref no email%1,            Mateusz%Jankowski%xref no email%1,            Wojciech S.%Zgliczy\u0144ski%xref no email%1,            Waldemar%Wierzba%xref no email%1,            Mariusz%Gujski%xref no email%1,            \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                   Rejane Andrade%de Carvalho%NULL%1,                   Kalline Andrade%de Carvalho%NULL%1,                   Maria Goretti Freire%de Carvalho%NULL%1,                   Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                   Thirza%Singer-Cornelius%NULL%1,                   Michael%Oberle%NULL%1,                   Isabelle%Gengler%NULL%1,                   Steffi J.%Brockmeier%NULL%1,                   Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                   Andreas%Habertheuer%NULL%2,                   Andreas%Habertheuer%NULL%0,                   Asad A.%Usman%NULL%2,                   Asad A.%Usman%NULL%0,                   Arman%Kilic%NULL%1,                   Eric%Gnall%NULL%2,                   Eric%Gnall%NULL%0,                   Michael E.%Friscia%NULL%1,                   Dmitriy%Zubkus%NULL%1,                   Hitoshi%Hirose%NULL%2,                   Pablo%Sanchez%NULL%1,                   Olugbenga%Okusanya%NULL%1,                   Wilson Y.%Szeto%NULL%1,                   Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                   Claire%Hopkins%NULL%2,                   Claire%Hopkins%NULL%0,                   Giovanni%Salzano%NULL%2,                   Marzia%Petrocelli%NULL%2,                   Andrea%Melis%NULL%1,                   Marco%Cucurullo%NULL%1,                   Mario%Ferrari%NULL%1,                   Laura%Gagliardini%NULL%1,                   Carlotta%Pipolo%NULL%1,                   Giovanna%Deiana%NULL%3,                   Vito%Fiore%NULL%1,                   Andrea%De Vito%NULL%0,                   Nicola%Turra%NULL%1,                   Sara%Canu%NULL%1,                   Angelantonio%Maglio%NULL%1,                   Antonello%Serra%NULL%3,                   Antonello%Serra%NULL%0,                   Francesco%Bussu%NULL%2,                   Giordano%Madeddu%NULL%0,                   Sergio%Babudieri%NULL%0,                   Alessandro%Giuseppe Fois%NULL%1,                   Pietro%Pirina%NULL%0,                   Francesco A.%Salzano%NULL%1,                   Pierluigi%De Riu%NULL%1,                   Federico%Biglioli%NULL%1,                   Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                   Farhoud%Faraji%NULL%6,                   Farhoud%Faraji%NULL%0,                   Divya P.%Prajapati%NULL%4,                   Benjamin T.%Ostrander%NULL%2,                   Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                   Timothee%Klopfenstein%NULL%1,                   Julien%Mercier%NULL%1,                   N’dri Juliette%Kadiane-Oussou%NULL%1,                   Ludovic%Lan Cheong Wah%NULL%1,                   Pierre-Yves%Royer%NULL%1,                   Lynda%Toko%NULL%1,                   Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3327,7 +3456,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>822</v>
+        <v>861</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3339,7 +3468,7 @@
         <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3">
@@ -3356,7 +3485,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -3368,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4">
@@ -3385,7 +3514,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3397,7 +3526,7 @@
         <v>424</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5">
@@ -3414,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -3426,7 +3555,7 @@
         <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6">
@@ -3443,7 +3572,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3455,7 +3584,7 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7">
@@ -3472,7 +3601,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3484,7 +3613,7 @@
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8">
@@ -3501,7 +3630,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3513,7 +3642,7 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9">
@@ -3530,7 +3659,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3542,7 +3671,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10">
@@ -3559,7 +3688,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3571,7 +3700,7 @@
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11">
@@ -3588,7 +3717,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3600,7 +3729,7 @@
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12">
@@ -3617,7 +3746,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3629,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13">
@@ -3646,7 +3775,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3675,7 +3804,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3687,7 +3816,7 @@
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="15">
@@ -3704,7 +3833,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3716,7 +3845,7 @@
         <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16">
@@ -3733,7 +3862,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3745,7 +3874,7 @@
         <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17">
@@ -3762,7 +3891,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -3774,7 +3903,7 @@
         <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="18">
@@ -3791,7 +3920,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -3803,7 +3932,7 @@
         <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>264</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19">
@@ -3820,7 +3949,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>839</v>
+        <v>882</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3832,7 +3961,7 @@
         <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>264</v>
+        <v>881</v>
       </c>
     </row>
     <row r="20">
@@ -3849,7 +3978,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>840</v>
+        <v>883</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3861,7 +3990,7 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="21">
@@ -3878,7 +4007,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>841</v>
+        <v>884</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3890,7 +4019,7 @@
         <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22">
@@ -3907,7 +4036,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3919,7 +4048,7 @@
         <v>444</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="23">
@@ -3936,7 +4065,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>843</v>
+        <v>886</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -3948,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24">
@@ -3965,7 +4094,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>844</v>
+        <v>887</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -3977,7 +4106,7 @@
         <v>448</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="25">
@@ -3994,7 +4123,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -4006,7 +4135,7 @@
         <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="26">
@@ -4023,7 +4152,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>846</v>
+        <v>889</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -4035,7 +4164,7 @@
         <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>264</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27">
@@ -4064,7 +4193,7 @@
         <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28">
@@ -4081,7 +4210,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>847</v>
+        <v>890</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -4093,7 +4222,7 @@
         <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29">
@@ -4110,7 +4239,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>848</v>
+        <v>891</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -4122,7 +4251,7 @@
         <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30">
@@ -4139,7 +4268,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4151,7 +4280,7 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="31">
@@ -4168,7 +4297,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4180,7 +4309,7 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32">
@@ -4197,7 +4326,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4209,7 +4338,7 @@
         <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>864</v>
       </c>
     </row>
     <row r="33">
@@ -4226,7 +4355,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>852</v>
+        <v>895</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -4238,7 +4367,7 @@
         <v>444</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34">
@@ -4255,7 +4384,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>853</v>
+        <v>896</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4267,7 +4396,7 @@
         <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35">
@@ -4284,7 +4413,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>854</v>
+        <v>897</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -4296,7 +4425,7 @@
         <v>462</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>862</v>
       </c>
     </row>
     <row r="36">
@@ -4313,7 +4442,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>855</v>
+        <v>898</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -4325,7 +4454,7 @@
         <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37">
@@ -4342,7 +4471,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>856</v>
+        <v>899</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4354,7 +4483,7 @@
         <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38">
@@ -4371,7 +4500,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>857</v>
+        <v>900</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -4383,7 +4512,7 @@
         <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="39">
@@ -4400,7 +4529,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>858</v>
+        <v>901</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -4412,7 +4541,7 @@
         <v>195</v>
       </c>
       <c r="I39" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="40">
@@ -4429,7 +4558,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>859</v>
+        <v>902</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4441,7 +4570,7 @@
         <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>250</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41">
@@ -4458,7 +4587,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>860</v>
+        <v>903</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>
@@ -4470,7 +4599,7 @@
         <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>264</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="943">
   <si>
     <t>Doi</t>
   </si>
@@ -3116,6 +3116,123 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                   Timothee%Klopfenstein%NULL%1,                   Julien%Mercier%NULL%1,                   N’dri Juliette%Kadiane-Oussou%NULL%1,                   Ludovic%Lan Cheong Wah%NULL%1,                   Pierre-Yves%Royer%NULL%1,                   Lynda%Toko%NULL%1,                   Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                   Aggarwal%Saurabh%coreGivesNoEmail%0,                   Garcia-Telles%Nelson%coreGivesNoEmail%0,                   Henry%Brandon Michael%coreGivesNoEmail%0,                   Lavie%Carl%coreGivesNoEmail%0,                   Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                    Ana Gabriela Costa%Normando%NULL%1,                    Rainier Luiz%Carvalho da Silva%NULL%1,                    Renata Monteiro%De Paula%NULL%1,                    Allan Christian%Cembranel%NULL%1,                    Alan Roger%Santos-Silva%NULL%1,                    Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%1,             Mina%Gheitani%xref no email%1,             Farrokh%Heidari%xref no email%1,             Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                    J. L.%Chico‐García%NULL%4,                    J. L.%Chico‐García%NULL%0,                    J.%Martínez‐Poles%NULL%2,                    F.%Rodríguez‐Jorge%NULL%2,                    E.%Natera‐Villalba%NULL%2,                    J.%Gómez‐Corral%NULL%4,                    J.%Gómez‐Corral%NULL%0,                    A.%Gómez‐López%NULL%2,                    E.%Monreal%NULL%2,                    P.%Parra‐Díaz%NULL%2,                    J. L.%Cortés‐Cuevas%NULL%4,                    J. L.%Cortés‐Cuevas%NULL%0,                    J. C.%Galán%NULL%2,                    C.%Fragola‐Arnau%NULL%2,                    J.%Porta‐Etessam%NULL%2,                    J.%Masjuan%NULL%2,                    A.%Alonso‐Cánovas%NULL%4,                    A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                    Paul%Le Turnier%NULL%2,                    Charles%Declerck%NULL%2,                    Cécile%Paillé%NULL%2,                    Matthieu%Revest%NULL%2,                    Vincent%Dubée%NULL%2,                    Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                    Cédric%Arvieux%NULL%2,                    Marion%Baldeyrou%NULL%2,                    Jean-Marc%Chapplain%NULL%2,                    Pauline%Comacle%NULL%2,                    Solène%Patrat-Delon%NULL%2,                    Anne%Maillard%NULL%2,                    Mélanie%Poinot%NULL%2,                    Charlotte%Pronier%NULL%2,                    Faouzi%Souala%NULL%2,                    Vincent%Thibault%NULL%2,                    Pierre%Abgueguen%NULL%2,                    Hélène%Cormier%NULL%2,                    Valérie%Delbos%NULL%2,                    Marine%de la Chapelle%NULL%2,                    Alexandra%Ducancelle%NULL%2,                    Rafael%Mahieu%NULL%2,                    Valérie%Rabier%NULL%2,                    Sami%Rehaiem%NULL%2,                    Yves%Vandamme%NULL%2,                    Charlotte%Biron%NULL%2,                    Jeanne%Brochon%NULL%2,                    David%Boutoille%NULL%0,                    Marie%Chauveau%NULL%2,                    Colin%Deschanvres%NULL%2,                    Benjamin J%Gaborit%NULL%2,                    Joël%Jenvrin%NULL%2,                    Raphaël%Lecomte%NULL%2,                    Maeva%Lefebvre%NULL%2,                    François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                     Louis%Valiquette%null%1,                     Cynthia%Grenier%null%1,                     Jean Berchmans%Musonera%null%1,                     Delphin%Nkengurutse%null%1,                     Anaïs%Marcil-Héguy%null%1,                     Kim%Vettese%null%1,                     Dominique%Marcoux%null%1,                     Corinne%Valiquette%null%1,                     Wei Ting%Xiong%null%1,                     Pierre-Hughes%Fortier%null%1,                     Mélissa%Généreux%null%1,                     Jacques%Pépin%null%1,                   Alex%Carignan%null%1,                   Louis%Valiquette%null%1,                   Cynthia%Grenier%null%1,                   Jean Berchmans%Musonera%null%1,                   Delphin%Nkengurutse%null%1,                   Anaïs%Marcil-Héguy%null%1,                   Kim%Vettese%null%1,                   Dominique%Marcoux%null%1,                   Corinne%Valiquette%null%1,                   Wei Ting%Xiong%null%1,                   Pierre-Hughes%Fortier%null%1,                   Mélissa%Généreux%null%1,                   Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                    Hülya%Çaşkurlu%NULL%2,                    Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                    Florent%Carsuzaa%NULL%1,                    Jean-Paul%Trijolet%NULL%2,                    Jean-Paul%Trijolet%NULL%0,                    Anne-Laure%Capitaine%NULL%1,                    Mariam%Roncato-Saberan%NULL%1,                    Kevin%Fouet%NULL%1,                    France%Cazenave-Roblot%NULL%0,                    Mélanie%Catroux%NULL%1,                    Caroline%Allix-Beguec%NULL%1,                    Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                   Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                   Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                    Paola%Varese%NULL%2,                    Paola%Varese%NULL%0,                    Chiara%Dentone%NULL%1,                    Emanuela%Barisione%NULL%1,                    Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                    Filippo%Farri%NULL%2,                    Filippo%Farri%NULL%0,                    Giacomo%Garzaro%NULL%1,                    Miriam%Gatto%NULL%1,                    Paolo%Aluffi Valletti%NULL%0,                    Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                    Eleonora%Trecca%NULL%1,                    Michele%Cassano%NULL%1,                    Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                    Laura%Pezzati%NULL%4,                    Laura%Pezzati%NULL%0,                    Federico%Conti%NULL%2,                    Dario%Bernacchia%NULL%0,                    Matteo%Siano%NULL%0,                    Letizia%Oreni%NULL%0,                    Stefano%Rusconi%NULL%0,                    Cristina%Gervasoni%NULL%2,                    Anna Lisa%Ridolfo%NULL%0,                    Giuliano%Rizzardini%NULL%0,                    Spinello%Antinori%NULL%0,                    Massimo%Galli%NULL%0,                    Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                    M.-J.%Kim%NULL%1,                    S.H.%Ra%NULL%1,                    J.%Lee%NULL%1,                    S.%Bae%NULL%1,                    J.%Jung%NULL%1,                    S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                    N.J.%Kadiane-Oussou%NULL%2,                    L.%Toko%NULL%2,                    P.-Y.%Royer%NULL%2,                    Q.%Lepiller%NULL%2,                    V.%Gendrin%NULL%2,                    S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                    Anton G. M.%Buiting%NULL%1,                    Suzan D.%Pas%NULL%1,                    Robbert G.%Bentvelsen%NULL%1,                    Wouter%van den Bijllaardt%NULL%1,                    Anne J. G.%van Oudheusden%NULL%1,                    Miranda M. L.%van Rijen%NULL%1,                    Jaco J.%Verweij%NULL%1,                    Marion P. G.%Koopmans%NULL%1,                    Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                    Elodie%Schneider%NULL%1,                    Isabelle%Vianu%NULL%1,                    Guillaume%Dollet%NULL%1,                    Bastien%Roche%NULL%1,                    Julia%Berdah%NULL%1,                    Julie%Michel%NULL%1,                    Laurent%Goix%NULL%1,                    Erick%Chanzy%NULL%1,                    Tomislav%Petrovic%NULL%1,                    Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                    Carlos M.%Chiesa-Estomba%NULL%2,                    Daniele R.%De Siati%NULL%2,                    Mihaela%Horoi%NULL%2,                    Serge D.%Le Bon%NULL%2,                    Alexandra%Rodriguez%NULL%2,                    Didier%Dequanter%NULL%2,                    Serge%Blecic%NULL%2,                    Fahd%El Afia%NULL%2,                    Lea%Distinguin%NULL%2,                    Younes%Chekkoury-Idrissi%NULL%2,                    Stéphane%Hans%NULL%2,                    Irene Lopez%Delgado%NULL%2,                    Christian%Calvo-Henriquez%NULL%2,                    Philippe%Lavigne%NULL%2,                    Chiara%Falanga%NULL%2,                    Maria Rosaria%Barillari%NULL%2,                    Giovanni%Cammaroto%NULL%2,                    Mohamad%Khalife%NULL%2,                    Pierre%Leich%NULL%2,                    Christel%Souchay%NULL%2,                    Camelia%Rossi%NULL%2,                    Fabrice%Journe%NULL%2,                    Julien%Hsieh%NULL%2,                    Myriam%Edjlali%NULL%2,                    Robert%Carlier%NULL%2,                    Laurence%Ris%NULL%2,                    Andrea%Lovato%NULL%2,                    Cosimo%De Filippis%NULL%2,                    Frederique%Coppee%NULL%2,                    Nicolas%Fakhry%NULL%2,                    Tareck%Ayad%NULL%2,                    Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                    Joel%Lockwood%NULL%2,                    Joel%Lockwood%NULL%0,                    Paul%Das%NULL%1,                    Ri%Wang%NULL%1,                    Eitan%Grinspun%NULL%1,                    John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                    Pokkee%Min%NULL%2,                    Pokkee%Min%NULL%0,                    Seonggu%Lee%NULL%2,                    Seonggu%Lee%NULL%0,                    Shin-Woo%Kim%NULL%0,                    Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%1,             Meital%Elbaz%xref no email%1,             Ronen%Ben-Ami%xref no email%1,             David%Shasha%xref no email%1,             Tal%Levinson%xref no email%1,             Guy%Choshen%xref no email%1,             Ksenia%Petrov%xref no email%1,             Avi%Gadoth%xref no email%1,             Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                    Mariangela%Pierantozzi%NULL%1,                    Matteo%Spanetta%NULL%1,                    Loredana%Sarmati%NULL%1,                    Novella%Cesta%NULL%1,                    Marco%Iannetta%NULL%1,                    Josuel%Ora%NULL%1,                    Grazia Genga%Mina%NULL%1,                    Ermanno%Puxeddu%NULL%1,                    Ottavia%Balbi%NULL%1,                    Gabriella%Pezzuto%NULL%1,                    Andrea%Magrini%NULL%1,                    Paola%Rogliani%NULL%1,                    Massimo%Andreoni%NULL%1,                    Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,             Huijuan%Jin%xref no email%0,             Mengdie%Wang%xref no email%0,             Yu%Hu%xref no email%0,             Shengcai%Chen%xref no email%0,             Quanwei%He%xref no email%0,             Jiang%Chang%xref no email%0,             Candong%Hong%xref no email%0,             Yifan%Zhou%xref no email%0,             David%Wang%xref no email%0,             Xiaoping%Miao%xref no email%0,             Yanan%Li%xref no email%0,             Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                    Juan%Amaro Sánchez%NULL%2,                    Juan%Amaro Sánchez%NULL%0,                    Antonio Francisco%López‐Sánchez%NULL%1,                    Enric%Jané‐Salas%NULL%1,                    Maria Luisa%Somacarrera Pérez%NULL%2,                    Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                    Lorenzo Roberto%Suardi%NULL%2,                    Lorenzo Roberto%Suardi%NULL%0,                    Michele%Busoni%NULL%1,                    Anna Teresa%Roberts%NULL%1,                    Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                    Azad A.%Haleem Al Mezori%NULL%1,                    Hakar Mustafa%Mohammed%NULL%1,                    Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                    Jin Gu%Yoon%NULL%3,                    Hye%Seong%NULL%3,                    Won Suk%Choi%NULL%1,                    Jang Wook%Sohn%NULL%1,                    Hee Jin%Cheong%NULL%4,                    Woo Joo%Kim%NULL%4,                    Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                    Alberto%Schreiber%NULL%1,                    Alberto%Grammatica%albertogrammatica@libero.it%1,                    Elena%Raffetti%NULL%2,                    Elena%Raffetti%NULL%0,                    Michele%Tomasoni%NULL%1,                    Tommaso%Gualtieri%NULL%1,                    Stefano%Taboni%NULL%1,                    Silvia%Zorzi%NULL%1,                    Davide%Lombardi%NULL%1,                    Alberto%Deganello%NULL%1,                    Luca Oscar%Redaelli De Zinis%NULL%1,                    Roberto%Maroldi%NULL%1,                    Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                    E.%Charani%NULL%1,                    D.%Ariyanayagam%NULL%1,                    A.%Abdulaal%NULL%1,                    S.J.%Denny%NULL%1,                    N.%Mughal%NULL%1,                    L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                    Suko%Adiarto%NULL%1,                    Santi Rahayu%Dewayanti%NULL%1,                    Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%1,             Inmaculada%D\u00edaz-Maroto%xref no email%1,             Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1,             \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1,             Almudena%Layos-Romero%xref no email%1,             Jorge%Garc\u00eda-Garc\u00eda%xref no email%1,             Esther%Gonz\u00e1lez%xref no email%1,             Inmaculada%Redondo-Pe\u00f1as%xref no email%1,             Ana Bel\u00e9n%Perona-Moratalla%xref no email%1,             Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1,             Julia%Gracia-Gil%xref no email%1,             Laura%Rojas-Bartolom\u00e9%xref no email%1,             Inmaculada%Feria-Vilar%xref no email%1,             Mar\u00eda%Monteagudo%xref no email%1,             Mar\u00eda%Palao%xref no email%1,             Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1,             Cristian%Alcahut-Rodr\u00edguez%xref no email%1,             David%Sopelana-Garay%xref no email%1,             Y\u00f3scar%Moreno%xref no email%1,             Javaad%Ahmad%xref no email%1,             Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                    Kadriye Kart%Yaşar%NULL%1,                    Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%1,             Jaros\u0142aw%Pinkas%xref no email%1,             Mateusz%Jankowski%xref no email%1,             Wojciech S.%Zgliczy\u0144ski%xref no email%1,             Waldemar%Wierzba%xref no email%1,             Mariusz%Gujski%xref no email%1,             \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                    Rejane Andrade%de Carvalho%NULL%1,                    Kalline Andrade%de Carvalho%NULL%1,                    Maria Goretti Freire%de Carvalho%NULL%1,                    Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                    Thirza%Singer-Cornelius%NULL%1,                    Michael%Oberle%NULL%1,                    Isabelle%Gengler%NULL%1,                    Steffi J.%Brockmeier%NULL%1,                    Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                    Andreas%Habertheuer%NULL%2,                    Andreas%Habertheuer%NULL%0,                    Asad A.%Usman%NULL%2,                    Asad A.%Usman%NULL%0,                    Arman%Kilic%NULL%1,                    Eric%Gnall%NULL%2,                    Eric%Gnall%NULL%0,                    Michael E.%Friscia%NULL%1,                    Dmitriy%Zubkus%NULL%1,                    Hitoshi%Hirose%NULL%2,                    Pablo%Sanchez%NULL%1,                    Olugbenga%Okusanya%NULL%1,                    Wilson Y.%Szeto%NULL%1,                    Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                    Claire%Hopkins%NULL%2,                    Claire%Hopkins%NULL%0,                    Giovanni%Salzano%NULL%2,                    Marzia%Petrocelli%NULL%2,                    Andrea%Melis%NULL%1,                    Marco%Cucurullo%NULL%1,                    Mario%Ferrari%NULL%1,                    Laura%Gagliardini%NULL%1,                    Carlotta%Pipolo%NULL%1,                    Giovanna%Deiana%NULL%3,                    Vito%Fiore%NULL%1,                    Andrea%De Vito%NULL%0,                    Nicola%Turra%NULL%1,                    Sara%Canu%NULL%1,                    Angelantonio%Maglio%NULL%1,                    Antonello%Serra%NULL%3,                    Antonello%Serra%NULL%0,                    Francesco%Bussu%NULL%2,                    Giordano%Madeddu%NULL%0,                    Sergio%Babudieri%NULL%0,                    Alessandro%Giuseppe Fois%NULL%1,                    Pietro%Pirina%NULL%0,                    Francesco A.%Salzano%NULL%1,                    Pierluigi%De Riu%NULL%1,                    Federico%Biglioli%NULL%1,                    Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                    Farhoud%Faraji%NULL%6,                    Farhoud%Faraji%NULL%0,                    Divya P.%Prajapati%NULL%4,                    Benjamin T.%Ostrander%NULL%2,                    Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                    Timothee%Klopfenstein%NULL%1,                    Julien%Mercier%NULL%1,                    N’dri Juliette%Kadiane-Oussou%NULL%1,                    Ludovic%Lan Cheong Wah%NULL%1,                    Pierre-Yves%Royer%NULL%1,                    Lynda%Toko%NULL%1,                    Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3573,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3485,7 +3602,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -3514,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3543,7 +3660,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -3572,7 +3689,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3601,7 +3718,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3630,7 +3747,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3659,7 +3776,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3688,7 +3805,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3717,7 +3834,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3746,7 +3863,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3775,7 +3892,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3804,7 +3921,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3833,7 +3950,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3862,7 +3979,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3891,7 +4008,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -3920,7 +4037,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -3949,7 +4066,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3978,7 +4095,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>883</v>
+        <v>922</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4007,7 +4124,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>884</v>
+        <v>923</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4036,7 +4153,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4065,7 +4182,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>886</v>
+        <v>925</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -4094,7 +4211,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>887</v>
+        <v>926</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -4123,7 +4240,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -4152,7 +4269,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>889</v>
+        <v>928</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -4210,7 +4327,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>890</v>
+        <v>929</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -4239,7 +4356,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>891</v>
+        <v>930</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -4268,7 +4385,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>892</v>
+        <v>931</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4297,7 +4414,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>893</v>
+        <v>932</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4326,7 +4443,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>894</v>
+        <v>933</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4355,7 +4472,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>895</v>
+        <v>934</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -4384,7 +4501,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>896</v>
+        <v>935</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4413,7 +4530,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>897</v>
+        <v>936</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -4442,7 +4559,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>898</v>
+        <v>937</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -4471,7 +4588,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>899</v>
+        <v>938</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4500,7 +4617,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>900</v>
+        <v>939</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -4529,7 +4646,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>901</v>
+        <v>940</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -4558,7 +4675,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4587,7 +4704,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>903</v>
+        <v>942</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="1125">
   <si>
     <t>Doi</t>
   </si>
@@ -3233,6 +3233,552 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                    Timothee%Klopfenstein%NULL%1,                    Julien%Mercier%NULL%1,                    N’dri Juliette%Kadiane-Oussou%NULL%1,                    Ludovic%Lan Cheong Wah%NULL%1,                    Pierre-Yves%Royer%NULL%1,                    Lynda%Toko%NULL%1,                    Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                    Aggarwal%Saurabh%coreGivesNoEmail%0,                    Garcia-Telles%Nelson%coreGivesNoEmail%0,                    Henry%Brandon Michael%coreGivesNoEmail%0,                    Lavie%Carl%coreGivesNoEmail%0,                    Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                     Ana Gabriela Costa%Normando%NULL%1,                     Rainier Luiz%Carvalho da Silva%NULL%1,                     Renata Monteiro%De Paula%NULL%1,                     Allan Christian%Cembranel%NULL%1,                     Alan Roger%Santos-Silva%NULL%1,                     Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Ansari%xref no email%0, Mina%Gheitani%xref no email%1, Farrokh%Heidari%xref no email%1, Firouzeh%Heidari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                     J. L.%Chico‐García%NULL%4,                     J. L.%Chico‐García%NULL%0,                     J.%Martínez‐Poles%NULL%2,                     F.%Rodríguez‐Jorge%NULL%2,                     E.%Natera‐Villalba%NULL%2,                     J.%Gómez‐Corral%NULL%4,                     J.%Gómez‐Corral%NULL%0,                     A.%Gómez‐López%NULL%2,                     E.%Monreal%NULL%2,                     P.%Parra‐Díaz%NULL%2,                     J. L.%Cortés‐Cuevas%NULL%4,                     J. L.%Cortés‐Cuevas%NULL%0,                     J. C.%Galán%NULL%2,                     C.%Fragola‐Arnau%NULL%2,                     J.%Porta‐Etessam%NULL%2,                     J.%Masjuan%NULL%2,                     A.%Alonso‐Cánovas%NULL%4,                     A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                     Paul%Le Turnier%NULL%2,                     Charles%Declerck%NULL%2,                     Cécile%Paillé%NULL%2,                     Matthieu%Revest%NULL%2,                     Vincent%Dubée%NULL%2,                     Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                     Cédric%Arvieux%NULL%2,                     Marion%Baldeyrou%NULL%2,                     Jean-Marc%Chapplain%NULL%2,                     Pauline%Comacle%NULL%2,                     Solène%Patrat-Delon%NULL%2,                     Anne%Maillard%NULL%2,                     Mélanie%Poinot%NULL%2,                     Charlotte%Pronier%NULL%2,                     Faouzi%Souala%NULL%2,                     Vincent%Thibault%NULL%2,                     Pierre%Abgueguen%NULL%2,                     Hélène%Cormier%NULL%2,                     Valérie%Delbos%NULL%2,                     Marine%de la Chapelle%NULL%2,                     Alexandra%Ducancelle%NULL%2,                     Rafael%Mahieu%NULL%2,                     Valérie%Rabier%NULL%2,                     Sami%Rehaiem%NULL%2,                     Yves%Vandamme%NULL%2,                     Charlotte%Biron%NULL%2,                     Jeanne%Brochon%NULL%2,                     David%Boutoille%NULL%0,                     Marie%Chauveau%NULL%2,                     Colin%Deschanvres%NULL%2,                     Benjamin J%Gaborit%NULL%2,                     Joël%Jenvrin%NULL%2,                     Raphaël%Lecomte%NULL%2,                     Maeva%Lefebvre%NULL%2,                     François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                      Louis%Valiquette%null%1,                      Cynthia%Grenier%null%1,                      Jean Berchmans%Musonera%null%1,                      Delphin%Nkengurutse%null%1,                      Anaïs%Marcil-Héguy%null%1,                      Kim%Vettese%null%1,                      Dominique%Marcoux%null%1,                      Corinne%Valiquette%null%1,                      Wei Ting%Xiong%null%1,                      Pierre-Hughes%Fortier%null%1,                      Mélissa%Généreux%null%1,                      Jacques%Pépin%null%1,                    Alex%Carignan%null%1,                    Louis%Valiquette%null%1,                    Cynthia%Grenier%null%1,                    Jean Berchmans%Musonera%null%1,                    Delphin%Nkengurutse%null%1,                    Anaïs%Marcil-Héguy%null%1,                    Kim%Vettese%null%1,                    Dominique%Marcoux%null%1,                    Corinne%Valiquette%null%1,                    Wei Ting%Xiong%null%1,                    Pierre-Hughes%Fortier%null%1,                    Mélissa%Généreux%null%1,                    Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                     Hülya%Çaşkurlu%NULL%2,                     Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                     Florent%Carsuzaa%NULL%1,                     Jean-Paul%Trijolet%NULL%2,                     Jean-Paul%Trijolet%NULL%0,                     Anne-Laure%Capitaine%NULL%1,                     Mariam%Roncato-Saberan%NULL%1,                     Kevin%Fouet%NULL%1,                     France%Cazenave-Roblot%NULL%0,                     Mélanie%Catroux%NULL%1,                     Caroline%Allix-Beguec%NULL%1,                     Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                    Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                    Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                     Paola%Varese%NULL%2,                     Paola%Varese%NULL%0,                     Chiara%Dentone%NULL%1,                     Emanuela%Barisione%NULL%1,                     Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                     Filippo%Farri%NULL%2,                     Filippo%Farri%NULL%0,                     Giacomo%Garzaro%NULL%1,                     Miriam%Gatto%NULL%1,                     Paolo%Aluffi Valletti%NULL%0,                     Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                     Eleonora%Trecca%NULL%1,                     Michele%Cassano%NULL%1,                     Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                     Laura%Pezzati%NULL%4,                     Laura%Pezzati%NULL%0,                     Federico%Conti%NULL%2,                     Dario%Bernacchia%NULL%0,                     Matteo%Siano%NULL%0,                     Letizia%Oreni%NULL%0,                     Stefano%Rusconi%NULL%0,                     Cristina%Gervasoni%NULL%2,                     Anna Lisa%Ridolfo%NULL%0,                     Giuliano%Rizzardini%NULL%0,                     Spinello%Antinori%NULL%0,                     Massimo%Galli%NULL%0,                     Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                     M.-J.%Kim%NULL%1,                     S.H.%Ra%NULL%1,                     J.%Lee%NULL%1,                     S.%Bae%NULL%1,                     J.%Jung%NULL%1,                     S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                     N.J.%Kadiane-Oussou%NULL%2,                     L.%Toko%NULL%2,                     P.-Y.%Royer%NULL%2,                     Q.%Lepiller%NULL%2,                     V.%Gendrin%NULL%2,                     S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                     Anton G. M.%Buiting%NULL%1,                     Suzan D.%Pas%NULL%1,                     Robbert G.%Bentvelsen%NULL%1,                     Wouter%van den Bijllaardt%NULL%1,                     Anne J. G.%van Oudheusden%NULL%1,                     Miranda M. L.%van Rijen%NULL%1,                     Jaco J.%Verweij%NULL%1,                     Marion P. G.%Koopmans%NULL%1,                     Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                     Elodie%Schneider%NULL%1,                     Isabelle%Vianu%NULL%1,                     Guillaume%Dollet%NULL%1,                     Bastien%Roche%NULL%1,                     Julia%Berdah%NULL%1,                     Julie%Michel%NULL%1,                     Laurent%Goix%NULL%1,                     Erick%Chanzy%NULL%1,                     Tomislav%Petrovic%NULL%1,                     Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                     Carlos M.%Chiesa-Estomba%NULL%2,                     Daniele R.%De Siati%NULL%2,                     Mihaela%Horoi%NULL%2,                     Serge D.%Le Bon%NULL%2,                     Alexandra%Rodriguez%NULL%2,                     Didier%Dequanter%NULL%2,                     Serge%Blecic%NULL%2,                     Fahd%El Afia%NULL%2,                     Lea%Distinguin%NULL%2,                     Younes%Chekkoury-Idrissi%NULL%2,                     Stéphane%Hans%NULL%2,                     Irene Lopez%Delgado%NULL%2,                     Christian%Calvo-Henriquez%NULL%2,                     Philippe%Lavigne%NULL%2,                     Chiara%Falanga%NULL%2,                     Maria Rosaria%Barillari%NULL%2,                     Giovanni%Cammaroto%NULL%2,                     Mohamad%Khalife%NULL%2,                     Pierre%Leich%NULL%2,                     Christel%Souchay%NULL%2,                     Camelia%Rossi%NULL%2,                     Fabrice%Journe%NULL%2,                     Julien%Hsieh%NULL%2,                     Myriam%Edjlali%NULL%2,                     Robert%Carlier%NULL%2,                     Laurence%Ris%NULL%2,                     Andrea%Lovato%NULL%2,                     Cosimo%De Filippis%NULL%2,                     Frederique%Coppee%NULL%2,                     Nicolas%Fakhry%NULL%2,                     Tareck%Ayad%NULL%2,                     Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                     Joel%Lockwood%NULL%2,                     Joel%Lockwood%NULL%0,                     Paul%Das%NULL%1,                     Ri%Wang%NULL%1,                     Eitan%Grinspun%NULL%1,                     John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                     Pokkee%Min%NULL%2,                     Pokkee%Min%NULL%0,                     Seonggu%Lee%NULL%2,                     Seonggu%Lee%NULL%0,                     Shin-Woo%Kim%NULL%0,                     Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruth%Levinson%xref no email%0, Meital%Elbaz%xref no email%1, Ronen%Ben-Ami%xref no email%1, David%Shasha%xref no email%1, Tal%Levinson%xref no email%1, Guy%Choshen%xref no email%1, Ksenia%Petrov%xref no email%1, Avi%Gadoth%xref no email%1, Yael%Paran%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                     Mariangela%Pierantozzi%NULL%1,                     Matteo%Spanetta%NULL%1,                     Loredana%Sarmati%NULL%1,                     Novella%Cesta%NULL%1,                     Marco%Iannetta%NULL%1,                     Josuel%Ora%NULL%1,                     Grazia Genga%Mina%NULL%1,                     Ermanno%Puxeddu%NULL%1,                     Ottavia%Balbi%NULL%1,                     Gabriella%Pezzuto%NULL%1,                     Andrea%Magrini%NULL%1,                     Paola%Rogliani%NULL%1,                     Massimo%Andreoni%NULL%1,                     Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                     Juan%Amaro Sánchez%NULL%2,                     Juan%Amaro Sánchez%NULL%0,                     Antonio Francisco%López‐Sánchez%NULL%1,                     Enric%Jané‐Salas%NULL%1,                     Maria Luisa%Somacarrera Pérez%NULL%2,                     Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                     Lorenzo Roberto%Suardi%NULL%2,                     Lorenzo Roberto%Suardi%NULL%0,                     Michele%Busoni%NULL%1,                     Anna Teresa%Roberts%NULL%1,                     Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                     Azad A.%Haleem Al Mezori%NULL%1,                     Hakar Mustafa%Mohammed%NULL%1,                     Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                     Jin Gu%Yoon%NULL%3,                     Hye%Seong%NULL%3,                     Won Suk%Choi%NULL%1,                     Jang Wook%Sohn%NULL%1,                     Hee Jin%Cheong%NULL%4,                     Woo Joo%Kim%NULL%4,                     Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                     Alberto%Schreiber%NULL%1,                     Alberto%Grammatica%albertogrammatica@libero.it%1,                     Elena%Raffetti%NULL%2,                     Elena%Raffetti%NULL%0,                     Michele%Tomasoni%NULL%1,                     Tommaso%Gualtieri%NULL%1,                     Stefano%Taboni%NULL%1,                     Silvia%Zorzi%NULL%1,                     Davide%Lombardi%NULL%1,                     Alberto%Deganello%NULL%1,                     Luca Oscar%Redaelli De Zinis%NULL%1,                     Roberto%Maroldi%NULL%1,                     Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                     E.%Charani%NULL%1,                     D.%Ariyanayagam%NULL%1,                     A.%Abdulaal%NULL%1,                     S.J.%Denny%NULL%1,                     N.%Mughal%NULL%1,                     L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                     Suko%Adiarto%NULL%1,                     Santi Rahayu%Dewayanti%NULL%1,                     Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carlos Manuel%Romero-S\u00e1nchez%xref no email%0, Inmaculada%D\u00edaz-Maroto%xref no email%1, Eva%Fern\u00e1ndez-D\u00edaz%xref no email%1, \u00c1lvaro%S\u00e1nchez-Larsen%xref no email%1, Almudena%Layos-Romero%xref no email%1, Jorge%Garc\u00eda-Garc\u00eda%xref no email%1, Esther%Gonz\u00e1lez%xref no email%1, Inmaculada%Redondo-Pe\u00f1as%xref no email%1, Ana Bel\u00e9n%Perona-Moratalla%xref no email%1, Jos\u00e9 Antonio%Del Valle-P\u00e9rez%xref no email%1, Julia%Gracia-Gil%xref no email%1, Laura%Rojas-Bartolom\u00e9%xref no email%1, Inmaculada%Feria-Vilar%xref no email%1, Mar\u00eda%Monteagudo%xref no email%1, Mar\u00eda%Palao%xref no email%1, Elena%Palaz\u00f3n-Garc\u00eda%xref no email%1, Cristian%Alcahut-Rodr\u00edguez%xref no email%1, David%Sopelana-Garay%xref no email%1, Y\u00f3scar%Moreno%xref no email%1, Javaad%Ahmad%xref no email%1, Tom\u00e1s%Segura%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                     Kadriye Kart%Yaşar%NULL%1,                     Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rados\u0142aw%Sierpi\u0144ski%xref no email%0, Jaros\u0142aw%Pinkas%xref no email%1, Mateusz%Jankowski%xref no email%1, Wojciech S.%Zgliczy\u0144ski%xref no email%1, Waldemar%Wierzba%xref no email%1, Mariusz%Gujski%xref no email%1, \u0141ukasz%Szumowski%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Medycyna Praktyczna</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                     Rejane Andrade%de Carvalho%NULL%1,                     Kalline Andrade%de Carvalho%NULL%1,                     Maria Goretti Freire%de Carvalho%NULL%1,                     Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                     Thirza%Singer-Cornelius%NULL%1,                     Michael%Oberle%NULL%1,                     Isabelle%Gengler%NULL%1,                     Steffi J.%Brockmeier%NULL%1,                     Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                     Andreas%Habertheuer%NULL%2,                     Andreas%Habertheuer%NULL%0,                     Asad A.%Usman%NULL%2,                     Asad A.%Usman%NULL%0,                     Arman%Kilic%NULL%1,                     Eric%Gnall%NULL%2,                     Eric%Gnall%NULL%0,                     Michael E.%Friscia%NULL%1,                     Dmitriy%Zubkus%NULL%1,                     Hitoshi%Hirose%NULL%2,                     Pablo%Sanchez%NULL%1,                     Olugbenga%Okusanya%NULL%1,                     Wilson Y.%Szeto%NULL%1,                     Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                     Claire%Hopkins%NULL%2,                     Claire%Hopkins%NULL%0,                     Giovanni%Salzano%NULL%2,                     Marzia%Petrocelli%NULL%2,                     Andrea%Melis%NULL%1,                     Marco%Cucurullo%NULL%1,                     Mario%Ferrari%NULL%1,                     Laura%Gagliardini%NULL%1,                     Carlotta%Pipolo%NULL%1,                     Giovanna%Deiana%NULL%3,                     Vito%Fiore%NULL%1,                     Andrea%De Vito%NULL%0,                     Nicola%Turra%NULL%1,                     Sara%Canu%NULL%1,                     Angelantonio%Maglio%NULL%1,                     Antonello%Serra%NULL%3,                     Antonello%Serra%NULL%0,                     Francesco%Bussu%NULL%2,                     Giordano%Madeddu%NULL%0,                     Sergio%Babudieri%NULL%0,                     Alessandro%Giuseppe Fois%NULL%1,                     Pietro%Pirina%NULL%0,                     Francesco A.%Salzano%NULL%1,                     Pierluigi%De Riu%NULL%1,                     Federico%Biglioli%NULL%1,                     Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                     Farhoud%Faraji%NULL%6,                     Farhoud%Faraji%NULL%0,                     Divya P.%Prajapati%NULL%4,                     Benjamin T.%Ostrander%NULL%2,                     Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                     Timothee%Klopfenstein%NULL%1,                     Julien%Mercier%NULL%1,                     N’dri Juliette%Kadiane-Oussou%NULL%1,                     Ludovic%Lan Cheong Wah%NULL%1,                     Pierre-Yves%Royer%NULL%1,                     Lynda%Toko%NULL%1,                     Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                     Aggarwal%Saurabh%coreGivesNoEmail%0,                     Garcia-Telles%Nelson%coreGivesNoEmail%0,                     Henry%Brandon Michael%coreGivesNoEmail%0,                     Lavie%Carl%coreGivesNoEmail%0,                     Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                      Ana Gabriela Costa%Normando%NULL%1,                      Rainier Luiz%Carvalho da Silva%NULL%1,                      Renata Monteiro%De Paula%NULL%1,                      Allan Christian%Cembranel%NULL%1,                      Alan Roger%Santos-Silva%NULL%1,                      Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                      J. L.%Chico‐García%NULL%4,                      J. L.%Chico‐García%NULL%0,                      J.%Martínez‐Poles%NULL%2,                      F.%Rodríguez‐Jorge%NULL%2,                      E.%Natera‐Villalba%NULL%2,                      J.%Gómez‐Corral%NULL%4,                      J.%Gómez‐Corral%NULL%0,                      A.%Gómez‐López%NULL%2,                      E.%Monreal%NULL%2,                      P.%Parra‐Díaz%NULL%2,                      J. L.%Cortés‐Cuevas%NULL%4,                      J. L.%Cortés‐Cuevas%NULL%0,                      J. C.%Galán%NULL%2,                      C.%Fragola‐Arnau%NULL%2,                      J.%Porta‐Etessam%NULL%2,                      J.%Masjuan%NULL%2,                      A.%Alonso‐Cánovas%NULL%4,                      A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                      Paul%Le Turnier%NULL%2,                      Charles%Declerck%NULL%2,                      Cécile%Paillé%NULL%2,                      Matthieu%Revest%NULL%2,                      Vincent%Dubée%NULL%2,                      Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                      Cédric%Arvieux%NULL%2,                      Marion%Baldeyrou%NULL%2,                      Jean-Marc%Chapplain%NULL%2,                      Pauline%Comacle%NULL%2,                      Solène%Patrat-Delon%NULL%2,                      Anne%Maillard%NULL%2,                      Mélanie%Poinot%NULL%2,                      Charlotte%Pronier%NULL%2,                      Faouzi%Souala%NULL%2,                      Vincent%Thibault%NULL%2,                      Pierre%Abgueguen%NULL%2,                      Hélène%Cormier%NULL%2,                      Valérie%Delbos%NULL%2,                      Marine%de la Chapelle%NULL%2,                      Alexandra%Ducancelle%NULL%2,                      Rafael%Mahieu%NULL%2,                      Valérie%Rabier%NULL%2,                      Sami%Rehaiem%NULL%2,                      Yves%Vandamme%NULL%2,                      Charlotte%Biron%NULL%2,                      Jeanne%Brochon%NULL%2,                      David%Boutoille%NULL%0,                      Marie%Chauveau%NULL%2,                      Colin%Deschanvres%NULL%2,                      Benjamin J%Gaborit%NULL%2,                      Joël%Jenvrin%NULL%2,                      Raphaël%Lecomte%NULL%2,                      Maeva%Lefebvre%NULL%2,                      François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                       Louis%Valiquette%null%1,                       Cynthia%Grenier%null%1,                       Jean Berchmans%Musonera%null%1,                       Delphin%Nkengurutse%null%1,                       Anaïs%Marcil-Héguy%null%1,                       Kim%Vettese%null%1,                       Dominique%Marcoux%null%1,                       Corinne%Valiquette%null%1,                       Wei Ting%Xiong%null%1,                       Pierre-Hughes%Fortier%null%1,                       Mélissa%Généreux%null%1,                       Jacques%Pépin%null%1,                     Alex%Carignan%null%1,                     Louis%Valiquette%null%1,                     Cynthia%Grenier%null%1,                     Jean Berchmans%Musonera%null%1,                     Delphin%Nkengurutse%null%1,                     Anaïs%Marcil-Héguy%null%1,                     Kim%Vettese%null%1,                     Dominique%Marcoux%null%1,                     Corinne%Valiquette%null%1,                     Wei Ting%Xiong%null%1,                     Pierre-Hughes%Fortier%null%1,                     Mélissa%Généreux%null%1,                     Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                      Hülya%Çaşkurlu%NULL%2,                      Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                      Florent%Carsuzaa%NULL%1,                      Jean-Paul%Trijolet%NULL%2,                      Jean-Paul%Trijolet%NULL%0,                      Anne-Laure%Capitaine%NULL%1,                      Mariam%Roncato-Saberan%NULL%1,                      Kevin%Fouet%NULL%1,                      France%Cazenave-Roblot%NULL%0,                      Mélanie%Catroux%NULL%1,                      Caroline%Allix-Beguec%NULL%1,                      Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                     Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                     Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                      Paola%Varese%NULL%2,                      Paola%Varese%NULL%0,                      Chiara%Dentone%NULL%1,                      Emanuela%Barisione%NULL%1,                      Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                      Filippo%Farri%NULL%2,                      Filippo%Farri%NULL%0,                      Giacomo%Garzaro%NULL%1,                      Miriam%Gatto%NULL%1,                      Paolo%Aluffi Valletti%NULL%0,                      Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                      Eleonora%Trecca%NULL%1,                      Michele%Cassano%NULL%1,                      Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                      Laura%Pezzati%NULL%4,                      Laura%Pezzati%NULL%0,                      Federico%Conti%NULL%2,                      Dario%Bernacchia%NULL%0,                      Matteo%Siano%NULL%0,                      Letizia%Oreni%NULL%0,                      Stefano%Rusconi%NULL%0,                      Cristina%Gervasoni%NULL%2,                      Anna Lisa%Ridolfo%NULL%0,                      Giuliano%Rizzardini%NULL%0,                      Spinello%Antinori%NULL%0,                      Massimo%Galli%NULL%0,                      Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                      M.-J.%Kim%NULL%1,                      S.H.%Ra%NULL%1,                      J.%Lee%NULL%1,                      S.%Bae%NULL%1,                      J.%Jung%NULL%1,                      S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                      N.J.%Kadiane-Oussou%NULL%2,                      L.%Toko%NULL%2,                      P.-Y.%Royer%NULL%2,                      Q.%Lepiller%NULL%2,                      V.%Gendrin%NULL%2,                      S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                      Anton G. M.%Buiting%NULL%1,                      Suzan D.%Pas%NULL%1,                      Robbert G.%Bentvelsen%NULL%1,                      Wouter%van den Bijllaardt%NULL%1,                      Anne J. G.%van Oudheusden%NULL%1,                      Miranda M. L.%van Rijen%NULL%1,                      Jaco J.%Verweij%NULL%1,                      Marion P. G.%Koopmans%NULL%1,                      Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                      Elodie%Schneider%NULL%1,                      Isabelle%Vianu%NULL%1,                      Guillaume%Dollet%NULL%1,                      Bastien%Roche%NULL%1,                      Julia%Berdah%NULL%1,                      Julie%Michel%NULL%1,                      Laurent%Goix%NULL%1,                      Erick%Chanzy%NULL%1,                      Tomislav%Petrovic%NULL%1,                      Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                      Carlos M.%Chiesa-Estomba%NULL%2,                      Daniele R.%De Siati%NULL%2,                      Mihaela%Horoi%NULL%2,                      Serge D.%Le Bon%NULL%2,                      Alexandra%Rodriguez%NULL%2,                      Didier%Dequanter%NULL%2,                      Serge%Blecic%NULL%2,                      Fahd%El Afia%NULL%2,                      Lea%Distinguin%NULL%2,                      Younes%Chekkoury-Idrissi%NULL%2,                      Stéphane%Hans%NULL%2,                      Irene Lopez%Delgado%NULL%2,                      Christian%Calvo-Henriquez%NULL%2,                      Philippe%Lavigne%NULL%2,                      Chiara%Falanga%NULL%2,                      Maria Rosaria%Barillari%NULL%2,                      Giovanni%Cammaroto%NULL%2,                      Mohamad%Khalife%NULL%2,                      Pierre%Leich%NULL%2,                      Christel%Souchay%NULL%2,                      Camelia%Rossi%NULL%2,                      Fabrice%Journe%NULL%2,                      Julien%Hsieh%NULL%2,                      Myriam%Edjlali%NULL%2,                      Robert%Carlier%NULL%2,                      Laurence%Ris%NULL%2,                      Andrea%Lovato%NULL%2,                      Cosimo%De Filippis%NULL%2,                      Frederique%Coppee%NULL%2,                      Nicolas%Fakhry%NULL%2,                      Tareck%Ayad%NULL%2,                      Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                      Joel%Lockwood%NULL%2,                      Joel%Lockwood%NULL%0,                      Paul%Das%NULL%1,                      Ri%Wang%NULL%1,                      Eitan%Grinspun%NULL%1,                      John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                      Pokkee%Min%NULL%2,                      Pokkee%Min%NULL%0,                      Seonggu%Lee%NULL%2,                      Seonggu%Lee%NULL%0,                      Shin-Woo%Kim%NULL%0,                      Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                      Mariangela%Pierantozzi%NULL%1,                      Matteo%Spanetta%NULL%1,                      Loredana%Sarmati%NULL%1,                      Novella%Cesta%NULL%1,                      Marco%Iannetta%NULL%1,                      Josuel%Ora%NULL%1,                      Grazia Genga%Mina%NULL%1,                      Ermanno%Puxeddu%NULL%1,                      Ottavia%Balbi%NULL%1,                      Gabriella%Pezzuto%NULL%1,                      Andrea%Magrini%NULL%1,                      Paola%Rogliani%NULL%1,                      Massimo%Andreoni%NULL%1,                      Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                      Juan%Amaro Sánchez%NULL%2,                      Juan%Amaro Sánchez%NULL%0,                      Antonio Francisco%López‐Sánchez%NULL%1,                      Enric%Jané‐Salas%NULL%1,                      Maria Luisa%Somacarrera Pérez%NULL%2,                      Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                      Lorenzo Roberto%Suardi%NULL%2,                      Lorenzo Roberto%Suardi%NULL%0,                      Michele%Busoni%NULL%1,                      Anna Teresa%Roberts%NULL%1,                      Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                      Azad A.%Haleem Al Mezori%NULL%1,                      Hakar Mustafa%Mohammed%NULL%1,                      Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                      Jin Gu%Yoon%NULL%3,                      Hye%Seong%NULL%3,                      Won Suk%Choi%NULL%1,                      Jang Wook%Sohn%NULL%1,                      Hee Jin%Cheong%NULL%4,                      Woo Joo%Kim%NULL%4,                      Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                      Alberto%Schreiber%NULL%1,                      Alberto%Grammatica%albertogrammatica@libero.it%1,                      Elena%Raffetti%NULL%2,                      Elena%Raffetti%NULL%0,                      Michele%Tomasoni%NULL%1,                      Tommaso%Gualtieri%NULL%1,                      Stefano%Taboni%NULL%1,                      Silvia%Zorzi%NULL%1,                      Davide%Lombardi%NULL%1,                      Alberto%Deganello%NULL%1,                      Luca Oscar%Redaelli De Zinis%NULL%1,                      Roberto%Maroldi%NULL%1,                      Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                      E.%Charani%NULL%1,                      D.%Ariyanayagam%NULL%1,                      A.%Abdulaal%NULL%1,                      S.J.%Denny%NULL%1,                      N.%Mughal%NULL%1,                      L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                      Suko%Adiarto%NULL%1,                      Santi Rahayu%Dewayanti%NULL%1,                      Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                      Kadriye Kart%Yaşar%NULL%1,                      Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                      Rejane Andrade%de Carvalho%NULL%1,                      Kalline Andrade%de Carvalho%NULL%1,                      Maria Goretti Freire%de Carvalho%NULL%1,                      Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                      Thirza%Singer-Cornelius%NULL%1,                      Michael%Oberle%NULL%1,                      Isabelle%Gengler%NULL%1,                      Steffi J.%Brockmeier%NULL%1,                      Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                      Andreas%Habertheuer%NULL%2,                      Andreas%Habertheuer%NULL%0,                      Asad A.%Usman%NULL%2,                      Asad A.%Usman%NULL%0,                      Arman%Kilic%NULL%1,                      Eric%Gnall%NULL%2,                      Eric%Gnall%NULL%0,                      Michael E.%Friscia%NULL%1,                      Dmitriy%Zubkus%NULL%1,                      Hitoshi%Hirose%NULL%2,                      Pablo%Sanchez%NULL%1,                      Olugbenga%Okusanya%NULL%1,                      Wilson Y.%Szeto%NULL%1,                      Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                      Claire%Hopkins%NULL%2,                      Claire%Hopkins%NULL%0,                      Giovanni%Salzano%NULL%2,                      Marzia%Petrocelli%NULL%2,                      Andrea%Melis%NULL%1,                      Marco%Cucurullo%NULL%1,                      Mario%Ferrari%NULL%1,                      Laura%Gagliardini%NULL%1,                      Carlotta%Pipolo%NULL%1,                      Giovanna%Deiana%NULL%3,                      Vito%Fiore%NULL%1,                      Andrea%De Vito%NULL%0,                      Nicola%Turra%NULL%1,                      Sara%Canu%NULL%1,                      Angelantonio%Maglio%NULL%1,                      Antonello%Serra%NULL%3,                      Antonello%Serra%NULL%0,                      Francesco%Bussu%NULL%2,                      Giordano%Madeddu%NULL%0,                      Sergio%Babudieri%NULL%0,                      Alessandro%Giuseppe Fois%NULL%1,                      Pietro%Pirina%NULL%0,                      Francesco A.%Salzano%NULL%1,                      Pierluigi%De Riu%NULL%1,                      Federico%Biglioli%NULL%1,                      Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                      Farhoud%Faraji%NULL%6,                      Farhoud%Faraji%NULL%0,                      Divya P.%Prajapati%NULL%4,                      Benjamin T.%Ostrander%NULL%2,                      Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                      Timothee%Klopfenstein%NULL%1,                      Julien%Mercier%NULL%1,                      N’dri Juliette%Kadiane-Oussou%NULL%1,                      Ludovic%Lan Cheong Wah%NULL%1,                      Pierre-Yves%Royer%NULL%1,                      Lynda%Toko%NULL%1,                      Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                      Aggarwal%Saurabh%coreGivesNoEmail%0,                      Garcia-Telles%Nelson%coreGivesNoEmail%0,                      Henry%Brandon Michael%coreGivesNoEmail%0,                      Lavie%Carl%coreGivesNoEmail%0,                      Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                       Ana Gabriela Costa%Normando%NULL%1,                       Rainier Luiz%Carvalho da Silva%NULL%1,                       Renata Monteiro%De Paula%NULL%1,                       Allan Christian%Cembranel%NULL%1,                       Alan Roger%Santos-Silva%NULL%1,                       Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                       J. L.%Chico‐García%NULL%4,                       J. L.%Chico‐García%NULL%0,                       J.%Martínez‐Poles%NULL%2,                       F.%Rodríguez‐Jorge%NULL%2,                       E.%Natera‐Villalba%NULL%2,                       J.%Gómez‐Corral%NULL%4,                       J.%Gómez‐Corral%NULL%0,                       A.%Gómez‐López%NULL%2,                       E.%Monreal%NULL%2,                       P.%Parra‐Díaz%NULL%2,                       J. L.%Cortés‐Cuevas%NULL%4,                       J. L.%Cortés‐Cuevas%NULL%0,                       J. C.%Galán%NULL%2,                       C.%Fragola‐Arnau%NULL%2,                       J.%Porta‐Etessam%NULL%2,                       J.%Masjuan%NULL%2,                       A.%Alonso‐Cánovas%NULL%4,                       A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                       Paul%Le Turnier%NULL%2,                       Charles%Declerck%NULL%2,                       Cécile%Paillé%NULL%2,                       Matthieu%Revest%NULL%2,                       Vincent%Dubée%NULL%2,                       Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                       Cédric%Arvieux%NULL%2,                       Marion%Baldeyrou%NULL%2,                       Jean-Marc%Chapplain%NULL%2,                       Pauline%Comacle%NULL%2,                       Solène%Patrat-Delon%NULL%2,                       Anne%Maillard%NULL%2,                       Mélanie%Poinot%NULL%2,                       Charlotte%Pronier%NULL%2,                       Faouzi%Souala%NULL%2,                       Vincent%Thibault%NULL%2,                       Pierre%Abgueguen%NULL%2,                       Hélène%Cormier%NULL%2,                       Valérie%Delbos%NULL%2,                       Marine%de la Chapelle%NULL%2,                       Alexandra%Ducancelle%NULL%2,                       Rafael%Mahieu%NULL%2,                       Valérie%Rabier%NULL%2,                       Sami%Rehaiem%NULL%2,                       Yves%Vandamme%NULL%2,                       Charlotte%Biron%NULL%2,                       Jeanne%Brochon%NULL%2,                       David%Boutoille%NULL%0,                       Marie%Chauveau%NULL%2,                       Colin%Deschanvres%NULL%2,                       Benjamin J%Gaborit%NULL%2,                       Joël%Jenvrin%NULL%2,                       Raphaël%Lecomte%NULL%2,                       Maeva%Lefebvre%NULL%2,                       François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                        Louis%Valiquette%null%1,                        Cynthia%Grenier%null%1,                        Jean Berchmans%Musonera%null%1,                        Delphin%Nkengurutse%null%1,                        Anaïs%Marcil-Héguy%null%1,                        Kim%Vettese%null%1,                        Dominique%Marcoux%null%1,                        Corinne%Valiquette%null%1,                        Wei Ting%Xiong%null%1,                        Pierre-Hughes%Fortier%null%1,                        Mélissa%Généreux%null%1,                        Jacques%Pépin%null%1,                      Alex%Carignan%null%1,                      Louis%Valiquette%null%1,                      Cynthia%Grenier%null%1,                      Jean Berchmans%Musonera%null%1,                      Delphin%Nkengurutse%null%1,                      Anaïs%Marcil-Héguy%null%1,                      Kim%Vettese%null%1,                      Dominique%Marcoux%null%1,                      Corinne%Valiquette%null%1,                      Wei Ting%Xiong%null%1,                      Pierre-Hughes%Fortier%null%1,                      Mélissa%Généreux%null%1,                      Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                       Hülya%Çaşkurlu%NULL%2,                       Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                       Florent%Carsuzaa%NULL%1,                       Jean-Paul%Trijolet%NULL%2,                       Jean-Paul%Trijolet%NULL%0,                       Anne-Laure%Capitaine%NULL%1,                       Mariam%Roncato-Saberan%NULL%1,                       Kevin%Fouet%NULL%1,                       France%Cazenave-Roblot%NULL%0,                       Mélanie%Catroux%NULL%1,                       Caroline%Allix-Beguec%NULL%1,                       Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                      Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                      Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                       Paola%Varese%NULL%2,                       Paola%Varese%NULL%0,                       Chiara%Dentone%NULL%1,                       Emanuela%Barisione%NULL%1,                       Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                       Filippo%Farri%NULL%2,                       Filippo%Farri%NULL%0,                       Giacomo%Garzaro%NULL%1,                       Miriam%Gatto%NULL%1,                       Paolo%Aluffi Valletti%NULL%0,                       Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                       Eleonora%Trecca%NULL%1,                       Michele%Cassano%NULL%1,                       Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                       Laura%Pezzati%NULL%4,                       Laura%Pezzati%NULL%0,                       Federico%Conti%NULL%2,                       Dario%Bernacchia%NULL%0,                       Matteo%Siano%NULL%0,                       Letizia%Oreni%NULL%0,                       Stefano%Rusconi%NULL%0,                       Cristina%Gervasoni%NULL%2,                       Anna Lisa%Ridolfo%NULL%0,                       Giuliano%Rizzardini%NULL%0,                       Spinello%Antinori%NULL%0,                       Massimo%Galli%NULL%0,                       Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                       M.-J.%Kim%NULL%1,                       S.H.%Ra%NULL%1,                       J.%Lee%NULL%1,                       S.%Bae%NULL%1,                       J.%Jung%NULL%1,                       S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                       N.J.%Kadiane-Oussou%NULL%2,                       L.%Toko%NULL%2,                       P.-Y.%Royer%NULL%2,                       Q.%Lepiller%NULL%2,                       V.%Gendrin%NULL%2,                       S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                       Anton G. M.%Buiting%NULL%1,                       Suzan D.%Pas%NULL%1,                       Robbert G.%Bentvelsen%NULL%1,                       Wouter%van den Bijllaardt%NULL%1,                       Anne J. G.%van Oudheusden%NULL%1,                       Miranda M. L.%van Rijen%NULL%1,                       Jaco J.%Verweij%NULL%1,                       Marion P. G.%Koopmans%NULL%1,                       Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                       Elodie%Schneider%NULL%1,                       Isabelle%Vianu%NULL%1,                       Guillaume%Dollet%NULL%1,                       Bastien%Roche%NULL%1,                       Julia%Berdah%NULL%1,                       Julie%Michel%NULL%1,                       Laurent%Goix%NULL%1,                       Erick%Chanzy%NULL%1,                       Tomislav%Petrovic%NULL%1,                       Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                       Carlos M.%Chiesa-Estomba%NULL%2,                       Daniele R.%De Siati%NULL%2,                       Mihaela%Horoi%NULL%2,                       Serge D.%Le Bon%NULL%2,                       Alexandra%Rodriguez%NULL%2,                       Didier%Dequanter%NULL%2,                       Serge%Blecic%NULL%2,                       Fahd%El Afia%NULL%2,                       Lea%Distinguin%NULL%2,                       Younes%Chekkoury-Idrissi%NULL%2,                       Stéphane%Hans%NULL%2,                       Irene Lopez%Delgado%NULL%2,                       Christian%Calvo-Henriquez%NULL%2,                       Philippe%Lavigne%NULL%2,                       Chiara%Falanga%NULL%2,                       Maria Rosaria%Barillari%NULL%2,                       Giovanni%Cammaroto%NULL%2,                       Mohamad%Khalife%NULL%2,                       Pierre%Leich%NULL%2,                       Christel%Souchay%NULL%2,                       Camelia%Rossi%NULL%2,                       Fabrice%Journe%NULL%2,                       Julien%Hsieh%NULL%2,                       Myriam%Edjlali%NULL%2,                       Robert%Carlier%NULL%2,                       Laurence%Ris%NULL%2,                       Andrea%Lovato%NULL%2,                       Cosimo%De Filippis%NULL%2,                       Frederique%Coppee%NULL%2,                       Nicolas%Fakhry%NULL%2,                       Tareck%Ayad%NULL%2,                       Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                       Joel%Lockwood%NULL%2,                       Joel%Lockwood%NULL%0,                       Paul%Das%NULL%1,                       Ri%Wang%NULL%1,                       Eitan%Grinspun%NULL%1,                       John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                       Pokkee%Min%NULL%2,                       Pokkee%Min%NULL%0,                       Seonggu%Lee%NULL%2,                       Seonggu%Lee%NULL%0,                       Shin-Woo%Kim%NULL%0,                       Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                       Mariangela%Pierantozzi%NULL%1,                       Matteo%Spanetta%NULL%1,                       Loredana%Sarmati%NULL%1,                       Novella%Cesta%NULL%1,                       Marco%Iannetta%NULL%1,                       Josuel%Ora%NULL%1,                       Grazia Genga%Mina%NULL%1,                       Ermanno%Puxeddu%NULL%1,                       Ottavia%Balbi%NULL%1,                       Gabriella%Pezzuto%NULL%1,                       Andrea%Magrini%NULL%1,                       Paola%Rogliani%NULL%1,                       Massimo%Andreoni%NULL%1,                       Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                       Juan%Amaro Sánchez%NULL%2,                       Juan%Amaro Sánchez%NULL%0,                       Antonio Francisco%López‐Sánchez%NULL%1,                       Enric%Jané‐Salas%NULL%1,                       Maria Luisa%Somacarrera Pérez%NULL%2,                       Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                       Lorenzo Roberto%Suardi%NULL%2,                       Lorenzo Roberto%Suardi%NULL%0,                       Michele%Busoni%NULL%1,                       Anna Teresa%Roberts%NULL%1,                       Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                       Azad A.%Haleem Al Mezori%NULL%1,                       Hakar Mustafa%Mohammed%NULL%1,                       Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                       Jin Gu%Yoon%NULL%3,                       Hye%Seong%NULL%3,                       Won Suk%Choi%NULL%1,                       Jang Wook%Sohn%NULL%1,                       Hee Jin%Cheong%NULL%4,                       Woo Joo%Kim%NULL%4,                       Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                       Alberto%Schreiber%NULL%1,                       Alberto%Grammatica%albertogrammatica@libero.it%1,                       Elena%Raffetti%NULL%2,                       Elena%Raffetti%NULL%0,                       Michele%Tomasoni%NULL%1,                       Tommaso%Gualtieri%NULL%1,                       Stefano%Taboni%NULL%1,                       Silvia%Zorzi%NULL%1,                       Davide%Lombardi%NULL%1,                       Alberto%Deganello%NULL%1,                       Luca Oscar%Redaelli De Zinis%NULL%1,                       Roberto%Maroldi%NULL%1,                       Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                       E.%Charani%NULL%1,                       D.%Ariyanayagam%NULL%1,                       A.%Abdulaal%NULL%1,                       S.J.%Denny%NULL%1,                       N.%Mughal%NULL%1,                       L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                       Suko%Adiarto%NULL%1,                       Santi Rahayu%Dewayanti%NULL%1,                       Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                       Kadriye Kart%Yaşar%NULL%1,                       Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                       Rejane Andrade%de Carvalho%NULL%1,                       Kalline Andrade%de Carvalho%NULL%1,                       Maria Goretti Freire%de Carvalho%NULL%1,                       Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                       Thirza%Singer-Cornelius%NULL%1,                       Michael%Oberle%NULL%1,                       Isabelle%Gengler%NULL%1,                       Steffi J.%Brockmeier%NULL%1,                       Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                       Andreas%Habertheuer%NULL%2,                       Andreas%Habertheuer%NULL%0,                       Asad A.%Usman%NULL%2,                       Asad A.%Usman%NULL%0,                       Arman%Kilic%NULL%1,                       Eric%Gnall%NULL%2,                       Eric%Gnall%NULL%0,                       Michael E.%Friscia%NULL%1,                       Dmitriy%Zubkus%NULL%1,                       Hitoshi%Hirose%NULL%2,                       Pablo%Sanchez%NULL%1,                       Olugbenga%Okusanya%NULL%1,                       Wilson Y.%Szeto%NULL%1,                       Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                       Claire%Hopkins%NULL%2,                       Claire%Hopkins%NULL%0,                       Giovanni%Salzano%NULL%2,                       Marzia%Petrocelli%NULL%2,                       Andrea%Melis%NULL%1,                       Marco%Cucurullo%NULL%1,                       Mario%Ferrari%NULL%1,                       Laura%Gagliardini%NULL%1,                       Carlotta%Pipolo%NULL%1,                       Giovanna%Deiana%NULL%3,                       Vito%Fiore%NULL%1,                       Andrea%De Vito%NULL%0,                       Nicola%Turra%NULL%1,                       Sara%Canu%NULL%1,                       Angelantonio%Maglio%NULL%1,                       Antonello%Serra%NULL%3,                       Antonello%Serra%NULL%0,                       Francesco%Bussu%NULL%2,                       Giordano%Madeddu%NULL%0,                       Sergio%Babudieri%NULL%0,                       Alessandro%Giuseppe Fois%NULL%1,                       Pietro%Pirina%NULL%0,                       Francesco A.%Salzano%NULL%1,                       Pierluigi%De Riu%NULL%1,                       Federico%Biglioli%NULL%1,                       Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                       Farhoud%Faraji%NULL%6,                       Farhoud%Faraji%NULL%0,                       Divya P.%Prajapati%NULL%4,                       Benjamin T.%Ostrander%NULL%2,                       Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                       Timothee%Klopfenstein%NULL%1,                       Julien%Mercier%NULL%1,                       N’dri Juliette%Kadiane-Oussou%NULL%1,                       Ludovic%Lan Cheong Wah%NULL%1,                       Pierre-Yves%Royer%NULL%1,                       Lynda%Toko%NULL%1,                       Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                       Aggarwal%Saurabh%coreGivesNoEmail%0,                       Garcia-Telles%Nelson%coreGivesNoEmail%0,                       Henry%Brandon Michael%coreGivesNoEmail%0,                       Lavie%Carl%coreGivesNoEmail%0,                       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                        Ana Gabriela Costa%Normando%NULL%1,                        Rainier Luiz%Carvalho da Silva%NULL%1,                        Renata Monteiro%De Paula%NULL%1,                        Allan Christian%Cembranel%NULL%1,                        Alan Roger%Santos-Silva%NULL%1,                        Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                        J. L.%Chico‐García%NULL%4,                        J. L.%Chico‐García%NULL%0,                        J.%Martínez‐Poles%NULL%2,                        F.%Rodríguez‐Jorge%NULL%2,                        E.%Natera‐Villalba%NULL%2,                        J.%Gómez‐Corral%NULL%4,                        J.%Gómez‐Corral%NULL%0,                        A.%Gómez‐López%NULL%2,                        E.%Monreal%NULL%2,                        P.%Parra‐Díaz%NULL%2,                        J. L.%Cortés‐Cuevas%NULL%4,                        J. L.%Cortés‐Cuevas%NULL%0,                        J. C.%Galán%NULL%2,                        C.%Fragola‐Arnau%NULL%2,                        J.%Porta‐Etessam%NULL%2,                        J.%Masjuan%NULL%2,                        A.%Alonso‐Cánovas%NULL%4,                        A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                        Paul%Le Turnier%NULL%2,                        Charles%Declerck%NULL%2,                        Cécile%Paillé%NULL%2,                        Matthieu%Revest%NULL%2,                        Vincent%Dubée%NULL%2,                        Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                        Cédric%Arvieux%NULL%2,                        Marion%Baldeyrou%NULL%2,                        Jean-Marc%Chapplain%NULL%2,                        Pauline%Comacle%NULL%2,                        Solène%Patrat-Delon%NULL%2,                        Anne%Maillard%NULL%2,                        Mélanie%Poinot%NULL%2,                        Charlotte%Pronier%NULL%2,                        Faouzi%Souala%NULL%2,                        Vincent%Thibault%NULL%2,                        Pierre%Abgueguen%NULL%2,                        Hélène%Cormier%NULL%2,                        Valérie%Delbos%NULL%2,                        Marine%de la Chapelle%NULL%2,                        Alexandra%Ducancelle%NULL%2,                        Rafael%Mahieu%NULL%2,                        Valérie%Rabier%NULL%2,                        Sami%Rehaiem%NULL%2,                        Yves%Vandamme%NULL%2,                        Charlotte%Biron%NULL%2,                        Jeanne%Brochon%NULL%2,                        David%Boutoille%NULL%0,                        Marie%Chauveau%NULL%2,                        Colin%Deschanvres%NULL%2,                        Benjamin J%Gaborit%NULL%2,                        Joël%Jenvrin%NULL%2,                        Raphaël%Lecomte%NULL%2,                        Maeva%Lefebvre%NULL%2,                        François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                         Louis%Valiquette%null%1,                         Cynthia%Grenier%null%1,                         Jean Berchmans%Musonera%null%1,                         Delphin%Nkengurutse%null%1,                         Anaïs%Marcil-Héguy%null%1,                         Kim%Vettese%null%1,                         Dominique%Marcoux%null%1,                         Corinne%Valiquette%null%1,                         Wei Ting%Xiong%null%1,                         Pierre-Hughes%Fortier%null%1,                         Mélissa%Généreux%null%1,                         Jacques%Pépin%null%1,                       Alex%Carignan%null%1,                       Louis%Valiquette%null%1,                       Cynthia%Grenier%null%1,                       Jean Berchmans%Musonera%null%1,                       Delphin%Nkengurutse%null%1,                       Anaïs%Marcil-Héguy%null%1,                       Kim%Vettese%null%1,                       Dominique%Marcoux%null%1,                       Corinne%Valiquette%null%1,                       Wei Ting%Xiong%null%1,                       Pierre-Hughes%Fortier%null%1,                       Mélissa%Généreux%null%1,                       Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                        Hülya%Çaşkurlu%NULL%2,                        Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                        Florent%Carsuzaa%NULL%1,                        Jean-Paul%Trijolet%NULL%2,                        Jean-Paul%Trijolet%NULL%0,                        Anne-Laure%Capitaine%NULL%1,                        Mariam%Roncato-Saberan%NULL%1,                        Kevin%Fouet%NULL%1,                        France%Cazenave-Roblot%NULL%0,                        Mélanie%Catroux%NULL%1,                        Caroline%Allix-Beguec%NULL%1,                        Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                       Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                       Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                        Paola%Varese%NULL%2,                        Paola%Varese%NULL%0,                        Chiara%Dentone%NULL%1,                        Emanuela%Barisione%NULL%1,                        Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                        Filippo%Farri%NULL%2,                        Filippo%Farri%NULL%0,                        Giacomo%Garzaro%NULL%1,                        Miriam%Gatto%NULL%1,                        Paolo%Aluffi Valletti%NULL%0,                        Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                        Eleonora%Trecca%NULL%1,                        Michele%Cassano%NULL%1,                        Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                        Laura%Pezzati%NULL%4,                        Laura%Pezzati%NULL%0,                        Federico%Conti%NULL%2,                        Dario%Bernacchia%NULL%0,                        Matteo%Siano%NULL%0,                        Letizia%Oreni%NULL%0,                        Stefano%Rusconi%NULL%0,                        Cristina%Gervasoni%NULL%2,                        Anna Lisa%Ridolfo%NULL%0,                        Giuliano%Rizzardini%NULL%0,                        Spinello%Antinori%NULL%0,                        Massimo%Galli%NULL%0,                        Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                        M.-J.%Kim%NULL%1,                        S.H.%Ra%NULL%1,                        J.%Lee%NULL%1,                        S.%Bae%NULL%1,                        J.%Jung%NULL%1,                        S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                        N.J.%Kadiane-Oussou%NULL%2,                        L.%Toko%NULL%2,                        P.-Y.%Royer%NULL%2,                        Q.%Lepiller%NULL%2,                        V.%Gendrin%NULL%2,                        S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                        Anton G. M.%Buiting%NULL%1,                        Suzan D.%Pas%NULL%1,                        Robbert G.%Bentvelsen%NULL%1,                        Wouter%van den Bijllaardt%NULL%1,                        Anne J. G.%van Oudheusden%NULL%1,                        Miranda M. L.%van Rijen%NULL%1,                        Jaco J.%Verweij%NULL%1,                        Marion P. G.%Koopmans%NULL%1,                        Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                        Elodie%Schneider%NULL%1,                        Isabelle%Vianu%NULL%1,                        Guillaume%Dollet%NULL%1,                        Bastien%Roche%NULL%1,                        Julia%Berdah%NULL%1,                        Julie%Michel%NULL%1,                        Laurent%Goix%NULL%1,                        Erick%Chanzy%NULL%1,                        Tomislav%Petrovic%NULL%1,                        Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                        Carlos M.%Chiesa-Estomba%NULL%2,                        Daniele R.%De Siati%NULL%2,                        Mihaela%Horoi%NULL%2,                        Serge D.%Le Bon%NULL%2,                        Alexandra%Rodriguez%NULL%2,                        Didier%Dequanter%NULL%2,                        Serge%Blecic%NULL%2,                        Fahd%El Afia%NULL%2,                        Lea%Distinguin%NULL%2,                        Younes%Chekkoury-Idrissi%NULL%2,                        Stéphane%Hans%NULL%2,                        Irene Lopez%Delgado%NULL%2,                        Christian%Calvo-Henriquez%NULL%2,                        Philippe%Lavigne%NULL%2,                        Chiara%Falanga%NULL%2,                        Maria Rosaria%Barillari%NULL%2,                        Giovanni%Cammaroto%NULL%2,                        Mohamad%Khalife%NULL%2,                        Pierre%Leich%NULL%2,                        Christel%Souchay%NULL%2,                        Camelia%Rossi%NULL%2,                        Fabrice%Journe%NULL%2,                        Julien%Hsieh%NULL%2,                        Myriam%Edjlali%NULL%2,                        Robert%Carlier%NULL%2,                        Laurence%Ris%NULL%2,                        Andrea%Lovato%NULL%2,                        Cosimo%De Filippis%NULL%2,                        Frederique%Coppee%NULL%2,                        Nicolas%Fakhry%NULL%2,                        Tareck%Ayad%NULL%2,                        Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                        Joel%Lockwood%NULL%2,                        Joel%Lockwood%NULL%0,                        Paul%Das%NULL%1,                        Ri%Wang%NULL%1,                        Eitan%Grinspun%NULL%1,                        John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                        Pokkee%Min%NULL%2,                        Pokkee%Min%NULL%0,                        Seonggu%Lee%NULL%2,                        Seonggu%Lee%NULL%0,                        Shin-Woo%Kim%NULL%0,                        Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                        Mariangela%Pierantozzi%NULL%1,                        Matteo%Spanetta%NULL%1,                        Loredana%Sarmati%NULL%1,                        Novella%Cesta%NULL%1,                        Marco%Iannetta%NULL%1,                        Josuel%Ora%NULL%1,                        Grazia Genga%Mina%NULL%1,                        Ermanno%Puxeddu%NULL%1,                        Ottavia%Balbi%NULL%1,                        Gabriella%Pezzuto%NULL%1,                        Andrea%Magrini%NULL%1,                        Paola%Rogliani%NULL%1,                        Massimo%Andreoni%NULL%1,                        Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                        Juan%Amaro Sánchez%NULL%2,                        Juan%Amaro Sánchez%NULL%0,                        Antonio Francisco%López‐Sánchez%NULL%1,                        Enric%Jané‐Salas%NULL%1,                        Maria Luisa%Somacarrera Pérez%NULL%2,                        Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                        Lorenzo Roberto%Suardi%NULL%2,                        Lorenzo Roberto%Suardi%NULL%0,                        Michele%Busoni%NULL%1,                        Anna Teresa%Roberts%NULL%1,                        Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                        Azad A.%Haleem Al Mezori%NULL%1,                        Hakar Mustafa%Mohammed%NULL%1,                        Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                        Jin Gu%Yoon%NULL%3,                        Hye%Seong%NULL%3,                        Won Suk%Choi%NULL%1,                        Jang Wook%Sohn%NULL%1,                        Hee Jin%Cheong%NULL%4,                        Woo Joo%Kim%NULL%4,                        Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                        Alberto%Schreiber%NULL%1,                        Alberto%Grammatica%albertogrammatica@libero.it%1,                        Elena%Raffetti%NULL%2,                        Elena%Raffetti%NULL%0,                        Michele%Tomasoni%NULL%1,                        Tommaso%Gualtieri%NULL%1,                        Stefano%Taboni%NULL%1,                        Silvia%Zorzi%NULL%1,                        Davide%Lombardi%NULL%1,                        Alberto%Deganello%NULL%1,                        Luca Oscar%Redaelli De Zinis%NULL%1,                        Roberto%Maroldi%NULL%1,                        Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                        E.%Charani%NULL%1,                        D.%Ariyanayagam%NULL%1,                        A.%Abdulaal%NULL%1,                        S.J.%Denny%NULL%1,                        N.%Mughal%NULL%1,                        L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                        Suko%Adiarto%NULL%1,                        Santi Rahayu%Dewayanti%NULL%1,                        Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                        Kadriye Kart%Yaşar%NULL%1,                        Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                        Rejane Andrade%de Carvalho%NULL%1,                        Kalline Andrade%de Carvalho%NULL%1,                        Maria Goretti Freire%de Carvalho%NULL%1,                        Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                        Thirza%Singer-Cornelius%NULL%1,                        Michael%Oberle%NULL%1,                        Isabelle%Gengler%NULL%1,                        Steffi J.%Brockmeier%NULL%1,                        Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                        Andreas%Habertheuer%NULL%2,                        Andreas%Habertheuer%NULL%0,                        Asad A.%Usman%NULL%2,                        Asad A.%Usman%NULL%0,                        Arman%Kilic%NULL%1,                        Eric%Gnall%NULL%2,                        Eric%Gnall%NULL%0,                        Michael E.%Friscia%NULL%1,                        Dmitriy%Zubkus%NULL%1,                        Hitoshi%Hirose%NULL%2,                        Pablo%Sanchez%NULL%1,                        Olugbenga%Okusanya%NULL%1,                        Wilson Y.%Szeto%NULL%1,                        Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                        Claire%Hopkins%NULL%2,                        Claire%Hopkins%NULL%0,                        Giovanni%Salzano%NULL%2,                        Marzia%Petrocelli%NULL%2,                        Andrea%Melis%NULL%1,                        Marco%Cucurullo%NULL%1,                        Mario%Ferrari%NULL%1,                        Laura%Gagliardini%NULL%1,                        Carlotta%Pipolo%NULL%1,                        Giovanna%Deiana%NULL%3,                        Vito%Fiore%NULL%1,                        Andrea%De Vito%NULL%0,                        Nicola%Turra%NULL%1,                        Sara%Canu%NULL%1,                        Angelantonio%Maglio%NULL%1,                        Antonello%Serra%NULL%3,                        Antonello%Serra%NULL%0,                        Francesco%Bussu%NULL%2,                        Giordano%Madeddu%NULL%0,                        Sergio%Babudieri%NULL%0,                        Alessandro%Giuseppe Fois%NULL%1,                        Pietro%Pirina%NULL%0,                        Francesco A.%Salzano%NULL%1,                        Pierluigi%De Riu%NULL%1,                        Federico%Biglioli%NULL%1,                        Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                        Farhoud%Faraji%NULL%6,                        Farhoud%Faraji%NULL%0,                        Divya P.%Prajapati%NULL%4,                        Benjamin T.%Ostrander%NULL%2,                        Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                        Timothee%Klopfenstein%NULL%1,                        Julien%Mercier%NULL%1,                        N’dri Juliette%Kadiane-Oussou%NULL%1,                        Ludovic%Lan Cheong Wah%NULL%1,                        Pierre-Yves%Royer%NULL%1,                        Lynda%Toko%NULL%1,                        Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                        Aggarwal%Saurabh%coreGivesNoEmail%0,                        Garcia-Telles%Nelson%coreGivesNoEmail%0,                        Henry%Brandon Michael%coreGivesNoEmail%0,                        Lavie%Carl%coreGivesNoEmail%0,                        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                         Ana Gabriela Costa%Normando%NULL%1,                         Rainier Luiz%Carvalho da Silva%NULL%1,                         Renata Monteiro%De Paula%NULL%1,                         Allan Christian%Cembranel%NULL%1,                         Alan Roger%Santos-Silva%NULL%1,                         Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                         J. L.%Chico‐García%NULL%4,                         J. L.%Chico‐García%NULL%0,                         J.%Martínez‐Poles%NULL%2,                         F.%Rodríguez‐Jorge%NULL%2,                         E.%Natera‐Villalba%NULL%2,                         J.%Gómez‐Corral%NULL%4,                         J.%Gómez‐Corral%NULL%0,                         A.%Gómez‐López%NULL%2,                         E.%Monreal%NULL%2,                         P.%Parra‐Díaz%NULL%2,                         J. L.%Cortés‐Cuevas%NULL%4,                         J. L.%Cortés‐Cuevas%NULL%0,                         J. C.%Galán%NULL%2,                         C.%Fragola‐Arnau%NULL%2,                         J.%Porta‐Etessam%NULL%2,                         J.%Masjuan%NULL%2,                         A.%Alonso‐Cánovas%NULL%4,                         A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                         Paul%Le Turnier%NULL%2,                         Charles%Declerck%NULL%2,                         Cécile%Paillé%NULL%2,                         Matthieu%Revest%NULL%2,                         Vincent%Dubée%NULL%2,                         Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                         Cédric%Arvieux%NULL%2,                         Marion%Baldeyrou%NULL%2,                         Jean-Marc%Chapplain%NULL%2,                         Pauline%Comacle%NULL%2,                         Solène%Patrat-Delon%NULL%2,                         Anne%Maillard%NULL%2,                         Mélanie%Poinot%NULL%2,                         Charlotte%Pronier%NULL%2,                         Faouzi%Souala%NULL%2,                         Vincent%Thibault%NULL%2,                         Pierre%Abgueguen%NULL%2,                         Hélène%Cormier%NULL%2,                         Valérie%Delbos%NULL%2,                         Marine%de la Chapelle%NULL%2,                         Alexandra%Ducancelle%NULL%2,                         Rafael%Mahieu%NULL%2,                         Valérie%Rabier%NULL%2,                         Sami%Rehaiem%NULL%2,                         Yves%Vandamme%NULL%2,                         Charlotte%Biron%NULL%2,                         Jeanne%Brochon%NULL%2,                         David%Boutoille%NULL%0,                         Marie%Chauveau%NULL%2,                         Colin%Deschanvres%NULL%2,                         Benjamin J%Gaborit%NULL%2,                         Joël%Jenvrin%NULL%2,                         Raphaël%Lecomte%NULL%2,                         Maeva%Lefebvre%NULL%2,                         François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                          Louis%Valiquette%null%1,                          Cynthia%Grenier%null%1,                          Jean Berchmans%Musonera%null%1,                          Delphin%Nkengurutse%null%1,                          Anaïs%Marcil-Héguy%null%1,                          Kim%Vettese%null%1,                          Dominique%Marcoux%null%1,                          Corinne%Valiquette%null%1,                          Wei Ting%Xiong%null%1,                          Pierre-Hughes%Fortier%null%1,                          Mélissa%Généreux%null%1,                          Jacques%Pépin%null%1,                        Alex%Carignan%null%1,                        Louis%Valiquette%null%1,                        Cynthia%Grenier%null%1,                        Jean Berchmans%Musonera%null%1,                        Delphin%Nkengurutse%null%1,                        Anaïs%Marcil-Héguy%null%1,                        Kim%Vettese%null%1,                        Dominique%Marcoux%null%1,                        Corinne%Valiquette%null%1,                        Wei Ting%Xiong%null%1,                        Pierre-Hughes%Fortier%null%1,                        Mélissa%Généreux%null%1,                        Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                         Hülya%Çaşkurlu%NULL%2,                         Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                         Florent%Carsuzaa%NULL%1,                         Jean-Paul%Trijolet%NULL%2,                         Jean-Paul%Trijolet%NULL%0,                         Anne-Laure%Capitaine%NULL%1,                         Mariam%Roncato-Saberan%NULL%1,                         Kevin%Fouet%NULL%1,                         France%Cazenave-Roblot%NULL%0,                         Mélanie%Catroux%NULL%1,                         Caroline%Allix-Beguec%NULL%1,                         Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                        Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                        Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                         Paola%Varese%NULL%2,                         Paola%Varese%NULL%0,                         Chiara%Dentone%NULL%1,                         Emanuela%Barisione%NULL%1,                         Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                         Filippo%Farri%NULL%2,                         Filippo%Farri%NULL%0,                         Giacomo%Garzaro%NULL%1,                         Miriam%Gatto%NULL%1,                         Paolo%Aluffi Valletti%NULL%0,                         Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                         Eleonora%Trecca%NULL%1,                         Michele%Cassano%NULL%1,                         Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                         Laura%Pezzati%NULL%4,                         Laura%Pezzati%NULL%0,                         Federico%Conti%NULL%2,                         Dario%Bernacchia%NULL%0,                         Matteo%Siano%NULL%0,                         Letizia%Oreni%NULL%0,                         Stefano%Rusconi%NULL%0,                         Cristina%Gervasoni%NULL%2,                         Anna Lisa%Ridolfo%NULL%0,                         Giuliano%Rizzardini%NULL%0,                         Spinello%Antinori%NULL%0,                         Massimo%Galli%NULL%0,                         Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                         M.-J.%Kim%NULL%1,                         S.H.%Ra%NULL%1,                         J.%Lee%NULL%1,                         S.%Bae%NULL%1,                         J.%Jung%NULL%1,                         S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                         N.J.%Kadiane-Oussou%NULL%2,                         L.%Toko%NULL%2,                         P.-Y.%Royer%NULL%2,                         Q.%Lepiller%NULL%2,                         V.%Gendrin%NULL%2,                         S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                         Anton G. M.%Buiting%NULL%1,                         Suzan D.%Pas%NULL%1,                         Robbert G.%Bentvelsen%NULL%1,                         Wouter%van den Bijllaardt%NULL%1,                         Anne J. G.%van Oudheusden%NULL%1,                         Miranda M. L.%van Rijen%NULL%1,                         Jaco J.%Verweij%NULL%1,                         Marion P. G.%Koopmans%NULL%1,                         Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                         Elodie%Schneider%NULL%1,                         Isabelle%Vianu%NULL%1,                         Guillaume%Dollet%NULL%1,                         Bastien%Roche%NULL%1,                         Julia%Berdah%NULL%1,                         Julie%Michel%NULL%1,                         Laurent%Goix%NULL%1,                         Erick%Chanzy%NULL%1,                         Tomislav%Petrovic%NULL%1,                         Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                         Carlos M.%Chiesa-Estomba%NULL%2,                         Daniele R.%De Siati%NULL%2,                         Mihaela%Horoi%NULL%2,                         Serge D.%Le Bon%NULL%2,                         Alexandra%Rodriguez%NULL%2,                         Didier%Dequanter%NULL%2,                         Serge%Blecic%NULL%2,                         Fahd%El Afia%NULL%2,                         Lea%Distinguin%NULL%2,                         Younes%Chekkoury-Idrissi%NULL%2,                         Stéphane%Hans%NULL%2,                         Irene Lopez%Delgado%NULL%2,                         Christian%Calvo-Henriquez%NULL%2,                         Philippe%Lavigne%NULL%2,                         Chiara%Falanga%NULL%2,                         Maria Rosaria%Barillari%NULL%2,                         Giovanni%Cammaroto%NULL%2,                         Mohamad%Khalife%NULL%2,                         Pierre%Leich%NULL%2,                         Christel%Souchay%NULL%2,                         Camelia%Rossi%NULL%2,                         Fabrice%Journe%NULL%2,                         Julien%Hsieh%NULL%2,                         Myriam%Edjlali%NULL%2,                         Robert%Carlier%NULL%2,                         Laurence%Ris%NULL%2,                         Andrea%Lovato%NULL%2,                         Cosimo%De Filippis%NULL%2,                         Frederique%Coppee%NULL%2,                         Nicolas%Fakhry%NULL%2,                         Tareck%Ayad%NULL%2,                         Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                         Joel%Lockwood%NULL%2,                         Joel%Lockwood%NULL%0,                         Paul%Das%NULL%1,                         Ri%Wang%NULL%1,                         Eitan%Grinspun%NULL%1,                         John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                         Pokkee%Min%NULL%2,                         Pokkee%Min%NULL%0,                         Seonggu%Lee%NULL%2,                         Seonggu%Lee%NULL%0,                         Shin-Woo%Kim%NULL%0,                         Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                         Mariangela%Pierantozzi%NULL%1,                         Matteo%Spanetta%NULL%1,                         Loredana%Sarmati%NULL%1,                         Novella%Cesta%NULL%1,                         Marco%Iannetta%NULL%1,                         Josuel%Ora%NULL%1,                         Grazia Genga%Mina%NULL%1,                         Ermanno%Puxeddu%NULL%1,                         Ottavia%Balbi%NULL%1,                         Gabriella%Pezzuto%NULL%1,                         Andrea%Magrini%NULL%1,                         Paola%Rogliani%NULL%1,                         Massimo%Andreoni%NULL%1,                         Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                         Juan%Amaro Sánchez%NULL%2,                         Juan%Amaro Sánchez%NULL%0,                         Antonio Francisco%López‐Sánchez%NULL%1,                         Enric%Jané‐Salas%NULL%1,                         Maria Luisa%Somacarrera Pérez%NULL%2,                         Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                         Lorenzo Roberto%Suardi%NULL%2,                         Lorenzo Roberto%Suardi%NULL%0,                         Michele%Busoni%NULL%1,                         Anna Teresa%Roberts%NULL%1,                         Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                         Azad A.%Haleem Al Mezori%NULL%1,                         Hakar Mustafa%Mohammed%NULL%1,                         Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                         Jin Gu%Yoon%NULL%3,                         Hye%Seong%NULL%3,                         Won Suk%Choi%NULL%1,                         Jang Wook%Sohn%NULL%1,                         Hee Jin%Cheong%NULL%4,                         Woo Joo%Kim%NULL%4,                         Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                         Alberto%Schreiber%NULL%1,                         Alberto%Grammatica%albertogrammatica@libero.it%1,                         Elena%Raffetti%NULL%2,                         Elena%Raffetti%NULL%0,                         Michele%Tomasoni%NULL%1,                         Tommaso%Gualtieri%NULL%1,                         Stefano%Taboni%NULL%1,                         Silvia%Zorzi%NULL%1,                         Davide%Lombardi%NULL%1,                         Alberto%Deganello%NULL%1,                         Luca Oscar%Redaelli De Zinis%NULL%1,                         Roberto%Maroldi%NULL%1,                         Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                         E.%Charani%NULL%1,                         D.%Ariyanayagam%NULL%1,                         A.%Abdulaal%NULL%1,                         S.J.%Denny%NULL%1,                         N.%Mughal%NULL%1,                         L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                         Suko%Adiarto%NULL%1,                         Santi Rahayu%Dewayanti%NULL%1,                         Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                         Kadriye Kart%Yaşar%NULL%1,                         Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                         Rejane Andrade%de Carvalho%NULL%1,                         Kalline Andrade%de Carvalho%NULL%1,                         Maria Goretti Freire%de Carvalho%NULL%1,                         Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                         Thirza%Singer-Cornelius%NULL%1,                         Michael%Oberle%NULL%1,                         Isabelle%Gengler%NULL%1,                         Steffi J.%Brockmeier%NULL%1,                         Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                         Andreas%Habertheuer%NULL%2,                         Andreas%Habertheuer%NULL%0,                         Asad A.%Usman%NULL%2,                         Asad A.%Usman%NULL%0,                         Arman%Kilic%NULL%1,                         Eric%Gnall%NULL%2,                         Eric%Gnall%NULL%0,                         Michael E.%Friscia%NULL%1,                         Dmitriy%Zubkus%NULL%1,                         Hitoshi%Hirose%NULL%2,                         Pablo%Sanchez%NULL%1,                         Olugbenga%Okusanya%NULL%1,                         Wilson Y.%Szeto%NULL%1,                         Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                         Claire%Hopkins%NULL%2,                         Claire%Hopkins%NULL%0,                         Giovanni%Salzano%NULL%2,                         Marzia%Petrocelli%NULL%2,                         Andrea%Melis%NULL%1,                         Marco%Cucurullo%NULL%1,                         Mario%Ferrari%NULL%1,                         Laura%Gagliardini%NULL%1,                         Carlotta%Pipolo%NULL%1,                         Giovanna%Deiana%NULL%3,                         Vito%Fiore%NULL%1,                         Andrea%De Vito%NULL%0,                         Nicola%Turra%NULL%1,                         Sara%Canu%NULL%1,                         Angelantonio%Maglio%NULL%1,                         Antonello%Serra%NULL%3,                         Antonello%Serra%NULL%0,                         Francesco%Bussu%NULL%2,                         Giordano%Madeddu%NULL%0,                         Sergio%Babudieri%NULL%0,                         Alessandro%Giuseppe Fois%NULL%1,                         Pietro%Pirina%NULL%0,                         Francesco A.%Salzano%NULL%1,                         Pierluigi%De Riu%NULL%1,                         Federico%Biglioli%NULL%1,                         Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                         Farhoud%Faraji%NULL%6,                         Farhoud%Faraji%NULL%0,                         Divya P.%Prajapati%NULL%4,                         Benjamin T.%Ostrander%NULL%2,                         Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                         Timothee%Klopfenstein%NULL%1,                         Julien%Mercier%NULL%1,                         N’dri Juliette%Kadiane-Oussou%NULL%1,                         Ludovic%Lan Cheong Wah%NULL%1,                         Pierre-Yves%Royer%NULL%1,                         Lynda%Toko%NULL%1,                         Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3558,6 +4104,9 @@
       <c r="I1" t="s">
         <v>245</v>
       </c>
+      <c r="J1" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3573,7 +4122,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>904</v>
+        <v>1091</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3586,6 +4135,9 @@
       </c>
       <c r="I2" t="s">
         <v>862</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -3602,7 +4154,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>905</v>
+        <v>1092</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -3615,6 +4167,9 @@
       </c>
       <c r="I3" t="s">
         <v>864</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -3631,7 +4186,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>906</v>
+        <v>588</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3640,10 +4195,13 @@
         <v>423</v>
       </c>
       <c r="H4" t="s">
-        <v>424</v>
+        <v>947</v>
       </c>
       <c r="I4" t="s">
-        <v>862</v>
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="5">
@@ -3660,7 +4218,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>907</v>
+        <v>1093</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -3673,6 +4231,9 @@
       </c>
       <c r="I5" t="s">
         <v>867</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -3689,7 +4250,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
+        <v>1094</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3702,6 +4263,9 @@
       </c>
       <c r="I6" t="s">
         <v>864</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -3718,7 +4282,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>909</v>
+        <v>1095</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3731,6 +4295,9 @@
       </c>
       <c r="I7" t="s">
         <v>862</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -3747,7 +4314,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>910</v>
+        <v>1096</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3760,6 +4327,9 @@
       </c>
       <c r="I8" t="s">
         <v>867</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -3776,7 +4346,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>911</v>
+        <v>1097</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3789,6 +4359,9 @@
       </c>
       <c r="I9" t="s">
         <v>867</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -3805,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>912</v>
+        <v>1098</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3818,6 +4391,9 @@
       </c>
       <c r="I10" t="s">
         <v>862</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -3834,7 +4410,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>913</v>
+        <v>1099</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -3847,6 +4423,9 @@
       </c>
       <c r="I11" t="s">
         <v>867</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -3863,7 +4442,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>914</v>
+        <v>1100</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -3876,6 +4455,9 @@
       </c>
       <c r="I12" t="s">
         <v>867</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -3892,7 +4474,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>915</v>
+        <v>1101</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3905,6 +4487,9 @@
       </c>
       <c r="I13" t="s">
         <v>250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -3921,7 +4506,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>916</v>
+        <v>1102</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3934,6 +4519,9 @@
       </c>
       <c r="I14" t="s">
         <v>867</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -3950,7 +4538,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>917</v>
+        <v>1103</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3963,6 +4551,9 @@
       </c>
       <c r="I15" t="s">
         <v>864</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -3979,7 +4570,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>918</v>
+        <v>1104</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -3992,6 +4583,9 @@
       </c>
       <c r="I16" t="s">
         <v>864</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -4008,7 +4602,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>919</v>
+        <v>1105</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -4021,6 +4615,9 @@
       </c>
       <c r="I17" t="s">
         <v>867</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -4037,7 +4634,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>920</v>
+        <v>1106</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -4050,6 +4647,9 @@
       </c>
       <c r="I18" t="s">
         <v>881</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -4066,7 +4666,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>921</v>
+        <v>1107</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4079,6 +4679,9 @@
       </c>
       <c r="I19" t="s">
         <v>881</v>
+      </c>
+      <c r="J19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -4095,7 +4698,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>922</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4108,6 +4711,9 @@
       </c>
       <c r="I20" t="s">
         <v>867</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -4124,7 +4730,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>923</v>
+        <v>1109</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4137,6 +4743,9 @@
       </c>
       <c r="I21" t="s">
         <v>867</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -4153,7 +4762,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>924</v>
+        <v>607</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4162,10 +4771,13 @@
         <v>423</v>
       </c>
       <c r="H22" t="s">
-        <v>444</v>
+        <v>947</v>
       </c>
       <c r="I22" t="s">
-        <v>862</v>
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="23">
@@ -4182,7 +4794,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>925</v>
+        <v>1110</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -4195,6 +4807,9 @@
       </c>
       <c r="I23" t="s">
         <v>864</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -4211,7 +4826,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>926</v>
+        <v>609</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -4220,10 +4835,13 @@
         <v>423</v>
       </c>
       <c r="H24" t="s">
-        <v>448</v>
+        <v>947</v>
       </c>
       <c r="I24" t="s">
-        <v>862</v>
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="25">
@@ -4240,7 +4858,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>927</v>
+        <v>1111</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -4253,6 +4871,9 @@
       </c>
       <c r="I25" t="s">
         <v>867</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -4269,7 +4890,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>928</v>
+        <v>1112</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -4282,6 +4903,9 @@
       </c>
       <c r="I26" t="s">
         <v>881</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4312,6 +4936,9 @@
       <c r="I27" t="s">
         <v>862</v>
       </c>
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -4327,7 +4954,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>929</v>
+        <v>1113</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -4340,6 +4967,9 @@
       </c>
       <c r="I28" t="s">
         <v>864</v>
+      </c>
+      <c r="J28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -4356,7 +4986,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>930</v>
+        <v>1114</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -4369,6 +4999,9 @@
       </c>
       <c r="I29" t="s">
         <v>864</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -4385,7 +5018,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>931</v>
+        <v>1115</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4398,6 +5031,9 @@
       </c>
       <c r="I30" t="s">
         <v>867</v>
+      </c>
+      <c r="J30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4414,7 +5050,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>932</v>
+        <v>1116</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4427,6 +5063,9 @@
       </c>
       <c r="I31" t="s">
         <v>864</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -4443,7 +5082,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>933</v>
+        <v>1117</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4456,6 +5095,9 @@
       </c>
       <c r="I32" t="s">
         <v>864</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4472,7 +5114,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>934</v>
+        <v>618</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -4481,10 +5123,13 @@
         <v>423</v>
       </c>
       <c r="H33" t="s">
-        <v>444</v>
+        <v>978</v>
       </c>
       <c r="I33" t="s">
-        <v>862</v>
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="34">
@@ -4501,7 +5146,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>935</v>
+        <v>1118</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4514,6 +5159,9 @@
       </c>
       <c r="I34" t="s">
         <v>867</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -4530,7 +5178,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>936</v>
+        <v>620</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -4542,7 +5190,10 @@
         <v>462</v>
       </c>
       <c r="I35" t="s">
-        <v>862</v>
+        <v>70</v>
+      </c>
+      <c r="J35" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="36">
@@ -4559,7 +5210,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>937</v>
+        <v>1119</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -4572,6 +5223,9 @@
       </c>
       <c r="I36" t="s">
         <v>867</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -4588,7 +5242,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>938</v>
+        <v>1120</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4601,6 +5255,9 @@
       </c>
       <c r="I37" t="s">
         <v>867</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -4617,7 +5274,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>939</v>
+        <v>1121</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -4630,6 +5287,9 @@
       </c>
       <c r="I38" t="s">
         <v>867</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -4646,7 +5306,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>940</v>
+        <v>1122</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -4659,6 +5319,9 @@
       </c>
       <c r="I39" t="s">
         <v>867</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -4675,7 +5338,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>941</v>
+        <v>1123</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4688,6 +5351,9 @@
       </c>
       <c r="I40" t="s">
         <v>867</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -4704,7 +5370,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>942</v>
+        <v>1124</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>
@@ -4717,6 +5383,9 @@
       </c>
       <c r="I41" t="s">
         <v>881</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/58.xlsx
+++ b/Covid_19_Dataset_and_References/References/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8330" uniqueCount="1193">
   <si>
     <t>Doi</t>
   </si>
@@ -3779,6 +3779,210 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                         Timothee%Klopfenstein%NULL%1,                         Julien%Mercier%NULL%1,                         N’dri Juliette%Kadiane-Oussou%NULL%1,                         Ludovic%Lan Cheong Wah%NULL%1,                         Pierre-Yves%Royer%NULL%1,                         Lynda%Toko%NULL%1,                         Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                         Aggarwal%Saurabh%coreGivesNoEmail%0,                         Garcia-Telles%Nelson%coreGivesNoEmail%0,                         Henry%Brandon Michael%coreGivesNoEmail%0,                         Lavie%Carl%coreGivesNoEmail%0,                         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                          Ana Gabriela Costa%Normando%NULL%1,                          Rainier Luiz%Carvalho da Silva%NULL%1,                          Renata Monteiro%De Paula%NULL%1,                          Allan Christian%Cembranel%NULL%1,                          Alan Roger%Santos-Silva%NULL%1,                          Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                          J. L.%Chico‐García%NULL%4,                          J. L.%Chico‐García%NULL%0,                          J.%Martínez‐Poles%NULL%2,                          F.%Rodríguez‐Jorge%NULL%2,                          E.%Natera‐Villalba%NULL%2,                          J.%Gómez‐Corral%NULL%4,                          J.%Gómez‐Corral%NULL%0,                          A.%Gómez‐López%NULL%2,                          E.%Monreal%NULL%2,                          P.%Parra‐Díaz%NULL%2,                          J. L.%Cortés‐Cuevas%NULL%4,                          J. L.%Cortés‐Cuevas%NULL%0,                          J. C.%Galán%NULL%2,                          C.%Fragola‐Arnau%NULL%2,                          J.%Porta‐Etessam%NULL%2,                          J.%Masjuan%NULL%2,                          A.%Alonso‐Cánovas%NULL%4,                          A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                          Paul%Le Turnier%NULL%2,                          Charles%Declerck%NULL%2,                          Cécile%Paillé%NULL%2,                          Matthieu%Revest%NULL%2,                          Vincent%Dubée%NULL%2,                          Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                          Cédric%Arvieux%NULL%2,                          Marion%Baldeyrou%NULL%2,                          Jean-Marc%Chapplain%NULL%2,                          Pauline%Comacle%NULL%2,                          Solène%Patrat-Delon%NULL%2,                          Anne%Maillard%NULL%2,                          Mélanie%Poinot%NULL%2,                          Charlotte%Pronier%NULL%2,                          Faouzi%Souala%NULL%2,                          Vincent%Thibault%NULL%2,                          Pierre%Abgueguen%NULL%2,                          Hélène%Cormier%NULL%2,                          Valérie%Delbos%NULL%2,                          Marine%de la Chapelle%NULL%2,                          Alexandra%Ducancelle%NULL%2,                          Rafael%Mahieu%NULL%2,                          Valérie%Rabier%NULL%2,                          Sami%Rehaiem%NULL%2,                          Yves%Vandamme%NULL%2,                          Charlotte%Biron%NULL%2,                          Jeanne%Brochon%NULL%2,                          David%Boutoille%NULL%0,                          Marie%Chauveau%NULL%2,                          Colin%Deschanvres%NULL%2,                          Benjamin J%Gaborit%NULL%2,                          Joël%Jenvrin%NULL%2,                          Raphaël%Lecomte%NULL%2,                          Maeva%Lefebvre%NULL%2,                          François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                           Louis%Valiquette%null%1,                           Cynthia%Grenier%null%1,                           Jean Berchmans%Musonera%null%1,                           Delphin%Nkengurutse%null%1,                           Anaïs%Marcil-Héguy%null%1,                           Kim%Vettese%null%1,                           Dominique%Marcoux%null%1,                           Corinne%Valiquette%null%1,                           Wei Ting%Xiong%null%1,                           Pierre-Hughes%Fortier%null%1,                           Mélissa%Généreux%null%1,                           Jacques%Pépin%null%1,                         Alex%Carignan%null%1,                         Louis%Valiquette%null%1,                         Cynthia%Grenier%null%1,                         Jean Berchmans%Musonera%null%1,                         Delphin%Nkengurutse%null%1,                         Anaïs%Marcil-Héguy%null%1,                         Kim%Vettese%null%1,                         Dominique%Marcoux%null%1,                         Corinne%Valiquette%null%1,                         Wei Ting%Xiong%null%1,                         Pierre-Hughes%Fortier%null%1,                         Mélissa%Généreux%null%1,                         Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                          Hülya%Çaşkurlu%NULL%2,                          Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                          Florent%Carsuzaa%NULL%1,                          Jean-Paul%Trijolet%NULL%2,                          Jean-Paul%Trijolet%NULL%0,                          Anne-Laure%Capitaine%NULL%1,                          Mariam%Roncato-Saberan%NULL%1,                          Kevin%Fouet%NULL%1,                          France%Cazenave-Roblot%NULL%0,                          Mélanie%Catroux%NULL%1,                          Caroline%Allix-Beguec%NULL%1,                          Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                         Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                         Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                          Paola%Varese%NULL%2,                          Paola%Varese%NULL%0,                          Chiara%Dentone%NULL%1,                          Emanuela%Barisione%NULL%1,                          Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                          Filippo%Farri%NULL%2,                          Filippo%Farri%NULL%0,                          Giacomo%Garzaro%NULL%1,                          Miriam%Gatto%NULL%1,                          Paolo%Aluffi Valletti%NULL%0,                          Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                          Eleonora%Trecca%NULL%1,                          Michele%Cassano%NULL%1,                          Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                          Laura%Pezzati%NULL%4,                          Laura%Pezzati%NULL%0,                          Federico%Conti%NULL%2,                          Dario%Bernacchia%NULL%0,                          Matteo%Siano%NULL%0,                          Letizia%Oreni%NULL%0,                          Stefano%Rusconi%NULL%0,                          Cristina%Gervasoni%NULL%2,                          Anna Lisa%Ridolfo%NULL%0,                          Giuliano%Rizzardini%NULL%0,                          Spinello%Antinori%NULL%0,                          Massimo%Galli%NULL%0,                          Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                          M.-J.%Kim%NULL%1,                          S.H.%Ra%NULL%1,                          J.%Lee%NULL%1,                          S.%Bae%NULL%1,                          J.%Jung%NULL%1,                          S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                          N.J.%Kadiane-Oussou%NULL%2,                          L.%Toko%NULL%2,                          P.-Y.%Royer%NULL%2,                          Q.%Lepiller%NULL%2,                          V.%Gendrin%NULL%2,                          S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                          Anton G. M.%Buiting%NULL%1,                          Suzan D.%Pas%NULL%1,                          Robbert G.%Bentvelsen%NULL%1,                          Wouter%van den Bijllaardt%NULL%1,                          Anne J. G.%van Oudheusden%NULL%1,                          Miranda M. L.%van Rijen%NULL%1,                          Jaco J.%Verweij%NULL%1,                          Marion P. G.%Koopmans%NULL%1,                          Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                          Elodie%Schneider%NULL%1,                          Isabelle%Vianu%NULL%1,                          Guillaume%Dollet%NULL%1,                          Bastien%Roche%NULL%1,                          Julia%Berdah%NULL%1,                          Julie%Michel%NULL%1,                          Laurent%Goix%NULL%1,                          Erick%Chanzy%NULL%1,                          Tomislav%Petrovic%NULL%1,                          Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                          Carlos M.%Chiesa-Estomba%NULL%2,                          Daniele R.%De Siati%NULL%2,                          Mihaela%Horoi%NULL%2,                          Serge D.%Le Bon%NULL%2,                          Alexandra%Rodriguez%NULL%2,                          Didier%Dequanter%NULL%2,                          Serge%Blecic%NULL%2,                          Fahd%El Afia%NULL%2,                          Lea%Distinguin%NULL%2,                          Younes%Chekkoury-Idrissi%NULL%2,                          Stéphane%Hans%NULL%2,                          Irene Lopez%Delgado%NULL%2,                          Christian%Calvo-Henriquez%NULL%2,                          Philippe%Lavigne%NULL%2,                          Chiara%Falanga%NULL%2,                          Maria Rosaria%Barillari%NULL%2,                          Giovanni%Cammaroto%NULL%2,                          Mohamad%Khalife%NULL%2,                          Pierre%Leich%NULL%2,                          Christel%Souchay%NULL%2,                          Camelia%Rossi%NULL%2,                          Fabrice%Journe%NULL%2,                          Julien%Hsieh%NULL%2,                          Myriam%Edjlali%NULL%2,                          Robert%Carlier%NULL%2,                          Laurence%Ris%NULL%2,                          Andrea%Lovato%NULL%2,                          Cosimo%De Filippis%NULL%2,                          Frederique%Coppee%NULL%2,                          Nicolas%Fakhry%NULL%2,                          Tareck%Ayad%NULL%2,                          Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                          Joel%Lockwood%NULL%2,                          Joel%Lockwood%NULL%0,                          Paul%Das%NULL%1,                          Ri%Wang%NULL%1,                          Eitan%Grinspun%NULL%1,                          John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                          Pokkee%Min%NULL%2,                          Pokkee%Min%NULL%0,                          Seonggu%Lee%NULL%2,                          Seonggu%Lee%NULL%0,                          Shin-Woo%Kim%NULL%0,                          Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                          Mariangela%Pierantozzi%NULL%1,                          Matteo%Spanetta%NULL%1,                          Loredana%Sarmati%NULL%1,                          Novella%Cesta%NULL%1,                          Marco%Iannetta%NULL%1,                          Josuel%Ora%NULL%1,                          Grazia Genga%Mina%NULL%1,                          Ermanno%Puxeddu%NULL%1,                          Ottavia%Balbi%NULL%1,                          Gabriella%Pezzuto%NULL%1,                          Andrea%Magrini%NULL%1,                          Paola%Rogliani%NULL%1,                          Massimo%Andreoni%NULL%1,                          Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                          Juan%Amaro Sánchez%NULL%2,                          Juan%Amaro Sánchez%NULL%0,                          Antonio Francisco%López‐Sánchez%NULL%1,                          Enric%Jané‐Salas%NULL%1,                          Maria Luisa%Somacarrera Pérez%NULL%2,                          Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                          Lorenzo Roberto%Suardi%NULL%2,                          Lorenzo Roberto%Suardi%NULL%0,                          Michele%Busoni%NULL%1,                          Anna Teresa%Roberts%NULL%1,                          Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                          Azad A.%Haleem Al Mezori%NULL%1,                          Hakar Mustafa%Mohammed%NULL%1,                          Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                          Jin Gu%Yoon%NULL%3,                          Hye%Seong%NULL%3,                          Won Suk%Choi%NULL%1,                          Jang Wook%Sohn%NULL%1,                          Hee Jin%Cheong%NULL%4,                          Woo Joo%Kim%NULL%4,                          Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                          Alberto%Schreiber%NULL%1,                          Alberto%Grammatica%albertogrammatica@libero.it%1,                          Elena%Raffetti%NULL%2,                          Elena%Raffetti%NULL%0,                          Michele%Tomasoni%NULL%1,                          Tommaso%Gualtieri%NULL%1,                          Stefano%Taboni%NULL%1,                          Silvia%Zorzi%NULL%1,                          Davide%Lombardi%NULL%1,                          Alberto%Deganello%NULL%1,                          Luca Oscar%Redaelli De Zinis%NULL%1,                          Roberto%Maroldi%NULL%1,                          Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                          E.%Charani%NULL%1,                          D.%Ariyanayagam%NULL%1,                          A.%Abdulaal%NULL%1,                          S.J.%Denny%NULL%1,                          N.%Mughal%NULL%1,                          L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                          Suko%Adiarto%NULL%1,                          Santi Rahayu%Dewayanti%NULL%1,                          Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                          Kadriye Kart%Yaşar%NULL%1,                          Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                          Rejane Andrade%de Carvalho%NULL%1,                          Kalline Andrade%de Carvalho%NULL%1,                          Maria Goretti Freire%de Carvalho%NULL%1,                          Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                          Thirza%Singer-Cornelius%NULL%1,                          Michael%Oberle%NULL%1,                          Isabelle%Gengler%NULL%1,                          Steffi J.%Brockmeier%NULL%1,                          Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                          Andreas%Habertheuer%NULL%2,                          Andreas%Habertheuer%NULL%0,                          Asad A.%Usman%NULL%2,                          Asad A.%Usman%NULL%0,                          Arman%Kilic%NULL%1,                          Eric%Gnall%NULL%2,                          Eric%Gnall%NULL%0,                          Michael E.%Friscia%NULL%1,                          Dmitriy%Zubkus%NULL%1,                          Hitoshi%Hirose%NULL%2,                          Pablo%Sanchez%NULL%1,                          Olugbenga%Okusanya%NULL%1,                          Wilson Y.%Szeto%NULL%1,                          Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                          Claire%Hopkins%NULL%2,                          Claire%Hopkins%NULL%0,                          Giovanni%Salzano%NULL%2,                          Marzia%Petrocelli%NULL%2,                          Andrea%Melis%NULL%1,                          Marco%Cucurullo%NULL%1,                          Mario%Ferrari%NULL%1,                          Laura%Gagliardini%NULL%1,                          Carlotta%Pipolo%NULL%1,                          Giovanna%Deiana%NULL%3,                          Vito%Fiore%NULL%1,                          Andrea%De Vito%NULL%0,                          Nicola%Turra%NULL%1,                          Sara%Canu%NULL%1,                          Angelantonio%Maglio%NULL%1,                          Antonello%Serra%NULL%3,                          Antonello%Serra%NULL%0,                          Francesco%Bussu%NULL%2,                          Giordano%Madeddu%NULL%0,                          Sergio%Babudieri%NULL%0,                          Alessandro%Giuseppe Fois%NULL%1,                          Pietro%Pirina%NULL%0,                          Francesco A.%Salzano%NULL%1,                          Pierluigi%De Riu%NULL%1,                          Federico%Biglioli%NULL%1,                          Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                          Farhoud%Faraji%NULL%6,                          Farhoud%Faraji%NULL%0,                          Divya P.%Prajapati%NULL%4,                          Benjamin T.%Ostrander%NULL%2,                          Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                          Timothee%Klopfenstein%NULL%1,                          Julien%Mercier%NULL%1,                          N’dri Juliette%Kadiane-Oussou%NULL%1,                          Ludovic%Lan Cheong Wah%NULL%1,                          Pierre-Yves%Royer%NULL%1,                          Lynda%Toko%NULL%1,                          Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                          Aggarwal%Saurabh%coreGivesNoEmail%0,                          Garcia-Telles%Nelson%coreGivesNoEmail%0,                          Henry%Brandon Michael%coreGivesNoEmail%0,                          Lavie%Carl%coreGivesNoEmail%0,                          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                           Ana Gabriela Costa%Normando%NULL%1,                           Rainier Luiz%Carvalho da Silva%NULL%1,                           Renata Monteiro%De Paula%NULL%1,                           Allan Christian%Cembranel%NULL%1,                           Alan Roger%Santos-Silva%NULL%1,                           Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                           J. L.%Chico‐García%NULL%4,                           J. L.%Chico‐García%NULL%0,                           J.%Martínez‐Poles%NULL%2,                           F.%Rodríguez‐Jorge%NULL%2,                           E.%Natera‐Villalba%NULL%2,                           J.%Gómez‐Corral%NULL%4,                           J.%Gómez‐Corral%NULL%0,                           A.%Gómez‐López%NULL%2,                           E.%Monreal%NULL%2,                           P.%Parra‐Díaz%NULL%2,                           J. L.%Cortés‐Cuevas%NULL%4,                           J. L.%Cortés‐Cuevas%NULL%0,                           J. C.%Galán%NULL%2,                           C.%Fragola‐Arnau%NULL%2,                           J.%Porta‐Etessam%NULL%2,                           J.%Masjuan%NULL%2,                           A.%Alonso‐Cánovas%NULL%4,                           A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                           Paul%Le Turnier%NULL%2,                           Charles%Declerck%NULL%2,                           Cécile%Paillé%NULL%2,                           Matthieu%Revest%NULL%2,                           Vincent%Dubée%NULL%2,                           Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                           Cédric%Arvieux%NULL%2,                           Marion%Baldeyrou%NULL%2,                           Jean-Marc%Chapplain%NULL%2,                           Pauline%Comacle%NULL%2,                           Solène%Patrat-Delon%NULL%2,                           Anne%Maillard%NULL%2,                           Mélanie%Poinot%NULL%2,                           Charlotte%Pronier%NULL%2,                           Faouzi%Souala%NULL%2,                           Vincent%Thibault%NULL%2,                           Pierre%Abgueguen%NULL%2,                           Hélène%Cormier%NULL%2,                           Valérie%Delbos%NULL%2,                           Marine%de la Chapelle%NULL%2,                           Alexandra%Ducancelle%NULL%2,                           Rafael%Mahieu%NULL%2,                           Valérie%Rabier%NULL%2,                           Sami%Rehaiem%NULL%2,                           Yves%Vandamme%NULL%2,                           Charlotte%Biron%NULL%2,                           Jeanne%Brochon%NULL%2,                           David%Boutoille%NULL%0,                           Marie%Chauveau%NULL%2,                           Colin%Deschanvres%NULL%2,                           Benjamin J%Gaborit%NULL%2,                           Joël%Jenvrin%NULL%2,                           Raphaël%Lecomte%NULL%2,                           Maeva%Lefebvre%NULL%2,                           François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Alex%Carignan%null%1,                            Louis%Valiquette%null%1,                            Cynthia%Grenier%null%1,                            Jean Berchmans%Musonera%null%1,                            Delphin%Nkengurutse%null%1,                            Anaïs%Marcil-Héguy%null%1,                            Kim%Vettese%null%1,                            Dominique%Marcoux%null%1,                            Corinne%Valiquette%null%1,                            Wei Ting%Xiong%null%1,                            Pierre-Hughes%Fortier%null%1,                            Mélissa%Généreux%null%1,                            Jacques%Pépin%null%1,                          Alex%Carignan%null%1,                          Louis%Valiquette%null%1,                          Cynthia%Grenier%null%1,                          Jean Berchmans%Musonera%null%1,                          Delphin%Nkengurutse%null%1,                          Anaïs%Marcil-Héguy%null%1,                          Kim%Vettese%null%1,                          Dominique%Marcoux%null%1,                          Corinne%Valiquette%null%1,                          Wei Ting%Xiong%null%1,                          Pierre-Hughes%Fortier%null%1,                          Mélissa%Généreux%null%1,                          Jacques%Pépin%null%1]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                           Hülya%Çaşkurlu%NULL%2,                           Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                           Florent%Carsuzaa%NULL%1,                           Jean-Paul%Trijolet%NULL%2,                           Jean-Paul%Trijolet%NULL%0,                           Anne-Laure%Capitaine%NULL%1,                           Mariam%Roncato-Saberan%NULL%1,                           Kevin%Fouet%NULL%1,                           France%Cazenave-Roblot%NULL%0,                           Mélanie%Catroux%NULL%1,                           Caroline%Allix-Beguec%NULL%1,                           Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aline%Desoutter%coreGivesNoEmail%1,                          Anne-Ga\u00eblle%Chaux-Bodard%coreGivesNoEmail%1,                          Sophie%Deneuve%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                           Paola%Varese%NULL%2,                           Paola%Varese%NULL%0,                           Chiara%Dentone%NULL%1,                           Emanuela%Barisione%NULL%1,                           Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                           Filippo%Farri%NULL%2,                           Filippo%Farri%NULL%0,                           Giacomo%Garzaro%NULL%1,                           Miriam%Gatto%NULL%1,                           Paolo%Aluffi Valletti%NULL%0,                           Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                           Eleonora%Trecca%NULL%1,                           Michele%Cassano%NULL%1,                           Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                           Laura%Pezzati%NULL%4,                           Laura%Pezzati%NULL%0,                           Federico%Conti%NULL%2,                           Dario%Bernacchia%NULL%0,                           Matteo%Siano%NULL%0,                           Letizia%Oreni%NULL%0,                           Stefano%Rusconi%NULL%0,                           Cristina%Gervasoni%NULL%2,                           Anna Lisa%Ridolfo%NULL%0,                           Giuliano%Rizzardini%NULL%0,                           Spinello%Antinori%NULL%0,                           Massimo%Galli%NULL%0,                           Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                           M.-J.%Kim%NULL%1,                           S.H.%Ra%NULL%1,                           J.%Lee%NULL%1,                           S.%Bae%NULL%1,                           J.%Jung%NULL%1,                           S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                           N.J.%Kadiane-Oussou%NULL%2,                           L.%Toko%NULL%2,                           P.-Y.%Royer%NULL%2,                           Q.%Lepiller%NULL%2,                           V.%Gendrin%NULL%2,                           S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                           Anton G. M.%Buiting%NULL%1,                           Suzan D.%Pas%NULL%1,                           Robbert G.%Bentvelsen%NULL%1,                           Wouter%van den Bijllaardt%NULL%1,                           Anne J. G.%van Oudheusden%NULL%1,                           Miranda M. L.%van Rijen%NULL%1,                           Jaco J.%Verweij%NULL%1,                           Marion P. G.%Koopmans%NULL%1,                           Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                           Elodie%Schneider%NULL%1,                           Isabelle%Vianu%NULL%1,                           Guillaume%Dollet%NULL%1,                           Bastien%Roche%NULL%1,                           Julia%Berdah%NULL%1,                           Julie%Michel%NULL%1,                           Laurent%Goix%NULL%1,                           Erick%Chanzy%NULL%1,                           Tomislav%Petrovic%NULL%1,                           Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                           Carlos M.%Chiesa-Estomba%NULL%2,                           Daniele R.%De Siati%NULL%2,                           Mihaela%Horoi%NULL%2,                           Serge D.%Le Bon%NULL%2,                           Alexandra%Rodriguez%NULL%2,                           Didier%Dequanter%NULL%2,                           Serge%Blecic%NULL%2,                           Fahd%El Afia%NULL%2,                           Lea%Distinguin%NULL%2,                           Younes%Chekkoury-Idrissi%NULL%2,                           Stéphane%Hans%NULL%2,                           Irene Lopez%Delgado%NULL%2,                           Christian%Calvo-Henriquez%NULL%2,                           Philippe%Lavigne%NULL%2,                           Chiara%Falanga%NULL%2,                           Maria Rosaria%Barillari%NULL%2,                           Giovanni%Cammaroto%NULL%2,                           Mohamad%Khalife%NULL%2,                           Pierre%Leich%NULL%2,                           Christel%Souchay%NULL%2,                           Camelia%Rossi%NULL%2,                           Fabrice%Journe%NULL%2,                           Julien%Hsieh%NULL%2,                           Myriam%Edjlali%NULL%2,                           Robert%Carlier%NULL%2,                           Laurence%Ris%NULL%2,                           Andrea%Lovato%NULL%2,                           Cosimo%De Filippis%NULL%2,                           Frederique%Coppee%NULL%2,                           Nicolas%Fakhry%NULL%2,                           Tareck%Ayad%NULL%2,                           Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                           Joel%Lockwood%NULL%2,                           Joel%Lockwood%NULL%0,                           Paul%Das%NULL%1,                           Ri%Wang%NULL%1,                           Eitan%Grinspun%NULL%1,                           John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                           Pokkee%Min%NULL%2,                           Pokkee%Min%NULL%0,                           Seonggu%Lee%NULL%2,                           Seonggu%Lee%NULL%0,                           Shin-Woo%Kim%NULL%0,                           Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                           Mariangela%Pierantozzi%NULL%1,                           Matteo%Spanetta%NULL%1,                           Loredana%Sarmati%NULL%1,                           Novella%Cesta%NULL%1,                           Marco%Iannetta%NULL%1,                           Josuel%Ora%NULL%1,                           Grazia Genga%Mina%NULL%1,                           Ermanno%Puxeddu%NULL%1,                           Ottavia%Balbi%NULL%1,                           Gabriella%Pezzuto%NULL%1,                           Andrea%Magrini%NULL%1,                           Paola%Rogliani%NULL%1,                           Massimo%Andreoni%NULL%1,                           Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                           Juan%Amaro Sánchez%NULL%2,                           Juan%Amaro Sánchez%NULL%0,                           Antonio Francisco%López‐Sánchez%NULL%1,                           Enric%Jané‐Salas%NULL%1,                           Maria Luisa%Somacarrera Pérez%NULL%2,                           Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                           Lorenzo Roberto%Suardi%NULL%2,                           Lorenzo Roberto%Suardi%NULL%0,                           Michele%Busoni%NULL%1,                           Anna Teresa%Roberts%NULL%1,                           Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                           Azad A.%Haleem Al Mezori%NULL%1,                           Hakar Mustafa%Mohammed%NULL%1,                           Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                           Jin Gu%Yoon%NULL%3,                           Hye%Seong%NULL%3,                           Won Suk%Choi%NULL%1,                           Jang Wook%Sohn%NULL%1,                           Hee Jin%Cheong%NULL%4,                           Woo Joo%Kim%NULL%4,                           Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                           Alberto%Schreiber%NULL%1,                           Alberto%Grammatica%albertogrammatica@libero.it%1,                           Elena%Raffetti%NULL%2,                           Elena%Raffetti%NULL%0,                           Michele%Tomasoni%NULL%1,                           Tommaso%Gualtieri%NULL%1,                           Stefano%Taboni%NULL%1,                           Silvia%Zorzi%NULL%1,                           Davide%Lombardi%NULL%1,                           Alberto%Deganello%NULL%1,                           Luca Oscar%Redaelli De Zinis%NULL%1,                           Roberto%Maroldi%NULL%1,                           Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                           E.%Charani%NULL%1,                           D.%Ariyanayagam%NULL%1,                           A.%Abdulaal%NULL%1,                           S.J.%Denny%NULL%1,                           N.%Mughal%NULL%1,                           L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                           Suko%Adiarto%NULL%1,                           Santi Rahayu%Dewayanti%NULL%1,                           Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                           Kadriye Kart%Yaşar%NULL%1,                           Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                           Rejane Andrade%de Carvalho%NULL%1,                           Kalline Andrade%de Carvalho%NULL%1,                           Maria Goretti Freire%de Carvalho%NULL%1,                           Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                           Thirza%Singer-Cornelius%NULL%1,                           Michael%Oberle%NULL%1,                           Isabelle%Gengler%NULL%1,                           Steffi J.%Brockmeier%NULL%1,                           Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                           Andreas%Habertheuer%NULL%2,                           Andreas%Habertheuer%NULL%0,                           Asad A.%Usman%NULL%2,                           Asad A.%Usman%NULL%0,                           Arman%Kilic%NULL%1,                           Eric%Gnall%NULL%2,                           Eric%Gnall%NULL%0,                           Michael E.%Friscia%NULL%1,                           Dmitriy%Zubkus%NULL%1,                           Hitoshi%Hirose%NULL%2,                           Pablo%Sanchez%NULL%1,                           Olugbenga%Okusanya%NULL%1,                           Wilson Y.%Szeto%NULL%1,                           Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                           Claire%Hopkins%NULL%2,                           Claire%Hopkins%NULL%0,                           Giovanni%Salzano%NULL%2,                           Marzia%Petrocelli%NULL%2,                           Andrea%Melis%NULL%1,                           Marco%Cucurullo%NULL%1,                           Mario%Ferrari%NULL%1,                           Laura%Gagliardini%NULL%1,                           Carlotta%Pipolo%NULL%1,                           Giovanna%Deiana%NULL%3,                           Vito%Fiore%NULL%1,                           Andrea%De Vito%NULL%0,                           Nicola%Turra%NULL%1,                           Sara%Canu%NULL%1,                           Angelantonio%Maglio%NULL%1,                           Antonello%Serra%NULL%3,                           Antonello%Serra%NULL%0,                           Francesco%Bussu%NULL%2,                           Giordano%Madeddu%NULL%0,                           Sergio%Babudieri%NULL%0,                           Alessandro%Giuseppe Fois%NULL%1,                           Pietro%Pirina%NULL%0,                           Francesco A.%Salzano%NULL%1,                           Pierluigi%De Riu%NULL%1,                           Federico%Biglioli%NULL%1,                           Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                           Farhoud%Faraji%NULL%6,                           Farhoud%Faraji%NULL%0,                           Divya P.%Prajapati%NULL%4,                           Benjamin T.%Ostrander%NULL%2,                           Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                           Timothee%Klopfenstein%NULL%1,                           Julien%Mercier%NULL%1,                           N’dri Juliette%Kadiane-Oussou%NULL%1,                           Ludovic%Lan Cheong Wah%NULL%1,                           Pierre-Yves%Royer%NULL%1,                           Lynda%Toko%NULL%1,                           Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4122,7 +4326,7 @@
         <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>1091</v>
+        <v>1159</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4154,7 +4358,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>1092</v>
+        <v>1160</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -4186,7 +4390,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -4218,7 +4422,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>1093</v>
+        <v>1161</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -4250,7 +4454,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>1094</v>
+        <v>1162</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -4282,7 +4486,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>1095</v>
+        <v>1163</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -4314,7 +4518,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>1096</v>
+        <v>1164</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4346,7 +4550,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>1097</v>
+        <v>1165</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4378,7 +4582,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>1098</v>
+        <v>1166</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4410,7 +4614,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>1099</v>
+        <v>1167</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -4442,7 +4646,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>1100</v>
+        <v>1168</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -4474,7 +4678,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>1101</v>
+        <v>1169</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -4506,7 +4710,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>1102</v>
+        <v>1170</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -4538,7 +4742,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>1103</v>
+        <v>1171</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -4570,7 +4774,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>1104</v>
+        <v>1172</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -4602,7 +4806,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>1105</v>
+        <v>1173</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -4634,7 +4838,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>1106</v>
+        <v>1174</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -4666,7 +4870,7 @@
         <v>603</v>
       </c>
       <c r="E19" t="s">
-        <v>1107</v>
+        <v>1175</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4698,7 +4902,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1108</v>
+        <v>1176</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4730,7 +4934,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1109</v>
+        <v>1177</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4762,7 +4966,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4794,7 +4998,7 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>1110</v>
+        <v>1178</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -4826,7 +5030,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -4858,7 +5062,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>1111</v>
+        <v>1179</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -4890,7 +5094,7 @@
         <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>1112</v>
+        <v>1180</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -4954,7 +5158,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>1113</v>
+        <v>1181</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -4986,7 +5190,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>1114</v>
+        <v>1182</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -5018,7 +5222,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>1115</v>
+        <v>1183</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -5050,7 +5254,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>1116</v>
+        <v>1184</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5082,7 +5286,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1117</v>
+        <v>1185</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5114,7 +5318,7 @@
         <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -5146,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>1118</v>
+        <v>1186</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5178,7 +5382,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -5210,7 +5414,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>1119</v>
+        <v>1187</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -5242,7 +5446,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>1120</v>
+        <v>1188</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -5274,7 +5478,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>1121</v>
+        <v>1189</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -5306,7 +5510,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>1122</v>
+        <v>1190</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -5338,7 +5542,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>1123</v>
+        <v>1191</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -5370,7 +5574,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>1124</v>
+        <v>1192</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>
